--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31663500</v>
+        <v>31870100</v>
       </c>
       <c r="E8" s="3">
-        <v>25292500</v>
+        <v>30164300</v>
       </c>
       <c r="F8" s="3">
-        <v>18267400</v>
+        <v>24095000</v>
       </c>
       <c r="G8" s="3">
-        <v>16941000</v>
+        <v>17402500</v>
       </c>
       <c r="H8" s="3">
-        <v>18061800</v>
+        <v>16138900</v>
       </c>
       <c r="I8" s="3">
-        <v>19728300</v>
+        <v>17206700</v>
       </c>
       <c r="J8" s="3">
+        <v>18794200</v>
+      </c>
+      <c r="K8" s="3">
         <v>19637800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20277200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5882300</v>
+        <v>5464600</v>
       </c>
       <c r="E9" s="3">
-        <v>6506700</v>
+        <v>5603800</v>
       </c>
       <c r="F9" s="3">
-        <v>4826100</v>
+        <v>6198600</v>
       </c>
       <c r="G9" s="3">
-        <v>3921100</v>
+        <v>4597600</v>
       </c>
       <c r="H9" s="3">
-        <v>3917200</v>
+        <v>3735400</v>
       </c>
       <c r="I9" s="3">
-        <v>4192600</v>
+        <v>3731700</v>
       </c>
       <c r="J9" s="3">
+        <v>3994100</v>
+      </c>
+      <c r="K9" s="3">
         <v>4281800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4511300</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25781200</v>
+        <v>26405500</v>
       </c>
       <c r="E10" s="3">
-        <v>18785800</v>
+        <v>24560600</v>
       </c>
       <c r="F10" s="3">
-        <v>13441300</v>
+        <v>17896400</v>
       </c>
       <c r="G10" s="3">
-        <v>13019900</v>
+        <v>12804900</v>
       </c>
       <c r="H10" s="3">
-        <v>14144600</v>
+        <v>12403400</v>
       </c>
       <c r="I10" s="3">
-        <v>15535700</v>
+        <v>13474900</v>
       </c>
       <c r="J10" s="3">
+        <v>14800100</v>
+      </c>
+      <c r="K10" s="3">
         <v>15356000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15765900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>135700</v>
+        <v>155200</v>
       </c>
       <c r="E12" s="3">
-        <v>103400</v>
+        <v>129300</v>
       </c>
       <c r="F12" s="3">
-        <v>68500</v>
+        <v>98500</v>
       </c>
       <c r="G12" s="3">
-        <v>77600</v>
+        <v>65300</v>
       </c>
       <c r="H12" s="3">
-        <v>95700</v>
+        <v>73900</v>
       </c>
       <c r="I12" s="3">
-        <v>117600</v>
-      </c>
-      <c r="J12" s="3" t="s">
+        <v>91100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>112100</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>106700</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,69 +888,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>415000</v>
+        <v>938500</v>
       </c>
       <c r="E14" s="3">
-        <v>-29133500</v>
+        <v>395300</v>
       </c>
       <c r="F14" s="3">
-        <v>910100</v>
+        <v>-27754100</v>
       </c>
       <c r="G14" s="3">
-        <v>606300</v>
+        <v>867000</v>
       </c>
       <c r="H14" s="3">
-        <v>1067900</v>
+        <v>577600</v>
       </c>
       <c r="I14" s="3">
-        <v>347800</v>
+        <v>1017300</v>
       </c>
       <c r="J14" s="3">
+        <v>331300</v>
+      </c>
+      <c r="K14" s="3">
         <v>46500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>686000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1279900</v>
+        <v>1545700</v>
       </c>
       <c r="E15" s="3">
-        <v>1056200</v>
+        <v>1219300</v>
       </c>
       <c r="F15" s="3">
-        <v>1402700</v>
+        <v>1006200</v>
       </c>
       <c r="G15" s="3">
-        <v>522300</v>
+        <v>1336300</v>
       </c>
       <c r="H15" s="3">
-        <v>621800</v>
+        <v>497600</v>
       </c>
       <c r="I15" s="3">
-        <v>572700</v>
+        <v>592400</v>
       </c>
       <c r="J15" s="3">
+        <v>545600</v>
+      </c>
+      <c r="K15" s="3">
         <v>764100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>679500</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19565400</v>
+        <v>20766000</v>
       </c>
       <c r="E17" s="3">
-        <v>-12906100</v>
+        <v>18639000</v>
       </c>
       <c r="F17" s="3">
-        <v>12379900</v>
+        <v>-12295100</v>
       </c>
       <c r="G17" s="3">
-        <v>11184100</v>
+        <v>11793800</v>
       </c>
       <c r="H17" s="3">
-        <v>12179600</v>
+        <v>10654600</v>
       </c>
       <c r="I17" s="3">
-        <v>12584200</v>
+        <v>11602900</v>
       </c>
       <c r="J17" s="3">
+        <v>11988400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12692800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14060700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12098100</v>
+        <v>11104100</v>
       </c>
       <c r="E18" s="3">
-        <v>38198700</v>
+        <v>11525300</v>
       </c>
       <c r="F18" s="3">
-        <v>5887500</v>
+        <v>36390100</v>
       </c>
       <c r="G18" s="3">
-        <v>5756900</v>
+        <v>5608700</v>
       </c>
       <c r="H18" s="3">
-        <v>5882300</v>
+        <v>5484300</v>
       </c>
       <c r="I18" s="3">
-        <v>7144100</v>
+        <v>5603800</v>
       </c>
       <c r="J18" s="3">
+        <v>6805800</v>
+      </c>
+      <c r="K18" s="3">
         <v>6945000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6216600</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>757600</v>
+        <v>743900</v>
       </c>
       <c r="E20" s="3">
-        <v>1371700</v>
+        <v>721700</v>
       </c>
       <c r="F20" s="3">
-        <v>3020000</v>
+        <v>1306700</v>
       </c>
       <c r="G20" s="3">
-        <v>2563600</v>
+        <v>2877000</v>
       </c>
       <c r="H20" s="3">
-        <v>1145400</v>
+        <v>2442300</v>
       </c>
       <c r="I20" s="3">
-        <v>1146700</v>
+        <v>1091200</v>
       </c>
       <c r="J20" s="3">
+        <v>1092400</v>
+      </c>
+      <c r="K20" s="3">
         <v>1782800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1023100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14142700</v>
+        <v>13623000</v>
       </c>
       <c r="E21" s="3">
-        <v>40632400</v>
+        <v>13459800</v>
       </c>
       <c r="F21" s="3">
-        <v>9696600</v>
+        <v>38697600</v>
       </c>
       <c r="G21" s="3">
-        <v>8876900</v>
+        <v>9229300</v>
       </c>
       <c r="H21" s="3">
-        <v>7707600</v>
+        <v>8450900</v>
       </c>
       <c r="I21" s="3">
-        <v>8910900</v>
+        <v>7335600</v>
       </c>
       <c r="J21" s="3">
+        <v>8482600</v>
+      </c>
+      <c r="K21" s="3">
         <v>9345300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8311500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2059400</v>
+        <v>2103600</v>
       </c>
       <c r="E22" s="3">
-        <v>1397500</v>
+        <v>1961900</v>
       </c>
       <c r="F22" s="3">
-        <v>833900</v>
+        <v>1331400</v>
       </c>
       <c r="G22" s="3">
-        <v>751100</v>
+        <v>794400</v>
       </c>
       <c r="H22" s="3">
-        <v>760200</v>
+        <v>715600</v>
       </c>
       <c r="I22" s="3">
-        <v>793800</v>
+        <v>724200</v>
       </c>
       <c r="J22" s="3">
+        <v>756200</v>
+      </c>
+      <c r="K22" s="3">
         <v>1498400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>746600</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10796300</v>
+        <v>9744400</v>
       </c>
       <c r="E23" s="3">
-        <v>38172800</v>
+        <v>10285100</v>
       </c>
       <c r="F23" s="3">
-        <v>8073600</v>
+        <v>36365500</v>
       </c>
       <c r="G23" s="3">
-        <v>7569400</v>
+        <v>7691300</v>
       </c>
       <c r="H23" s="3">
-        <v>6267500</v>
+        <v>7211000</v>
       </c>
       <c r="I23" s="3">
-        <v>7497000</v>
+        <v>5970800</v>
       </c>
       <c r="J23" s="3">
+        <v>7142000</v>
+      </c>
+      <c r="K23" s="3">
         <v>7229400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6493100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2858400</v>
+        <v>2598700</v>
       </c>
       <c r="E24" s="3">
-        <v>1883600</v>
+        <v>2723100</v>
       </c>
       <c r="F24" s="3">
-        <v>1817700</v>
+        <v>1794400</v>
       </c>
       <c r="G24" s="3">
-        <v>1723300</v>
+        <v>1731600</v>
       </c>
       <c r="H24" s="3">
-        <v>1881000</v>
+        <v>1641700</v>
       </c>
       <c r="I24" s="3">
-        <v>2068500</v>
+        <v>1792000</v>
       </c>
       <c r="J24" s="3">
+        <v>1970600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1959900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2048900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7937900</v>
+        <v>7145700</v>
       </c>
       <c r="E26" s="3">
-        <v>36289200</v>
+        <v>7562000</v>
       </c>
       <c r="F26" s="3">
-        <v>6255900</v>
+        <v>34571000</v>
       </c>
       <c r="G26" s="3">
-        <v>5846100</v>
+        <v>5959700</v>
       </c>
       <c r="H26" s="3">
-        <v>4386500</v>
+        <v>5569300</v>
       </c>
       <c r="I26" s="3">
-        <v>5428500</v>
+        <v>4178800</v>
       </c>
       <c r="J26" s="3">
+        <v>5171500</v>
+      </c>
+      <c r="K26" s="3">
         <v>5269500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4444200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7707700</v>
+        <v>6967200</v>
       </c>
       <c r="E27" s="3">
-        <v>36068100</v>
+        <v>7342800</v>
       </c>
       <c r="F27" s="3">
-        <v>6009000</v>
+        <v>34360400</v>
       </c>
       <c r="G27" s="3">
-        <v>5546200</v>
+        <v>5724500</v>
       </c>
       <c r="H27" s="3">
-        <v>4027100</v>
+        <v>5283600</v>
       </c>
       <c r="I27" s="3">
-        <v>5047100</v>
+        <v>3836400</v>
       </c>
       <c r="J27" s="3">
+        <v>4808200</v>
+      </c>
+      <c r="K27" s="3">
         <v>4908800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4075500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,23 +1344,26 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>90500</v>
+        <v>57900</v>
       </c>
       <c r="E29" s="3">
-        <v>12392900</v>
+        <v>86200</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>11806100</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-757600</v>
+        <v>-743900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1371700</v>
+        <v>-721700</v>
       </c>
       <c r="F32" s="3">
-        <v>-3020000</v>
+        <v>-1306700</v>
       </c>
       <c r="G32" s="3">
-        <v>-2563600</v>
+        <v>-2877000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1145400</v>
+        <v>-2442300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1146700</v>
+        <v>-1091200</v>
       </c>
       <c r="J32" s="3">
+        <v>-1092400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1782800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1023100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7798200</v>
+        <v>7025000</v>
       </c>
       <c r="E33" s="3">
-        <v>48461000</v>
+        <v>7429000</v>
       </c>
       <c r="F33" s="3">
-        <v>6009000</v>
+        <v>46166500</v>
       </c>
       <c r="G33" s="3">
-        <v>5546200</v>
+        <v>5724500</v>
       </c>
       <c r="H33" s="3">
-        <v>4027100</v>
+        <v>5283600</v>
       </c>
       <c r="I33" s="3">
-        <v>5047100</v>
+        <v>3836400</v>
       </c>
       <c r="J33" s="3">
+        <v>4808200</v>
+      </c>
+      <c r="K33" s="3">
         <v>4908800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4075500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7798200</v>
+        <v>7025000</v>
       </c>
       <c r="E35" s="3">
-        <v>48461000</v>
+        <v>7429000</v>
       </c>
       <c r="F35" s="3">
-        <v>6009000</v>
+        <v>46166500</v>
       </c>
       <c r="G35" s="3">
-        <v>5546200</v>
+        <v>5724500</v>
       </c>
       <c r="H35" s="3">
-        <v>4027100</v>
+        <v>5283600</v>
       </c>
       <c r="I35" s="3">
-        <v>5047100</v>
+        <v>3836400</v>
       </c>
       <c r="J35" s="3">
+        <v>4808200</v>
+      </c>
+      <c r="K35" s="3">
         <v>4908800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4075500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,278 +1646,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3363900</v>
+        <v>3118100</v>
       </c>
       <c r="E41" s="3">
-        <v>8509300</v>
+        <v>3211900</v>
       </c>
       <c r="F41" s="3">
-        <v>2849400</v>
+        <v>8124800</v>
       </c>
       <c r="G41" s="3">
-        <v>2537800</v>
+        <v>2720600</v>
       </c>
       <c r="H41" s="3">
-        <v>2350300</v>
+        <v>2423100</v>
       </c>
       <c r="I41" s="3">
-        <v>2722700</v>
+        <v>2244100</v>
       </c>
       <c r="J41" s="3">
+        <v>2599600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1263100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1277300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>230100</v>
+        <v>151800</v>
       </c>
       <c r="E42" s="3">
-        <v>84000</v>
+        <v>219700</v>
       </c>
       <c r="F42" s="3">
-        <v>19400</v>
+        <v>80200</v>
       </c>
       <c r="G42" s="3">
-        <v>45200</v>
+        <v>18500</v>
       </c>
       <c r="H42" s="3">
-        <v>64600</v>
+        <v>43200</v>
       </c>
       <c r="I42" s="3">
-        <v>69800</v>
+        <v>61700</v>
       </c>
       <c r="J42" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1460900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1686800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4734300</v>
+        <v>5203000</v>
       </c>
       <c r="E43" s="3">
-        <v>5834500</v>
+        <v>4520400</v>
       </c>
       <c r="F43" s="3">
-        <v>5110500</v>
+        <v>5570800</v>
       </c>
       <c r="G43" s="3">
-        <v>4318000</v>
+        <v>4879600</v>
       </c>
       <c r="H43" s="3">
-        <v>3652200</v>
+        <v>4122900</v>
       </c>
       <c r="I43" s="3">
-        <v>3840900</v>
+        <v>3487200</v>
       </c>
       <c r="J43" s="3">
+        <v>3667400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3650900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3357800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7794400</v>
+        <v>7522400</v>
       </c>
       <c r="E44" s="3">
-        <v>15162100</v>
+        <v>7442200</v>
       </c>
       <c r="F44" s="3">
-        <v>7489200</v>
+        <v>14477000</v>
       </c>
       <c r="G44" s="3">
-        <v>5490600</v>
+        <v>7150900</v>
       </c>
       <c r="H44" s="3">
-        <v>5343200</v>
+        <v>5242500</v>
       </c>
       <c r="I44" s="3">
-        <v>5225500</v>
+        <v>5101800</v>
       </c>
       <c r="J44" s="3">
+        <v>4989400</v>
+      </c>
+      <c r="K44" s="3">
         <v>5204900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4606100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>237900</v>
+        <v>390100</v>
       </c>
       <c r="E45" s="3">
-        <v>301200</v>
+        <v>227100</v>
       </c>
       <c r="F45" s="3">
-        <v>509400</v>
+        <v>287600</v>
       </c>
       <c r="G45" s="3">
+        <v>486400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>282700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>377700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>425900</v>
+      </c>
+      <c r="K45" s="3">
         <v>296100</v>
       </c>
-      <c r="H45" s="3">
-        <v>395600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>446000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>296100</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>258100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16360500</v>
+        <v>16385400</v>
       </c>
       <c r="E46" s="3">
-        <v>18055400</v>
+        <v>15621300</v>
       </c>
       <c r="F46" s="3">
-        <v>15977800</v>
+        <v>17239600</v>
       </c>
       <c r="G46" s="3">
-        <v>12687600</v>
+        <v>15255900</v>
       </c>
       <c r="H46" s="3">
-        <v>11805900</v>
+        <v>12114400</v>
       </c>
       <c r="I46" s="3">
-        <v>12305000</v>
+        <v>11272500</v>
       </c>
       <c r="J46" s="3">
+        <v>11749000</v>
+      </c>
+      <c r="K46" s="3">
         <v>11875800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11186100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3181600</v>
+        <v>2616900</v>
       </c>
       <c r="E47" s="3">
-        <v>3070400</v>
+        <v>3037900</v>
       </c>
       <c r="F47" s="3">
-        <v>13120700</v>
+        <v>2931700</v>
       </c>
       <c r="G47" s="3">
-        <v>9338000</v>
+        <v>12527900</v>
       </c>
       <c r="H47" s="3">
-        <v>3347100</v>
+        <v>8916100</v>
       </c>
       <c r="I47" s="3">
-        <v>3239800</v>
+        <v>3195900</v>
       </c>
       <c r="J47" s="3">
+        <v>3093400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3349700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3895100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6678700</v>
+        <v>6811400</v>
       </c>
       <c r="E48" s="3">
-        <v>12623000</v>
+        <v>6376900</v>
       </c>
       <c r="F48" s="3">
-        <v>4733000</v>
+        <v>12052700</v>
       </c>
       <c r="G48" s="3">
-        <v>3905600</v>
+        <v>4519100</v>
       </c>
       <c r="H48" s="3">
-        <v>3883600</v>
+        <v>3729100</v>
       </c>
       <c r="I48" s="3">
-        <v>4080100</v>
+        <v>3708100</v>
       </c>
       <c r="J48" s="3">
+        <v>3895800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4138300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4012300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>160325000</v>
+        <v>146631000</v>
       </c>
       <c r="E49" s="3">
-        <v>304547000</v>
+        <v>153082000</v>
       </c>
       <c r="F49" s="3">
-        <v>15665000</v>
+        <v>290788000</v>
       </c>
       <c r="G49" s="3">
-        <v>13491800</v>
+        <v>14957200</v>
       </c>
       <c r="H49" s="3">
-        <v>13967500</v>
+        <v>12882200</v>
       </c>
       <c r="I49" s="3">
-        <v>14485900</v>
+        <v>13336500</v>
       </c>
       <c r="J49" s="3">
+        <v>13831500</v>
+      </c>
+      <c r="K49" s="3">
         <v>15138800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15790900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2646400</v>
+        <v>1612100</v>
       </c>
       <c r="E52" s="3">
-        <v>2645100</v>
+        <v>2526800</v>
       </c>
       <c r="F52" s="3">
-        <v>1922400</v>
+        <v>2525600</v>
       </c>
       <c r="G52" s="3">
-        <v>1320000</v>
+        <v>1835600</v>
       </c>
       <c r="H52" s="3">
-        <v>824800</v>
+        <v>1260300</v>
       </c>
       <c r="I52" s="3">
-        <v>641200</v>
+        <v>787500</v>
       </c>
       <c r="J52" s="3">
+        <v>612300</v>
+      </c>
+      <c r="K52" s="3">
         <v>826100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>825600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189192000</v>
+        <v>174057000</v>
       </c>
       <c r="E54" s="3">
-        <v>182356000</v>
+        <v>180645000</v>
       </c>
       <c r="F54" s="3">
-        <v>51418900</v>
+        <v>174117000</v>
       </c>
       <c r="G54" s="3">
-        <v>40742900</v>
+        <v>49095800</v>
       </c>
       <c r="H54" s="3">
-        <v>33829000</v>
+        <v>38902100</v>
       </c>
       <c r="I54" s="3">
-        <v>34752000</v>
+        <v>32300500</v>
       </c>
       <c r="J54" s="3">
+        <v>33181900</v>
+      </c>
+      <c r="K54" s="3">
         <v>35328600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35710000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13743900</v>
+        <v>12007000</v>
       </c>
       <c r="E57" s="3">
-        <v>11516400</v>
+        <v>13122900</v>
       </c>
       <c r="F57" s="3">
-        <v>9482800</v>
+        <v>10996000</v>
       </c>
       <c r="G57" s="3">
-        <v>7675400</v>
+        <v>9054300</v>
       </c>
       <c r="H57" s="3">
-        <v>7141500</v>
+        <v>7328600</v>
       </c>
       <c r="I57" s="3">
-        <v>7422000</v>
+        <v>6818800</v>
       </c>
       <c r="J57" s="3">
+        <v>7086700</v>
+      </c>
+      <c r="K57" s="3">
         <v>7533200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6813100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4854500</v>
+        <v>8749400</v>
       </c>
       <c r="E58" s="3">
-        <v>13446500</v>
+        <v>4635200</v>
       </c>
       <c r="F58" s="3">
-        <v>3887500</v>
+        <v>12839000</v>
       </c>
       <c r="G58" s="3">
-        <v>2837700</v>
+        <v>3711800</v>
       </c>
       <c r="H58" s="3">
-        <v>3204900</v>
+        <v>2709500</v>
       </c>
       <c r="I58" s="3">
-        <v>2559800</v>
+        <v>3060100</v>
       </c>
       <c r="J58" s="3">
+        <v>2444100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2115000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2325500</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2511900</v>
+        <v>2478700</v>
       </c>
       <c r="E59" s="3">
-        <v>2738200</v>
+        <v>2398400</v>
       </c>
       <c r="F59" s="3">
-        <v>1957300</v>
+        <v>2614500</v>
       </c>
       <c r="G59" s="3">
-        <v>1129900</v>
+        <v>1868900</v>
       </c>
       <c r="H59" s="3">
-        <v>990300</v>
+        <v>1078900</v>
       </c>
       <c r="I59" s="3">
-        <v>924400</v>
+        <v>945600</v>
       </c>
       <c r="J59" s="3">
+        <v>882600</v>
+      </c>
+      <c r="K59" s="3">
         <v>877800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1194300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21110300</v>
+        <v>23235100</v>
       </c>
       <c r="E60" s="3">
-        <v>20174300</v>
+        <v>20156500</v>
       </c>
       <c r="F60" s="3">
-        <v>15327600</v>
+        <v>19262800</v>
       </c>
       <c r="G60" s="3">
-        <v>11643000</v>
+        <v>14635000</v>
       </c>
       <c r="H60" s="3">
-        <v>11336700</v>
+        <v>11117000</v>
       </c>
       <c r="I60" s="3">
-        <v>10906100</v>
+        <v>10824500</v>
       </c>
       <c r="J60" s="3">
+        <v>10413400</v>
+      </c>
+      <c r="K60" s="3">
         <v>10526100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10332900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55958000</v>
+        <v>46665300</v>
       </c>
       <c r="E61" s="3">
-        <v>56918500</v>
+        <v>53429800</v>
       </c>
       <c r="F61" s="3">
-        <v>21315900</v>
+        <v>54346900</v>
       </c>
       <c r="G61" s="3">
-        <v>19141300</v>
+        <v>20352800</v>
       </c>
       <c r="H61" s="3">
-        <v>12642400</v>
+        <v>18276500</v>
       </c>
       <c r="I61" s="3">
-        <v>12560900</v>
+        <v>12071200</v>
       </c>
       <c r="J61" s="3">
+        <v>11993400</v>
+      </c>
+      <c r="K61" s="3">
         <v>11742600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11205900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27202000</v>
+        <v>24957100</v>
       </c>
       <c r="E62" s="3">
-        <v>26884000</v>
+        <v>25973000</v>
       </c>
       <c r="F62" s="3">
-        <v>3908200</v>
+        <v>25669300</v>
       </c>
       <c r="G62" s="3">
-        <v>3453100</v>
+        <v>3731600</v>
       </c>
       <c r="H62" s="3">
-        <v>2333500</v>
+        <v>3297100</v>
       </c>
       <c r="I62" s="3">
-        <v>2319300</v>
+        <v>2228100</v>
       </c>
       <c r="J62" s="3">
+        <v>2214500</v>
+      </c>
+      <c r="K62" s="3">
         <v>3003200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3012800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>104586000</v>
+        <v>95175900</v>
       </c>
       <c r="E66" s="3">
-        <v>103806000</v>
+        <v>99860500</v>
       </c>
       <c r="F66" s="3">
-        <v>40841200</v>
+        <v>99116100</v>
       </c>
       <c r="G66" s="3">
-        <v>34415900</v>
+        <v>38995900</v>
       </c>
       <c r="H66" s="3">
-        <v>26705600</v>
+        <v>32861000</v>
       </c>
       <c r="I66" s="3">
-        <v>26175500</v>
+        <v>25499000</v>
       </c>
       <c r="J66" s="3">
+        <v>24992900</v>
+      </c>
+      <c r="K66" s="3">
         <v>25668700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24955800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>91651200</v>
+        <v>89612500</v>
       </c>
       <c r="E72" s="3">
-        <v>132872000</v>
+        <v>87510300</v>
       </c>
       <c r="F72" s="3">
-        <v>9816300</v>
+        <v>126869000</v>
       </c>
       <c r="G72" s="3">
-        <v>5570700</v>
+        <v>9372800</v>
       </c>
       <c r="H72" s="3">
-        <v>6372300</v>
+        <v>5319000</v>
       </c>
       <c r="I72" s="3">
-        <v>7830600</v>
+        <v>6084400</v>
       </c>
       <c r="J72" s="3">
+        <v>7476800</v>
+      </c>
+      <c r="K72" s="3">
         <v>12568700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12030200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>84606700</v>
+        <v>78880600</v>
       </c>
       <c r="E76" s="3">
-        <v>78549800</v>
+        <v>80784100</v>
       </c>
       <c r="F76" s="3">
-        <v>10577800</v>
+        <v>75000900</v>
       </c>
       <c r="G76" s="3">
-        <v>6327000</v>
+        <v>10099900</v>
       </c>
       <c r="H76" s="3">
-        <v>7123400</v>
+        <v>6041200</v>
       </c>
       <c r="I76" s="3">
-        <v>8576500</v>
+        <v>6801500</v>
       </c>
       <c r="J76" s="3">
+        <v>8189000</v>
+      </c>
+      <c r="K76" s="3">
         <v>9659900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10754200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7798200</v>
+        <v>7025000</v>
       </c>
       <c r="E81" s="3">
-        <v>48461000</v>
+        <v>7429000</v>
       </c>
       <c r="F81" s="3">
-        <v>6009000</v>
+        <v>46166500</v>
       </c>
       <c r="G81" s="3">
-        <v>5546200</v>
+        <v>5724500</v>
       </c>
       <c r="H81" s="3">
-        <v>4027100</v>
+        <v>5283600</v>
       </c>
       <c r="I81" s="3">
-        <v>5047100</v>
+        <v>3836400</v>
       </c>
       <c r="J81" s="3">
+        <v>4808200</v>
+      </c>
+      <c r="K81" s="3">
         <v>4908800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4075500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1279900</v>
+        <v>1784600</v>
       </c>
       <c r="E83" s="3">
-        <v>1056200</v>
+        <v>1219300</v>
       </c>
       <c r="F83" s="3">
-        <v>784700</v>
+        <v>1006200</v>
       </c>
       <c r="G83" s="3">
-        <v>553300</v>
+        <v>747600</v>
       </c>
       <c r="H83" s="3">
-        <v>676100</v>
+        <v>527100</v>
       </c>
       <c r="I83" s="3">
-        <v>616700</v>
+        <v>644100</v>
       </c>
       <c r="J83" s="3">
+        <v>587500</v>
+      </c>
+      <c r="K83" s="3">
         <v>614100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1075800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13309500</v>
+        <v>11079500</v>
       </c>
       <c r="E89" s="3">
-        <v>6912700</v>
+        <v>12679300</v>
       </c>
       <c r="F89" s="3">
-        <v>5959900</v>
+        <v>6585400</v>
       </c>
       <c r="G89" s="3">
-        <v>6102100</v>
+        <v>5677700</v>
       </c>
       <c r="H89" s="3">
-        <v>4804100</v>
+        <v>5813200</v>
       </c>
       <c r="I89" s="3">
-        <v>5734900</v>
+        <v>4576600</v>
       </c>
       <c r="J89" s="3">
+        <v>5463400</v>
+      </c>
+      <c r="K89" s="3">
         <v>5723300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6012500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-979900</v>
+        <v>-817800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1022600</v>
+        <v>-933600</v>
       </c>
       <c r="F91" s="3">
-        <v>-757600</v>
+        <v>-974200</v>
       </c>
       <c r="G91" s="3">
-        <v>-624400</v>
+        <v>-721700</v>
       </c>
       <c r="H91" s="3">
-        <v>-683900</v>
+        <v>-594900</v>
       </c>
       <c r="I91" s="3">
-        <v>-742100</v>
+        <v>-651500</v>
       </c>
       <c r="J91" s="3">
+        <v>-706900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-858400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-671600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1320000</v>
+        <v>-787000</v>
       </c>
       <c r="E94" s="3">
-        <v>-23973900</v>
+        <v>-1257500</v>
       </c>
       <c r="F94" s="3">
-        <v>-827400</v>
+        <v>-22838800</v>
       </c>
       <c r="G94" s="3">
-        <v>-5159600</v>
+        <v>-788200</v>
       </c>
       <c r="H94" s="3">
-        <v>-607600</v>
+        <v>-4915300</v>
       </c>
       <c r="I94" s="3">
-        <v>-433100</v>
+        <v>-578900</v>
       </c>
       <c r="J94" s="3">
+        <v>-412600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-517100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-937600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5619800</v>
+        <v>-5662900</v>
       </c>
       <c r="E96" s="3">
-        <v>-4479600</v>
+        <v>-5353800</v>
       </c>
       <c r="F96" s="3">
-        <v>-3762100</v>
+        <v>-4267500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3581100</v>
+        <v>-3584000</v>
       </c>
       <c r="H96" s="3">
-        <v>-3506100</v>
+        <v>-3411500</v>
       </c>
       <c r="I96" s="3">
-        <v>-3375500</v>
+        <v>-3340100</v>
       </c>
       <c r="J96" s="3">
+        <v>-3215700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3281200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3105000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12449800</v>
+        <v>-10583100</v>
       </c>
       <c r="E100" s="3">
-        <v>19080600</v>
+        <v>-11860300</v>
       </c>
       <c r="F100" s="3">
-        <v>-5467300</v>
+        <v>18177200</v>
       </c>
       <c r="G100" s="3">
-        <v>-283100</v>
+        <v>-5208400</v>
       </c>
       <c r="H100" s="3">
-        <v>-4482200</v>
+        <v>-269700</v>
       </c>
       <c r="I100" s="3">
-        <v>-5128600</v>
+        <v>-4270000</v>
       </c>
       <c r="J100" s="3">
+        <v>-4885800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5111800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5329000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-178400</v>
+        <v>-70200</v>
       </c>
       <c r="E101" s="3">
-        <v>-505500</v>
+        <v>-170000</v>
       </c>
       <c r="F101" s="3">
-        <v>232700</v>
+        <v>-481600</v>
       </c>
       <c r="G101" s="3">
-        <v>-351600</v>
+        <v>221700</v>
       </c>
       <c r="H101" s="3">
-        <v>-81400</v>
+        <v>-335000</v>
       </c>
       <c r="I101" s="3">
-        <v>-254700</v>
+        <v>-77600</v>
       </c>
       <c r="J101" s="3">
+        <v>-242600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-227500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-63200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-638600</v>
+        <v>-360900</v>
       </c>
       <c r="E102" s="3">
-        <v>1513900</v>
+        <v>-608400</v>
       </c>
       <c r="F102" s="3">
-        <v>-102100</v>
+        <v>1442200</v>
       </c>
       <c r="G102" s="3">
-        <v>307700</v>
+        <v>-97300</v>
       </c>
       <c r="H102" s="3">
-        <v>-367200</v>
+        <v>293100</v>
       </c>
       <c r="I102" s="3">
-        <v>-81400</v>
+        <v>-349800</v>
       </c>
       <c r="J102" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-133200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-317300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31870100</v>
+        <v>34178100</v>
       </c>
       <c r="E8" s="3">
-        <v>30164300</v>
+        <v>32348800</v>
       </c>
       <c r="F8" s="3">
-        <v>24095000</v>
+        <v>25839900</v>
       </c>
       <c r="G8" s="3">
-        <v>17402500</v>
+        <v>18662800</v>
       </c>
       <c r="H8" s="3">
-        <v>16138900</v>
+        <v>17307600</v>
       </c>
       <c r="I8" s="3">
-        <v>17206700</v>
+        <v>18452800</v>
       </c>
       <c r="J8" s="3">
-        <v>18794200</v>
+        <v>20155300</v>
       </c>
       <c r="K8" s="3">
         <v>19637800</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5464600</v>
+        <v>5860300</v>
       </c>
       <c r="E9" s="3">
-        <v>5603800</v>
+        <v>6009600</v>
       </c>
       <c r="F9" s="3">
-        <v>6198600</v>
+        <v>6647500</v>
       </c>
       <c r="G9" s="3">
-        <v>4597600</v>
+        <v>4930500</v>
       </c>
       <c r="H9" s="3">
-        <v>3735400</v>
+        <v>4006000</v>
       </c>
       <c r="I9" s="3">
-        <v>3731700</v>
+        <v>4002000</v>
       </c>
       <c r="J9" s="3">
-        <v>3994100</v>
+        <v>4283300</v>
       </c>
       <c r="K9" s="3">
         <v>4281800</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>26405500</v>
+        <v>28317700</v>
       </c>
       <c r="E10" s="3">
-        <v>24560600</v>
+        <v>26339200</v>
       </c>
       <c r="F10" s="3">
-        <v>17896400</v>
+        <v>19192400</v>
       </c>
       <c r="G10" s="3">
-        <v>12804900</v>
+        <v>13732300</v>
       </c>
       <c r="H10" s="3">
-        <v>12403400</v>
+        <v>13301700</v>
       </c>
       <c r="I10" s="3">
-        <v>13474900</v>
+        <v>14450800</v>
       </c>
       <c r="J10" s="3">
-        <v>14800100</v>
+        <v>15871900</v>
       </c>
       <c r="K10" s="3">
         <v>15356000</v>
@@ -832,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>155200</v>
+        <v>166400</v>
       </c>
       <c r="E12" s="3">
-        <v>129300</v>
+        <v>138700</v>
       </c>
       <c r="F12" s="3">
-        <v>98500</v>
+        <v>105700</v>
       </c>
       <c r="G12" s="3">
-        <v>65300</v>
+        <v>70000</v>
       </c>
       <c r="H12" s="3">
-        <v>73900</v>
+        <v>79200</v>
       </c>
       <c r="I12" s="3">
-        <v>91100</v>
+        <v>97700</v>
       </c>
       <c r="J12" s="3">
-        <v>112100</v>
+        <v>120200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -898,25 +898,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>938500</v>
+        <v>1006400</v>
       </c>
       <c r="E14" s="3">
-        <v>395300</v>
+        <v>424000</v>
       </c>
       <c r="F14" s="3">
-        <v>-27754100</v>
+        <v>-29764000</v>
       </c>
       <c r="G14" s="3">
-        <v>867000</v>
+        <v>929800</v>
       </c>
       <c r="H14" s="3">
-        <v>577600</v>
+        <v>619500</v>
       </c>
       <c r="I14" s="3">
-        <v>1017300</v>
+        <v>1091000</v>
       </c>
       <c r="J14" s="3">
-        <v>331300</v>
+        <v>355300</v>
       </c>
       <c r="K14" s="3">
         <v>46500</v>
@@ -931,25 +931,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1545700</v>
+        <v>1657600</v>
       </c>
       <c r="E15" s="3">
-        <v>1219300</v>
+        <v>1307600</v>
       </c>
       <c r="F15" s="3">
-        <v>1006200</v>
+        <v>1079100</v>
       </c>
       <c r="G15" s="3">
-        <v>1336300</v>
+        <v>1433100</v>
       </c>
       <c r="H15" s="3">
-        <v>497600</v>
+        <v>533600</v>
       </c>
       <c r="I15" s="3">
-        <v>592400</v>
+        <v>635300</v>
       </c>
       <c r="J15" s="3">
-        <v>545600</v>
+        <v>585100</v>
       </c>
       <c r="K15" s="3">
         <v>764100</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20766000</v>
+        <v>22269800</v>
       </c>
       <c r="E17" s="3">
-        <v>18639000</v>
+        <v>19988800</v>
       </c>
       <c r="F17" s="3">
-        <v>-12295100</v>
+        <v>-13185400</v>
       </c>
       <c r="G17" s="3">
-        <v>11793800</v>
+        <v>12647900</v>
       </c>
       <c r="H17" s="3">
-        <v>10654600</v>
+        <v>11426200</v>
       </c>
       <c r="I17" s="3">
-        <v>11602900</v>
+        <v>12443200</v>
       </c>
       <c r="J17" s="3">
-        <v>11988400</v>
+        <v>12856600</v>
       </c>
       <c r="K17" s="3">
         <v>12692800</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11104100</v>
+        <v>11908200</v>
       </c>
       <c r="E18" s="3">
-        <v>11525300</v>
+        <v>12360000</v>
       </c>
       <c r="F18" s="3">
-        <v>36390100</v>
+        <v>39025400</v>
       </c>
       <c r="G18" s="3">
-        <v>5608700</v>
+        <v>6014900</v>
       </c>
       <c r="H18" s="3">
-        <v>5484300</v>
+        <v>5881500</v>
       </c>
       <c r="I18" s="3">
-        <v>5603800</v>
+        <v>6009600</v>
       </c>
       <c r="J18" s="3">
-        <v>6805800</v>
+        <v>7298700</v>
       </c>
       <c r="K18" s="3">
         <v>6945000</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>743900</v>
+        <v>797800</v>
       </c>
       <c r="E20" s="3">
-        <v>721700</v>
+        <v>774000</v>
       </c>
       <c r="F20" s="3">
-        <v>1306700</v>
+        <v>1401400</v>
       </c>
       <c r="G20" s="3">
-        <v>2877000</v>
+        <v>3085400</v>
       </c>
       <c r="H20" s="3">
-        <v>2442300</v>
+        <v>2619100</v>
       </c>
       <c r="I20" s="3">
-        <v>1091200</v>
+        <v>1170200</v>
       </c>
       <c r="J20" s="3">
-        <v>1092400</v>
+        <v>1171500</v>
       </c>
       <c r="K20" s="3">
         <v>1782800</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13623000</v>
+        <v>14611400</v>
       </c>
       <c r="E21" s="3">
-        <v>13459800</v>
+        <v>14435800</v>
       </c>
       <c r="F21" s="3">
-        <v>38697600</v>
+        <v>41501100</v>
       </c>
       <c r="G21" s="3">
-        <v>9229300</v>
+        <v>9898400</v>
       </c>
       <c r="H21" s="3">
-        <v>8450900</v>
+        <v>9063400</v>
       </c>
       <c r="I21" s="3">
-        <v>7335600</v>
+        <v>7867600</v>
       </c>
       <c r="J21" s="3">
-        <v>8482600</v>
+        <v>9097500</v>
       </c>
       <c r="K21" s="3">
         <v>9345300</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2103600</v>
+        <v>2255900</v>
       </c>
       <c r="E22" s="3">
-        <v>1961900</v>
+        <v>2104000</v>
       </c>
       <c r="F22" s="3">
-        <v>1331400</v>
+        <v>1427800</v>
       </c>
       <c r="G22" s="3">
-        <v>794400</v>
+        <v>851900</v>
       </c>
       <c r="H22" s="3">
-        <v>715600</v>
+        <v>767400</v>
       </c>
       <c r="I22" s="3">
-        <v>724200</v>
+        <v>776600</v>
       </c>
       <c r="J22" s="3">
-        <v>756200</v>
+        <v>811000</v>
       </c>
       <c r="K22" s="3">
         <v>1498400</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9744400</v>
+        <v>10450100</v>
       </c>
       <c r="E23" s="3">
-        <v>10285100</v>
+        <v>11029900</v>
       </c>
       <c r="F23" s="3">
-        <v>36365500</v>
+        <v>38999000</v>
       </c>
       <c r="G23" s="3">
-        <v>7691300</v>
+        <v>8248300</v>
       </c>
       <c r="H23" s="3">
-        <v>7211000</v>
+        <v>7733200</v>
       </c>
       <c r="I23" s="3">
-        <v>5970800</v>
+        <v>6403200</v>
       </c>
       <c r="J23" s="3">
-        <v>7142000</v>
+        <v>7659300</v>
       </c>
       <c r="K23" s="3">
         <v>7229400</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2598700</v>
+        <v>2786900</v>
       </c>
       <c r="E24" s="3">
-        <v>2723100</v>
+        <v>2920300</v>
       </c>
       <c r="F24" s="3">
-        <v>1794400</v>
+        <v>1924400</v>
       </c>
       <c r="G24" s="3">
-        <v>1731600</v>
+        <v>1857000</v>
       </c>
       <c r="H24" s="3">
-        <v>1641700</v>
+        <v>1760600</v>
       </c>
       <c r="I24" s="3">
-        <v>1792000</v>
+        <v>1921700</v>
       </c>
       <c r="J24" s="3">
-        <v>1970600</v>
+        <v>2113300</v>
       </c>
       <c r="K24" s="3">
         <v>1959900</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7145700</v>
+        <v>7663200</v>
       </c>
       <c r="E26" s="3">
-        <v>7562000</v>
+        <v>8109700</v>
       </c>
       <c r="F26" s="3">
-        <v>34571000</v>
+        <v>37074600</v>
       </c>
       <c r="G26" s="3">
-        <v>5959700</v>
+        <v>6391300</v>
       </c>
       <c r="H26" s="3">
-        <v>5569300</v>
+        <v>5972600</v>
       </c>
       <c r="I26" s="3">
-        <v>4178800</v>
+        <v>4481400</v>
       </c>
       <c r="J26" s="3">
-        <v>5171500</v>
+        <v>5546000</v>
       </c>
       <c r="K26" s="3">
         <v>5269500</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6967200</v>
+        <v>7471700</v>
       </c>
       <c r="E27" s="3">
-        <v>7342800</v>
+        <v>7874500</v>
       </c>
       <c r="F27" s="3">
-        <v>34360400</v>
+        <v>36848700</v>
       </c>
       <c r="G27" s="3">
-        <v>5724500</v>
+        <v>6139000</v>
       </c>
       <c r="H27" s="3">
-        <v>5283600</v>
+        <v>5666200</v>
       </c>
       <c r="I27" s="3">
-        <v>3836400</v>
+        <v>4114300</v>
       </c>
       <c r="J27" s="3">
-        <v>4808200</v>
+        <v>5156400</v>
       </c>
       <c r="K27" s="3">
         <v>4908800</v>
@@ -1354,13 +1354,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>57900</v>
+        <v>62100</v>
       </c>
       <c r="E29" s="3">
-        <v>86200</v>
+        <v>92500</v>
       </c>
       <c r="F29" s="3">
-        <v>11806100</v>
+        <v>12661100</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-743900</v>
+        <v>-797800</v>
       </c>
       <c r="E32" s="3">
-        <v>-721700</v>
+        <v>-774000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1306700</v>
+        <v>-1401400</v>
       </c>
       <c r="G32" s="3">
-        <v>-2877000</v>
+        <v>-3085400</v>
       </c>
       <c r="H32" s="3">
-        <v>-2442300</v>
+        <v>-2619100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1091200</v>
+        <v>-1170200</v>
       </c>
       <c r="J32" s="3">
-        <v>-1092400</v>
+        <v>-1171500</v>
       </c>
       <c r="K32" s="3">
         <v>-1782800</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7025000</v>
+        <v>7533800</v>
       </c>
       <c r="E33" s="3">
-        <v>7429000</v>
+        <v>7967000</v>
       </c>
       <c r="F33" s="3">
-        <v>46166500</v>
+        <v>49509800</v>
       </c>
       <c r="G33" s="3">
-        <v>5724500</v>
+        <v>6139000</v>
       </c>
       <c r="H33" s="3">
-        <v>5283600</v>
+        <v>5666200</v>
       </c>
       <c r="I33" s="3">
-        <v>3836400</v>
+        <v>4114300</v>
       </c>
       <c r="J33" s="3">
-        <v>4808200</v>
+        <v>5156400</v>
       </c>
       <c r="K33" s="3">
         <v>4908800</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7025000</v>
+        <v>7533800</v>
       </c>
       <c r="E35" s="3">
-        <v>7429000</v>
+        <v>7967000</v>
       </c>
       <c r="F35" s="3">
-        <v>46166500</v>
+        <v>49509800</v>
       </c>
       <c r="G35" s="3">
-        <v>5724500</v>
+        <v>6139000</v>
       </c>
       <c r="H35" s="3">
-        <v>5283600</v>
+        <v>5666200</v>
       </c>
       <c r="I35" s="3">
-        <v>3836400</v>
+        <v>4114300</v>
       </c>
       <c r="J35" s="3">
-        <v>4808200</v>
+        <v>5156400</v>
       </c>
       <c r="K35" s="3">
         <v>4908800</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3118100</v>
+        <v>3336300</v>
       </c>
       <c r="E41" s="3">
-        <v>3211900</v>
+        <v>3436700</v>
       </c>
       <c r="F41" s="3">
-        <v>8124800</v>
+        <v>8693400</v>
       </c>
       <c r="G41" s="3">
-        <v>2720600</v>
+        <v>2911000</v>
       </c>
       <c r="H41" s="3">
-        <v>2423100</v>
+        <v>2592700</v>
       </c>
       <c r="I41" s="3">
-        <v>2244100</v>
+        <v>2401200</v>
       </c>
       <c r="J41" s="3">
-        <v>2599600</v>
+        <v>2781600</v>
       </c>
       <c r="K41" s="3">
         <v>1263100</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>151800</v>
+        <v>162500</v>
       </c>
       <c r="E42" s="3">
-        <v>219700</v>
+        <v>235100</v>
       </c>
       <c r="F42" s="3">
-        <v>80200</v>
+        <v>85900</v>
       </c>
       <c r="G42" s="3">
-        <v>18500</v>
+        <v>19800</v>
       </c>
       <c r="H42" s="3">
-        <v>43200</v>
+        <v>46200</v>
       </c>
       <c r="I42" s="3">
-        <v>61700</v>
+        <v>66000</v>
       </c>
       <c r="J42" s="3">
-        <v>66700</v>
+        <v>71300</v>
       </c>
       <c r="K42" s="3">
         <v>1460900</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5203000</v>
+        <v>5567100</v>
       </c>
       <c r="E43" s="3">
-        <v>4520400</v>
+        <v>4836700</v>
       </c>
       <c r="F43" s="3">
-        <v>5570800</v>
+        <v>5960700</v>
       </c>
       <c r="G43" s="3">
-        <v>4879600</v>
+        <v>5221100</v>
       </c>
       <c r="H43" s="3">
-        <v>4122900</v>
+        <v>4411400</v>
       </c>
       <c r="I43" s="3">
-        <v>3487200</v>
+        <v>3731200</v>
       </c>
       <c r="J43" s="3">
-        <v>3667400</v>
+        <v>3924100</v>
       </c>
       <c r="K43" s="3">
         <v>3650900</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7522400</v>
+        <v>8048900</v>
       </c>
       <c r="E44" s="3">
-        <v>7442200</v>
+        <v>7963000</v>
       </c>
       <c r="F44" s="3">
-        <v>14477000</v>
+        <v>15490200</v>
       </c>
       <c r="G44" s="3">
-        <v>7150900</v>
+        <v>7651300</v>
       </c>
       <c r="H44" s="3">
-        <v>5242500</v>
+        <v>5609400</v>
       </c>
       <c r="I44" s="3">
-        <v>5101800</v>
+        <v>5458800</v>
       </c>
       <c r="J44" s="3">
-        <v>4989400</v>
+        <v>5338600</v>
       </c>
       <c r="K44" s="3">
         <v>5204900</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>390100</v>
+        <v>417400</v>
       </c>
       <c r="E45" s="3">
-        <v>227100</v>
+        <v>243000</v>
       </c>
       <c r="F45" s="3">
-        <v>287600</v>
+        <v>307700</v>
       </c>
       <c r="G45" s="3">
-        <v>486400</v>
+        <v>520400</v>
       </c>
       <c r="H45" s="3">
-        <v>282700</v>
+        <v>302500</v>
       </c>
       <c r="I45" s="3">
-        <v>377700</v>
+        <v>404200</v>
       </c>
       <c r="J45" s="3">
-        <v>425900</v>
+        <v>455700</v>
       </c>
       <c r="K45" s="3">
         <v>296100</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16385400</v>
+        <v>17532200</v>
       </c>
       <c r="E46" s="3">
-        <v>15621300</v>
+        <v>16714600</v>
       </c>
       <c r="F46" s="3">
-        <v>17239600</v>
+        <v>18446200</v>
       </c>
       <c r="G46" s="3">
-        <v>15255900</v>
+        <v>16323600</v>
       </c>
       <c r="H46" s="3">
-        <v>12114400</v>
+        <v>12962200</v>
       </c>
       <c r="I46" s="3">
-        <v>11272500</v>
+        <v>12061500</v>
       </c>
       <c r="J46" s="3">
-        <v>11749000</v>
+        <v>12571300</v>
       </c>
       <c r="K46" s="3">
         <v>11875800</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2616900</v>
+        <v>2800100</v>
       </c>
       <c r="E47" s="3">
-        <v>3037900</v>
+        <v>3250500</v>
       </c>
       <c r="F47" s="3">
-        <v>2931700</v>
+        <v>3136900</v>
       </c>
       <c r="G47" s="3">
-        <v>12527900</v>
+        <v>13404700</v>
       </c>
       <c r="H47" s="3">
-        <v>8916100</v>
+        <v>9540100</v>
       </c>
       <c r="I47" s="3">
-        <v>3195900</v>
+        <v>3419500</v>
       </c>
       <c r="J47" s="3">
-        <v>3093400</v>
+        <v>3309900</v>
       </c>
       <c r="K47" s="3">
         <v>3349700</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6811400</v>
+        <v>7288100</v>
       </c>
       <c r="E48" s="3">
-        <v>6376900</v>
+        <v>6823200</v>
       </c>
       <c r="F48" s="3">
-        <v>12052700</v>
+        <v>12896200</v>
       </c>
       <c r="G48" s="3">
-        <v>4519100</v>
+        <v>4835400</v>
       </c>
       <c r="H48" s="3">
-        <v>3729100</v>
+        <v>3990100</v>
       </c>
       <c r="I48" s="3">
-        <v>3708100</v>
+        <v>3967700</v>
       </c>
       <c r="J48" s="3">
-        <v>3895800</v>
+        <v>4168400</v>
       </c>
       <c r="K48" s="3">
         <v>4138300</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>146631000</v>
+        <v>156893000</v>
       </c>
       <c r="E49" s="3">
-        <v>153082000</v>
+        <v>163795000</v>
       </c>
       <c r="F49" s="3">
-        <v>290788000</v>
+        <v>311139000</v>
       </c>
       <c r="G49" s="3">
-        <v>14957200</v>
+        <v>16004000</v>
       </c>
       <c r="H49" s="3">
-        <v>12882200</v>
+        <v>13783800</v>
       </c>
       <c r="I49" s="3">
-        <v>13336500</v>
+        <v>14269800</v>
       </c>
       <c r="J49" s="3">
-        <v>13831500</v>
+        <v>14799500</v>
       </c>
       <c r="K49" s="3">
         <v>15138800</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1612100</v>
+        <v>1725000</v>
       </c>
       <c r="E52" s="3">
-        <v>2526800</v>
+        <v>2703700</v>
       </c>
       <c r="F52" s="3">
-        <v>2525600</v>
+        <v>2702300</v>
       </c>
       <c r="G52" s="3">
-        <v>1835600</v>
+        <v>1964000</v>
       </c>
       <c r="H52" s="3">
-        <v>1260300</v>
+        <v>1348500</v>
       </c>
       <c r="I52" s="3">
-        <v>787500</v>
+        <v>842700</v>
       </c>
       <c r="J52" s="3">
-        <v>612300</v>
+        <v>655100</v>
       </c>
       <c r="K52" s="3">
         <v>826100</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>174057000</v>
+        <v>186238000</v>
       </c>
       <c r="E54" s="3">
-        <v>180645000</v>
+        <v>193287000</v>
       </c>
       <c r="F54" s="3">
-        <v>174117000</v>
+        <v>186303000</v>
       </c>
       <c r="G54" s="3">
-        <v>49095800</v>
+        <v>52531800</v>
       </c>
       <c r="H54" s="3">
-        <v>38902100</v>
+        <v>41624700</v>
       </c>
       <c r="I54" s="3">
-        <v>32300500</v>
+        <v>34561100</v>
       </c>
       <c r="J54" s="3">
-        <v>33181900</v>
+        <v>35504200</v>
       </c>
       <c r="K54" s="3">
         <v>35328600</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12007000</v>
+        <v>12847300</v>
       </c>
       <c r="E57" s="3">
-        <v>13122900</v>
+        <v>14041300</v>
       </c>
       <c r="F57" s="3">
-        <v>10996000</v>
+        <v>11765600</v>
       </c>
       <c r="G57" s="3">
-        <v>9054300</v>
+        <v>9688000</v>
       </c>
       <c r="H57" s="3">
-        <v>7328600</v>
+        <v>7841500</v>
       </c>
       <c r="I57" s="3">
-        <v>6818800</v>
+        <v>7296000</v>
       </c>
       <c r="J57" s="3">
-        <v>7086700</v>
+        <v>7582700</v>
       </c>
       <c r="K57" s="3">
         <v>7533200</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8749400</v>
+        <v>9361800</v>
       </c>
       <c r="E58" s="3">
-        <v>4635200</v>
+        <v>4959600</v>
       </c>
       <c r="F58" s="3">
-        <v>12839000</v>
+        <v>13737500</v>
       </c>
       <c r="G58" s="3">
-        <v>3711800</v>
+        <v>3971600</v>
       </c>
       <c r="H58" s="3">
-        <v>2709500</v>
+        <v>2899100</v>
       </c>
       <c r="I58" s="3">
-        <v>3060100</v>
+        <v>3274200</v>
       </c>
       <c r="J58" s="3">
-        <v>2444100</v>
+        <v>2615200</v>
       </c>
       <c r="K58" s="3">
         <v>2115000</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2478700</v>
+        <v>2652100</v>
       </c>
       <c r="E59" s="3">
-        <v>2398400</v>
+        <v>2566300</v>
       </c>
       <c r="F59" s="3">
-        <v>2614500</v>
+        <v>2797400</v>
       </c>
       <c r="G59" s="3">
-        <v>1868900</v>
+        <v>1999700</v>
       </c>
       <c r="H59" s="3">
-        <v>1078900</v>
+        <v>1154400</v>
       </c>
       <c r="I59" s="3">
-        <v>945600</v>
+        <v>1011700</v>
       </c>
       <c r="J59" s="3">
-        <v>882600</v>
+        <v>944400</v>
       </c>
       <c r="K59" s="3">
         <v>877800</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23235100</v>
+        <v>24861200</v>
       </c>
       <c r="E60" s="3">
-        <v>20156500</v>
+        <v>21567200</v>
       </c>
       <c r="F60" s="3">
-        <v>19262800</v>
+        <v>20610900</v>
       </c>
       <c r="G60" s="3">
-        <v>14635000</v>
+        <v>15659300</v>
       </c>
       <c r="H60" s="3">
-        <v>11117000</v>
+        <v>11895000</v>
       </c>
       <c r="I60" s="3">
-        <v>10824500</v>
+        <v>11582000</v>
       </c>
       <c r="J60" s="3">
-        <v>10413400</v>
+        <v>11142200</v>
       </c>
       <c r="K60" s="3">
         <v>10526100</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>46665300</v>
+        <v>49931100</v>
       </c>
       <c r="E61" s="3">
-        <v>53429800</v>
+        <v>57169100</v>
       </c>
       <c r="F61" s="3">
-        <v>54346900</v>
+        <v>58150400</v>
       </c>
       <c r="G61" s="3">
-        <v>20352800</v>
+        <v>21777200</v>
       </c>
       <c r="H61" s="3">
-        <v>18276500</v>
+        <v>19555600</v>
       </c>
       <c r="I61" s="3">
-        <v>12071200</v>
+        <v>12916000</v>
       </c>
       <c r="J61" s="3">
-        <v>11993400</v>
+        <v>12832800</v>
       </c>
       <c r="K61" s="3">
         <v>11742600</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24957100</v>
+        <v>26703700</v>
       </c>
       <c r="E62" s="3">
-        <v>25973000</v>
+        <v>27790700</v>
       </c>
       <c r="F62" s="3">
-        <v>25669300</v>
+        <v>27465800</v>
       </c>
       <c r="G62" s="3">
-        <v>3731600</v>
+        <v>3992700</v>
       </c>
       <c r="H62" s="3">
-        <v>3297100</v>
+        <v>3527800</v>
       </c>
       <c r="I62" s="3">
-        <v>2228100</v>
+        <v>2384000</v>
       </c>
       <c r="J62" s="3">
-        <v>2214500</v>
+        <v>2369500</v>
       </c>
       <c r="K62" s="3">
         <v>3003200</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>95175900</v>
+        <v>101837000</v>
       </c>
       <c r="E66" s="3">
-        <v>99860500</v>
+        <v>106849000</v>
       </c>
       <c r="F66" s="3">
-        <v>99116100</v>
+        <v>106053000</v>
       </c>
       <c r="G66" s="3">
-        <v>38995900</v>
+        <v>41725100</v>
       </c>
       <c r="H66" s="3">
-        <v>32861000</v>
+        <v>35160800</v>
       </c>
       <c r="I66" s="3">
-        <v>25499000</v>
+        <v>27283600</v>
       </c>
       <c r="J66" s="3">
-        <v>24992900</v>
+        <v>26742000</v>
       </c>
       <c r="K66" s="3">
         <v>25668700</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>89612500</v>
+        <v>95866900</v>
       </c>
       <c r="E72" s="3">
-        <v>87510300</v>
+        <v>93626800</v>
       </c>
       <c r="F72" s="3">
-        <v>126869000</v>
+        <v>135726000</v>
       </c>
       <c r="G72" s="3">
-        <v>9372800</v>
+        <v>10028800</v>
       </c>
       <c r="H72" s="3">
-        <v>5319000</v>
+        <v>5691300</v>
       </c>
       <c r="I72" s="3">
-        <v>6084400</v>
+        <v>6510200</v>
       </c>
       <c r="J72" s="3">
-        <v>7476800</v>
+        <v>8000000</v>
       </c>
       <c r="K72" s="3">
         <v>12568700</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78880600</v>
+        <v>84401100</v>
       </c>
       <c r="E76" s="3">
-        <v>80784100</v>
+        <v>86437800</v>
       </c>
       <c r="F76" s="3">
-        <v>75000900</v>
+        <v>80249900</v>
       </c>
       <c r="G76" s="3">
-        <v>10099900</v>
+        <v>10806700</v>
       </c>
       <c r="H76" s="3">
-        <v>6041200</v>
+        <v>6463900</v>
       </c>
       <c r="I76" s="3">
-        <v>6801500</v>
+        <v>7277600</v>
       </c>
       <c r="J76" s="3">
-        <v>8189000</v>
+        <v>8762100</v>
       </c>
       <c r="K76" s="3">
         <v>9659900</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7025000</v>
+        <v>7533800</v>
       </c>
       <c r="E81" s="3">
-        <v>7429000</v>
+        <v>7967000</v>
       </c>
       <c r="F81" s="3">
-        <v>46166500</v>
+        <v>49509800</v>
       </c>
       <c r="G81" s="3">
-        <v>5724500</v>
+        <v>6139000</v>
       </c>
       <c r="H81" s="3">
-        <v>5283600</v>
+        <v>5666200</v>
       </c>
       <c r="I81" s="3">
-        <v>3836400</v>
+        <v>4114300</v>
       </c>
       <c r="J81" s="3">
-        <v>4808200</v>
+        <v>5156400</v>
       </c>
       <c r="K81" s="3">
         <v>4908800</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1784600</v>
+        <v>1913800</v>
       </c>
       <c r="E83" s="3">
-        <v>1219300</v>
+        <v>1307600</v>
       </c>
       <c r="F83" s="3">
-        <v>1006200</v>
+        <v>1079100</v>
       </c>
       <c r="G83" s="3">
-        <v>747600</v>
+        <v>801700</v>
       </c>
       <c r="H83" s="3">
-        <v>527100</v>
+        <v>565300</v>
       </c>
       <c r="I83" s="3">
-        <v>644100</v>
+        <v>690800</v>
       </c>
       <c r="J83" s="3">
-        <v>587500</v>
+        <v>630000</v>
       </c>
       <c r="K83" s="3">
         <v>614100</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11079500</v>
+        <v>11881800</v>
       </c>
       <c r="E89" s="3">
-        <v>12679300</v>
+        <v>13597500</v>
       </c>
       <c r="F89" s="3">
-        <v>6585400</v>
+        <v>7062300</v>
       </c>
       <c r="G89" s="3">
-        <v>5677700</v>
+        <v>6088800</v>
       </c>
       <c r="H89" s="3">
-        <v>5813200</v>
+        <v>6234100</v>
       </c>
       <c r="I89" s="3">
-        <v>4576600</v>
+        <v>4908100</v>
       </c>
       <c r="J89" s="3">
-        <v>5463400</v>
+        <v>5859000</v>
       </c>
       <c r="K89" s="3">
         <v>5723300</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-817800</v>
+        <v>-877000</v>
       </c>
       <c r="E91" s="3">
-        <v>-933600</v>
+        <v>-1001200</v>
       </c>
       <c r="F91" s="3">
-        <v>-974200</v>
+        <v>-1044700</v>
       </c>
       <c r="G91" s="3">
-        <v>-721700</v>
+        <v>-774000</v>
       </c>
       <c r="H91" s="3">
-        <v>-594900</v>
+        <v>-637900</v>
       </c>
       <c r="I91" s="3">
-        <v>-651500</v>
+        <v>-698700</v>
       </c>
       <c r="J91" s="3">
-        <v>-706900</v>
+        <v>-758100</v>
       </c>
       <c r="K91" s="3">
         <v>-858400</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-787000</v>
+        <v>-844000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1257500</v>
+        <v>-1348500</v>
       </c>
       <c r="F94" s="3">
-        <v>-22838800</v>
+        <v>-24492700</v>
       </c>
       <c r="G94" s="3">
-        <v>-788200</v>
+        <v>-845300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4915300</v>
+        <v>-5271300</v>
       </c>
       <c r="I94" s="3">
-        <v>-578900</v>
+        <v>-620800</v>
       </c>
       <c r="J94" s="3">
-        <v>-412600</v>
+        <v>-442500</v>
       </c>
       <c r="K94" s="3">
         <v>-517100</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5662900</v>
+        <v>-6073000</v>
       </c>
       <c r="E96" s="3">
-        <v>-5353800</v>
+        <v>-5741500</v>
       </c>
       <c r="F96" s="3">
-        <v>-4267500</v>
+        <v>-4576500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3584000</v>
+        <v>-3843500</v>
       </c>
       <c r="H96" s="3">
-        <v>-3411500</v>
+        <v>-3658600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3340100</v>
+        <v>-3582000</v>
       </c>
       <c r="J96" s="3">
-        <v>-3215700</v>
+        <v>-3448600</v>
       </c>
       <c r="K96" s="3">
         <v>-3281200</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10583100</v>
+        <v>-11349500</v>
       </c>
       <c r="E100" s="3">
-        <v>-11860300</v>
+        <v>-12719200</v>
       </c>
       <c r="F100" s="3">
-        <v>18177200</v>
+        <v>19493500</v>
       </c>
       <c r="G100" s="3">
-        <v>-5208400</v>
+        <v>-5585600</v>
       </c>
       <c r="H100" s="3">
-        <v>-269700</v>
+        <v>-289300</v>
       </c>
       <c r="I100" s="3">
-        <v>-4270000</v>
+        <v>-4579200</v>
       </c>
       <c r="J100" s="3">
-        <v>-4885800</v>
+        <v>-5239600</v>
       </c>
       <c r="K100" s="3">
         <v>-5111800</v>
@@ -3464,25 +3464,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-70200</v>
+        <v>-75300</v>
       </c>
       <c r="E101" s="3">
-        <v>-170000</v>
+        <v>-182300</v>
       </c>
       <c r="F101" s="3">
-        <v>-481600</v>
+        <v>-516400</v>
       </c>
       <c r="G101" s="3">
-        <v>221700</v>
+        <v>237700</v>
       </c>
       <c r="H101" s="3">
-        <v>-335000</v>
+        <v>-359300</v>
       </c>
       <c r="I101" s="3">
-        <v>-77600</v>
+        <v>-83200</v>
       </c>
       <c r="J101" s="3">
-        <v>-242600</v>
+        <v>-260200</v>
       </c>
       <c r="K101" s="3">
         <v>-227500</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-360900</v>
+        <v>-387000</v>
       </c>
       <c r="E102" s="3">
-        <v>-608400</v>
+        <v>-652500</v>
       </c>
       <c r="F102" s="3">
-        <v>1442200</v>
+        <v>1546600</v>
       </c>
       <c r="G102" s="3">
-        <v>-97300</v>
+        <v>-104300</v>
       </c>
       <c r="H102" s="3">
-        <v>293100</v>
+        <v>314300</v>
       </c>
       <c r="I102" s="3">
-        <v>-349800</v>
+        <v>-375100</v>
       </c>
       <c r="J102" s="3">
-        <v>-77600</v>
+        <v>-83200</v>
       </c>
       <c r="K102" s="3">
         <v>-133200</v>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34178100</v>
+        <v>34452600</v>
       </c>
       <c r="E8" s="3">
-        <v>32348800</v>
+        <v>32608600</v>
       </c>
       <c r="F8" s="3">
-        <v>25839900</v>
+        <v>26047500</v>
       </c>
       <c r="G8" s="3">
-        <v>18662800</v>
+        <v>18812700</v>
       </c>
       <c r="H8" s="3">
-        <v>17307600</v>
+        <v>17446700</v>
       </c>
       <c r="I8" s="3">
-        <v>18452800</v>
+        <v>18601000</v>
       </c>
       <c r="J8" s="3">
-        <v>20155300</v>
+        <v>20317200</v>
       </c>
       <c r="K8" s="3">
         <v>19637800</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5860300</v>
+        <v>5907400</v>
       </c>
       <c r="E9" s="3">
-        <v>6009600</v>
+        <v>6057900</v>
       </c>
       <c r="F9" s="3">
-        <v>6647500</v>
+        <v>6700900</v>
       </c>
       <c r="G9" s="3">
-        <v>4930500</v>
+        <v>4970100</v>
       </c>
       <c r="H9" s="3">
-        <v>4006000</v>
+        <v>4038100</v>
       </c>
       <c r="I9" s="3">
-        <v>4002000</v>
+        <v>4034100</v>
       </c>
       <c r="J9" s="3">
-        <v>4283300</v>
+        <v>4317700</v>
       </c>
       <c r="K9" s="3">
         <v>4281800</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28317700</v>
+        <v>28545200</v>
       </c>
       <c r="E10" s="3">
-        <v>26339200</v>
+        <v>26550800</v>
       </c>
       <c r="F10" s="3">
-        <v>19192400</v>
+        <v>19346600</v>
       </c>
       <c r="G10" s="3">
-        <v>13732300</v>
+        <v>13842600</v>
       </c>
       <c r="H10" s="3">
-        <v>13301700</v>
+        <v>13408500</v>
       </c>
       <c r="I10" s="3">
-        <v>14450800</v>
+        <v>14566800</v>
       </c>
       <c r="J10" s="3">
-        <v>15871900</v>
+        <v>15999400</v>
       </c>
       <c r="K10" s="3">
         <v>15356000</v>
@@ -832,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>166400</v>
+        <v>167800</v>
       </c>
       <c r="E12" s="3">
-        <v>138700</v>
+        <v>139800</v>
       </c>
       <c r="F12" s="3">
-        <v>105700</v>
+        <v>106500</v>
       </c>
       <c r="G12" s="3">
-        <v>70000</v>
+        <v>70600</v>
       </c>
       <c r="H12" s="3">
-        <v>79200</v>
+        <v>79900</v>
       </c>
       <c r="I12" s="3">
-        <v>97700</v>
+        <v>98500</v>
       </c>
       <c r="J12" s="3">
-        <v>120200</v>
+        <v>121200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -898,25 +898,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1006400</v>
+        <v>1014500</v>
       </c>
       <c r="E14" s="3">
-        <v>424000</v>
+        <v>427400</v>
       </c>
       <c r="F14" s="3">
-        <v>-29764000</v>
+        <v>-30003100</v>
       </c>
       <c r="G14" s="3">
-        <v>929800</v>
+        <v>937300</v>
       </c>
       <c r="H14" s="3">
-        <v>619500</v>
+        <v>624400</v>
       </c>
       <c r="I14" s="3">
-        <v>1091000</v>
+        <v>1099700</v>
       </c>
       <c r="J14" s="3">
-        <v>355300</v>
+        <v>358100</v>
       </c>
       <c r="K14" s="3">
         <v>46500</v>
@@ -931,25 +931,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1657600</v>
+        <v>1670900</v>
       </c>
       <c r="E15" s="3">
-        <v>1307600</v>
+        <v>1318100</v>
       </c>
       <c r="F15" s="3">
-        <v>1079100</v>
+        <v>1087800</v>
       </c>
       <c r="G15" s="3">
-        <v>1433100</v>
+        <v>1444600</v>
       </c>
       <c r="H15" s="3">
-        <v>533600</v>
+        <v>537900</v>
       </c>
       <c r="I15" s="3">
-        <v>635300</v>
+        <v>640400</v>
       </c>
       <c r="J15" s="3">
-        <v>585100</v>
+        <v>589800</v>
       </c>
       <c r="K15" s="3">
         <v>764100</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22269800</v>
+        <v>22448700</v>
       </c>
       <c r="E17" s="3">
-        <v>19988800</v>
+        <v>20149400</v>
       </c>
       <c r="F17" s="3">
-        <v>-13185400</v>
+        <v>-13291400</v>
       </c>
       <c r="G17" s="3">
-        <v>12647900</v>
+        <v>12749500</v>
       </c>
       <c r="H17" s="3">
-        <v>11426200</v>
+        <v>11517900</v>
       </c>
       <c r="I17" s="3">
-        <v>12443200</v>
+        <v>12543100</v>
       </c>
       <c r="J17" s="3">
-        <v>12856600</v>
+        <v>12959800</v>
       </c>
       <c r="K17" s="3">
         <v>12692800</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11908200</v>
+        <v>12003900</v>
       </c>
       <c r="E18" s="3">
-        <v>12360000</v>
+        <v>12459200</v>
       </c>
       <c r="F18" s="3">
-        <v>39025400</v>
+        <v>39338900</v>
       </c>
       <c r="G18" s="3">
-        <v>6014900</v>
+        <v>6063200</v>
       </c>
       <c r="H18" s="3">
-        <v>5881500</v>
+        <v>5928700</v>
       </c>
       <c r="I18" s="3">
-        <v>6009600</v>
+        <v>6057900</v>
       </c>
       <c r="J18" s="3">
-        <v>7298700</v>
+        <v>7357300</v>
       </c>
       <c r="K18" s="3">
         <v>6945000</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>797800</v>
+        <v>804200</v>
       </c>
       <c r="E20" s="3">
-        <v>774000</v>
+        <v>780200</v>
       </c>
       <c r="F20" s="3">
-        <v>1401400</v>
+        <v>1412600</v>
       </c>
       <c r="G20" s="3">
-        <v>3085400</v>
+        <v>3110200</v>
       </c>
       <c r="H20" s="3">
-        <v>2619100</v>
+        <v>2640200</v>
       </c>
       <c r="I20" s="3">
-        <v>1170200</v>
+        <v>1179600</v>
       </c>
       <c r="J20" s="3">
-        <v>1171500</v>
+        <v>1181000</v>
       </c>
       <c r="K20" s="3">
         <v>1782800</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14611400</v>
+        <v>14743200</v>
       </c>
       <c r="E21" s="3">
-        <v>14435800</v>
+        <v>14561600</v>
       </c>
       <c r="F21" s="3">
-        <v>41501100</v>
+        <v>41842600</v>
       </c>
       <c r="G21" s="3">
-        <v>9898400</v>
+        <v>9984000</v>
       </c>
       <c r="H21" s="3">
-        <v>9063400</v>
+        <v>9140500</v>
       </c>
       <c r="I21" s="3">
-        <v>7867600</v>
+        <v>7936000</v>
       </c>
       <c r="J21" s="3">
-        <v>9097500</v>
+        <v>9175300</v>
       </c>
       <c r="K21" s="3">
         <v>9345300</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2255900</v>
+        <v>2274000</v>
       </c>
       <c r="E22" s="3">
-        <v>2104000</v>
+        <v>2120900</v>
       </c>
       <c r="F22" s="3">
-        <v>1427800</v>
+        <v>1439200</v>
       </c>
       <c r="G22" s="3">
-        <v>851900</v>
+        <v>858800</v>
       </c>
       <c r="H22" s="3">
-        <v>767400</v>
+        <v>773500</v>
       </c>
       <c r="I22" s="3">
-        <v>776600</v>
+        <v>782900</v>
       </c>
       <c r="J22" s="3">
-        <v>811000</v>
+        <v>817500</v>
       </c>
       <c r="K22" s="3">
         <v>1498400</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10450100</v>
+        <v>10534000</v>
       </c>
       <c r="E23" s="3">
-        <v>11029900</v>
+        <v>11118500</v>
       </c>
       <c r="F23" s="3">
-        <v>38999000</v>
+        <v>39312200</v>
       </c>
       <c r="G23" s="3">
-        <v>8248300</v>
+        <v>8314600</v>
       </c>
       <c r="H23" s="3">
-        <v>7733200</v>
+        <v>7795300</v>
       </c>
       <c r="I23" s="3">
-        <v>6403200</v>
+        <v>6454600</v>
       </c>
       <c r="J23" s="3">
-        <v>7659300</v>
+        <v>7720800</v>
       </c>
       <c r="K23" s="3">
         <v>7229400</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2786900</v>
+        <v>2809300</v>
       </c>
       <c r="E24" s="3">
-        <v>2920300</v>
+        <v>2943700</v>
       </c>
       <c r="F24" s="3">
-        <v>1924400</v>
+        <v>1939800</v>
       </c>
       <c r="G24" s="3">
-        <v>1857000</v>
+        <v>1871900</v>
       </c>
       <c r="H24" s="3">
-        <v>1760600</v>
+        <v>1774800</v>
       </c>
       <c r="I24" s="3">
-        <v>1921700</v>
+        <v>1937200</v>
       </c>
       <c r="J24" s="3">
-        <v>2113300</v>
+        <v>2130200</v>
       </c>
       <c r="K24" s="3">
         <v>1959900</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7663200</v>
+        <v>7724800</v>
       </c>
       <c r="E26" s="3">
-        <v>8109700</v>
+        <v>8174800</v>
       </c>
       <c r="F26" s="3">
-        <v>37074600</v>
+        <v>37372400</v>
       </c>
       <c r="G26" s="3">
-        <v>6391300</v>
+        <v>6442600</v>
       </c>
       <c r="H26" s="3">
-        <v>5972600</v>
+        <v>6020600</v>
       </c>
       <c r="I26" s="3">
-        <v>4481400</v>
+        <v>4517400</v>
       </c>
       <c r="J26" s="3">
-        <v>5546000</v>
+        <v>5590500</v>
       </c>
       <c r="K26" s="3">
         <v>5269500</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7471700</v>
+        <v>7531700</v>
       </c>
       <c r="E27" s="3">
-        <v>7874500</v>
+        <v>7937800</v>
       </c>
       <c r="F27" s="3">
-        <v>36848700</v>
+        <v>37144700</v>
       </c>
       <c r="G27" s="3">
-        <v>6139000</v>
+        <v>6188300</v>
       </c>
       <c r="H27" s="3">
-        <v>5666200</v>
+        <v>5711700</v>
       </c>
       <c r="I27" s="3">
-        <v>4114300</v>
+        <v>4147300</v>
       </c>
       <c r="J27" s="3">
-        <v>5156400</v>
+        <v>5197800</v>
       </c>
       <c r="K27" s="3">
         <v>4908800</v>
@@ -1354,13 +1354,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>62100</v>
+        <v>62600</v>
       </c>
       <c r="E29" s="3">
-        <v>92500</v>
+        <v>93200</v>
       </c>
       <c r="F29" s="3">
-        <v>12661100</v>
+        <v>12762800</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-797800</v>
+        <v>-804200</v>
       </c>
       <c r="E32" s="3">
-        <v>-774000</v>
+        <v>-780200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1401400</v>
+        <v>-1412600</v>
       </c>
       <c r="G32" s="3">
-        <v>-3085400</v>
+        <v>-3110200</v>
       </c>
       <c r="H32" s="3">
-        <v>-2619100</v>
+        <v>-2640200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1170200</v>
+        <v>-1179600</v>
       </c>
       <c r="J32" s="3">
-        <v>-1171500</v>
+        <v>-1181000</v>
       </c>
       <c r="K32" s="3">
         <v>-1782800</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7533800</v>
+        <v>7594300</v>
       </c>
       <c r="E33" s="3">
-        <v>7967000</v>
+        <v>8031000</v>
       </c>
       <c r="F33" s="3">
-        <v>49509800</v>
+        <v>49907500</v>
       </c>
       <c r="G33" s="3">
-        <v>6139000</v>
+        <v>6188300</v>
       </c>
       <c r="H33" s="3">
-        <v>5666200</v>
+        <v>5711700</v>
       </c>
       <c r="I33" s="3">
-        <v>4114300</v>
+        <v>4147300</v>
       </c>
       <c r="J33" s="3">
-        <v>5156400</v>
+        <v>5197800</v>
       </c>
       <c r="K33" s="3">
         <v>4908800</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7533800</v>
+        <v>7594300</v>
       </c>
       <c r="E35" s="3">
-        <v>7967000</v>
+        <v>8031000</v>
       </c>
       <c r="F35" s="3">
-        <v>49509800</v>
+        <v>49907500</v>
       </c>
       <c r="G35" s="3">
-        <v>6139000</v>
+        <v>6188300</v>
       </c>
       <c r="H35" s="3">
-        <v>5666200</v>
+        <v>5711700</v>
       </c>
       <c r="I35" s="3">
-        <v>4114300</v>
+        <v>4147300</v>
       </c>
       <c r="J35" s="3">
-        <v>5156400</v>
+        <v>5197800</v>
       </c>
       <c r="K35" s="3">
         <v>4908800</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3336300</v>
+        <v>3363100</v>
       </c>
       <c r="E41" s="3">
-        <v>3436700</v>
+        <v>3464300</v>
       </c>
       <c r="F41" s="3">
-        <v>8693400</v>
+        <v>8763300</v>
       </c>
       <c r="G41" s="3">
-        <v>2911000</v>
+        <v>2934400</v>
       </c>
       <c r="H41" s="3">
-        <v>2592700</v>
+        <v>2613500</v>
       </c>
       <c r="I41" s="3">
-        <v>2401200</v>
+        <v>2420500</v>
       </c>
       <c r="J41" s="3">
-        <v>2781600</v>
+        <v>2803900</v>
       </c>
       <c r="K41" s="3">
         <v>1263100</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>162500</v>
+        <v>163800</v>
       </c>
       <c r="E42" s="3">
-        <v>235100</v>
+        <v>237000</v>
       </c>
       <c r="F42" s="3">
-        <v>85900</v>
+        <v>86500</v>
       </c>
       <c r="G42" s="3">
-        <v>19800</v>
+        <v>20000</v>
       </c>
       <c r="H42" s="3">
-        <v>46200</v>
+        <v>46600</v>
       </c>
       <c r="I42" s="3">
-        <v>66000</v>
+        <v>66600</v>
       </c>
       <c r="J42" s="3">
-        <v>71300</v>
+        <v>71900</v>
       </c>
       <c r="K42" s="3">
         <v>1460900</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5567100</v>
+        <v>5611900</v>
       </c>
       <c r="E43" s="3">
-        <v>4836700</v>
+        <v>4875600</v>
       </c>
       <c r="F43" s="3">
-        <v>5960700</v>
+        <v>6008600</v>
       </c>
       <c r="G43" s="3">
-        <v>5221100</v>
+        <v>5263000</v>
       </c>
       <c r="H43" s="3">
-        <v>4411400</v>
+        <v>4446900</v>
       </c>
       <c r="I43" s="3">
-        <v>3731200</v>
+        <v>3761200</v>
       </c>
       <c r="J43" s="3">
-        <v>3924100</v>
+        <v>3955600</v>
       </c>
       <c r="K43" s="3">
         <v>3650900</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8048900</v>
+        <v>8113600</v>
       </c>
       <c r="E44" s="3">
-        <v>7963000</v>
+        <v>8027000</v>
       </c>
       <c r="F44" s="3">
-        <v>15490200</v>
+        <v>15614700</v>
       </c>
       <c r="G44" s="3">
-        <v>7651300</v>
+        <v>7712800</v>
       </c>
       <c r="H44" s="3">
-        <v>5609400</v>
+        <v>5654500</v>
       </c>
       <c r="I44" s="3">
-        <v>5458800</v>
+        <v>5502700</v>
       </c>
       <c r="J44" s="3">
-        <v>5338600</v>
+        <v>5381500</v>
       </c>
       <c r="K44" s="3">
         <v>5204900</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>417400</v>
+        <v>420700</v>
       </c>
       <c r="E45" s="3">
-        <v>243000</v>
+        <v>245000</v>
       </c>
       <c r="F45" s="3">
-        <v>307700</v>
+        <v>310200</v>
       </c>
       <c r="G45" s="3">
-        <v>520400</v>
+        <v>524600</v>
       </c>
       <c r="H45" s="3">
-        <v>302500</v>
+        <v>304900</v>
       </c>
       <c r="I45" s="3">
-        <v>404200</v>
+        <v>407400</v>
       </c>
       <c r="J45" s="3">
-        <v>455700</v>
+        <v>459300</v>
       </c>
       <c r="K45" s="3">
         <v>296100</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17532200</v>
+        <v>17673000</v>
       </c>
       <c r="E46" s="3">
-        <v>16714600</v>
+        <v>16848900</v>
       </c>
       <c r="F46" s="3">
-        <v>18446200</v>
+        <v>18594300</v>
       </c>
       <c r="G46" s="3">
-        <v>16323600</v>
+        <v>16454800</v>
       </c>
       <c r="H46" s="3">
-        <v>12962200</v>
+        <v>13066400</v>
       </c>
       <c r="I46" s="3">
-        <v>12061500</v>
+        <v>12158300</v>
       </c>
       <c r="J46" s="3">
-        <v>12571300</v>
+        <v>12672300</v>
       </c>
       <c r="K46" s="3">
         <v>11875800</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2800100</v>
+        <v>2822600</v>
       </c>
       <c r="E47" s="3">
-        <v>3250500</v>
+        <v>3276600</v>
       </c>
       <c r="F47" s="3">
-        <v>3136900</v>
+        <v>3162100</v>
       </c>
       <c r="G47" s="3">
-        <v>13404700</v>
+        <v>13512400</v>
       </c>
       <c r="H47" s="3">
-        <v>9540100</v>
+        <v>9616700</v>
       </c>
       <c r="I47" s="3">
-        <v>3419500</v>
+        <v>3447000</v>
       </c>
       <c r="J47" s="3">
-        <v>3309900</v>
+        <v>3336500</v>
       </c>
       <c r="K47" s="3">
         <v>3349700</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7288100</v>
+        <v>7346700</v>
       </c>
       <c r="E48" s="3">
-        <v>6823200</v>
+        <v>6878000</v>
       </c>
       <c r="F48" s="3">
-        <v>12896200</v>
+        <v>12999800</v>
       </c>
       <c r="G48" s="3">
-        <v>4835400</v>
+        <v>4874300</v>
       </c>
       <c r="H48" s="3">
-        <v>3990100</v>
+        <v>4022200</v>
       </c>
       <c r="I48" s="3">
-        <v>3967700</v>
+        <v>3999500</v>
       </c>
       <c r="J48" s="3">
-        <v>4168400</v>
+        <v>4201900</v>
       </c>
       <c r="K48" s="3">
         <v>4138300</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>156893000</v>
+        <v>158153000</v>
       </c>
       <c r="E49" s="3">
-        <v>163795000</v>
+        <v>165111000</v>
       </c>
       <c r="F49" s="3">
-        <v>311139000</v>
+        <v>313638000</v>
       </c>
       <c r="G49" s="3">
-        <v>16004000</v>
+        <v>16132600</v>
       </c>
       <c r="H49" s="3">
-        <v>13783800</v>
+        <v>13894500</v>
       </c>
       <c r="I49" s="3">
-        <v>14269800</v>
+        <v>14384400</v>
       </c>
       <c r="J49" s="3">
-        <v>14799500</v>
+        <v>14918300</v>
       </c>
       <c r="K49" s="3">
         <v>15138800</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1725000</v>
+        <v>1738800</v>
       </c>
       <c r="E52" s="3">
-        <v>2703700</v>
+        <v>2725400</v>
       </c>
       <c r="F52" s="3">
-        <v>2702300</v>
+        <v>2724000</v>
       </c>
       <c r="G52" s="3">
-        <v>1964000</v>
+        <v>1979800</v>
       </c>
       <c r="H52" s="3">
-        <v>1348500</v>
+        <v>1359400</v>
       </c>
       <c r="I52" s="3">
-        <v>842700</v>
+        <v>849400</v>
       </c>
       <c r="J52" s="3">
-        <v>655100</v>
+        <v>660400</v>
       </c>
       <c r="K52" s="3">
         <v>826100</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>186238000</v>
+        <v>187734000</v>
       </c>
       <c r="E54" s="3">
-        <v>193287000</v>
+        <v>194840000</v>
       </c>
       <c r="F54" s="3">
-        <v>186303000</v>
+        <v>187799000</v>
       </c>
       <c r="G54" s="3">
-        <v>52531800</v>
+        <v>52953800</v>
       </c>
       <c r="H54" s="3">
-        <v>41624700</v>
+        <v>41959100</v>
       </c>
       <c r="I54" s="3">
-        <v>34561100</v>
+        <v>34838700</v>
       </c>
       <c r="J54" s="3">
-        <v>35504200</v>
+        <v>35789400</v>
       </c>
       <c r="K54" s="3">
         <v>35328600</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12847300</v>
+        <v>12950500</v>
       </c>
       <c r="E57" s="3">
-        <v>14041300</v>
+        <v>14154100</v>
       </c>
       <c r="F57" s="3">
-        <v>11765600</v>
+        <v>11860100</v>
       </c>
       <c r="G57" s="3">
-        <v>9688000</v>
+        <v>9765800</v>
       </c>
       <c r="H57" s="3">
-        <v>7841500</v>
+        <v>7904500</v>
       </c>
       <c r="I57" s="3">
-        <v>7296000</v>
+        <v>7354700</v>
       </c>
       <c r="J57" s="3">
-        <v>7582700</v>
+        <v>7643600</v>
       </c>
       <c r="K57" s="3">
         <v>7533200</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9361800</v>
+        <v>9437000</v>
       </c>
       <c r="E58" s="3">
-        <v>4959600</v>
+        <v>4999400</v>
       </c>
       <c r="F58" s="3">
-        <v>13737500</v>
+        <v>13847900</v>
       </c>
       <c r="G58" s="3">
-        <v>3971600</v>
+        <v>4003500</v>
       </c>
       <c r="H58" s="3">
-        <v>2899100</v>
+        <v>2922400</v>
       </c>
       <c r="I58" s="3">
-        <v>3274200</v>
+        <v>3300500</v>
       </c>
       <c r="J58" s="3">
-        <v>2615200</v>
+        <v>2636200</v>
       </c>
       <c r="K58" s="3">
         <v>2115000</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2652100</v>
+        <v>2673500</v>
       </c>
       <c r="E59" s="3">
-        <v>2566300</v>
+        <v>2586900</v>
       </c>
       <c r="F59" s="3">
-        <v>2797400</v>
+        <v>2819900</v>
       </c>
       <c r="G59" s="3">
-        <v>1999700</v>
+        <v>2015700</v>
       </c>
       <c r="H59" s="3">
-        <v>1154400</v>
+        <v>1163600</v>
       </c>
       <c r="I59" s="3">
-        <v>1011700</v>
+        <v>1019900</v>
       </c>
       <c r="J59" s="3">
-        <v>944400</v>
+        <v>952000</v>
       </c>
       <c r="K59" s="3">
         <v>877800</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24861200</v>
+        <v>25060900</v>
       </c>
       <c r="E60" s="3">
-        <v>21567200</v>
+        <v>21740400</v>
       </c>
       <c r="F60" s="3">
-        <v>20610900</v>
+        <v>20776500</v>
       </c>
       <c r="G60" s="3">
-        <v>15659300</v>
+        <v>15785100</v>
       </c>
       <c r="H60" s="3">
-        <v>11895000</v>
+        <v>11990600</v>
       </c>
       <c r="I60" s="3">
-        <v>11582000</v>
+        <v>11675000</v>
       </c>
       <c r="J60" s="3">
-        <v>11142200</v>
+        <v>11231700</v>
       </c>
       <c r="K60" s="3">
         <v>10526100</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>49931100</v>
+        <v>50332200</v>
       </c>
       <c r="E61" s="3">
-        <v>57169100</v>
+        <v>57628300</v>
       </c>
       <c r="F61" s="3">
-        <v>58150400</v>
+        <v>58617500</v>
       </c>
       <c r="G61" s="3">
-        <v>21777200</v>
+        <v>21952100</v>
       </c>
       <c r="H61" s="3">
-        <v>19555600</v>
+        <v>19712700</v>
       </c>
       <c r="I61" s="3">
-        <v>12916000</v>
+        <v>13019800</v>
       </c>
       <c r="J61" s="3">
-        <v>12832800</v>
+        <v>12935900</v>
       </c>
       <c r="K61" s="3">
         <v>11742600</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26703700</v>
+        <v>26918200</v>
       </c>
       <c r="E62" s="3">
-        <v>27790700</v>
+        <v>28014000</v>
       </c>
       <c r="F62" s="3">
-        <v>27465800</v>
+        <v>27686500</v>
       </c>
       <c r="G62" s="3">
-        <v>3992700</v>
+        <v>4024800</v>
       </c>
       <c r="H62" s="3">
-        <v>3527800</v>
+        <v>3556200</v>
       </c>
       <c r="I62" s="3">
-        <v>2384000</v>
+        <v>2403200</v>
       </c>
       <c r="J62" s="3">
-        <v>2369500</v>
+        <v>2388500</v>
       </c>
       <c r="K62" s="3">
         <v>3003200</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>101837000</v>
+        <v>102655000</v>
       </c>
       <c r="E66" s="3">
-        <v>106849000</v>
+        <v>107708000</v>
       </c>
       <c r="F66" s="3">
-        <v>106053000</v>
+        <v>106905000</v>
       </c>
       <c r="G66" s="3">
-        <v>41725100</v>
+        <v>42060300</v>
       </c>
       <c r="H66" s="3">
-        <v>35160800</v>
+        <v>35443200</v>
       </c>
       <c r="I66" s="3">
-        <v>27283600</v>
+        <v>27502700</v>
       </c>
       <c r="J66" s="3">
-        <v>26742000</v>
+        <v>26956900</v>
       </c>
       <c r="K66" s="3">
         <v>25668700</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>95866900</v>
+        <v>96637000</v>
       </c>
       <c r="E72" s="3">
-        <v>93626800</v>
+        <v>94379000</v>
       </c>
       <c r="F72" s="3">
-        <v>135726000</v>
+        <v>136816000</v>
       </c>
       <c r="G72" s="3">
-        <v>10028800</v>
+        <v>10109300</v>
       </c>
       <c r="H72" s="3">
-        <v>5691300</v>
+        <v>5737000</v>
       </c>
       <c r="I72" s="3">
-        <v>6510200</v>
+        <v>6562500</v>
       </c>
       <c r="J72" s="3">
-        <v>8000000</v>
+        <v>8064300</v>
       </c>
       <c r="K72" s="3">
         <v>12568700</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>84401100</v>
+        <v>85079100</v>
       </c>
       <c r="E76" s="3">
-        <v>86437800</v>
+        <v>87132100</v>
       </c>
       <c r="F76" s="3">
-        <v>80249900</v>
+        <v>80894500</v>
       </c>
       <c r="G76" s="3">
-        <v>10806700</v>
+        <v>10893500</v>
       </c>
       <c r="H76" s="3">
-        <v>6463900</v>
+        <v>6515900</v>
       </c>
       <c r="I76" s="3">
-        <v>7277600</v>
+        <v>7336000</v>
       </c>
       <c r="J76" s="3">
-        <v>8762100</v>
+        <v>8832500</v>
       </c>
       <c r="K76" s="3">
         <v>9659900</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7533800</v>
+        <v>7594300</v>
       </c>
       <c r="E81" s="3">
-        <v>7967000</v>
+        <v>8031000</v>
       </c>
       <c r="F81" s="3">
-        <v>49509800</v>
+        <v>49907500</v>
       </c>
       <c r="G81" s="3">
-        <v>6139000</v>
+        <v>6188300</v>
       </c>
       <c r="H81" s="3">
-        <v>5666200</v>
+        <v>5711700</v>
       </c>
       <c r="I81" s="3">
-        <v>4114300</v>
+        <v>4147300</v>
       </c>
       <c r="J81" s="3">
-        <v>5156400</v>
+        <v>5197800</v>
       </c>
       <c r="K81" s="3">
         <v>4908800</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1913800</v>
+        <v>1929200</v>
       </c>
       <c r="E83" s="3">
-        <v>1307600</v>
+        <v>1318100</v>
       </c>
       <c r="F83" s="3">
-        <v>1079100</v>
+        <v>1087800</v>
       </c>
       <c r="G83" s="3">
-        <v>801700</v>
+        <v>808200</v>
       </c>
       <c r="H83" s="3">
-        <v>565300</v>
+        <v>569800</v>
       </c>
       <c r="I83" s="3">
-        <v>690800</v>
+        <v>696300</v>
       </c>
       <c r="J83" s="3">
-        <v>630000</v>
+        <v>635100</v>
       </c>
       <c r="K83" s="3">
         <v>614100</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11881800</v>
+        <v>11977300</v>
       </c>
       <c r="E89" s="3">
-        <v>13597500</v>
+        <v>13706800</v>
       </c>
       <c r="F89" s="3">
-        <v>7062300</v>
+        <v>7119000</v>
       </c>
       <c r="G89" s="3">
-        <v>6088800</v>
+        <v>6137800</v>
       </c>
       <c r="H89" s="3">
-        <v>6234100</v>
+        <v>6284200</v>
       </c>
       <c r="I89" s="3">
-        <v>4908100</v>
+        <v>4947500</v>
       </c>
       <c r="J89" s="3">
-        <v>5859000</v>
+        <v>5906100</v>
       </c>
       <c r="K89" s="3">
         <v>5723300</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-877000</v>
+        <v>-884000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1001200</v>
+        <v>-1009200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1044700</v>
+        <v>-1053100</v>
       </c>
       <c r="G91" s="3">
-        <v>-774000</v>
+        <v>-780200</v>
       </c>
       <c r="H91" s="3">
-        <v>-637900</v>
+        <v>-643100</v>
       </c>
       <c r="I91" s="3">
-        <v>-698700</v>
+        <v>-704300</v>
       </c>
       <c r="J91" s="3">
-        <v>-758100</v>
+        <v>-764200</v>
       </c>
       <c r="K91" s="3">
         <v>-858400</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-844000</v>
+        <v>-850800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1348500</v>
+        <v>-1359400</v>
       </c>
       <c r="F94" s="3">
-        <v>-24492700</v>
+        <v>-24689500</v>
       </c>
       <c r="G94" s="3">
-        <v>-845300</v>
+        <v>-852100</v>
       </c>
       <c r="H94" s="3">
-        <v>-5271300</v>
+        <v>-5313600</v>
       </c>
       <c r="I94" s="3">
-        <v>-620800</v>
+        <v>-625800</v>
       </c>
       <c r="J94" s="3">
-        <v>-442500</v>
+        <v>-446000</v>
       </c>
       <c r="K94" s="3">
         <v>-517100</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6073000</v>
+        <v>-6121800</v>
       </c>
       <c r="E96" s="3">
-        <v>-5741500</v>
+        <v>-5787600</v>
       </c>
       <c r="F96" s="3">
-        <v>-4576500</v>
+        <v>-4613300</v>
       </c>
       <c r="G96" s="3">
-        <v>-3843500</v>
+        <v>-3874400</v>
       </c>
       <c r="H96" s="3">
-        <v>-3658600</v>
+        <v>-3688000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3582000</v>
+        <v>-3610800</v>
       </c>
       <c r="J96" s="3">
-        <v>-3448600</v>
+        <v>-3476300</v>
       </c>
       <c r="K96" s="3">
         <v>-3281200</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11349500</v>
+        <v>-11440700</v>
       </c>
       <c r="E100" s="3">
-        <v>-12719200</v>
+        <v>-12821400</v>
       </c>
       <c r="F100" s="3">
-        <v>19493500</v>
+        <v>19650100</v>
       </c>
       <c r="G100" s="3">
-        <v>-5585600</v>
+        <v>-5630500</v>
       </c>
       <c r="H100" s="3">
-        <v>-289300</v>
+        <v>-291600</v>
       </c>
       <c r="I100" s="3">
-        <v>-4579200</v>
+        <v>-4616000</v>
       </c>
       <c r="J100" s="3">
-        <v>-5239600</v>
+        <v>-5281700</v>
       </c>
       <c r="K100" s="3">
         <v>-5111800</v>
@@ -3464,25 +3464,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-75300</v>
+        <v>-75900</v>
       </c>
       <c r="E101" s="3">
-        <v>-182300</v>
+        <v>-183700</v>
       </c>
       <c r="F101" s="3">
-        <v>-516400</v>
+        <v>-520600</v>
       </c>
       <c r="G101" s="3">
-        <v>237700</v>
+        <v>239700</v>
       </c>
       <c r="H101" s="3">
-        <v>-359300</v>
+        <v>-362100</v>
       </c>
       <c r="I101" s="3">
-        <v>-83200</v>
+        <v>-83900</v>
       </c>
       <c r="J101" s="3">
-        <v>-260200</v>
+        <v>-262300</v>
       </c>
       <c r="K101" s="3">
         <v>-227500</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-387000</v>
+        <v>-390100</v>
       </c>
       <c r="E102" s="3">
-        <v>-652500</v>
+        <v>-657700</v>
       </c>
       <c r="F102" s="3">
-        <v>1546600</v>
+        <v>1559100</v>
       </c>
       <c r="G102" s="3">
-        <v>-104300</v>
+        <v>-105200</v>
       </c>
       <c r="H102" s="3">
-        <v>314300</v>
+        <v>316900</v>
       </c>
       <c r="I102" s="3">
-        <v>-375100</v>
+        <v>-378100</v>
       </c>
       <c r="J102" s="3">
-        <v>-83200</v>
+        <v>-83900</v>
       </c>
       <c r="K102" s="3">
         <v>-133200</v>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34452600</v>
+        <v>35395300</v>
       </c>
       <c r="E8" s="3">
-        <v>32608600</v>
+        <v>35534000</v>
       </c>
       <c r="F8" s="3">
-        <v>26047500</v>
+        <v>33632200</v>
       </c>
       <c r="G8" s="3">
-        <v>18812700</v>
+        <v>26865100</v>
       </c>
       <c r="H8" s="3">
-        <v>17446700</v>
+        <v>19403200</v>
       </c>
       <c r="I8" s="3">
-        <v>18601000</v>
+        <v>17994300</v>
       </c>
       <c r="J8" s="3">
+        <v>19184800</v>
+      </c>
+      <c r="K8" s="3">
         <v>20317200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19637800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20277200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5907400</v>
+        <v>5682300</v>
       </c>
       <c r="E9" s="3">
-        <v>6057900</v>
+        <v>6092800</v>
       </c>
       <c r="F9" s="3">
-        <v>6700900</v>
+        <v>6248000</v>
       </c>
       <c r="G9" s="3">
-        <v>4970100</v>
+        <v>6911300</v>
       </c>
       <c r="H9" s="3">
-        <v>4038100</v>
+        <v>5126100</v>
       </c>
       <c r="I9" s="3">
-        <v>4034100</v>
+        <v>4164900</v>
       </c>
       <c r="J9" s="3">
+        <v>4160800</v>
+      </c>
+      <c r="K9" s="3">
         <v>4317700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4281800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4511300</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28545200</v>
+        <v>29713100</v>
       </c>
       <c r="E10" s="3">
-        <v>26550800</v>
+        <v>29441200</v>
       </c>
       <c r="F10" s="3">
-        <v>19346600</v>
+        <v>27384200</v>
       </c>
       <c r="G10" s="3">
-        <v>13842600</v>
+        <v>19953800</v>
       </c>
       <c r="H10" s="3">
-        <v>13408500</v>
+        <v>14277100</v>
       </c>
       <c r="I10" s="3">
-        <v>14566800</v>
+        <v>13829400</v>
       </c>
       <c r="J10" s="3">
+        <v>15024100</v>
+      </c>
+      <c r="K10" s="3">
         <v>15999400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15356000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15765900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>167800</v>
+        <v>166200</v>
       </c>
       <c r="E12" s="3">
-        <v>139800</v>
+        <v>173000</v>
       </c>
       <c r="F12" s="3">
-        <v>106500</v>
+        <v>144200</v>
       </c>
       <c r="G12" s="3">
-        <v>70600</v>
+        <v>109900</v>
       </c>
       <c r="H12" s="3">
-        <v>79900</v>
+        <v>72800</v>
       </c>
       <c r="I12" s="3">
-        <v>98500</v>
+        <v>82400</v>
       </c>
       <c r="J12" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K12" s="3">
         <v>121200</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>106700</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,75 +907,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1014500</v>
+        <v>1046400</v>
       </c>
       <c r="E14" s="3">
-        <v>427400</v>
+        <v>1046400</v>
       </c>
       <c r="F14" s="3">
-        <v>-30003100</v>
+        <v>440800</v>
       </c>
       <c r="G14" s="3">
-        <v>937300</v>
+        <v>-30944800</v>
       </c>
       <c r="H14" s="3">
-        <v>624400</v>
+        <v>966700</v>
       </c>
       <c r="I14" s="3">
-        <v>1099700</v>
+        <v>644000</v>
       </c>
       <c r="J14" s="3">
+        <v>1134300</v>
+      </c>
+      <c r="K14" s="3">
         <v>358100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>46500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>686000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1670900</v>
+        <v>1496800</v>
       </c>
       <c r="E15" s="3">
-        <v>1318100</v>
+        <v>1723400</v>
       </c>
       <c r="F15" s="3">
-        <v>1087800</v>
+        <v>1359500</v>
       </c>
       <c r="G15" s="3">
-        <v>1444600</v>
+        <v>1121900</v>
       </c>
       <c r="H15" s="3">
-        <v>537900</v>
+        <v>1489900</v>
       </c>
       <c r="I15" s="3">
-        <v>640400</v>
+        <v>554800</v>
       </c>
       <c r="J15" s="3">
+        <v>660500</v>
+      </c>
+      <c r="K15" s="3">
         <v>589800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>764100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>679500</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22448700</v>
+        <v>21910600</v>
       </c>
       <c r="E17" s="3">
-        <v>20149400</v>
+        <v>23153400</v>
       </c>
       <c r="F17" s="3">
-        <v>-13291400</v>
+        <v>20781900</v>
       </c>
       <c r="G17" s="3">
-        <v>12749500</v>
+        <v>-13708600</v>
       </c>
       <c r="H17" s="3">
-        <v>11517900</v>
+        <v>13149700</v>
       </c>
       <c r="I17" s="3">
-        <v>12543100</v>
+        <v>11879500</v>
       </c>
       <c r="J17" s="3">
+        <v>12936800</v>
+      </c>
+      <c r="K17" s="3">
         <v>12959800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12692800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14060700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12003900</v>
+        <v>13484700</v>
       </c>
       <c r="E18" s="3">
-        <v>12459200</v>
+        <v>12380700</v>
       </c>
       <c r="F18" s="3">
-        <v>39338900</v>
+        <v>12850300</v>
       </c>
       <c r="G18" s="3">
-        <v>6063200</v>
+        <v>40573600</v>
       </c>
       <c r="H18" s="3">
-        <v>5928700</v>
+        <v>6253500</v>
       </c>
       <c r="I18" s="3">
-        <v>6057900</v>
+        <v>6114800</v>
       </c>
       <c r="J18" s="3">
+        <v>6248000</v>
+      </c>
+      <c r="K18" s="3">
         <v>7357300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6945000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6216600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,173 +1083,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>804200</v>
+        <v>663300</v>
       </c>
       <c r="E20" s="3">
-        <v>780200</v>
+        <v>829400</v>
       </c>
       <c r="F20" s="3">
-        <v>1412600</v>
+        <v>804700</v>
       </c>
       <c r="G20" s="3">
-        <v>3110200</v>
+        <v>1457000</v>
       </c>
       <c r="H20" s="3">
-        <v>2640200</v>
+        <v>3207800</v>
       </c>
       <c r="I20" s="3">
-        <v>1179600</v>
+        <v>2723000</v>
       </c>
       <c r="J20" s="3">
+        <v>1216600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1181000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1782800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1023100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14743200</v>
+        <v>15925400</v>
       </c>
       <c r="E21" s="3">
-        <v>14561600</v>
+        <v>15192800</v>
       </c>
       <c r="F21" s="3">
-        <v>41842600</v>
+        <v>15009600</v>
       </c>
       <c r="G21" s="3">
-        <v>9984000</v>
+        <v>43148500</v>
       </c>
       <c r="H21" s="3">
-        <v>9140500</v>
+        <v>10291800</v>
       </c>
       <c r="I21" s="3">
-        <v>7936000</v>
+        <v>9423500</v>
       </c>
       <c r="J21" s="3">
+        <v>8180300</v>
+      </c>
+      <c r="K21" s="3">
         <v>9175300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9345300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8311500</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2274000</v>
+        <v>2239700</v>
       </c>
       <c r="E22" s="3">
-        <v>2120900</v>
+        <v>2345400</v>
       </c>
       <c r="F22" s="3">
-        <v>1439200</v>
+        <v>2187500</v>
       </c>
       <c r="G22" s="3">
-        <v>858800</v>
+        <v>1484400</v>
       </c>
       <c r="H22" s="3">
-        <v>773500</v>
+        <v>885700</v>
       </c>
       <c r="I22" s="3">
-        <v>782900</v>
+        <v>797800</v>
       </c>
       <c r="J22" s="3">
+        <v>807400</v>
+      </c>
+      <c r="K22" s="3">
         <v>817500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1498400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>746600</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10534000</v>
+        <v>11908300</v>
       </c>
       <c r="E23" s="3">
-        <v>11118500</v>
+        <v>10864700</v>
       </c>
       <c r="F23" s="3">
-        <v>39312200</v>
+        <v>11467500</v>
       </c>
       <c r="G23" s="3">
-        <v>8314600</v>
+        <v>40546200</v>
       </c>
       <c r="H23" s="3">
-        <v>7795300</v>
+        <v>8575600</v>
       </c>
       <c r="I23" s="3">
-        <v>6454600</v>
+        <v>8040000</v>
       </c>
       <c r="J23" s="3">
+        <v>6657200</v>
+      </c>
+      <c r="K23" s="3">
         <v>7720800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7229400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6493100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2809300</v>
+        <v>3077300</v>
       </c>
       <c r="E24" s="3">
-        <v>2943700</v>
+        <v>2897400</v>
       </c>
       <c r="F24" s="3">
-        <v>1939800</v>
+        <v>3036100</v>
       </c>
       <c r="G24" s="3">
-        <v>1871900</v>
+        <v>2000700</v>
       </c>
       <c r="H24" s="3">
-        <v>1774800</v>
+        <v>1930700</v>
       </c>
       <c r="I24" s="3">
-        <v>1937200</v>
+        <v>1830500</v>
       </c>
       <c r="J24" s="3">
+        <v>1998000</v>
+      </c>
+      <c r="K24" s="3">
         <v>2130200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1959900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2048900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7724800</v>
+        <v>8831000</v>
       </c>
       <c r="E26" s="3">
-        <v>8174800</v>
+        <v>7967200</v>
       </c>
       <c r="F26" s="3">
-        <v>37372400</v>
+        <v>8431400</v>
       </c>
       <c r="G26" s="3">
-        <v>6442600</v>
+        <v>38545400</v>
       </c>
       <c r="H26" s="3">
-        <v>6020600</v>
+        <v>6644900</v>
       </c>
       <c r="I26" s="3">
-        <v>4517400</v>
+        <v>6209600</v>
       </c>
       <c r="J26" s="3">
+        <v>4659200</v>
+      </c>
+      <c r="K26" s="3">
         <v>5590500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5269500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4444200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7531700</v>
+        <v>8605800</v>
       </c>
       <c r="E27" s="3">
-        <v>7937800</v>
+        <v>7768100</v>
       </c>
       <c r="F27" s="3">
-        <v>37144700</v>
+        <v>8187000</v>
       </c>
       <c r="G27" s="3">
-        <v>6188300</v>
+        <v>38310600</v>
       </c>
       <c r="H27" s="3">
-        <v>5711700</v>
+        <v>6382600</v>
       </c>
       <c r="I27" s="3">
-        <v>4147300</v>
+        <v>5891000</v>
       </c>
       <c r="J27" s="3">
+        <v>4277500</v>
+      </c>
+      <c r="K27" s="3">
         <v>5197800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4908800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4075500</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,26 +1404,29 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>62600</v>
+        <v>182600</v>
       </c>
       <c r="E29" s="3">
-        <v>93200</v>
+        <v>64500</v>
       </c>
       <c r="F29" s="3">
-        <v>12762800</v>
+        <v>96100</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>13163400</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-804200</v>
+        <v>-663300</v>
       </c>
       <c r="E32" s="3">
-        <v>-780200</v>
+        <v>-829400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1412600</v>
+        <v>-804700</v>
       </c>
       <c r="G32" s="3">
-        <v>-3110200</v>
+        <v>-1457000</v>
       </c>
       <c r="H32" s="3">
-        <v>-2640200</v>
+        <v>-3207800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1179600</v>
+        <v>-2723000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1216600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1181000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1782800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1023100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7594300</v>
+        <v>8788400</v>
       </c>
       <c r="E33" s="3">
-        <v>8031000</v>
+        <v>7832700</v>
       </c>
       <c r="F33" s="3">
-        <v>49907500</v>
+        <v>8283100</v>
       </c>
       <c r="G33" s="3">
-        <v>6188300</v>
+        <v>51474000</v>
       </c>
       <c r="H33" s="3">
-        <v>5711700</v>
+        <v>6382600</v>
       </c>
       <c r="I33" s="3">
-        <v>4147300</v>
+        <v>5891000</v>
       </c>
       <c r="J33" s="3">
+        <v>4277500</v>
+      </c>
+      <c r="K33" s="3">
         <v>5197800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4908800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4075500</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7594300</v>
+        <v>8788400</v>
       </c>
       <c r="E35" s="3">
-        <v>8031000</v>
+        <v>7832700</v>
       </c>
       <c r="F35" s="3">
-        <v>49907500</v>
+        <v>8283100</v>
       </c>
       <c r="G35" s="3">
-        <v>6188300</v>
+        <v>51474000</v>
       </c>
       <c r="H35" s="3">
-        <v>5711700</v>
+        <v>6382600</v>
       </c>
       <c r="I35" s="3">
-        <v>4147300</v>
+        <v>5891000</v>
       </c>
       <c r="J35" s="3">
+        <v>4277500</v>
+      </c>
+      <c r="K35" s="3">
         <v>5197800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4908800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4075500</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,305 +1732,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3363100</v>
+        <v>4310400</v>
       </c>
       <c r="E41" s="3">
-        <v>3464300</v>
+        <v>3468700</v>
       </c>
       <c r="F41" s="3">
-        <v>8763300</v>
+        <v>3573000</v>
       </c>
       <c r="G41" s="3">
-        <v>2934400</v>
+        <v>9038300</v>
       </c>
       <c r="H41" s="3">
-        <v>2613500</v>
+        <v>3026500</v>
       </c>
       <c r="I41" s="3">
-        <v>2420500</v>
+        <v>2695600</v>
       </c>
       <c r="J41" s="3">
+        <v>2496500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2803900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1263100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1277300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>163800</v>
+        <v>332300</v>
       </c>
       <c r="E42" s="3">
-        <v>237000</v>
+        <v>168900</v>
       </c>
       <c r="F42" s="3">
-        <v>86500</v>
+        <v>244400</v>
       </c>
       <c r="G42" s="3">
-        <v>20000</v>
+        <v>89300</v>
       </c>
       <c r="H42" s="3">
-        <v>46600</v>
+        <v>20600</v>
       </c>
       <c r="I42" s="3">
-        <v>66600</v>
+        <v>48100</v>
       </c>
       <c r="J42" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K42" s="3">
         <v>71900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1460900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1686800</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5611900</v>
+        <v>5218100</v>
       </c>
       <c r="E43" s="3">
-        <v>4875600</v>
+        <v>5788000</v>
       </c>
       <c r="F43" s="3">
-        <v>6008600</v>
+        <v>5028600</v>
       </c>
       <c r="G43" s="3">
-        <v>5263000</v>
+        <v>6197200</v>
       </c>
       <c r="H43" s="3">
-        <v>4446900</v>
+        <v>5428200</v>
       </c>
       <c r="I43" s="3">
-        <v>3761200</v>
+        <v>4586500</v>
       </c>
       <c r="J43" s="3">
+        <v>3879300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3955600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3650900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3357800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8113600</v>
+        <v>8236400</v>
       </c>
       <c r="E44" s="3">
-        <v>8027000</v>
+        <v>8368200</v>
       </c>
       <c r="F44" s="3">
-        <v>15614700</v>
+        <v>8279000</v>
       </c>
       <c r="G44" s="3">
-        <v>7712800</v>
+        <v>16104800</v>
       </c>
       <c r="H44" s="3">
-        <v>5654500</v>
+        <v>7954900</v>
       </c>
       <c r="I44" s="3">
-        <v>5502700</v>
+        <v>5831900</v>
       </c>
       <c r="J44" s="3">
+        <v>5675400</v>
+      </c>
+      <c r="K44" s="3">
         <v>5381500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5204900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4606100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>420700</v>
+        <v>594600</v>
       </c>
       <c r="E45" s="3">
-        <v>245000</v>
+        <v>433900</v>
       </c>
       <c r="F45" s="3">
-        <v>310200</v>
+        <v>252700</v>
       </c>
       <c r="G45" s="3">
-        <v>524600</v>
+        <v>320000</v>
       </c>
       <c r="H45" s="3">
-        <v>304900</v>
+        <v>541000</v>
       </c>
       <c r="I45" s="3">
-        <v>407400</v>
+        <v>314500</v>
       </c>
       <c r="J45" s="3">
+        <v>420200</v>
+      </c>
+      <c r="K45" s="3">
         <v>459300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>296100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>258100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17673000</v>
+        <v>18691900</v>
       </c>
       <c r="E46" s="3">
-        <v>16848900</v>
+        <v>18227700</v>
       </c>
       <c r="F46" s="3">
-        <v>18594300</v>
+        <v>17377700</v>
       </c>
       <c r="G46" s="3">
-        <v>16454800</v>
+        <v>19178000</v>
       </c>
       <c r="H46" s="3">
-        <v>13066400</v>
+        <v>16971300</v>
       </c>
       <c r="I46" s="3">
-        <v>12158300</v>
+        <v>13476500</v>
       </c>
       <c r="J46" s="3">
+        <v>12540000</v>
+      </c>
+      <c r="K46" s="3">
         <v>12672300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11875800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11186100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2822600</v>
+        <v>2828800</v>
       </c>
       <c r="E47" s="3">
-        <v>3276600</v>
+        <v>2911200</v>
       </c>
       <c r="F47" s="3">
-        <v>3162100</v>
+        <v>3379400</v>
       </c>
       <c r="G47" s="3">
-        <v>13512400</v>
+        <v>3261300</v>
       </c>
       <c r="H47" s="3">
-        <v>9616700</v>
+        <v>13936500</v>
       </c>
       <c r="I47" s="3">
-        <v>3447000</v>
+        <v>9918600</v>
       </c>
       <c r="J47" s="3">
+        <v>3555200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3336500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3349700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3895100</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7346700</v>
+        <v>6948300</v>
       </c>
       <c r="E48" s="3">
-        <v>6878000</v>
+        <v>7577300</v>
       </c>
       <c r="F48" s="3">
-        <v>12999800</v>
+        <v>7093900</v>
       </c>
       <c r="G48" s="3">
-        <v>4874300</v>
+        <v>13407800</v>
       </c>
       <c r="H48" s="3">
-        <v>4022200</v>
+        <v>5027200</v>
       </c>
       <c r="I48" s="3">
-        <v>3999500</v>
+        <v>4148400</v>
       </c>
       <c r="J48" s="3">
+        <v>4125100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4201900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4138300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4012300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>158153000</v>
+        <v>158388000</v>
       </c>
       <c r="E49" s="3">
-        <v>165111000</v>
+        <v>163117000</v>
       </c>
       <c r="F49" s="3">
-        <v>313638000</v>
+        <v>170293000</v>
       </c>
       <c r="G49" s="3">
-        <v>16132600</v>
+        <v>323482000</v>
       </c>
       <c r="H49" s="3">
-        <v>13894500</v>
+        <v>16638900</v>
       </c>
       <c r="I49" s="3">
-        <v>14384400</v>
+        <v>14330600</v>
       </c>
       <c r="J49" s="3">
+        <v>14835900</v>
+      </c>
+      <c r="K49" s="3">
         <v>14918300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15138800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15790900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1738800</v>
+        <v>2217700</v>
       </c>
       <c r="E52" s="3">
-        <v>2725400</v>
+        <v>1793400</v>
       </c>
       <c r="F52" s="3">
-        <v>2724000</v>
+        <v>2810900</v>
       </c>
       <c r="G52" s="3">
-        <v>1979800</v>
+        <v>2809500</v>
       </c>
       <c r="H52" s="3">
-        <v>1359400</v>
+        <v>2041900</v>
       </c>
       <c r="I52" s="3">
-        <v>849400</v>
+        <v>1402000</v>
       </c>
       <c r="J52" s="3">
+        <v>876100</v>
+      </c>
+      <c r="K52" s="3">
         <v>660400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>826100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>825600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>187734000</v>
+        <v>189075000</v>
       </c>
       <c r="E54" s="3">
-        <v>194840000</v>
+        <v>193627000</v>
       </c>
       <c r="F54" s="3">
-        <v>187799000</v>
+        <v>200955000</v>
       </c>
       <c r="G54" s="3">
-        <v>52953800</v>
+        <v>193694000</v>
       </c>
       <c r="H54" s="3">
-        <v>41959100</v>
+        <v>54615900</v>
       </c>
       <c r="I54" s="3">
-        <v>34838700</v>
+        <v>43276100</v>
       </c>
       <c r="J54" s="3">
+        <v>35932300</v>
+      </c>
+      <c r="K54" s="3">
         <v>35789400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35328600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35710000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12950500</v>
+        <v>13310300</v>
       </c>
       <c r="E57" s="3">
-        <v>14154100</v>
+        <v>13357000</v>
       </c>
       <c r="F57" s="3">
-        <v>11860100</v>
+        <v>14598400</v>
       </c>
       <c r="G57" s="3">
-        <v>9765800</v>
+        <v>12232400</v>
       </c>
       <c r="H57" s="3">
-        <v>7904500</v>
+        <v>10072300</v>
       </c>
       <c r="I57" s="3">
-        <v>7354700</v>
+        <v>8152600</v>
       </c>
       <c r="J57" s="3">
+        <v>7585500</v>
+      </c>
+      <c r="K57" s="3">
         <v>7643600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7533200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6813100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9437000</v>
+        <v>4863800</v>
       </c>
       <c r="E58" s="3">
-        <v>4999400</v>
+        <v>9733200</v>
       </c>
       <c r="F58" s="3">
-        <v>13847900</v>
+        <v>5156300</v>
       </c>
       <c r="G58" s="3">
-        <v>4003500</v>
+        <v>14282500</v>
       </c>
       <c r="H58" s="3">
-        <v>2922400</v>
+        <v>4129200</v>
       </c>
       <c r="I58" s="3">
-        <v>3300500</v>
+        <v>3014200</v>
       </c>
       <c r="J58" s="3">
+        <v>3404100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2636200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2115000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2325500</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2673500</v>
+        <v>3080100</v>
       </c>
       <c r="E59" s="3">
-        <v>2586900</v>
+        <v>2757400</v>
       </c>
       <c r="F59" s="3">
-        <v>2819900</v>
+        <v>2668100</v>
       </c>
       <c r="G59" s="3">
-        <v>2015700</v>
+        <v>2908400</v>
       </c>
       <c r="H59" s="3">
-        <v>1163600</v>
+        <v>2079000</v>
       </c>
       <c r="I59" s="3">
-        <v>1019900</v>
+        <v>1200200</v>
       </c>
       <c r="J59" s="3">
+        <v>1051900</v>
+      </c>
+      <c r="K59" s="3">
         <v>952000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>877800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1194300</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25060900</v>
+        <v>21254200</v>
       </c>
       <c r="E60" s="3">
-        <v>21740400</v>
+        <v>25847600</v>
       </c>
       <c r="F60" s="3">
-        <v>20776500</v>
+        <v>22422800</v>
       </c>
       <c r="G60" s="3">
-        <v>15785100</v>
+        <v>21428600</v>
       </c>
       <c r="H60" s="3">
-        <v>11990600</v>
+        <v>16280500</v>
       </c>
       <c r="I60" s="3">
-        <v>11675000</v>
+        <v>12366900</v>
       </c>
       <c r="J60" s="3">
+        <v>12041500</v>
+      </c>
+      <c r="K60" s="3">
         <v>11231700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10526100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10332900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>50332200</v>
+        <v>54827400</v>
       </c>
       <c r="E61" s="3">
-        <v>57628300</v>
+        <v>51912100</v>
       </c>
       <c r="F61" s="3">
-        <v>58617500</v>
+        <v>59437200</v>
       </c>
       <c r="G61" s="3">
-        <v>21952100</v>
+        <v>60457400</v>
       </c>
       <c r="H61" s="3">
-        <v>19712700</v>
+        <v>22641200</v>
       </c>
       <c r="I61" s="3">
-        <v>13019800</v>
+        <v>20331500</v>
       </c>
       <c r="J61" s="3">
+        <v>13428400</v>
+      </c>
+      <c r="K61" s="3">
         <v>12935900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11742600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11205900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26918200</v>
+        <v>26543800</v>
       </c>
       <c r="E62" s="3">
-        <v>28014000</v>
+        <v>27763200</v>
       </c>
       <c r="F62" s="3">
-        <v>27686500</v>
+        <v>28893300</v>
       </c>
       <c r="G62" s="3">
-        <v>4024800</v>
+        <v>28555500</v>
       </c>
       <c r="H62" s="3">
-        <v>3556200</v>
+        <v>4151200</v>
       </c>
       <c r="I62" s="3">
-        <v>2403200</v>
+        <v>3667800</v>
       </c>
       <c r="J62" s="3">
+        <v>2478600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2388500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3003200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3012800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>102655000</v>
+        <v>103013000</v>
       </c>
       <c r="E66" s="3">
-        <v>107708000</v>
+        <v>105877000</v>
       </c>
       <c r="F66" s="3">
-        <v>106905000</v>
+        <v>111088000</v>
       </c>
       <c r="G66" s="3">
-        <v>42060300</v>
+        <v>110260000</v>
       </c>
       <c r="H66" s="3">
-        <v>35443200</v>
+        <v>43380400</v>
       </c>
       <c r="I66" s="3">
-        <v>27502700</v>
+        <v>36555700</v>
       </c>
       <c r="J66" s="3">
+        <v>28366000</v>
+      </c>
+      <c r="K66" s="3">
         <v>26956900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25668700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24955800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>96637000</v>
+        <v>101999000</v>
       </c>
       <c r="E72" s="3">
-        <v>94379000</v>
+        <v>99670200</v>
       </c>
       <c r="F72" s="3">
-        <v>136816000</v>
+        <v>97341300</v>
       </c>
       <c r="G72" s="3">
-        <v>10109300</v>
+        <v>141110000</v>
       </c>
       <c r="H72" s="3">
-        <v>5737000</v>
+        <v>10426600</v>
       </c>
       <c r="I72" s="3">
-        <v>6562500</v>
+        <v>5917100</v>
       </c>
       <c r="J72" s="3">
+        <v>6768500</v>
+      </c>
+      <c r="K72" s="3">
         <v>8064300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12568700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12030200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>85079100</v>
+        <v>86061900</v>
       </c>
       <c r="E76" s="3">
-        <v>87132100</v>
+        <v>87749600</v>
       </c>
       <c r="F76" s="3">
-        <v>80894500</v>
+        <v>89867000</v>
       </c>
       <c r="G76" s="3">
-        <v>10893500</v>
+        <v>83433700</v>
       </c>
       <c r="H76" s="3">
-        <v>6515900</v>
+        <v>11235400</v>
       </c>
       <c r="I76" s="3">
-        <v>7336000</v>
+        <v>6720400</v>
       </c>
       <c r="J76" s="3">
+        <v>7566300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8832500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9659900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10754200</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7594300</v>
+        <v>8788400</v>
       </c>
       <c r="E81" s="3">
-        <v>8031000</v>
+        <v>7832700</v>
       </c>
       <c r="F81" s="3">
-        <v>49907500</v>
+        <v>8283100</v>
       </c>
       <c r="G81" s="3">
-        <v>6188300</v>
+        <v>51474000</v>
       </c>
       <c r="H81" s="3">
-        <v>5711700</v>
+        <v>6382600</v>
       </c>
       <c r="I81" s="3">
-        <v>4147300</v>
+        <v>5891000</v>
       </c>
       <c r="J81" s="3">
+        <v>4277500</v>
+      </c>
+      <c r="K81" s="3">
         <v>5197800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4908800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4075500</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1929200</v>
+        <v>1783800</v>
       </c>
       <c r="E83" s="3">
-        <v>1318100</v>
+        <v>1989800</v>
       </c>
       <c r="F83" s="3">
-        <v>1087800</v>
+        <v>1359500</v>
       </c>
       <c r="G83" s="3">
-        <v>808200</v>
+        <v>1121900</v>
       </c>
       <c r="H83" s="3">
-        <v>569800</v>
+        <v>833500</v>
       </c>
       <c r="I83" s="3">
-        <v>696300</v>
+        <v>587700</v>
       </c>
       <c r="J83" s="3">
+        <v>718200</v>
+      </c>
+      <c r="K83" s="3">
         <v>635100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>614100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1075800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11977300</v>
+        <v>13438000</v>
       </c>
       <c r="E89" s="3">
-        <v>13706800</v>
+        <v>12353200</v>
       </c>
       <c r="F89" s="3">
-        <v>7119000</v>
+        <v>14137000</v>
       </c>
       <c r="G89" s="3">
-        <v>6137800</v>
+        <v>7342400</v>
       </c>
       <c r="H89" s="3">
-        <v>6284200</v>
+        <v>6330400</v>
       </c>
       <c r="I89" s="3">
-        <v>4947500</v>
+        <v>6481500</v>
       </c>
       <c r="J89" s="3">
+        <v>5102800</v>
+      </c>
+      <c r="K89" s="3">
         <v>5906100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5723300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6012500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-884000</v>
+        <v>-701700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1009200</v>
+        <v>-911800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1053100</v>
+        <v>-1040900</v>
       </c>
       <c r="G91" s="3">
-        <v>-780200</v>
+        <v>-1086200</v>
       </c>
       <c r="H91" s="3">
-        <v>-643100</v>
+        <v>-804700</v>
       </c>
       <c r="I91" s="3">
-        <v>-704300</v>
+        <v>-663300</v>
       </c>
       <c r="J91" s="3">
+        <v>-726400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-764200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-858400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-671600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-850800</v>
+        <v>-1075200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1359400</v>
+        <v>-877500</v>
       </c>
       <c r="F94" s="3">
-        <v>-24689500</v>
+        <v>-1402000</v>
       </c>
       <c r="G94" s="3">
-        <v>-852100</v>
+        <v>-25464400</v>
       </c>
       <c r="H94" s="3">
-        <v>-5313600</v>
+        <v>-878800</v>
       </c>
       <c r="I94" s="3">
-        <v>-625800</v>
+        <v>-5480400</v>
       </c>
       <c r="J94" s="3">
+        <v>-645400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-446000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-517100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-937600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6121800</v>
+        <v>-6515800</v>
       </c>
       <c r="E96" s="3">
-        <v>-5787600</v>
+        <v>-6313900</v>
       </c>
       <c r="F96" s="3">
-        <v>-4613300</v>
+        <v>-5969300</v>
       </c>
       <c r="G96" s="3">
-        <v>-3874400</v>
+        <v>-4758100</v>
       </c>
       <c r="H96" s="3">
-        <v>-3688000</v>
+        <v>-3996000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3610800</v>
+        <v>-3803700</v>
       </c>
       <c r="J96" s="3">
+        <v>-3724100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3476300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3281200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3105000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11440700</v>
+        <v>-10844100</v>
       </c>
       <c r="E100" s="3">
-        <v>-12821400</v>
+        <v>-11799800</v>
       </c>
       <c r="F100" s="3">
-        <v>19650100</v>
+        <v>-13223800</v>
       </c>
       <c r="G100" s="3">
-        <v>-5630500</v>
+        <v>20266900</v>
       </c>
       <c r="H100" s="3">
-        <v>-291600</v>
+        <v>-5807200</v>
       </c>
       <c r="I100" s="3">
-        <v>-4616000</v>
+        <v>-300700</v>
       </c>
       <c r="J100" s="3">
+        <v>-4760800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5281700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5111800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5329000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-75900</v>
+        <v>-347400</v>
       </c>
       <c r="E101" s="3">
-        <v>-183700</v>
+        <v>-78300</v>
       </c>
       <c r="F101" s="3">
-        <v>-520600</v>
+        <v>-189500</v>
       </c>
       <c r="G101" s="3">
-        <v>239700</v>
+        <v>-536900</v>
       </c>
       <c r="H101" s="3">
-        <v>-362100</v>
+        <v>247200</v>
       </c>
       <c r="I101" s="3">
-        <v>-83900</v>
+        <v>-373500</v>
       </c>
       <c r="J101" s="3">
+        <v>-86500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-262300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-227500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-63200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-390100</v>
+        <v>1171300</v>
       </c>
       <c r="E102" s="3">
-        <v>-657700</v>
+        <v>-402300</v>
       </c>
       <c r="F102" s="3">
-        <v>1559100</v>
+        <v>-678400</v>
       </c>
       <c r="G102" s="3">
-        <v>-105200</v>
+        <v>1608000</v>
       </c>
       <c r="H102" s="3">
-        <v>316900</v>
+        <v>-108500</v>
       </c>
       <c r="I102" s="3">
-        <v>-378100</v>
+        <v>326800</v>
       </c>
       <c r="J102" s="3">
+        <v>-390000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-83900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-133200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-317300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35395300</v>
+        <v>36475900</v>
       </c>
       <c r="E8" s="3">
-        <v>35534000</v>
+        <v>36618800</v>
       </c>
       <c r="F8" s="3">
-        <v>33632200</v>
+        <v>34658900</v>
       </c>
       <c r="G8" s="3">
-        <v>26865100</v>
+        <v>27685200</v>
       </c>
       <c r="H8" s="3">
-        <v>19403200</v>
+        <v>19995500</v>
       </c>
       <c r="I8" s="3">
-        <v>17994300</v>
+        <v>18543600</v>
       </c>
       <c r="J8" s="3">
-        <v>19184800</v>
+        <v>19770500</v>
       </c>
       <c r="K8" s="3">
         <v>20317200</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5682300</v>
+        <v>5855700</v>
       </c>
       <c r="E9" s="3">
-        <v>6092800</v>
+        <v>6278800</v>
       </c>
       <c r="F9" s="3">
-        <v>6248000</v>
+        <v>6438800</v>
       </c>
       <c r="G9" s="3">
-        <v>6911300</v>
+        <v>7122200</v>
       </c>
       <c r="H9" s="3">
-        <v>5126100</v>
+        <v>5282600</v>
       </c>
       <c r="I9" s="3">
-        <v>4164900</v>
+        <v>4292000</v>
       </c>
       <c r="J9" s="3">
-        <v>4160800</v>
+        <v>4287800</v>
       </c>
       <c r="K9" s="3">
         <v>4317700</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29713100</v>
+        <v>30620200</v>
       </c>
       <c r="E10" s="3">
-        <v>29441200</v>
+        <v>30340000</v>
       </c>
       <c r="F10" s="3">
-        <v>27384200</v>
+        <v>28220100</v>
       </c>
       <c r="G10" s="3">
-        <v>19953800</v>
+        <v>20563000</v>
       </c>
       <c r="H10" s="3">
-        <v>14277100</v>
+        <v>14712900</v>
       </c>
       <c r="I10" s="3">
-        <v>13829400</v>
+        <v>14251600</v>
       </c>
       <c r="J10" s="3">
-        <v>15024100</v>
+        <v>15482700</v>
       </c>
       <c r="K10" s="3">
         <v>15999400</v>
@@ -845,25 +845,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>166200</v>
+        <v>171200</v>
       </c>
       <c r="E12" s="3">
-        <v>173000</v>
+        <v>178300</v>
       </c>
       <c r="F12" s="3">
-        <v>144200</v>
+        <v>148600</v>
       </c>
       <c r="G12" s="3">
-        <v>109900</v>
+        <v>113200</v>
       </c>
       <c r="H12" s="3">
-        <v>72800</v>
+        <v>75000</v>
       </c>
       <c r="I12" s="3">
-        <v>82400</v>
+        <v>84900</v>
       </c>
       <c r="J12" s="3">
-        <v>101600</v>
+        <v>104700</v>
       </c>
       <c r="K12" s="3">
         <v>121200</v>
@@ -917,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1046400</v>
+        <v>1078300</v>
       </c>
       <c r="E14" s="3">
-        <v>1046400</v>
+        <v>1078300</v>
       </c>
       <c r="F14" s="3">
-        <v>440800</v>
+        <v>454300</v>
       </c>
       <c r="G14" s="3">
-        <v>-30944800</v>
+        <v>-31889500</v>
       </c>
       <c r="H14" s="3">
-        <v>966700</v>
+        <v>996200</v>
       </c>
       <c r="I14" s="3">
-        <v>644000</v>
+        <v>663700</v>
       </c>
       <c r="J14" s="3">
-        <v>1134300</v>
+        <v>1168900</v>
       </c>
       <c r="K14" s="3">
         <v>358100</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1496800</v>
+        <v>1542500</v>
       </c>
       <c r="E15" s="3">
-        <v>1723400</v>
+        <v>1776000</v>
       </c>
       <c r="F15" s="3">
-        <v>1359500</v>
+        <v>1401000</v>
       </c>
       <c r="G15" s="3">
-        <v>1121900</v>
+        <v>1156100</v>
       </c>
       <c r="H15" s="3">
-        <v>1489900</v>
+        <v>1535400</v>
       </c>
       <c r="I15" s="3">
-        <v>554800</v>
+        <v>571700</v>
       </c>
       <c r="J15" s="3">
-        <v>660500</v>
+        <v>680700</v>
       </c>
       <c r="K15" s="3">
         <v>589800</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21910600</v>
+        <v>22579500</v>
       </c>
       <c r="E17" s="3">
-        <v>23153400</v>
+        <v>23860200</v>
       </c>
       <c r="F17" s="3">
-        <v>20781900</v>
+        <v>21416300</v>
       </c>
       <c r="G17" s="3">
-        <v>-13708600</v>
+        <v>-14127000</v>
       </c>
       <c r="H17" s="3">
-        <v>13149700</v>
+        <v>13551100</v>
       </c>
       <c r="I17" s="3">
-        <v>11879500</v>
+        <v>12242100</v>
       </c>
       <c r="J17" s="3">
-        <v>12936800</v>
+        <v>13331800</v>
       </c>
       <c r="K17" s="3">
         <v>12959800</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13484700</v>
+        <v>13896400</v>
       </c>
       <c r="E18" s="3">
-        <v>12380700</v>
+        <v>12758600</v>
       </c>
       <c r="F18" s="3">
-        <v>12850300</v>
+        <v>13242600</v>
       </c>
       <c r="G18" s="3">
-        <v>40573600</v>
+        <v>41812300</v>
       </c>
       <c r="H18" s="3">
-        <v>6253500</v>
+        <v>6444400</v>
       </c>
       <c r="I18" s="3">
-        <v>6114800</v>
+        <v>6301500</v>
       </c>
       <c r="J18" s="3">
-        <v>6248000</v>
+        <v>6438800</v>
       </c>
       <c r="K18" s="3">
         <v>7357300</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>663300</v>
+        <v>683500</v>
       </c>
       <c r="E20" s="3">
-        <v>829400</v>
+        <v>854700</v>
       </c>
       <c r="F20" s="3">
-        <v>804700</v>
+        <v>829300</v>
       </c>
       <c r="G20" s="3">
-        <v>1457000</v>
+        <v>1501400</v>
       </c>
       <c r="H20" s="3">
-        <v>3207800</v>
+        <v>3305700</v>
       </c>
       <c r="I20" s="3">
-        <v>2723000</v>
+        <v>2806200</v>
       </c>
       <c r="J20" s="3">
-        <v>1216600</v>
+        <v>1253800</v>
       </c>
       <c r="K20" s="3">
         <v>1181000</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15925400</v>
+        <v>16418600</v>
       </c>
       <c r="E21" s="3">
-        <v>15192800</v>
+        <v>15664400</v>
       </c>
       <c r="F21" s="3">
-        <v>15009600</v>
+        <v>15473200</v>
       </c>
       <c r="G21" s="3">
-        <v>43148500</v>
+        <v>44470200</v>
       </c>
       <c r="H21" s="3">
-        <v>10291800</v>
+        <v>10609300</v>
       </c>
       <c r="I21" s="3">
-        <v>9423500</v>
+        <v>9713500</v>
       </c>
       <c r="J21" s="3">
-        <v>8180300</v>
+        <v>8432800</v>
       </c>
       <c r="K21" s="3">
         <v>9175300</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2239700</v>
+        <v>2308000</v>
       </c>
       <c r="E22" s="3">
-        <v>2345400</v>
+        <v>2417000</v>
       </c>
       <c r="F22" s="3">
-        <v>2187500</v>
+        <v>2254300</v>
       </c>
       <c r="G22" s="3">
-        <v>1484400</v>
+        <v>1529700</v>
       </c>
       <c r="H22" s="3">
-        <v>885700</v>
+        <v>912700</v>
       </c>
       <c r="I22" s="3">
-        <v>797800</v>
+        <v>822200</v>
       </c>
       <c r="J22" s="3">
-        <v>807400</v>
+        <v>832100</v>
       </c>
       <c r="K22" s="3">
         <v>817500</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11908300</v>
+        <v>12271800</v>
       </c>
       <c r="E23" s="3">
-        <v>10864700</v>
+        <v>11196400</v>
       </c>
       <c r="F23" s="3">
-        <v>11467500</v>
+        <v>11817600</v>
       </c>
       <c r="G23" s="3">
-        <v>40546200</v>
+        <v>41784000</v>
       </c>
       <c r="H23" s="3">
-        <v>8575600</v>
+        <v>8837400</v>
       </c>
       <c r="I23" s="3">
-        <v>8040000</v>
+        <v>8285500</v>
       </c>
       <c r="J23" s="3">
-        <v>6657200</v>
+        <v>6860500</v>
       </c>
       <c r="K23" s="3">
         <v>7720800</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3077300</v>
+        <v>3171300</v>
       </c>
       <c r="E24" s="3">
-        <v>2897400</v>
+        <v>2985900</v>
       </c>
       <c r="F24" s="3">
-        <v>3036100</v>
+        <v>3128800</v>
       </c>
       <c r="G24" s="3">
-        <v>2000700</v>
+        <v>2061800</v>
       </c>
       <c r="H24" s="3">
-        <v>1930700</v>
+        <v>1989600</v>
       </c>
       <c r="I24" s="3">
-        <v>1830500</v>
+        <v>1886300</v>
       </c>
       <c r="J24" s="3">
-        <v>1998000</v>
+        <v>2059000</v>
       </c>
       <c r="K24" s="3">
         <v>2130200</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8831000</v>
+        <v>9100600</v>
       </c>
       <c r="E26" s="3">
-        <v>7967200</v>
+        <v>8210500</v>
       </c>
       <c r="F26" s="3">
-        <v>8431400</v>
+        <v>8688800</v>
       </c>
       <c r="G26" s="3">
-        <v>38545400</v>
+        <v>39722100</v>
       </c>
       <c r="H26" s="3">
-        <v>6644900</v>
+        <v>6847700</v>
       </c>
       <c r="I26" s="3">
-        <v>6209600</v>
+        <v>6399100</v>
       </c>
       <c r="J26" s="3">
-        <v>4659200</v>
+        <v>4801500</v>
       </c>
       <c r="K26" s="3">
         <v>5590500</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8605800</v>
+        <v>8868500</v>
       </c>
       <c r="E27" s="3">
-        <v>7768100</v>
+        <v>8005300</v>
       </c>
       <c r="F27" s="3">
-        <v>8187000</v>
+        <v>8436900</v>
       </c>
       <c r="G27" s="3">
-        <v>38310600</v>
+        <v>39480200</v>
       </c>
       <c r="H27" s="3">
-        <v>6382600</v>
+        <v>6577400</v>
       </c>
       <c r="I27" s="3">
-        <v>5891000</v>
+        <v>6070800</v>
       </c>
       <c r="J27" s="3">
-        <v>4277500</v>
+        <v>4408100</v>
       </c>
       <c r="K27" s="3">
         <v>5197800</v>
@@ -1414,16 +1414,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>182600</v>
+        <v>188200</v>
       </c>
       <c r="E29" s="3">
-        <v>64500</v>
+        <v>66500</v>
       </c>
       <c r="F29" s="3">
-        <v>96100</v>
+        <v>99100</v>
       </c>
       <c r="G29" s="3">
-        <v>13163400</v>
+        <v>13565200</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-663300</v>
+        <v>-683500</v>
       </c>
       <c r="E32" s="3">
-        <v>-829400</v>
+        <v>-854700</v>
       </c>
       <c r="F32" s="3">
-        <v>-804700</v>
+        <v>-829300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1457000</v>
+        <v>-1501400</v>
       </c>
       <c r="H32" s="3">
-        <v>-3207800</v>
+        <v>-3305700</v>
       </c>
       <c r="I32" s="3">
-        <v>-2723000</v>
+        <v>-2806200</v>
       </c>
       <c r="J32" s="3">
-        <v>-1216600</v>
+        <v>-1253800</v>
       </c>
       <c r="K32" s="3">
         <v>-1181000</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8788400</v>
+        <v>9056700</v>
       </c>
       <c r="E33" s="3">
-        <v>7832700</v>
+        <v>8071800</v>
       </c>
       <c r="F33" s="3">
-        <v>8283100</v>
+        <v>8535900</v>
       </c>
       <c r="G33" s="3">
-        <v>51474000</v>
+        <v>53045400</v>
       </c>
       <c r="H33" s="3">
-        <v>6382600</v>
+        <v>6577400</v>
       </c>
       <c r="I33" s="3">
-        <v>5891000</v>
+        <v>6070800</v>
       </c>
       <c r="J33" s="3">
-        <v>4277500</v>
+        <v>4408100</v>
       </c>
       <c r="K33" s="3">
         <v>5197800</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8788400</v>
+        <v>9056700</v>
       </c>
       <c r="E35" s="3">
-        <v>7832700</v>
+        <v>8071800</v>
       </c>
       <c r="F35" s="3">
-        <v>8283100</v>
+        <v>8535900</v>
       </c>
       <c r="G35" s="3">
-        <v>51474000</v>
+        <v>53045400</v>
       </c>
       <c r="H35" s="3">
-        <v>6382600</v>
+        <v>6577400</v>
       </c>
       <c r="I35" s="3">
-        <v>5891000</v>
+        <v>6070800</v>
       </c>
       <c r="J35" s="3">
-        <v>4277500</v>
+        <v>4408100</v>
       </c>
       <c r="K35" s="3">
         <v>5197800</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4310400</v>
+        <v>4442000</v>
       </c>
       <c r="E41" s="3">
-        <v>3468700</v>
+        <v>3574600</v>
       </c>
       <c r="F41" s="3">
-        <v>3573000</v>
+        <v>3682100</v>
       </c>
       <c r="G41" s="3">
-        <v>9038300</v>
+        <v>9314300</v>
       </c>
       <c r="H41" s="3">
-        <v>3026500</v>
+        <v>3118900</v>
       </c>
       <c r="I41" s="3">
-        <v>2695600</v>
+        <v>2777900</v>
       </c>
       <c r="J41" s="3">
-        <v>2496500</v>
+        <v>2572700</v>
       </c>
       <c r="K41" s="3">
         <v>2803900</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>332300</v>
+        <v>342500</v>
       </c>
       <c r="E42" s="3">
-        <v>168900</v>
+        <v>174100</v>
       </c>
       <c r="F42" s="3">
-        <v>244400</v>
+        <v>251900</v>
       </c>
       <c r="G42" s="3">
-        <v>89300</v>
+        <v>92000</v>
       </c>
       <c r="H42" s="3">
-        <v>20600</v>
+        <v>21200</v>
       </c>
       <c r="I42" s="3">
-        <v>48100</v>
+        <v>49500</v>
       </c>
       <c r="J42" s="3">
-        <v>68700</v>
+        <v>70800</v>
       </c>
       <c r="K42" s="3">
         <v>71900</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5218100</v>
+        <v>5377400</v>
       </c>
       <c r="E43" s="3">
-        <v>5788000</v>
+        <v>5964700</v>
       </c>
       <c r="F43" s="3">
-        <v>5028600</v>
+        <v>5182100</v>
       </c>
       <c r="G43" s="3">
-        <v>6197200</v>
+        <v>6386400</v>
       </c>
       <c r="H43" s="3">
-        <v>5428200</v>
+        <v>5593900</v>
       </c>
       <c r="I43" s="3">
-        <v>4586500</v>
+        <v>4726500</v>
       </c>
       <c r="J43" s="3">
-        <v>3879300</v>
+        <v>3997700</v>
       </c>
       <c r="K43" s="3">
         <v>3955600</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8236400</v>
+        <v>8487800</v>
       </c>
       <c r="E44" s="3">
-        <v>8368200</v>
+        <v>8623700</v>
       </c>
       <c r="F44" s="3">
-        <v>8279000</v>
+        <v>8531700</v>
       </c>
       <c r="G44" s="3">
-        <v>16104800</v>
+        <v>16596400</v>
       </c>
       <c r="H44" s="3">
-        <v>7954900</v>
+        <v>8197700</v>
       </c>
       <c r="I44" s="3">
-        <v>5831900</v>
+        <v>6010000</v>
       </c>
       <c r="J44" s="3">
-        <v>5675400</v>
+        <v>5848600</v>
       </c>
       <c r="K44" s="3">
         <v>5381500</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>594600</v>
+        <v>612700</v>
       </c>
       <c r="E45" s="3">
-        <v>433900</v>
+        <v>447200</v>
       </c>
       <c r="F45" s="3">
-        <v>252700</v>
+        <v>260400</v>
       </c>
       <c r="G45" s="3">
-        <v>320000</v>
+        <v>329700</v>
       </c>
       <c r="H45" s="3">
-        <v>541000</v>
+        <v>557600</v>
       </c>
       <c r="I45" s="3">
-        <v>314500</v>
+        <v>324100</v>
       </c>
       <c r="J45" s="3">
-        <v>420200</v>
+        <v>433000</v>
       </c>
       <c r="K45" s="3">
         <v>459300</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18691900</v>
+        <v>19262500</v>
       </c>
       <c r="E46" s="3">
-        <v>18227700</v>
+        <v>18784200</v>
       </c>
       <c r="F46" s="3">
-        <v>17377700</v>
+        <v>17908200</v>
       </c>
       <c r="G46" s="3">
-        <v>19178000</v>
+        <v>19763400</v>
       </c>
       <c r="H46" s="3">
-        <v>16971300</v>
+        <v>17489300</v>
       </c>
       <c r="I46" s="3">
-        <v>13476500</v>
+        <v>13887900</v>
       </c>
       <c r="J46" s="3">
-        <v>12540000</v>
+        <v>12922800</v>
       </c>
       <c r="K46" s="3">
         <v>12672300</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2828800</v>
+        <v>2915100</v>
       </c>
       <c r="E47" s="3">
-        <v>2911200</v>
+        <v>3000000</v>
       </c>
       <c r="F47" s="3">
-        <v>3379400</v>
+        <v>3482600</v>
       </c>
       <c r="G47" s="3">
-        <v>3261300</v>
+        <v>3360900</v>
       </c>
       <c r="H47" s="3">
-        <v>13936500</v>
+        <v>14362000</v>
       </c>
       <c r="I47" s="3">
-        <v>9918600</v>
+        <v>10221300</v>
       </c>
       <c r="J47" s="3">
-        <v>3555200</v>
+        <v>3663700</v>
       </c>
       <c r="K47" s="3">
         <v>3336500</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6948300</v>
+        <v>7160500</v>
       </c>
       <c r="E48" s="3">
-        <v>7577300</v>
+        <v>7808600</v>
       </c>
       <c r="F48" s="3">
-        <v>7093900</v>
+        <v>7310500</v>
       </c>
       <c r="G48" s="3">
-        <v>13407800</v>
+        <v>13817100</v>
       </c>
       <c r="H48" s="3">
-        <v>5027200</v>
+        <v>5180700</v>
       </c>
       <c r="I48" s="3">
-        <v>4148400</v>
+        <v>4275000</v>
       </c>
       <c r="J48" s="3">
-        <v>4125100</v>
+        <v>4251000</v>
       </c>
       <c r="K48" s="3">
         <v>4201900</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>158388000</v>
+        <v>163223000</v>
       </c>
       <c r="E49" s="3">
-        <v>163117000</v>
+        <v>168097000</v>
       </c>
       <c r="F49" s="3">
-        <v>170293000</v>
+        <v>175492000</v>
       </c>
       <c r="G49" s="3">
-        <v>323482000</v>
+        <v>333358000</v>
       </c>
       <c r="H49" s="3">
-        <v>16638900</v>
+        <v>17146900</v>
       </c>
       <c r="I49" s="3">
-        <v>14330600</v>
+        <v>14768100</v>
       </c>
       <c r="J49" s="3">
-        <v>14835900</v>
+        <v>15288800</v>
       </c>
       <c r="K49" s="3">
         <v>14918300</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2217700</v>
+        <v>2285400</v>
       </c>
       <c r="E52" s="3">
-        <v>1793400</v>
+        <v>1848100</v>
       </c>
       <c r="F52" s="3">
-        <v>2810900</v>
+        <v>2896700</v>
       </c>
       <c r="G52" s="3">
-        <v>2809500</v>
+        <v>2895300</v>
       </c>
       <c r="H52" s="3">
-        <v>2041900</v>
+        <v>2104300</v>
       </c>
       <c r="I52" s="3">
-        <v>1402000</v>
+        <v>1444800</v>
       </c>
       <c r="J52" s="3">
-        <v>876100</v>
+        <v>902800</v>
       </c>
       <c r="K52" s="3">
         <v>660400</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>189075000</v>
+        <v>194847000</v>
       </c>
       <c r="E54" s="3">
-        <v>193627000</v>
+        <v>199538000</v>
       </c>
       <c r="F54" s="3">
-        <v>200955000</v>
+        <v>207090000</v>
       </c>
       <c r="G54" s="3">
-        <v>193694000</v>
+        <v>199607000</v>
       </c>
       <c r="H54" s="3">
-        <v>54615900</v>
+        <v>56283200</v>
       </c>
       <c r="I54" s="3">
-        <v>43276100</v>
+        <v>44597200</v>
       </c>
       <c r="J54" s="3">
-        <v>35932300</v>
+        <v>37029200</v>
       </c>
       <c r="K54" s="3">
         <v>35789400</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13310300</v>
+        <v>13716700</v>
       </c>
       <c r="E57" s="3">
-        <v>13357000</v>
+        <v>13764800</v>
       </c>
       <c r="F57" s="3">
-        <v>14598400</v>
+        <v>15044000</v>
       </c>
       <c r="G57" s="3">
-        <v>12232400</v>
+        <v>12605800</v>
       </c>
       <c r="H57" s="3">
-        <v>10072300</v>
+        <v>10379800</v>
       </c>
       <c r="I57" s="3">
-        <v>8152600</v>
+        <v>8401500</v>
       </c>
       <c r="J57" s="3">
-        <v>7585500</v>
+        <v>7817100</v>
       </c>
       <c r="K57" s="3">
         <v>7643600</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4863800</v>
+        <v>5012300</v>
       </c>
       <c r="E58" s="3">
-        <v>9733200</v>
+        <v>10030300</v>
       </c>
       <c r="F58" s="3">
-        <v>5156300</v>
+        <v>5313700</v>
       </c>
       <c r="G58" s="3">
-        <v>14282500</v>
+        <v>14718600</v>
       </c>
       <c r="H58" s="3">
-        <v>4129200</v>
+        <v>4255200</v>
       </c>
       <c r="I58" s="3">
-        <v>3014200</v>
+        <v>3106200</v>
       </c>
       <c r="J58" s="3">
-        <v>3404100</v>
+        <v>3508100</v>
       </c>
       <c r="K58" s="3">
         <v>2636200</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3080100</v>
+        <v>3174100</v>
       </c>
       <c r="E59" s="3">
-        <v>2757400</v>
+        <v>2841500</v>
       </c>
       <c r="F59" s="3">
-        <v>2668100</v>
+        <v>2749600</v>
       </c>
       <c r="G59" s="3">
-        <v>2908400</v>
+        <v>2997200</v>
       </c>
       <c r="H59" s="3">
-        <v>2079000</v>
+        <v>2142500</v>
       </c>
       <c r="I59" s="3">
-        <v>1200200</v>
+        <v>1236800</v>
       </c>
       <c r="J59" s="3">
-        <v>1051900</v>
+        <v>1084000</v>
       </c>
       <c r="K59" s="3">
         <v>952000</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21254200</v>
+        <v>21903100</v>
       </c>
       <c r="E60" s="3">
-        <v>25847600</v>
+        <v>26636600</v>
       </c>
       <c r="F60" s="3">
-        <v>22422800</v>
+        <v>23107300</v>
       </c>
       <c r="G60" s="3">
-        <v>21428600</v>
+        <v>22082800</v>
       </c>
       <c r="H60" s="3">
-        <v>16280500</v>
+        <v>16777500</v>
       </c>
       <c r="I60" s="3">
-        <v>12366900</v>
+        <v>12744500</v>
       </c>
       <c r="J60" s="3">
-        <v>12041500</v>
+        <v>12409100</v>
       </c>
       <c r="K60" s="3">
         <v>11231700</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54827400</v>
+        <v>56501100</v>
       </c>
       <c r="E61" s="3">
-        <v>51912100</v>
+        <v>53496800</v>
       </c>
       <c r="F61" s="3">
-        <v>59437200</v>
+        <v>61251600</v>
       </c>
       <c r="G61" s="3">
-        <v>60457400</v>
+        <v>62303000</v>
       </c>
       <c r="H61" s="3">
-        <v>22641200</v>
+        <v>23332300</v>
       </c>
       <c r="I61" s="3">
-        <v>20331500</v>
+        <v>20952100</v>
       </c>
       <c r="J61" s="3">
-        <v>13428400</v>
+        <v>13838400</v>
       </c>
       <c r="K61" s="3">
         <v>12935900</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26543800</v>
+        <v>27354100</v>
       </c>
       <c r="E62" s="3">
-        <v>27763200</v>
+        <v>28610700</v>
       </c>
       <c r="F62" s="3">
-        <v>28893300</v>
+        <v>29775300</v>
       </c>
       <c r="G62" s="3">
-        <v>28555500</v>
+        <v>29427200</v>
       </c>
       <c r="H62" s="3">
-        <v>4151200</v>
+        <v>4277900</v>
       </c>
       <c r="I62" s="3">
-        <v>3667800</v>
+        <v>3779800</v>
       </c>
       <c r="J62" s="3">
-        <v>2478600</v>
+        <v>2554300</v>
       </c>
       <c r="K62" s="3">
         <v>2388500</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>103013000</v>
+        <v>106157000</v>
       </c>
       <c r="E66" s="3">
-        <v>105877000</v>
+        <v>109109000</v>
       </c>
       <c r="F66" s="3">
-        <v>111088000</v>
+        <v>114480000</v>
       </c>
       <c r="G66" s="3">
-        <v>110260000</v>
+        <v>113626000</v>
       </c>
       <c r="H66" s="3">
-        <v>43380400</v>
+        <v>44704700</v>
       </c>
       <c r="I66" s="3">
-        <v>36555700</v>
+        <v>37671600</v>
       </c>
       <c r="J66" s="3">
-        <v>28366000</v>
+        <v>29231900</v>
       </c>
       <c r="K66" s="3">
         <v>26956900</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>101999000</v>
+        <v>105113000</v>
       </c>
       <c r="E72" s="3">
-        <v>99670200</v>
+        <v>102713000</v>
       </c>
       <c r="F72" s="3">
-        <v>97341300</v>
+        <v>100313000</v>
       </c>
       <c r="G72" s="3">
-        <v>141110000</v>
+        <v>145418000</v>
       </c>
       <c r="H72" s="3">
-        <v>10426600</v>
+        <v>10744900</v>
       </c>
       <c r="I72" s="3">
-        <v>5917100</v>
+        <v>6097700</v>
       </c>
       <c r="J72" s="3">
-        <v>6768500</v>
+        <v>6975100</v>
       </c>
       <c r="K72" s="3">
         <v>8064300</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>86061900</v>
+        <v>88689200</v>
       </c>
       <c r="E76" s="3">
-        <v>87749600</v>
+        <v>90428400</v>
       </c>
       <c r="F76" s="3">
-        <v>89867000</v>
+        <v>92610500</v>
       </c>
       <c r="G76" s="3">
-        <v>83433700</v>
+        <v>85980700</v>
       </c>
       <c r="H76" s="3">
-        <v>11235400</v>
+        <v>11578400</v>
       </c>
       <c r="I76" s="3">
-        <v>6720400</v>
+        <v>6925500</v>
       </c>
       <c r="J76" s="3">
-        <v>7566300</v>
+        <v>7797300</v>
       </c>
       <c r="K76" s="3">
         <v>8832500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8788400</v>
+        <v>9056700</v>
       </c>
       <c r="E81" s="3">
-        <v>7832700</v>
+        <v>8071800</v>
       </c>
       <c r="F81" s="3">
-        <v>8283100</v>
+        <v>8535900</v>
       </c>
       <c r="G81" s="3">
-        <v>51474000</v>
+        <v>53045400</v>
       </c>
       <c r="H81" s="3">
-        <v>6382600</v>
+        <v>6577400</v>
       </c>
       <c r="I81" s="3">
-        <v>5891000</v>
+        <v>6070800</v>
       </c>
       <c r="J81" s="3">
-        <v>4277500</v>
+        <v>4408100</v>
       </c>
       <c r="K81" s="3">
         <v>5197800</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1783800</v>
+        <v>1838200</v>
       </c>
       <c r="E83" s="3">
-        <v>1989800</v>
+        <v>2050500</v>
       </c>
       <c r="F83" s="3">
-        <v>1359500</v>
+        <v>1401000</v>
       </c>
       <c r="G83" s="3">
-        <v>1121900</v>
+        <v>1156100</v>
       </c>
       <c r="H83" s="3">
-        <v>833500</v>
+        <v>859000</v>
       </c>
       <c r="I83" s="3">
-        <v>587700</v>
+        <v>605700</v>
       </c>
       <c r="J83" s="3">
-        <v>718200</v>
+        <v>740100</v>
       </c>
       <c r="K83" s="3">
         <v>635100</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13438000</v>
+        <v>13848300</v>
       </c>
       <c r="E89" s="3">
-        <v>12353200</v>
+        <v>12730300</v>
       </c>
       <c r="F89" s="3">
-        <v>14137000</v>
+        <v>14568600</v>
       </c>
       <c r="G89" s="3">
-        <v>7342400</v>
+        <v>7566600</v>
       </c>
       <c r="H89" s="3">
-        <v>6330400</v>
+        <v>6523700</v>
       </c>
       <c r="I89" s="3">
-        <v>6481500</v>
+        <v>6679300</v>
       </c>
       <c r="J89" s="3">
-        <v>5102800</v>
+        <v>5258500</v>
       </c>
       <c r="K89" s="3">
         <v>5906100</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-701700</v>
+        <v>-723100</v>
       </c>
       <c r="E91" s="3">
-        <v>-911800</v>
+        <v>-939600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1040900</v>
+        <v>-1072700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1086200</v>
+        <v>-1119400</v>
       </c>
       <c r="H91" s="3">
-        <v>-804700</v>
+        <v>-829300</v>
       </c>
       <c r="I91" s="3">
-        <v>-663300</v>
+        <v>-683500</v>
       </c>
       <c r="J91" s="3">
-        <v>-726400</v>
+        <v>-748600</v>
       </c>
       <c r="K91" s="3">
         <v>-764200</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1075200</v>
+        <v>-1108000</v>
       </c>
       <c r="E94" s="3">
-        <v>-877500</v>
+        <v>-904300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1402000</v>
+        <v>-1444800</v>
       </c>
       <c r="G94" s="3">
-        <v>-25464400</v>
+        <v>-26241800</v>
       </c>
       <c r="H94" s="3">
-        <v>-878800</v>
+        <v>-905700</v>
       </c>
       <c r="I94" s="3">
-        <v>-5480400</v>
+        <v>-5647700</v>
       </c>
       <c r="J94" s="3">
-        <v>-645400</v>
+        <v>-665100</v>
       </c>
       <c r="K94" s="3">
         <v>-446000</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6515800</v>
+        <v>-6714700</v>
       </c>
       <c r="E96" s="3">
-        <v>-6313900</v>
+        <v>-6506700</v>
       </c>
       <c r="F96" s="3">
-        <v>-5969300</v>
+        <v>-6151500</v>
       </c>
       <c r="G96" s="3">
-        <v>-4758100</v>
+        <v>-4903400</v>
       </c>
       <c r="H96" s="3">
-        <v>-3996000</v>
+        <v>-4118000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3803700</v>
+        <v>-3919900</v>
       </c>
       <c r="J96" s="3">
-        <v>-3724100</v>
+        <v>-3837800</v>
       </c>
       <c r="K96" s="3">
         <v>-3476300</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10844100</v>
+        <v>-11175100</v>
       </c>
       <c r="E100" s="3">
-        <v>-11799800</v>
+        <v>-12160000</v>
       </c>
       <c r="F100" s="3">
-        <v>-13223800</v>
+        <v>-13627500</v>
       </c>
       <c r="G100" s="3">
-        <v>20266900</v>
+        <v>20885600</v>
       </c>
       <c r="H100" s="3">
-        <v>-5807200</v>
+        <v>-5984500</v>
       </c>
       <c r="I100" s="3">
-        <v>-300700</v>
+        <v>-309900</v>
       </c>
       <c r="J100" s="3">
-        <v>-4760800</v>
+        <v>-4906200</v>
       </c>
       <c r="K100" s="3">
         <v>-5281700</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-347400</v>
+        <v>-358000</v>
       </c>
       <c r="E101" s="3">
-        <v>-78300</v>
+        <v>-80700</v>
       </c>
       <c r="F101" s="3">
-        <v>-189500</v>
+        <v>-195300</v>
       </c>
       <c r="G101" s="3">
-        <v>-536900</v>
+        <v>-553300</v>
       </c>
       <c r="H101" s="3">
-        <v>247200</v>
+        <v>254700</v>
       </c>
       <c r="I101" s="3">
-        <v>-373500</v>
+        <v>-384900</v>
       </c>
       <c r="J101" s="3">
-        <v>-86500</v>
+        <v>-89200</v>
       </c>
       <c r="K101" s="3">
         <v>-262300</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1171300</v>
+        <v>1207100</v>
       </c>
       <c r="E102" s="3">
-        <v>-402300</v>
+        <v>-414600</v>
       </c>
       <c r="F102" s="3">
-        <v>-678400</v>
+        <v>-699100</v>
       </c>
       <c r="G102" s="3">
-        <v>1608000</v>
+        <v>1657100</v>
       </c>
       <c r="H102" s="3">
-        <v>-108500</v>
+        <v>-111800</v>
       </c>
       <c r="I102" s="3">
-        <v>326800</v>
+        <v>336800</v>
       </c>
       <c r="J102" s="3">
-        <v>-390000</v>
+        <v>-401900</v>
       </c>
       <c r="K102" s="3">
         <v>-83900</v>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36475900</v>
+        <v>35153100</v>
       </c>
       <c r="E8" s="3">
-        <v>36618800</v>
+        <v>35290800</v>
       </c>
       <c r="F8" s="3">
-        <v>34658900</v>
+        <v>33401900</v>
       </c>
       <c r="G8" s="3">
-        <v>27685200</v>
+        <v>26681200</v>
       </c>
       <c r="H8" s="3">
-        <v>19995500</v>
+        <v>19270400</v>
       </c>
       <c r="I8" s="3">
-        <v>18543600</v>
+        <v>17871100</v>
       </c>
       <c r="J8" s="3">
-        <v>19770500</v>
+        <v>19053500</v>
       </c>
       <c r="K8" s="3">
         <v>20317200</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5855700</v>
+        <v>5643400</v>
       </c>
       <c r="E9" s="3">
-        <v>6278800</v>
+        <v>6051100</v>
       </c>
       <c r="F9" s="3">
-        <v>6438800</v>
+        <v>6205200</v>
       </c>
       <c r="G9" s="3">
-        <v>7122200</v>
+        <v>6864000</v>
       </c>
       <c r="H9" s="3">
-        <v>5282600</v>
+        <v>5091000</v>
       </c>
       <c r="I9" s="3">
-        <v>4292000</v>
+        <v>4136400</v>
       </c>
       <c r="J9" s="3">
-        <v>4287800</v>
+        <v>4132300</v>
       </c>
       <c r="K9" s="3">
         <v>4317700</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30620200</v>
+        <v>29509700</v>
       </c>
       <c r="E10" s="3">
-        <v>30340000</v>
+        <v>29239700</v>
       </c>
       <c r="F10" s="3">
-        <v>28220100</v>
+        <v>27196700</v>
       </c>
       <c r="G10" s="3">
-        <v>20563000</v>
+        <v>19817200</v>
       </c>
       <c r="H10" s="3">
-        <v>14712900</v>
+        <v>14179300</v>
       </c>
       <c r="I10" s="3">
-        <v>14251600</v>
+        <v>13734700</v>
       </c>
       <c r="J10" s="3">
-        <v>15482700</v>
+        <v>14921200</v>
       </c>
       <c r="K10" s="3">
         <v>15999400</v>
@@ -845,25 +845,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>171200</v>
+        <v>165000</v>
       </c>
       <c r="E12" s="3">
-        <v>178300</v>
+        <v>171800</v>
       </c>
       <c r="F12" s="3">
-        <v>148600</v>
+        <v>143200</v>
       </c>
       <c r="G12" s="3">
-        <v>113200</v>
+        <v>109100</v>
       </c>
       <c r="H12" s="3">
-        <v>75000</v>
+        <v>72300</v>
       </c>
       <c r="I12" s="3">
-        <v>84900</v>
+        <v>81800</v>
       </c>
       <c r="J12" s="3">
-        <v>104700</v>
+        <v>100900</v>
       </c>
       <c r="K12" s="3">
         <v>121200</v>
@@ -917,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1078300</v>
+        <v>1039200</v>
       </c>
       <c r="E14" s="3">
-        <v>1078300</v>
+        <v>1039200</v>
       </c>
       <c r="F14" s="3">
-        <v>454300</v>
+        <v>437800</v>
       </c>
       <c r="G14" s="3">
-        <v>-31889500</v>
+        <v>-30733000</v>
       </c>
       <c r="H14" s="3">
-        <v>996200</v>
+        <v>960100</v>
       </c>
       <c r="I14" s="3">
-        <v>663700</v>
+        <v>639600</v>
       </c>
       <c r="J14" s="3">
-        <v>1168900</v>
+        <v>1126500</v>
       </c>
       <c r="K14" s="3">
         <v>358100</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1542500</v>
+        <v>1486500</v>
       </c>
       <c r="E15" s="3">
-        <v>1776000</v>
+        <v>1711600</v>
       </c>
       <c r="F15" s="3">
-        <v>1401000</v>
+        <v>1350200</v>
       </c>
       <c r="G15" s="3">
-        <v>1156100</v>
+        <v>1114200</v>
       </c>
       <c r="H15" s="3">
-        <v>1535400</v>
+        <v>1479700</v>
       </c>
       <c r="I15" s="3">
-        <v>571700</v>
+        <v>551000</v>
       </c>
       <c r="J15" s="3">
-        <v>680700</v>
+        <v>656000</v>
       </c>
       <c r="K15" s="3">
         <v>589800</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22579500</v>
+        <v>21760600</v>
       </c>
       <c r="E17" s="3">
-        <v>23860200</v>
+        <v>22994900</v>
       </c>
       <c r="F17" s="3">
-        <v>21416300</v>
+        <v>20639600</v>
       </c>
       <c r="G17" s="3">
-        <v>-14127000</v>
+        <v>-13614700</v>
       </c>
       <c r="H17" s="3">
-        <v>13551100</v>
+        <v>13059700</v>
       </c>
       <c r="I17" s="3">
-        <v>12242100</v>
+        <v>11798100</v>
       </c>
       <c r="J17" s="3">
-        <v>13331800</v>
+        <v>12848300</v>
       </c>
       <c r="K17" s="3">
         <v>12959800</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13896400</v>
+        <v>13392400</v>
       </c>
       <c r="E18" s="3">
-        <v>12758600</v>
+        <v>12295900</v>
       </c>
       <c r="F18" s="3">
-        <v>13242600</v>
+        <v>12762300</v>
       </c>
       <c r="G18" s="3">
-        <v>41812300</v>
+        <v>40295900</v>
       </c>
       <c r="H18" s="3">
-        <v>6444400</v>
+        <v>6210700</v>
       </c>
       <c r="I18" s="3">
-        <v>6301500</v>
+        <v>6073000</v>
       </c>
       <c r="J18" s="3">
-        <v>6438800</v>
+        <v>6205200</v>
       </c>
       <c r="K18" s="3">
         <v>7357300</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>683500</v>
+        <v>658700</v>
       </c>
       <c r="E20" s="3">
-        <v>854700</v>
+        <v>823700</v>
       </c>
       <c r="F20" s="3">
-        <v>829300</v>
+        <v>799200</v>
       </c>
       <c r="G20" s="3">
-        <v>1501400</v>
+        <v>1447000</v>
       </c>
       <c r="H20" s="3">
-        <v>3305700</v>
+        <v>3185800</v>
       </c>
       <c r="I20" s="3">
-        <v>2806200</v>
+        <v>2704400</v>
       </c>
       <c r="J20" s="3">
-        <v>1253800</v>
+        <v>1208300</v>
       </c>
       <c r="K20" s="3">
         <v>1181000</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16418600</v>
+        <v>15837900</v>
       </c>
       <c r="E21" s="3">
-        <v>15664400</v>
+        <v>15112800</v>
       </c>
       <c r="F21" s="3">
-        <v>15473200</v>
+        <v>14923300</v>
       </c>
       <c r="G21" s="3">
-        <v>44470200</v>
+        <v>42866700</v>
       </c>
       <c r="H21" s="3">
-        <v>10609300</v>
+        <v>10231400</v>
       </c>
       <c r="I21" s="3">
-        <v>9713500</v>
+        <v>9366100</v>
       </c>
       <c r="J21" s="3">
-        <v>8432800</v>
+        <v>8132900</v>
       </c>
       <c r="K21" s="3">
         <v>9175300</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2308000</v>
+        <v>2224300</v>
       </c>
       <c r="E22" s="3">
-        <v>2417000</v>
+        <v>2329400</v>
       </c>
       <c r="F22" s="3">
-        <v>2254300</v>
+        <v>2172500</v>
       </c>
       <c r="G22" s="3">
-        <v>1529700</v>
+        <v>1474300</v>
       </c>
       <c r="H22" s="3">
-        <v>912700</v>
+        <v>879600</v>
       </c>
       <c r="I22" s="3">
-        <v>822200</v>
+        <v>792400</v>
       </c>
       <c r="J22" s="3">
-        <v>832100</v>
+        <v>801900</v>
       </c>
       <c r="K22" s="3">
         <v>817500</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12271800</v>
+        <v>11826800</v>
       </c>
       <c r="E23" s="3">
-        <v>11196400</v>
+        <v>10790300</v>
       </c>
       <c r="F23" s="3">
-        <v>11817600</v>
+        <v>11389000</v>
       </c>
       <c r="G23" s="3">
-        <v>41784000</v>
+        <v>40268600</v>
       </c>
       <c r="H23" s="3">
-        <v>8837400</v>
+        <v>8516900</v>
       </c>
       <c r="I23" s="3">
-        <v>8285500</v>
+        <v>7985000</v>
       </c>
       <c r="J23" s="3">
-        <v>6860500</v>
+        <v>6611700</v>
       </c>
       <c r="K23" s="3">
         <v>7720800</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3171300</v>
+        <v>3056300</v>
       </c>
       <c r="E24" s="3">
-        <v>2985900</v>
+        <v>2877600</v>
       </c>
       <c r="F24" s="3">
-        <v>3128800</v>
+        <v>3015300</v>
       </c>
       <c r="G24" s="3">
-        <v>2061800</v>
+        <v>1987000</v>
       </c>
       <c r="H24" s="3">
-        <v>1989600</v>
+        <v>1917500</v>
       </c>
       <c r="I24" s="3">
-        <v>1886300</v>
+        <v>1817900</v>
       </c>
       <c r="J24" s="3">
-        <v>2059000</v>
+        <v>1984300</v>
       </c>
       <c r="K24" s="3">
         <v>2130200</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9100600</v>
+        <v>8770500</v>
       </c>
       <c r="E26" s="3">
-        <v>8210500</v>
+        <v>7912700</v>
       </c>
       <c r="F26" s="3">
-        <v>8688800</v>
+        <v>8373700</v>
       </c>
       <c r="G26" s="3">
-        <v>39722100</v>
+        <v>38281600</v>
       </c>
       <c r="H26" s="3">
-        <v>6847700</v>
+        <v>6599400</v>
       </c>
       <c r="I26" s="3">
-        <v>6399100</v>
+        <v>6167100</v>
       </c>
       <c r="J26" s="3">
-        <v>4801500</v>
+        <v>4627300</v>
       </c>
       <c r="K26" s="3">
         <v>5590500</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8868500</v>
+        <v>8546900</v>
       </c>
       <c r="E27" s="3">
-        <v>8005300</v>
+        <v>7715000</v>
       </c>
       <c r="F27" s="3">
-        <v>8436900</v>
+        <v>8130900</v>
       </c>
       <c r="G27" s="3">
-        <v>39480200</v>
+        <v>38048400</v>
       </c>
       <c r="H27" s="3">
-        <v>6577400</v>
+        <v>6338900</v>
       </c>
       <c r="I27" s="3">
-        <v>6070800</v>
+        <v>5850700</v>
       </c>
       <c r="J27" s="3">
-        <v>4408100</v>
+        <v>4248200</v>
       </c>
       <c r="K27" s="3">
         <v>5197800</v>
@@ -1414,16 +1414,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>188200</v>
+        <v>181400</v>
       </c>
       <c r="E29" s="3">
-        <v>66500</v>
+        <v>64100</v>
       </c>
       <c r="F29" s="3">
-        <v>99100</v>
+        <v>95500</v>
       </c>
       <c r="G29" s="3">
-        <v>13565200</v>
+        <v>13073300</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-683500</v>
+        <v>-658700</v>
       </c>
       <c r="E32" s="3">
-        <v>-854700</v>
+        <v>-823700</v>
       </c>
       <c r="F32" s="3">
-        <v>-829300</v>
+        <v>-799200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1501400</v>
+        <v>-1447000</v>
       </c>
       <c r="H32" s="3">
-        <v>-3305700</v>
+        <v>-3185800</v>
       </c>
       <c r="I32" s="3">
-        <v>-2806200</v>
+        <v>-2704400</v>
       </c>
       <c r="J32" s="3">
-        <v>-1253800</v>
+        <v>-1208300</v>
       </c>
       <c r="K32" s="3">
         <v>-1181000</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9056700</v>
+        <v>8728300</v>
       </c>
       <c r="E33" s="3">
-        <v>8071800</v>
+        <v>7779100</v>
       </c>
       <c r="F33" s="3">
-        <v>8535900</v>
+        <v>8226400</v>
       </c>
       <c r="G33" s="3">
-        <v>53045400</v>
+        <v>51121700</v>
       </c>
       <c r="H33" s="3">
-        <v>6577400</v>
+        <v>6338900</v>
       </c>
       <c r="I33" s="3">
-        <v>6070800</v>
+        <v>5850700</v>
       </c>
       <c r="J33" s="3">
-        <v>4408100</v>
+        <v>4248200</v>
       </c>
       <c r="K33" s="3">
         <v>5197800</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9056700</v>
+        <v>8728300</v>
       </c>
       <c r="E35" s="3">
-        <v>8071800</v>
+        <v>7779100</v>
       </c>
       <c r="F35" s="3">
-        <v>8535900</v>
+        <v>8226400</v>
       </c>
       <c r="G35" s="3">
-        <v>53045400</v>
+        <v>51121700</v>
       </c>
       <c r="H35" s="3">
-        <v>6577400</v>
+        <v>6338900</v>
       </c>
       <c r="I35" s="3">
-        <v>6070800</v>
+        <v>5850700</v>
       </c>
       <c r="J35" s="3">
-        <v>4408100</v>
+        <v>4248200</v>
       </c>
       <c r="K35" s="3">
         <v>5197800</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4442000</v>
+        <v>4280900</v>
       </c>
       <c r="E41" s="3">
-        <v>3574600</v>
+        <v>3444900</v>
       </c>
       <c r="F41" s="3">
-        <v>3682100</v>
+        <v>3548600</v>
       </c>
       <c r="G41" s="3">
-        <v>9314300</v>
+        <v>8976500</v>
       </c>
       <c r="H41" s="3">
-        <v>3118900</v>
+        <v>3005800</v>
       </c>
       <c r="I41" s="3">
-        <v>2777900</v>
+        <v>2677100</v>
       </c>
       <c r="J41" s="3">
-        <v>2572700</v>
+        <v>2479400</v>
       </c>
       <c r="K41" s="3">
         <v>2803900</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>342500</v>
+        <v>330000</v>
       </c>
       <c r="E42" s="3">
-        <v>174100</v>
+        <v>167700</v>
       </c>
       <c r="F42" s="3">
-        <v>251900</v>
+        <v>242800</v>
       </c>
       <c r="G42" s="3">
-        <v>92000</v>
+        <v>88600</v>
       </c>
       <c r="H42" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="I42" s="3">
-        <v>49500</v>
+        <v>47700</v>
       </c>
       <c r="J42" s="3">
-        <v>70800</v>
+        <v>68200</v>
       </c>
       <c r="K42" s="3">
         <v>71900</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5377400</v>
+        <v>5182400</v>
       </c>
       <c r="E43" s="3">
-        <v>5964700</v>
+        <v>5748400</v>
       </c>
       <c r="F43" s="3">
-        <v>5182100</v>
+        <v>4994200</v>
       </c>
       <c r="G43" s="3">
-        <v>6386400</v>
+        <v>6154800</v>
       </c>
       <c r="H43" s="3">
-        <v>5593900</v>
+        <v>5391100</v>
       </c>
       <c r="I43" s="3">
-        <v>4726500</v>
+        <v>4555100</v>
       </c>
       <c r="J43" s="3">
-        <v>3997700</v>
+        <v>3852700</v>
       </c>
       <c r="K43" s="3">
         <v>3955600</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8487800</v>
+        <v>8180000</v>
       </c>
       <c r="E44" s="3">
-        <v>8623700</v>
+        <v>8310900</v>
       </c>
       <c r="F44" s="3">
-        <v>8531700</v>
+        <v>8222300</v>
       </c>
       <c r="G44" s="3">
-        <v>16596400</v>
+        <v>15994500</v>
       </c>
       <c r="H44" s="3">
-        <v>8197700</v>
+        <v>7900400</v>
       </c>
       <c r="I44" s="3">
-        <v>6010000</v>
+        <v>5792000</v>
       </c>
       <c r="J44" s="3">
-        <v>5848600</v>
+        <v>5636500</v>
       </c>
       <c r="K44" s="3">
         <v>5381500</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>612700</v>
+        <v>590500</v>
       </c>
       <c r="E45" s="3">
-        <v>447200</v>
+        <v>431000</v>
       </c>
       <c r="F45" s="3">
-        <v>260400</v>
+        <v>250900</v>
       </c>
       <c r="G45" s="3">
-        <v>329700</v>
+        <v>317800</v>
       </c>
       <c r="H45" s="3">
-        <v>557600</v>
+        <v>537300</v>
       </c>
       <c r="I45" s="3">
-        <v>324100</v>
+        <v>312300</v>
       </c>
       <c r="J45" s="3">
-        <v>433000</v>
+        <v>417300</v>
       </c>
       <c r="K45" s="3">
         <v>459300</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19262500</v>
+        <v>18563900</v>
       </c>
       <c r="E46" s="3">
-        <v>18784200</v>
+        <v>18102900</v>
       </c>
       <c r="F46" s="3">
-        <v>17908200</v>
+        <v>17258800</v>
       </c>
       <c r="G46" s="3">
-        <v>19763400</v>
+        <v>19046700</v>
       </c>
       <c r="H46" s="3">
-        <v>17489300</v>
+        <v>16855100</v>
       </c>
       <c r="I46" s="3">
-        <v>13887900</v>
+        <v>13384200</v>
       </c>
       <c r="J46" s="3">
-        <v>12922800</v>
+        <v>12454100</v>
       </c>
       <c r="K46" s="3">
         <v>12672300</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2915100</v>
+        <v>2809400</v>
       </c>
       <c r="E47" s="3">
-        <v>3000000</v>
+        <v>2891200</v>
       </c>
       <c r="F47" s="3">
-        <v>3482600</v>
+        <v>3356300</v>
       </c>
       <c r="G47" s="3">
-        <v>3360900</v>
+        <v>3239000</v>
       </c>
       <c r="H47" s="3">
-        <v>14362000</v>
+        <v>13841100</v>
       </c>
       <c r="I47" s="3">
-        <v>10221300</v>
+        <v>9850700</v>
       </c>
       <c r="J47" s="3">
-        <v>3663700</v>
+        <v>3530900</v>
       </c>
       <c r="K47" s="3">
         <v>3336500</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7160500</v>
+        <v>6900800</v>
       </c>
       <c r="E48" s="3">
-        <v>7808600</v>
+        <v>7525400</v>
       </c>
       <c r="F48" s="3">
-        <v>7310500</v>
+        <v>7045300</v>
       </c>
       <c r="G48" s="3">
-        <v>13817100</v>
+        <v>13316000</v>
       </c>
       <c r="H48" s="3">
-        <v>5180700</v>
+        <v>4992800</v>
       </c>
       <c r="I48" s="3">
-        <v>4275000</v>
+        <v>4120000</v>
       </c>
       <c r="J48" s="3">
-        <v>4251000</v>
+        <v>4096800</v>
       </c>
       <c r="K48" s="3">
         <v>4201900</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>163223000</v>
+        <v>157304000</v>
       </c>
       <c r="E49" s="3">
-        <v>168097000</v>
+        <v>162001000</v>
       </c>
       <c r="F49" s="3">
-        <v>175492000</v>
+        <v>169128000</v>
       </c>
       <c r="G49" s="3">
-        <v>333358000</v>
+        <v>321268000</v>
       </c>
       <c r="H49" s="3">
-        <v>17146900</v>
+        <v>16525000</v>
       </c>
       <c r="I49" s="3">
-        <v>14768100</v>
+        <v>14232500</v>
       </c>
       <c r="J49" s="3">
-        <v>15288800</v>
+        <v>14734400</v>
       </c>
       <c r="K49" s="3">
         <v>14918300</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2285400</v>
+        <v>2202500</v>
       </c>
       <c r="E52" s="3">
-        <v>1848100</v>
+        <v>1781100</v>
       </c>
       <c r="F52" s="3">
-        <v>2896700</v>
+        <v>2791700</v>
       </c>
       <c r="G52" s="3">
-        <v>2895300</v>
+        <v>2790300</v>
       </c>
       <c r="H52" s="3">
-        <v>2104300</v>
+        <v>2028000</v>
       </c>
       <c r="I52" s="3">
-        <v>1444800</v>
+        <v>1392400</v>
       </c>
       <c r="J52" s="3">
-        <v>902800</v>
+        <v>870100</v>
       </c>
       <c r="K52" s="3">
         <v>660400</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>194847000</v>
+        <v>187780000</v>
       </c>
       <c r="E54" s="3">
-        <v>199538000</v>
+        <v>192301000</v>
       </c>
       <c r="F54" s="3">
-        <v>207090000</v>
+        <v>199580000</v>
       </c>
       <c r="G54" s="3">
-        <v>199607000</v>
+        <v>192368000</v>
       </c>
       <c r="H54" s="3">
-        <v>56283200</v>
+        <v>54242000</v>
       </c>
       <c r="I54" s="3">
-        <v>44597200</v>
+        <v>42979800</v>
       </c>
       <c r="J54" s="3">
-        <v>37029200</v>
+        <v>35686300</v>
       </c>
       <c r="K54" s="3">
         <v>35789400</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13716700</v>
+        <v>13219200</v>
       </c>
       <c r="E57" s="3">
-        <v>13764800</v>
+        <v>13265600</v>
       </c>
       <c r="F57" s="3">
-        <v>15044000</v>
+        <v>14498500</v>
       </c>
       <c r="G57" s="3">
-        <v>12605800</v>
+        <v>12148600</v>
       </c>
       <c r="H57" s="3">
-        <v>10379800</v>
+        <v>10003400</v>
       </c>
       <c r="I57" s="3">
-        <v>8401500</v>
+        <v>8096800</v>
       </c>
       <c r="J57" s="3">
-        <v>7817100</v>
+        <v>7533600</v>
       </c>
       <c r="K57" s="3">
         <v>7643600</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5012300</v>
+        <v>4830500</v>
       </c>
       <c r="E58" s="3">
-        <v>10030300</v>
+        <v>9666500</v>
       </c>
       <c r="F58" s="3">
-        <v>5313700</v>
+        <v>5121000</v>
       </c>
       <c r="G58" s="3">
-        <v>14718600</v>
+        <v>14184800</v>
       </c>
       <c r="H58" s="3">
-        <v>4255200</v>
+        <v>4100900</v>
       </c>
       <c r="I58" s="3">
-        <v>3106200</v>
+        <v>2993500</v>
       </c>
       <c r="J58" s="3">
-        <v>3508100</v>
+        <v>3380800</v>
       </c>
       <c r="K58" s="3">
         <v>2636200</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3174100</v>
+        <v>3059000</v>
       </c>
       <c r="E59" s="3">
-        <v>2841500</v>
+        <v>2738500</v>
       </c>
       <c r="F59" s="3">
-        <v>2749600</v>
+        <v>2649800</v>
       </c>
       <c r="G59" s="3">
-        <v>2997200</v>
+        <v>2888500</v>
       </c>
       <c r="H59" s="3">
-        <v>2142500</v>
+        <v>2064800</v>
       </c>
       <c r="I59" s="3">
-        <v>1236800</v>
+        <v>1192000</v>
       </c>
       <c r="J59" s="3">
-        <v>1084000</v>
+        <v>1044700</v>
       </c>
       <c r="K59" s="3">
         <v>952000</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21903100</v>
+        <v>21108700</v>
       </c>
       <c r="E60" s="3">
-        <v>26636600</v>
+        <v>25670600</v>
       </c>
       <c r="F60" s="3">
-        <v>23107300</v>
+        <v>22269300</v>
       </c>
       <c r="G60" s="3">
-        <v>22082800</v>
+        <v>21281900</v>
       </c>
       <c r="H60" s="3">
-        <v>16777500</v>
+        <v>16169100</v>
       </c>
       <c r="I60" s="3">
-        <v>12744500</v>
+        <v>12282300</v>
       </c>
       <c r="J60" s="3">
-        <v>12409100</v>
+        <v>11959100</v>
       </c>
       <c r="K60" s="3">
         <v>11231700</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56501100</v>
+        <v>54452000</v>
       </c>
       <c r="E61" s="3">
-        <v>53496800</v>
+        <v>51556700</v>
       </c>
       <c r="F61" s="3">
-        <v>61251600</v>
+        <v>59030300</v>
       </c>
       <c r="G61" s="3">
-        <v>62303000</v>
+        <v>60043600</v>
       </c>
       <c r="H61" s="3">
-        <v>23332300</v>
+        <v>22486200</v>
       </c>
       <c r="I61" s="3">
-        <v>20952100</v>
+        <v>20192300</v>
       </c>
       <c r="J61" s="3">
-        <v>13838400</v>
+        <v>13336500</v>
       </c>
       <c r="K61" s="3">
         <v>12935900</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27354100</v>
+        <v>26362100</v>
       </c>
       <c r="E62" s="3">
-        <v>28610700</v>
+        <v>27573100</v>
       </c>
       <c r="F62" s="3">
-        <v>29775300</v>
+        <v>28695500</v>
       </c>
       <c r="G62" s="3">
-        <v>29427200</v>
+        <v>28360000</v>
       </c>
       <c r="H62" s="3">
-        <v>4277900</v>
+        <v>4122700</v>
       </c>
       <c r="I62" s="3">
-        <v>3779800</v>
+        <v>3642700</v>
       </c>
       <c r="J62" s="3">
-        <v>2554300</v>
+        <v>2461600</v>
       </c>
       <c r="K62" s="3">
         <v>2388500</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>106157000</v>
+        <v>102307000</v>
       </c>
       <c r="E66" s="3">
-        <v>109109000</v>
+        <v>105152000</v>
       </c>
       <c r="F66" s="3">
-        <v>114480000</v>
+        <v>110328000</v>
       </c>
       <c r="G66" s="3">
-        <v>113626000</v>
+        <v>109506000</v>
       </c>
       <c r="H66" s="3">
-        <v>44704700</v>
+        <v>43083500</v>
       </c>
       <c r="I66" s="3">
-        <v>37671600</v>
+        <v>36305500</v>
       </c>
       <c r="J66" s="3">
-        <v>29231900</v>
+        <v>28171800</v>
       </c>
       <c r="K66" s="3">
         <v>26956900</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>105113000</v>
+        <v>101301000</v>
       </c>
       <c r="E72" s="3">
-        <v>102713000</v>
+        <v>98988000</v>
       </c>
       <c r="F72" s="3">
-        <v>100313000</v>
+        <v>96675000</v>
       </c>
       <c r="G72" s="3">
-        <v>145418000</v>
+        <v>140144000</v>
       </c>
       <c r="H72" s="3">
-        <v>10744900</v>
+        <v>10355300</v>
       </c>
       <c r="I72" s="3">
-        <v>6097700</v>
+        <v>5876600</v>
       </c>
       <c r="J72" s="3">
-        <v>6975100</v>
+        <v>6722100</v>
       </c>
       <c r="K72" s="3">
         <v>8064300</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>88689200</v>
+        <v>85472800</v>
       </c>
       <c r="E76" s="3">
-        <v>90428400</v>
+        <v>87148900</v>
       </c>
       <c r="F76" s="3">
-        <v>92610500</v>
+        <v>89251900</v>
       </c>
       <c r="G76" s="3">
-        <v>85980700</v>
+        <v>82862500</v>
       </c>
       <c r="H76" s="3">
-        <v>11578400</v>
+        <v>11158500</v>
       </c>
       <c r="I76" s="3">
-        <v>6925500</v>
+        <v>6674400</v>
       </c>
       <c r="J76" s="3">
-        <v>7797300</v>
+        <v>7514500</v>
       </c>
       <c r="K76" s="3">
         <v>8832500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9056700</v>
+        <v>8728300</v>
       </c>
       <c r="E81" s="3">
-        <v>8071800</v>
+        <v>7779100</v>
       </c>
       <c r="F81" s="3">
-        <v>8535900</v>
+        <v>8226400</v>
       </c>
       <c r="G81" s="3">
-        <v>53045400</v>
+        <v>51121700</v>
       </c>
       <c r="H81" s="3">
-        <v>6577400</v>
+        <v>6338900</v>
       </c>
       <c r="I81" s="3">
-        <v>6070800</v>
+        <v>5850700</v>
       </c>
       <c r="J81" s="3">
-        <v>4408100</v>
+        <v>4248200</v>
       </c>
       <c r="K81" s="3">
         <v>5197800</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1838200</v>
+        <v>1771600</v>
       </c>
       <c r="E83" s="3">
-        <v>2050500</v>
+        <v>1976100</v>
       </c>
       <c r="F83" s="3">
-        <v>1401000</v>
+        <v>1350200</v>
       </c>
       <c r="G83" s="3">
-        <v>1156100</v>
+        <v>1114200</v>
       </c>
       <c r="H83" s="3">
-        <v>859000</v>
+        <v>827800</v>
       </c>
       <c r="I83" s="3">
-        <v>605700</v>
+        <v>583700</v>
       </c>
       <c r="J83" s="3">
-        <v>740100</v>
+        <v>713300</v>
       </c>
       <c r="K83" s="3">
         <v>635100</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13848300</v>
+        <v>13346000</v>
       </c>
       <c r="E89" s="3">
-        <v>12730300</v>
+        <v>12268700</v>
       </c>
       <c r="F89" s="3">
-        <v>14568600</v>
+        <v>14040200</v>
       </c>
       <c r="G89" s="3">
-        <v>7566600</v>
+        <v>7292200</v>
       </c>
       <c r="H89" s="3">
-        <v>6523700</v>
+        <v>6287100</v>
       </c>
       <c r="I89" s="3">
-        <v>6679300</v>
+        <v>6437100</v>
       </c>
       <c r="J89" s="3">
-        <v>5258500</v>
+        <v>5067800</v>
       </c>
       <c r="K89" s="3">
         <v>5906100</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-723100</v>
+        <v>-696900</v>
       </c>
       <c r="E91" s="3">
-        <v>-939600</v>
+        <v>-905600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1072700</v>
+        <v>-1033800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1119400</v>
+        <v>-1078800</v>
       </c>
       <c r="H91" s="3">
-        <v>-829300</v>
+        <v>-799200</v>
       </c>
       <c r="I91" s="3">
-        <v>-683500</v>
+        <v>-658700</v>
       </c>
       <c r="J91" s="3">
-        <v>-748600</v>
+        <v>-721400</v>
       </c>
       <c r="K91" s="3">
         <v>-764200</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1108000</v>
+        <v>-1067800</v>
       </c>
       <c r="E94" s="3">
-        <v>-904300</v>
+        <v>-871500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1444800</v>
+        <v>-1392400</v>
       </c>
       <c r="G94" s="3">
-        <v>-26241800</v>
+        <v>-25290100</v>
       </c>
       <c r="H94" s="3">
-        <v>-905700</v>
+        <v>-872800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5647700</v>
+        <v>-5442900</v>
       </c>
       <c r="J94" s="3">
-        <v>-665100</v>
+        <v>-641000</v>
       </c>
       <c r="K94" s="3">
         <v>-446000</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6714700</v>
+        <v>-6471200</v>
       </c>
       <c r="E96" s="3">
-        <v>-6506700</v>
+        <v>-6270700</v>
       </c>
       <c r="F96" s="3">
-        <v>-6151500</v>
+        <v>-5928400</v>
       </c>
       <c r="G96" s="3">
-        <v>-4903400</v>
+        <v>-4725500</v>
       </c>
       <c r="H96" s="3">
-        <v>-4118000</v>
+        <v>-3968600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3919900</v>
+        <v>-3777700</v>
       </c>
       <c r="J96" s="3">
-        <v>-3837800</v>
+        <v>-3698600</v>
       </c>
       <c r="K96" s="3">
         <v>-3476300</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11175100</v>
+        <v>-10769800</v>
       </c>
       <c r="E100" s="3">
-        <v>-12160000</v>
+        <v>-11719000</v>
       </c>
       <c r="F100" s="3">
-        <v>-13627500</v>
+        <v>-13133300</v>
       </c>
       <c r="G100" s="3">
-        <v>20885600</v>
+        <v>20128200</v>
       </c>
       <c r="H100" s="3">
-        <v>-5984500</v>
+        <v>-5767500</v>
       </c>
       <c r="I100" s="3">
-        <v>-309900</v>
+        <v>-298700</v>
       </c>
       <c r="J100" s="3">
-        <v>-4906200</v>
+        <v>-4728300</v>
       </c>
       <c r="K100" s="3">
         <v>-5281700</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-358000</v>
+        <v>-345000</v>
       </c>
       <c r="E101" s="3">
-        <v>-80700</v>
+        <v>-77700</v>
       </c>
       <c r="F101" s="3">
-        <v>-195300</v>
+        <v>-188200</v>
       </c>
       <c r="G101" s="3">
-        <v>-553300</v>
+        <v>-533200</v>
       </c>
       <c r="H101" s="3">
-        <v>254700</v>
+        <v>245500</v>
       </c>
       <c r="I101" s="3">
-        <v>-384900</v>
+        <v>-371000</v>
       </c>
       <c r="J101" s="3">
-        <v>-89200</v>
+        <v>-85900</v>
       </c>
       <c r="K101" s="3">
         <v>-262300</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1207100</v>
+        <v>1163300</v>
       </c>
       <c r="E102" s="3">
-        <v>-414600</v>
+        <v>-399600</v>
       </c>
       <c r="F102" s="3">
-        <v>-699100</v>
+        <v>-673700</v>
       </c>
       <c r="G102" s="3">
-        <v>1657100</v>
+        <v>1597000</v>
       </c>
       <c r="H102" s="3">
-        <v>-111800</v>
+        <v>-107700</v>
       </c>
       <c r="I102" s="3">
-        <v>336800</v>
+        <v>324600</v>
       </c>
       <c r="J102" s="3">
-        <v>-401900</v>
+        <v>-387300</v>
       </c>
       <c r="K102" s="3">
         <v>-83900</v>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35153100</v>
+        <v>34310400</v>
       </c>
       <c r="E8" s="3">
-        <v>35290800</v>
+        <v>34444900</v>
       </c>
       <c r="F8" s="3">
-        <v>33401900</v>
+        <v>32601300</v>
       </c>
       <c r="G8" s="3">
-        <v>26681200</v>
+        <v>26041600</v>
       </c>
       <c r="H8" s="3">
-        <v>19270400</v>
+        <v>18808400</v>
       </c>
       <c r="I8" s="3">
-        <v>17871100</v>
+        <v>17442700</v>
       </c>
       <c r="J8" s="3">
-        <v>19053500</v>
+        <v>18596800</v>
       </c>
       <c r="K8" s="3">
         <v>20317200</v>
@@ -757,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5643400</v>
+        <v>5508100</v>
       </c>
       <c r="E9" s="3">
-        <v>6051100</v>
+        <v>5906100</v>
       </c>
       <c r="F9" s="3">
-        <v>6205200</v>
+        <v>6056500</v>
       </c>
       <c r="G9" s="3">
-        <v>6864000</v>
+        <v>6699400</v>
       </c>
       <c r="H9" s="3">
-        <v>5091000</v>
+        <v>4969000</v>
       </c>
       <c r="I9" s="3">
-        <v>4136400</v>
+        <v>4037200</v>
       </c>
       <c r="J9" s="3">
-        <v>4132300</v>
+        <v>4033200</v>
       </c>
       <c r="K9" s="3">
         <v>4317700</v>
@@ -793,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>29509700</v>
+        <v>28802300</v>
       </c>
       <c r="E10" s="3">
-        <v>29239700</v>
+        <v>28538800</v>
       </c>
       <c r="F10" s="3">
-        <v>27196700</v>
+        <v>26544800</v>
       </c>
       <c r="G10" s="3">
-        <v>19817200</v>
+        <v>19342200</v>
       </c>
       <c r="H10" s="3">
-        <v>14179300</v>
+        <v>13839400</v>
       </c>
       <c r="I10" s="3">
-        <v>13734700</v>
+        <v>13405500</v>
       </c>
       <c r="J10" s="3">
-        <v>14921200</v>
+        <v>14563600</v>
       </c>
       <c r="K10" s="3">
         <v>15999400</v>
@@ -845,25 +845,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>165000</v>
+        <v>161100</v>
       </c>
       <c r="E12" s="3">
-        <v>171800</v>
+        <v>167700</v>
       </c>
       <c r="F12" s="3">
-        <v>143200</v>
+        <v>139800</v>
       </c>
       <c r="G12" s="3">
-        <v>109100</v>
+        <v>106500</v>
       </c>
       <c r="H12" s="3">
-        <v>72300</v>
+        <v>70500</v>
       </c>
       <c r="I12" s="3">
-        <v>81800</v>
+        <v>79900</v>
       </c>
       <c r="J12" s="3">
-        <v>100900</v>
+        <v>98500</v>
       </c>
       <c r="K12" s="3">
         <v>121200</v>
@@ -917,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1039200</v>
+        <v>1014300</v>
       </c>
       <c r="E14" s="3">
-        <v>1039200</v>
+        <v>1014300</v>
       </c>
       <c r="F14" s="3">
-        <v>437800</v>
+        <v>427300</v>
       </c>
       <c r="G14" s="3">
-        <v>-30733000</v>
+        <v>-29996300</v>
       </c>
       <c r="H14" s="3">
-        <v>960100</v>
+        <v>937100</v>
       </c>
       <c r="I14" s="3">
-        <v>639600</v>
+        <v>624300</v>
       </c>
       <c r="J14" s="3">
-        <v>1126500</v>
+        <v>1099500</v>
       </c>
       <c r="K14" s="3">
         <v>358100</v>
@@ -953,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1486500</v>
+        <v>1450900</v>
       </c>
       <c r="E15" s="3">
-        <v>1711600</v>
+        <v>1670500</v>
       </c>
       <c r="F15" s="3">
-        <v>1350200</v>
+        <v>1317800</v>
       </c>
       <c r="G15" s="3">
-        <v>1114200</v>
+        <v>1087500</v>
       </c>
       <c r="H15" s="3">
-        <v>1479700</v>
+        <v>1444200</v>
       </c>
       <c r="I15" s="3">
-        <v>551000</v>
+        <v>537800</v>
       </c>
       <c r="J15" s="3">
-        <v>656000</v>
+        <v>640300</v>
       </c>
       <c r="K15" s="3">
         <v>589800</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21760600</v>
+        <v>21239000</v>
       </c>
       <c r="E17" s="3">
-        <v>22994900</v>
+        <v>22443700</v>
       </c>
       <c r="F17" s="3">
-        <v>20639600</v>
+        <v>20144900</v>
       </c>
       <c r="G17" s="3">
-        <v>-13614700</v>
+        <v>-13288400</v>
       </c>
       <c r="H17" s="3">
-        <v>13059700</v>
+        <v>12746600</v>
       </c>
       <c r="I17" s="3">
-        <v>11798100</v>
+        <v>11515300</v>
       </c>
       <c r="J17" s="3">
-        <v>12848300</v>
+        <v>12540300</v>
       </c>
       <c r="K17" s="3">
         <v>12959800</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13392400</v>
+        <v>13071400</v>
       </c>
       <c r="E18" s="3">
-        <v>12295900</v>
+        <v>12001200</v>
       </c>
       <c r="F18" s="3">
-        <v>12762300</v>
+        <v>12456400</v>
       </c>
       <c r="G18" s="3">
-        <v>40295900</v>
+        <v>39330000</v>
       </c>
       <c r="H18" s="3">
-        <v>6210700</v>
+        <v>6061800</v>
       </c>
       <c r="I18" s="3">
-        <v>6073000</v>
+        <v>5927400</v>
       </c>
       <c r="J18" s="3">
-        <v>6205200</v>
+        <v>6056500</v>
       </c>
       <c r="K18" s="3">
         <v>7357300</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>658700</v>
+        <v>642900</v>
       </c>
       <c r="E20" s="3">
-        <v>823700</v>
+        <v>804000</v>
       </c>
       <c r="F20" s="3">
-        <v>799200</v>
+        <v>780000</v>
       </c>
       <c r="G20" s="3">
-        <v>1447000</v>
+        <v>1412300</v>
       </c>
       <c r="H20" s="3">
-        <v>3185800</v>
+        <v>3109400</v>
       </c>
       <c r="I20" s="3">
-        <v>2704400</v>
+        <v>2639600</v>
       </c>
       <c r="J20" s="3">
-        <v>1208300</v>
+        <v>1179400</v>
       </c>
       <c r="K20" s="3">
         <v>1181000</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15837900</v>
+        <v>15447200</v>
       </c>
       <c r="E21" s="3">
-        <v>15112800</v>
+        <v>14738100</v>
       </c>
       <c r="F21" s="3">
-        <v>14923300</v>
+        <v>14557100</v>
       </c>
       <c r="G21" s="3">
-        <v>42866700</v>
+        <v>41832200</v>
       </c>
       <c r="H21" s="3">
-        <v>10231400</v>
+        <v>9981000</v>
       </c>
       <c r="I21" s="3">
-        <v>9366100</v>
+        <v>9137900</v>
       </c>
       <c r="J21" s="3">
-        <v>8132900</v>
+        <v>7933500</v>
       </c>
       <c r="K21" s="3">
         <v>9175300</v>
@@ -1162,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2224300</v>
+        <v>2171000</v>
       </c>
       <c r="E22" s="3">
-        <v>2329400</v>
+        <v>2273500</v>
       </c>
       <c r="F22" s="3">
-        <v>2172500</v>
+        <v>2120400</v>
       </c>
       <c r="G22" s="3">
-        <v>1474300</v>
+        <v>1438900</v>
       </c>
       <c r="H22" s="3">
-        <v>879600</v>
+        <v>858600</v>
       </c>
       <c r="I22" s="3">
-        <v>792400</v>
+        <v>773400</v>
       </c>
       <c r="J22" s="3">
-        <v>801900</v>
+        <v>782700</v>
       </c>
       <c r="K22" s="3">
         <v>817500</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11826800</v>
+        <v>11543300</v>
       </c>
       <c r="E23" s="3">
-        <v>10790300</v>
+        <v>10531700</v>
       </c>
       <c r="F23" s="3">
-        <v>11389000</v>
+        <v>11116000</v>
       </c>
       <c r="G23" s="3">
-        <v>40268600</v>
+        <v>39303400</v>
       </c>
       <c r="H23" s="3">
-        <v>8516900</v>
+        <v>8312700</v>
       </c>
       <c r="I23" s="3">
-        <v>7985000</v>
+        <v>7793600</v>
       </c>
       <c r="J23" s="3">
-        <v>6611700</v>
+        <v>6453200</v>
       </c>
       <c r="K23" s="3">
         <v>7720800</v>
@@ -1234,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3056300</v>
+        <v>2983000</v>
       </c>
       <c r="E24" s="3">
-        <v>2877600</v>
+        <v>2808600</v>
       </c>
       <c r="F24" s="3">
-        <v>3015300</v>
+        <v>2943100</v>
       </c>
       <c r="G24" s="3">
-        <v>1987000</v>
+        <v>1939400</v>
       </c>
       <c r="H24" s="3">
-        <v>1917500</v>
+        <v>1871500</v>
       </c>
       <c r="I24" s="3">
-        <v>1817900</v>
+        <v>1774400</v>
       </c>
       <c r="J24" s="3">
-        <v>1984300</v>
+        <v>1936800</v>
       </c>
       <c r="K24" s="3">
         <v>2130200</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8770500</v>
+        <v>8560300</v>
       </c>
       <c r="E26" s="3">
-        <v>7912700</v>
+        <v>7723000</v>
       </c>
       <c r="F26" s="3">
-        <v>8373700</v>
+        <v>8173000</v>
       </c>
       <c r="G26" s="3">
-        <v>38281600</v>
+        <v>37364000</v>
       </c>
       <c r="H26" s="3">
-        <v>6599400</v>
+        <v>6441200</v>
       </c>
       <c r="I26" s="3">
-        <v>6167100</v>
+        <v>6019200</v>
       </c>
       <c r="J26" s="3">
-        <v>4627300</v>
+        <v>4516400</v>
       </c>
       <c r="K26" s="3">
         <v>5590500</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8546900</v>
+        <v>8342000</v>
       </c>
       <c r="E27" s="3">
-        <v>7715000</v>
+        <v>7530000</v>
       </c>
       <c r="F27" s="3">
-        <v>8130900</v>
+        <v>7936000</v>
       </c>
       <c r="G27" s="3">
-        <v>38048400</v>
+        <v>37136400</v>
       </c>
       <c r="H27" s="3">
-        <v>6338900</v>
+        <v>6187000</v>
       </c>
       <c r="I27" s="3">
-        <v>5850700</v>
+        <v>5710400</v>
       </c>
       <c r="J27" s="3">
-        <v>4248200</v>
+        <v>4146400</v>
       </c>
       <c r="K27" s="3">
         <v>5197800</v>
@@ -1414,16 +1414,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>181400</v>
+        <v>177000</v>
       </c>
       <c r="E29" s="3">
-        <v>64100</v>
+        <v>62600</v>
       </c>
       <c r="F29" s="3">
-        <v>95500</v>
+        <v>93200</v>
       </c>
       <c r="G29" s="3">
-        <v>13073300</v>
+        <v>12759900</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-658700</v>
+        <v>-642900</v>
       </c>
       <c r="E32" s="3">
-        <v>-823700</v>
+        <v>-804000</v>
       </c>
       <c r="F32" s="3">
-        <v>-799200</v>
+        <v>-780000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1447000</v>
+        <v>-1412300</v>
       </c>
       <c r="H32" s="3">
-        <v>-3185800</v>
+        <v>-3109400</v>
       </c>
       <c r="I32" s="3">
-        <v>-2704400</v>
+        <v>-2639600</v>
       </c>
       <c r="J32" s="3">
-        <v>-1208300</v>
+        <v>-1179400</v>
       </c>
       <c r="K32" s="3">
         <v>-1181000</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8728300</v>
+        <v>8519000</v>
       </c>
       <c r="E33" s="3">
-        <v>7779100</v>
+        <v>7592600</v>
       </c>
       <c r="F33" s="3">
-        <v>8226400</v>
+        <v>8029200</v>
       </c>
       <c r="G33" s="3">
-        <v>51121700</v>
+        <v>49896300</v>
       </c>
       <c r="H33" s="3">
-        <v>6338900</v>
+        <v>6187000</v>
       </c>
       <c r="I33" s="3">
-        <v>5850700</v>
+        <v>5710400</v>
       </c>
       <c r="J33" s="3">
-        <v>4248200</v>
+        <v>4146400</v>
       </c>
       <c r="K33" s="3">
         <v>5197800</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8728300</v>
+        <v>8519000</v>
       </c>
       <c r="E35" s="3">
-        <v>7779100</v>
+        <v>7592600</v>
       </c>
       <c r="F35" s="3">
-        <v>8226400</v>
+        <v>8029200</v>
       </c>
       <c r="G35" s="3">
-        <v>51121700</v>
+        <v>49896300</v>
       </c>
       <c r="H35" s="3">
-        <v>6338900</v>
+        <v>6187000</v>
       </c>
       <c r="I35" s="3">
-        <v>5850700</v>
+        <v>5710400</v>
       </c>
       <c r="J35" s="3">
-        <v>4248200</v>
+        <v>4146400</v>
       </c>
       <c r="K35" s="3">
         <v>5197800</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4280900</v>
+        <v>4178300</v>
       </c>
       <c r="E41" s="3">
-        <v>3444900</v>
+        <v>3362400</v>
       </c>
       <c r="F41" s="3">
-        <v>3548600</v>
+        <v>3463500</v>
       </c>
       <c r="G41" s="3">
-        <v>8976500</v>
+        <v>8761300</v>
       </c>
       <c r="H41" s="3">
-        <v>3005800</v>
+        <v>2933700</v>
       </c>
       <c r="I41" s="3">
-        <v>2677100</v>
+        <v>2612900</v>
       </c>
       <c r="J41" s="3">
-        <v>2479400</v>
+        <v>2419900</v>
       </c>
       <c r="K41" s="3">
         <v>2803900</v>
@@ -1775,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>330000</v>
+        <v>322100</v>
       </c>
       <c r="E42" s="3">
-        <v>167700</v>
+        <v>163700</v>
       </c>
       <c r="F42" s="3">
-        <v>242800</v>
+        <v>236900</v>
       </c>
       <c r="G42" s="3">
-        <v>88600</v>
+        <v>86500</v>
       </c>
       <c r="H42" s="3">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="I42" s="3">
-        <v>47700</v>
+        <v>46600</v>
       </c>
       <c r="J42" s="3">
-        <v>68200</v>
+        <v>66600</v>
       </c>
       <c r="K42" s="3">
         <v>71900</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5182400</v>
+        <v>5058200</v>
       </c>
       <c r="E43" s="3">
-        <v>5748400</v>
+        <v>5610600</v>
       </c>
       <c r="F43" s="3">
-        <v>4994200</v>
+        <v>4874500</v>
       </c>
       <c r="G43" s="3">
-        <v>6154800</v>
+        <v>6007300</v>
       </c>
       <c r="H43" s="3">
-        <v>5391100</v>
+        <v>5261800</v>
       </c>
       <c r="I43" s="3">
-        <v>4555100</v>
+        <v>4445900</v>
       </c>
       <c r="J43" s="3">
-        <v>3852700</v>
+        <v>3760400</v>
       </c>
       <c r="K43" s="3">
         <v>3955600</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8180000</v>
+        <v>7983900</v>
       </c>
       <c r="E44" s="3">
-        <v>8310900</v>
+        <v>8111700</v>
       </c>
       <c r="F44" s="3">
-        <v>8222300</v>
+        <v>8025200</v>
       </c>
       <c r="G44" s="3">
-        <v>15994500</v>
+        <v>15611100</v>
       </c>
       <c r="H44" s="3">
-        <v>7900400</v>
+        <v>7711100</v>
       </c>
       <c r="I44" s="3">
-        <v>5792000</v>
+        <v>5653200</v>
       </c>
       <c r="J44" s="3">
-        <v>5636500</v>
+        <v>5501400</v>
       </c>
       <c r="K44" s="3">
         <v>5381500</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>590500</v>
+        <v>576400</v>
       </c>
       <c r="E45" s="3">
-        <v>431000</v>
+        <v>420600</v>
       </c>
       <c r="F45" s="3">
-        <v>250900</v>
+        <v>244900</v>
       </c>
       <c r="G45" s="3">
-        <v>317800</v>
+        <v>310100</v>
       </c>
       <c r="H45" s="3">
-        <v>537300</v>
+        <v>524500</v>
       </c>
       <c r="I45" s="3">
-        <v>312300</v>
+        <v>304800</v>
       </c>
       <c r="J45" s="3">
-        <v>417300</v>
+        <v>407300</v>
       </c>
       <c r="K45" s="3">
         <v>459300</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18563900</v>
+        <v>18118900</v>
       </c>
       <c r="E46" s="3">
-        <v>18102900</v>
+        <v>17669000</v>
       </c>
       <c r="F46" s="3">
-        <v>17258800</v>
+        <v>16845100</v>
       </c>
       <c r="G46" s="3">
-        <v>19046700</v>
+        <v>18590100</v>
       </c>
       <c r="H46" s="3">
-        <v>16855100</v>
+        <v>16451100</v>
       </c>
       <c r="I46" s="3">
-        <v>13384200</v>
+        <v>13063400</v>
       </c>
       <c r="J46" s="3">
-        <v>12454100</v>
+        <v>12155600</v>
       </c>
       <c r="K46" s="3">
         <v>12672300</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2809400</v>
+        <v>2742100</v>
       </c>
       <c r="E47" s="3">
-        <v>2891200</v>
+        <v>2821900</v>
       </c>
       <c r="F47" s="3">
-        <v>3356300</v>
+        <v>3275800</v>
       </c>
       <c r="G47" s="3">
-        <v>3239000</v>
+        <v>3161400</v>
       </c>
       <c r="H47" s="3">
-        <v>13841100</v>
+        <v>13509300</v>
       </c>
       <c r="I47" s="3">
-        <v>9850700</v>
+        <v>9614500</v>
       </c>
       <c r="J47" s="3">
-        <v>3530900</v>
+        <v>3446200</v>
       </c>
       <c r="K47" s="3">
         <v>3336500</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6900800</v>
+        <v>6735400</v>
       </c>
       <c r="E48" s="3">
-        <v>7525400</v>
+        <v>7345000</v>
       </c>
       <c r="F48" s="3">
-        <v>7045300</v>
+        <v>6876500</v>
       </c>
       <c r="G48" s="3">
-        <v>13316000</v>
+        <v>12996900</v>
       </c>
       <c r="H48" s="3">
-        <v>4992800</v>
+        <v>4873200</v>
       </c>
       <c r="I48" s="3">
-        <v>4120000</v>
+        <v>4021300</v>
       </c>
       <c r="J48" s="3">
-        <v>4096800</v>
+        <v>3998600</v>
       </c>
       <c r="K48" s="3">
         <v>4201900</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>157304000</v>
+        <v>153533000</v>
       </c>
       <c r="E49" s="3">
-        <v>162001000</v>
+        <v>158117000</v>
       </c>
       <c r="F49" s="3">
-        <v>169128000</v>
+        <v>165074000</v>
       </c>
       <c r="G49" s="3">
-        <v>321268000</v>
+        <v>313567000</v>
       </c>
       <c r="H49" s="3">
-        <v>16525000</v>
+        <v>16128900</v>
       </c>
       <c r="I49" s="3">
-        <v>14232500</v>
+        <v>13891400</v>
       </c>
       <c r="J49" s="3">
-        <v>14734400</v>
+        <v>14381200</v>
       </c>
       <c r="K49" s="3">
         <v>14918300</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2202500</v>
+        <v>2149700</v>
       </c>
       <c r="E52" s="3">
-        <v>1781100</v>
+        <v>1738400</v>
       </c>
       <c r="F52" s="3">
-        <v>2791700</v>
+        <v>2724800</v>
       </c>
       <c r="G52" s="3">
-        <v>2790300</v>
+        <v>2723400</v>
       </c>
       <c r="H52" s="3">
-        <v>2028000</v>
+        <v>1979300</v>
       </c>
       <c r="I52" s="3">
-        <v>1392400</v>
+        <v>1359100</v>
       </c>
       <c r="J52" s="3">
-        <v>870100</v>
+        <v>849200</v>
       </c>
       <c r="K52" s="3">
         <v>660400</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>187780000</v>
+        <v>183279000</v>
       </c>
       <c r="E54" s="3">
-        <v>192301000</v>
+        <v>187692000</v>
       </c>
       <c r="F54" s="3">
-        <v>199580000</v>
+        <v>194796000</v>
       </c>
       <c r="G54" s="3">
-        <v>192368000</v>
+        <v>187757000</v>
       </c>
       <c r="H54" s="3">
-        <v>54242000</v>
+        <v>52941800</v>
       </c>
       <c r="I54" s="3">
-        <v>42979800</v>
+        <v>41949600</v>
       </c>
       <c r="J54" s="3">
-        <v>35686300</v>
+        <v>34830900</v>
       </c>
       <c r="K54" s="3">
         <v>35789400</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13219200</v>
+        <v>12902400</v>
       </c>
       <c r="E57" s="3">
-        <v>13265600</v>
+        <v>12947600</v>
       </c>
       <c r="F57" s="3">
-        <v>14498500</v>
+        <v>14150900</v>
       </c>
       <c r="G57" s="3">
-        <v>12148600</v>
+        <v>11857400</v>
       </c>
       <c r="H57" s="3">
-        <v>10003400</v>
+        <v>9763600</v>
       </c>
       <c r="I57" s="3">
-        <v>8096800</v>
+        <v>7902700</v>
       </c>
       <c r="J57" s="3">
-        <v>7533600</v>
+        <v>7353000</v>
       </c>
       <c r="K57" s="3">
         <v>7643600</v>
@@ -2311,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4830500</v>
+        <v>4714800</v>
       </c>
       <c r="E58" s="3">
-        <v>9666500</v>
+        <v>9434800</v>
       </c>
       <c r="F58" s="3">
-        <v>5121000</v>
+        <v>4998300</v>
       </c>
       <c r="G58" s="3">
-        <v>14184800</v>
+        <v>13844800</v>
       </c>
       <c r="H58" s="3">
-        <v>4100900</v>
+        <v>4002600</v>
       </c>
       <c r="I58" s="3">
-        <v>2993500</v>
+        <v>2921800</v>
       </c>
       <c r="J58" s="3">
-        <v>3380800</v>
+        <v>3299800</v>
       </c>
       <c r="K58" s="3">
         <v>2636200</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3059000</v>
+        <v>2985700</v>
       </c>
       <c r="E59" s="3">
-        <v>2738500</v>
+        <v>2672800</v>
       </c>
       <c r="F59" s="3">
-        <v>2649800</v>
+        <v>2586300</v>
       </c>
       <c r="G59" s="3">
-        <v>2888500</v>
+        <v>2819300</v>
       </c>
       <c r="H59" s="3">
-        <v>2064800</v>
+        <v>2015300</v>
       </c>
       <c r="I59" s="3">
-        <v>1192000</v>
+        <v>1163400</v>
       </c>
       <c r="J59" s="3">
-        <v>1044700</v>
+        <v>1019600</v>
       </c>
       <c r="K59" s="3">
         <v>952000</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21108700</v>
+        <v>20602800</v>
       </c>
       <c r="E60" s="3">
-        <v>25670600</v>
+        <v>25055300</v>
       </c>
       <c r="F60" s="3">
-        <v>22269300</v>
+        <v>21735500</v>
       </c>
       <c r="G60" s="3">
-        <v>21281900</v>
+        <v>20771800</v>
       </c>
       <c r="H60" s="3">
-        <v>16169100</v>
+        <v>15781500</v>
       </c>
       <c r="I60" s="3">
-        <v>12282300</v>
+        <v>11987900</v>
       </c>
       <c r="J60" s="3">
-        <v>11959100</v>
+        <v>11672400</v>
       </c>
       <c r="K60" s="3">
         <v>11231700</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>54452000</v>
+        <v>53146800</v>
       </c>
       <c r="E61" s="3">
-        <v>51556700</v>
+        <v>50320900</v>
       </c>
       <c r="F61" s="3">
-        <v>59030300</v>
+        <v>57615300</v>
       </c>
       <c r="G61" s="3">
-        <v>60043600</v>
+        <v>58604300</v>
       </c>
       <c r="H61" s="3">
-        <v>22486200</v>
+        <v>21947200</v>
       </c>
       <c r="I61" s="3">
-        <v>20192300</v>
+        <v>19708300</v>
       </c>
       <c r="J61" s="3">
-        <v>13336500</v>
+        <v>13016800</v>
       </c>
       <c r="K61" s="3">
         <v>12935900</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26362100</v>
+        <v>25730200</v>
       </c>
       <c r="E62" s="3">
-        <v>27573100</v>
+        <v>26912200</v>
       </c>
       <c r="F62" s="3">
-        <v>28695500</v>
+        <v>28007700</v>
       </c>
       <c r="G62" s="3">
-        <v>28360000</v>
+        <v>27680200</v>
       </c>
       <c r="H62" s="3">
-        <v>4122700</v>
+        <v>4023900</v>
       </c>
       <c r="I62" s="3">
-        <v>3642700</v>
+        <v>3555400</v>
       </c>
       <c r="J62" s="3">
-        <v>2461600</v>
+        <v>2402600</v>
       </c>
       <c r="K62" s="3">
         <v>2388500</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>102307000</v>
+        <v>99855100</v>
       </c>
       <c r="E66" s="3">
-        <v>105152000</v>
+        <v>102632000</v>
       </c>
       <c r="F66" s="3">
-        <v>110328000</v>
+        <v>107683000</v>
       </c>
       <c r="G66" s="3">
-        <v>109506000</v>
+        <v>106881000</v>
       </c>
       <c r="H66" s="3">
-        <v>43083500</v>
+        <v>42050800</v>
       </c>
       <c r="I66" s="3">
-        <v>36305500</v>
+        <v>35435200</v>
       </c>
       <c r="J66" s="3">
-        <v>28171800</v>
+        <v>27496500</v>
       </c>
       <c r="K66" s="3">
         <v>26956900</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>101301000</v>
+        <v>98872800</v>
       </c>
       <c r="E72" s="3">
-        <v>98988000</v>
+        <v>96615200</v>
       </c>
       <c r="F72" s="3">
-        <v>96675000</v>
+        <v>94357700</v>
       </c>
       <c r="G72" s="3">
-        <v>140144000</v>
+        <v>136785000</v>
       </c>
       <c r="H72" s="3">
-        <v>10355300</v>
+        <v>10107000</v>
       </c>
       <c r="I72" s="3">
-        <v>5876600</v>
+        <v>5735700</v>
       </c>
       <c r="J72" s="3">
-        <v>6722100</v>
+        <v>6561000</v>
       </c>
       <c r="K72" s="3">
         <v>8064300</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>85472800</v>
+        <v>83424000</v>
       </c>
       <c r="E76" s="3">
-        <v>87148900</v>
+        <v>85060000</v>
       </c>
       <c r="F76" s="3">
-        <v>89251900</v>
+        <v>87112500</v>
       </c>
       <c r="G76" s="3">
-        <v>82862500</v>
+        <v>80876300</v>
       </c>
       <c r="H76" s="3">
-        <v>11158500</v>
+        <v>10891100</v>
       </c>
       <c r="I76" s="3">
-        <v>6674400</v>
+        <v>6514400</v>
       </c>
       <c r="J76" s="3">
-        <v>7514500</v>
+        <v>7334400</v>
       </c>
       <c r="K76" s="3">
         <v>8832500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8728300</v>
+        <v>8519000</v>
       </c>
       <c r="E81" s="3">
-        <v>7779100</v>
+        <v>7592600</v>
       </c>
       <c r="F81" s="3">
-        <v>8226400</v>
+        <v>8029200</v>
       </c>
       <c r="G81" s="3">
-        <v>51121700</v>
+        <v>49896300</v>
       </c>
       <c r="H81" s="3">
-        <v>6338900</v>
+        <v>6187000</v>
       </c>
       <c r="I81" s="3">
-        <v>5850700</v>
+        <v>5710400</v>
       </c>
       <c r="J81" s="3">
-        <v>4248200</v>
+        <v>4146400</v>
       </c>
       <c r="K81" s="3">
         <v>5197800</v>
@@ -3104,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1771600</v>
+        <v>1729100</v>
       </c>
       <c r="E83" s="3">
-        <v>1976100</v>
+        <v>1928800</v>
       </c>
       <c r="F83" s="3">
-        <v>1350200</v>
+        <v>1317800</v>
       </c>
       <c r="G83" s="3">
-        <v>1114200</v>
+        <v>1087500</v>
       </c>
       <c r="H83" s="3">
-        <v>827800</v>
+        <v>808000</v>
       </c>
       <c r="I83" s="3">
-        <v>583700</v>
+        <v>569700</v>
       </c>
       <c r="J83" s="3">
-        <v>713300</v>
+        <v>696200</v>
       </c>
       <c r="K83" s="3">
         <v>635100</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13346000</v>
+        <v>13026100</v>
       </c>
       <c r="E89" s="3">
-        <v>12268700</v>
+        <v>11974600</v>
       </c>
       <c r="F89" s="3">
-        <v>14040200</v>
+        <v>13703700</v>
       </c>
       <c r="G89" s="3">
-        <v>7292200</v>
+        <v>7117400</v>
       </c>
       <c r="H89" s="3">
-        <v>6287100</v>
+        <v>6136400</v>
       </c>
       <c r="I89" s="3">
-        <v>6437100</v>
+        <v>6282800</v>
       </c>
       <c r="J89" s="3">
-        <v>5067800</v>
+        <v>4946400</v>
       </c>
       <c r="K89" s="3">
         <v>5906100</v>
@@ -3372,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-696900</v>
+        <v>-680200</v>
       </c>
       <c r="E91" s="3">
-        <v>-905600</v>
+        <v>-883900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1033800</v>
+        <v>-1009000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1078800</v>
+        <v>-1052900</v>
       </c>
       <c r="H91" s="3">
-        <v>-799200</v>
+        <v>-780000</v>
       </c>
       <c r="I91" s="3">
-        <v>-658700</v>
+        <v>-642900</v>
       </c>
       <c r="J91" s="3">
-        <v>-721400</v>
+        <v>-704200</v>
       </c>
       <c r="K91" s="3">
         <v>-764200</v>
@@ -3480,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1067800</v>
+        <v>-1042300</v>
       </c>
       <c r="E94" s="3">
-        <v>-871500</v>
+        <v>-850600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1392400</v>
+        <v>-1359100</v>
       </c>
       <c r="G94" s="3">
-        <v>-25290100</v>
+        <v>-24683900</v>
       </c>
       <c r="H94" s="3">
-        <v>-872800</v>
+        <v>-851900</v>
       </c>
       <c r="I94" s="3">
-        <v>-5442900</v>
+        <v>-5312400</v>
       </c>
       <c r="J94" s="3">
-        <v>-641000</v>
+        <v>-625600</v>
       </c>
       <c r="K94" s="3">
         <v>-446000</v>
@@ -3532,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6471200</v>
+        <v>-6316100</v>
       </c>
       <c r="E96" s="3">
-        <v>-6270700</v>
+        <v>-6120400</v>
       </c>
       <c r="F96" s="3">
-        <v>-5928400</v>
+        <v>-5786300</v>
       </c>
       <c r="G96" s="3">
-        <v>-4725500</v>
+        <v>-4612300</v>
       </c>
       <c r="H96" s="3">
-        <v>-3968600</v>
+        <v>-3873500</v>
       </c>
       <c r="I96" s="3">
-        <v>-3777700</v>
+        <v>-3687100</v>
       </c>
       <c r="J96" s="3">
-        <v>-3698600</v>
+        <v>-3609900</v>
       </c>
       <c r="K96" s="3">
         <v>-3476300</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10769800</v>
+        <v>-10511700</v>
       </c>
       <c r="E100" s="3">
-        <v>-11719000</v>
+        <v>-11438100</v>
       </c>
       <c r="F100" s="3">
-        <v>-13133300</v>
+        <v>-12818500</v>
       </c>
       <c r="G100" s="3">
-        <v>20128200</v>
+        <v>19645700</v>
       </c>
       <c r="H100" s="3">
-        <v>-5767500</v>
+        <v>-5629200</v>
       </c>
       <c r="I100" s="3">
-        <v>-298700</v>
+        <v>-291500</v>
       </c>
       <c r="J100" s="3">
-        <v>-4728300</v>
+        <v>-4614900</v>
       </c>
       <c r="K100" s="3">
         <v>-5281700</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-345000</v>
+        <v>-336800</v>
       </c>
       <c r="E101" s="3">
-        <v>-77700</v>
+        <v>-75900</v>
       </c>
       <c r="F101" s="3">
-        <v>-188200</v>
+        <v>-183700</v>
       </c>
       <c r="G101" s="3">
-        <v>-533200</v>
+        <v>-520500</v>
       </c>
       <c r="H101" s="3">
-        <v>245500</v>
+        <v>239600</v>
       </c>
       <c r="I101" s="3">
-        <v>-371000</v>
+        <v>-362100</v>
       </c>
       <c r="J101" s="3">
-        <v>-85900</v>
+        <v>-83900</v>
       </c>
       <c r="K101" s="3">
         <v>-262300</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1163300</v>
+        <v>1135400</v>
       </c>
       <c r="E102" s="3">
-        <v>-399600</v>
+        <v>-390000</v>
       </c>
       <c r="F102" s="3">
-        <v>-673700</v>
+        <v>-657600</v>
       </c>
       <c r="G102" s="3">
-        <v>1597000</v>
+        <v>1558700</v>
       </c>
       <c r="H102" s="3">
-        <v>-107700</v>
+        <v>-105200</v>
       </c>
       <c r="I102" s="3">
-        <v>324600</v>
+        <v>316800</v>
       </c>
       <c r="J102" s="3">
-        <v>-387300</v>
+        <v>-378000</v>
       </c>
       <c r="K102" s="3">
         <v>-83900</v>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34310400</v>
+        <v>33481400</v>
       </c>
       <c r="E8" s="3">
-        <v>34444900</v>
+        <v>33601300</v>
       </c>
       <c r="F8" s="3">
-        <v>32601300</v>
+        <v>33733000</v>
       </c>
       <c r="G8" s="3">
-        <v>26041600</v>
+        <v>31927500</v>
       </c>
       <c r="H8" s="3">
-        <v>18808400</v>
+        <v>25503400</v>
       </c>
       <c r="I8" s="3">
-        <v>17442700</v>
+        <v>18419700</v>
       </c>
       <c r="J8" s="3">
+        <v>17082200</v>
+      </c>
+      <c r="K8" s="3">
         <v>18596800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20317200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19637800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>20277200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5508100</v>
+        <v>5712300</v>
       </c>
       <c r="E9" s="3">
-        <v>5906100</v>
+        <v>5394300</v>
       </c>
       <c r="F9" s="3">
-        <v>6056500</v>
+        <v>5784000</v>
       </c>
       <c r="G9" s="3">
-        <v>6699400</v>
+        <v>5931300</v>
       </c>
       <c r="H9" s="3">
-        <v>4969000</v>
+        <v>6561000</v>
       </c>
       <c r="I9" s="3">
-        <v>4037200</v>
+        <v>4866300</v>
       </c>
       <c r="J9" s="3">
+        <v>3953800</v>
+      </c>
+      <c r="K9" s="3">
         <v>4033200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4317700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4281800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4511300</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28802300</v>
+        <v>27769100</v>
       </c>
       <c r="E10" s="3">
-        <v>28538800</v>
+        <v>28207100</v>
       </c>
       <c r="F10" s="3">
-        <v>26544800</v>
+        <v>27949000</v>
       </c>
       <c r="G10" s="3">
-        <v>19342200</v>
+        <v>25996200</v>
       </c>
       <c r="H10" s="3">
-        <v>13839400</v>
+        <v>18942500</v>
       </c>
       <c r="I10" s="3">
-        <v>13405500</v>
+        <v>13553400</v>
       </c>
       <c r="J10" s="3">
+        <v>13128500</v>
+      </c>
+      <c r="K10" s="3">
         <v>14563600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15999400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15356000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15765900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>161100</v>
+        <v>183800</v>
       </c>
       <c r="E12" s="3">
-        <v>167700</v>
+        <v>157700</v>
       </c>
       <c r="F12" s="3">
-        <v>139800</v>
+        <v>164300</v>
       </c>
       <c r="G12" s="3">
-        <v>106500</v>
+        <v>136900</v>
       </c>
       <c r="H12" s="3">
-        <v>70500</v>
+        <v>104300</v>
       </c>
       <c r="I12" s="3">
-        <v>79900</v>
+        <v>69100</v>
       </c>
       <c r="J12" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K12" s="3">
         <v>98500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>121200</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>106700</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,81 +926,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1014300</v>
+        <v>1126300</v>
       </c>
       <c r="E14" s="3">
-        <v>1014300</v>
+        <v>993300</v>
       </c>
       <c r="F14" s="3">
-        <v>427300</v>
+        <v>993300</v>
       </c>
       <c r="G14" s="3">
-        <v>-29996300</v>
+        <v>418500</v>
       </c>
       <c r="H14" s="3">
-        <v>937100</v>
+        <v>-29376400</v>
       </c>
       <c r="I14" s="3">
-        <v>624300</v>
+        <v>917700</v>
       </c>
       <c r="J14" s="3">
+        <v>611400</v>
+      </c>
+      <c r="K14" s="3">
         <v>1099500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>358100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>46500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>686000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1450900</v>
+        <v>1237100</v>
       </c>
       <c r="E15" s="3">
-        <v>1670500</v>
+        <v>1420900</v>
       </c>
       <c r="F15" s="3">
-        <v>1317800</v>
+        <v>1636000</v>
       </c>
       <c r="G15" s="3">
-        <v>1087500</v>
+        <v>1290600</v>
       </c>
       <c r="H15" s="3">
-        <v>1444200</v>
+        <v>1065000</v>
       </c>
       <c r="I15" s="3">
-        <v>537800</v>
+        <v>1414400</v>
       </c>
       <c r="J15" s="3">
+        <v>526700</v>
+      </c>
+      <c r="K15" s="3">
         <v>640300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>589800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>764100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>679500</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21239000</v>
+        <v>20140500</v>
       </c>
       <c r="E17" s="3">
-        <v>22443700</v>
+        <v>20800100</v>
       </c>
       <c r="F17" s="3">
-        <v>20144900</v>
+        <v>21979800</v>
       </c>
       <c r="G17" s="3">
-        <v>-13288400</v>
+        <v>19728500</v>
       </c>
       <c r="H17" s="3">
-        <v>12746600</v>
+        <v>-13013700</v>
       </c>
       <c r="I17" s="3">
-        <v>11515300</v>
+        <v>12483200</v>
       </c>
       <c r="J17" s="3">
+        <v>11277400</v>
+      </c>
+      <c r="K17" s="3">
         <v>12540300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12959800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12692800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14060700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13071400</v>
+        <v>13340900</v>
       </c>
       <c r="E18" s="3">
-        <v>12001200</v>
+        <v>12801300</v>
       </c>
       <c r="F18" s="3">
-        <v>12456400</v>
+        <v>11753200</v>
       </c>
       <c r="G18" s="3">
-        <v>39330000</v>
+        <v>12199000</v>
       </c>
       <c r="H18" s="3">
-        <v>6061800</v>
+        <v>38517200</v>
       </c>
       <c r="I18" s="3">
-        <v>5927400</v>
+        <v>5936500</v>
       </c>
       <c r="J18" s="3">
+        <v>5804900</v>
+      </c>
+      <c r="K18" s="3">
         <v>6056500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7357300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6945000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6216600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>642900</v>
+        <v>507100</v>
       </c>
       <c r="E20" s="3">
-        <v>804000</v>
+        <v>629600</v>
       </c>
       <c r="F20" s="3">
-        <v>780000</v>
+        <v>787400</v>
       </c>
       <c r="G20" s="3">
-        <v>1412300</v>
+        <v>763900</v>
       </c>
       <c r="H20" s="3">
-        <v>3109400</v>
+        <v>1383100</v>
       </c>
       <c r="I20" s="3">
-        <v>2639600</v>
+        <v>3045200</v>
       </c>
       <c r="J20" s="3">
+        <v>2585000</v>
+      </c>
+      <c r="K20" s="3">
         <v>1179400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1181000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1782800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1023100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15447200</v>
+        <v>15266100</v>
       </c>
       <c r="E21" s="3">
-        <v>14738100</v>
+        <v>15142900</v>
       </c>
       <c r="F21" s="3">
-        <v>14557100</v>
+        <v>14450200</v>
       </c>
       <c r="G21" s="3">
-        <v>41832200</v>
+        <v>14267600</v>
       </c>
       <c r="H21" s="3">
-        <v>9981000</v>
+        <v>40977000</v>
       </c>
       <c r="I21" s="3">
-        <v>9137900</v>
+        <v>9781700</v>
       </c>
       <c r="J21" s="3">
+        <v>8954000</v>
+      </c>
+      <c r="K21" s="3">
         <v>7933500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9175300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9345300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8311500</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2171000</v>
+        <v>1903200</v>
       </c>
       <c r="E22" s="3">
-        <v>2273500</v>
+        <v>2126200</v>
       </c>
       <c r="F22" s="3">
-        <v>2120400</v>
+        <v>2226500</v>
       </c>
       <c r="G22" s="3">
-        <v>1438900</v>
+        <v>2076600</v>
       </c>
       <c r="H22" s="3">
-        <v>858600</v>
+        <v>1409200</v>
       </c>
       <c r="I22" s="3">
-        <v>773400</v>
+        <v>840800</v>
       </c>
       <c r="J22" s="3">
+        <v>757400</v>
+      </c>
+      <c r="K22" s="3">
         <v>782700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>817500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1498400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>746600</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11543300</v>
+        <v>11944800</v>
       </c>
       <c r="E23" s="3">
-        <v>10531700</v>
+        <v>11304700</v>
       </c>
       <c r="F23" s="3">
-        <v>11116000</v>
+        <v>10314000</v>
       </c>
       <c r="G23" s="3">
-        <v>39303400</v>
+        <v>10886300</v>
       </c>
       <c r="H23" s="3">
-        <v>8312700</v>
+        <v>38491100</v>
       </c>
       <c r="I23" s="3">
-        <v>7793600</v>
+        <v>8140900</v>
       </c>
       <c r="J23" s="3">
+        <v>7632500</v>
+      </c>
+      <c r="K23" s="3">
         <v>6453200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7720800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7229400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6493100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2983000</v>
+        <v>3059500</v>
       </c>
       <c r="E24" s="3">
-        <v>2808600</v>
+        <v>2921300</v>
       </c>
       <c r="F24" s="3">
-        <v>2943100</v>
+        <v>2750600</v>
       </c>
       <c r="G24" s="3">
-        <v>1939400</v>
+        <v>2882200</v>
       </c>
       <c r="H24" s="3">
-        <v>1871500</v>
+        <v>1899300</v>
       </c>
       <c r="I24" s="3">
-        <v>1774400</v>
+        <v>1832800</v>
       </c>
       <c r="J24" s="3">
+        <v>1737700</v>
+      </c>
+      <c r="K24" s="3">
         <v>1936800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2130200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1959900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2048900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8560300</v>
+        <v>8885300</v>
       </c>
       <c r="E26" s="3">
-        <v>7723000</v>
+        <v>8383400</v>
       </c>
       <c r="F26" s="3">
-        <v>8173000</v>
+        <v>7563400</v>
       </c>
       <c r="G26" s="3">
-        <v>37364000</v>
+        <v>8004000</v>
       </c>
       <c r="H26" s="3">
-        <v>6441200</v>
+        <v>36591800</v>
       </c>
       <c r="I26" s="3">
-        <v>6019200</v>
+        <v>6308100</v>
       </c>
       <c r="J26" s="3">
+        <v>5894800</v>
+      </c>
+      <c r="K26" s="3">
         <v>4516400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5590500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5269500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4444200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8342000</v>
+        <v>8659700</v>
       </c>
       <c r="E27" s="3">
-        <v>7530000</v>
+        <v>8169600</v>
       </c>
       <c r="F27" s="3">
-        <v>7936000</v>
+        <v>7374400</v>
       </c>
       <c r="G27" s="3">
-        <v>37136400</v>
+        <v>7772000</v>
       </c>
       <c r="H27" s="3">
-        <v>6187000</v>
+        <v>36368900</v>
       </c>
       <c r="I27" s="3">
-        <v>5710400</v>
+        <v>6059100</v>
       </c>
       <c r="J27" s="3">
+        <v>5592400</v>
+      </c>
+      <c r="K27" s="3">
         <v>4146400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5197800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4908800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4075500</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,29 +1464,32 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>177000</v>
+        <v>206000</v>
       </c>
       <c r="E29" s="3">
-        <v>62600</v>
+        <v>173400</v>
       </c>
       <c r="F29" s="3">
-        <v>93200</v>
+        <v>61300</v>
       </c>
       <c r="G29" s="3">
-        <v>12759900</v>
+        <v>91300</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>12496200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-642900</v>
+        <v>-507100</v>
       </c>
       <c r="E32" s="3">
-        <v>-804000</v>
+        <v>-629600</v>
       </c>
       <c r="F32" s="3">
-        <v>-780000</v>
+        <v>-787400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1412300</v>
+        <v>-763900</v>
       </c>
       <c r="H32" s="3">
-        <v>-3109400</v>
+        <v>-1383100</v>
       </c>
       <c r="I32" s="3">
-        <v>-2639600</v>
+        <v>-3045200</v>
       </c>
       <c r="J32" s="3">
+        <v>-2585000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1179400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1181000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1782800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1023100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8519000</v>
+        <v>8865700</v>
       </c>
       <c r="E33" s="3">
-        <v>7592600</v>
+        <v>8343000</v>
       </c>
       <c r="F33" s="3">
-        <v>8029200</v>
+        <v>7435700</v>
       </c>
       <c r="G33" s="3">
-        <v>49896300</v>
+        <v>7863300</v>
       </c>
       <c r="H33" s="3">
-        <v>6187000</v>
+        <v>48865100</v>
       </c>
       <c r="I33" s="3">
-        <v>5710400</v>
+        <v>6059100</v>
       </c>
       <c r="J33" s="3">
+        <v>5592400</v>
+      </c>
+      <c r="K33" s="3">
         <v>4146400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5197800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4908800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4075500</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8519000</v>
+        <v>8865700</v>
       </c>
       <c r="E35" s="3">
-        <v>7592600</v>
+        <v>8343000</v>
       </c>
       <c r="F35" s="3">
-        <v>8029200</v>
+        <v>7435700</v>
       </c>
       <c r="G35" s="3">
-        <v>49896300</v>
+        <v>7863300</v>
       </c>
       <c r="H35" s="3">
-        <v>6187000</v>
+        <v>48865100</v>
       </c>
       <c r="I35" s="3">
-        <v>5710400</v>
+        <v>6059100</v>
       </c>
       <c r="J35" s="3">
+        <v>5592400</v>
+      </c>
+      <c r="K35" s="3">
         <v>4146400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5197800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4908800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4075500</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,332 +1818,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4178300</v>
+        <v>3661800</v>
       </c>
       <c r="E41" s="3">
-        <v>3362400</v>
+        <v>4092000</v>
       </c>
       <c r="F41" s="3">
-        <v>3463500</v>
+        <v>3292900</v>
       </c>
       <c r="G41" s="3">
-        <v>8761300</v>
+        <v>3391900</v>
       </c>
       <c r="H41" s="3">
-        <v>2933700</v>
+        <v>8580200</v>
       </c>
       <c r="I41" s="3">
-        <v>2612900</v>
+        <v>2873100</v>
       </c>
       <c r="J41" s="3">
+        <v>2558900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2419900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2803900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1263100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1277300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>322100</v>
+        <v>594400</v>
       </c>
       <c r="E42" s="3">
-        <v>163700</v>
+        <v>315500</v>
       </c>
       <c r="F42" s="3">
-        <v>236900</v>
+        <v>160300</v>
       </c>
       <c r="G42" s="3">
-        <v>86500</v>
+        <v>232000</v>
       </c>
       <c r="H42" s="3">
-        <v>20000</v>
+        <v>84700</v>
       </c>
       <c r="I42" s="3">
-        <v>46600</v>
+        <v>19600</v>
       </c>
       <c r="J42" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K42" s="3">
         <v>66600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>71900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1460900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1686800</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5058200</v>
+        <v>5303000</v>
       </c>
       <c r="E43" s="3">
-        <v>5610600</v>
+        <v>4953600</v>
       </c>
       <c r="F43" s="3">
-        <v>4874500</v>
+        <v>5494600</v>
       </c>
       <c r="G43" s="3">
-        <v>6007300</v>
+        <v>4773700</v>
       </c>
       <c r="H43" s="3">
-        <v>5261800</v>
+        <v>5883100</v>
       </c>
       <c r="I43" s="3">
-        <v>4445900</v>
+        <v>5153100</v>
       </c>
       <c r="J43" s="3">
+        <v>4354000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3760400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3955600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3650900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3357800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7983900</v>
+        <v>6881700</v>
       </c>
       <c r="E44" s="3">
-        <v>8111700</v>
+        <v>7818900</v>
       </c>
       <c r="F44" s="3">
-        <v>8025200</v>
+        <v>7944100</v>
       </c>
       <c r="G44" s="3">
-        <v>15611100</v>
+        <v>7859300</v>
       </c>
       <c r="H44" s="3">
-        <v>7711100</v>
+        <v>15288500</v>
       </c>
       <c r="I44" s="3">
-        <v>5653200</v>
+        <v>7551700</v>
       </c>
       <c r="J44" s="3">
+        <v>5536300</v>
+      </c>
+      <c r="K44" s="3">
         <v>5501400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5381500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5204900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4606100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>576400</v>
+        <v>254200</v>
       </c>
       <c r="E45" s="3">
-        <v>420600</v>
+        <v>564500</v>
       </c>
       <c r="F45" s="3">
-        <v>244900</v>
+        <v>411900</v>
       </c>
       <c r="G45" s="3">
-        <v>310100</v>
+        <v>239900</v>
       </c>
       <c r="H45" s="3">
-        <v>524500</v>
+        <v>303700</v>
       </c>
       <c r="I45" s="3">
-        <v>304800</v>
+        <v>513600</v>
       </c>
       <c r="J45" s="3">
+        <v>298500</v>
+      </c>
+      <c r="K45" s="3">
         <v>407300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>459300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>296100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>258100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18118900</v>
+        <v>16695100</v>
       </c>
       <c r="E46" s="3">
-        <v>17669000</v>
+        <v>17744500</v>
       </c>
       <c r="F46" s="3">
-        <v>16845100</v>
+        <v>17303900</v>
       </c>
       <c r="G46" s="3">
-        <v>18590100</v>
+        <v>16496900</v>
       </c>
       <c r="H46" s="3">
-        <v>16451100</v>
+        <v>18205900</v>
       </c>
       <c r="I46" s="3">
-        <v>13063400</v>
+        <v>16111100</v>
       </c>
       <c r="J46" s="3">
+        <v>12793400</v>
+      </c>
+      <c r="K46" s="3">
         <v>12155600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12672300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11875800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11186100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2742100</v>
+        <v>2878300</v>
       </c>
       <c r="E47" s="3">
-        <v>2821900</v>
+        <v>2685400</v>
       </c>
       <c r="F47" s="3">
-        <v>3275800</v>
+        <v>2763600</v>
       </c>
       <c r="G47" s="3">
-        <v>3161400</v>
+        <v>3208100</v>
       </c>
       <c r="H47" s="3">
-        <v>13509300</v>
+        <v>3096000</v>
       </c>
       <c r="I47" s="3">
-        <v>9614500</v>
+        <v>13230100</v>
       </c>
       <c r="J47" s="3">
+        <v>9415800</v>
+      </c>
+      <c r="K47" s="3">
         <v>3446200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3336500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3349700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3895100</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6735400</v>
+        <v>6456700</v>
       </c>
       <c r="E48" s="3">
-        <v>7345000</v>
+        <v>6596200</v>
       </c>
       <c r="F48" s="3">
-        <v>6876500</v>
+        <v>7193200</v>
       </c>
       <c r="G48" s="3">
-        <v>12996900</v>
+        <v>6734300</v>
       </c>
       <c r="H48" s="3">
-        <v>4873200</v>
+        <v>12728300</v>
       </c>
       <c r="I48" s="3">
-        <v>4021300</v>
+        <v>4772400</v>
       </c>
       <c r="J48" s="3">
+        <v>3938100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3998600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4201900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4138300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4012300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>153533000</v>
+        <v>150728000</v>
       </c>
       <c r="E49" s="3">
-        <v>158117000</v>
+        <v>150360000</v>
       </c>
       <c r="F49" s="3">
-        <v>165074000</v>
+        <v>154850000</v>
       </c>
       <c r="G49" s="3">
-        <v>313567000</v>
+        <v>161662000</v>
       </c>
       <c r="H49" s="3">
-        <v>16128900</v>
+        <v>307087000</v>
       </c>
       <c r="I49" s="3">
-        <v>13891400</v>
+        <v>15795600</v>
       </c>
       <c r="J49" s="3">
+        <v>13604300</v>
+      </c>
+      <c r="K49" s="3">
         <v>14381200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14918300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15138800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15790900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2149700</v>
+        <v>2310000</v>
       </c>
       <c r="E52" s="3">
-        <v>1738400</v>
+        <v>2105300</v>
       </c>
       <c r="F52" s="3">
-        <v>2724800</v>
+        <v>1702500</v>
       </c>
       <c r="G52" s="3">
-        <v>2723400</v>
+        <v>2668400</v>
       </c>
       <c r="H52" s="3">
-        <v>1979300</v>
+        <v>2667100</v>
       </c>
       <c r="I52" s="3">
-        <v>1359100</v>
+        <v>1938400</v>
       </c>
       <c r="J52" s="3">
+        <v>1331000</v>
+      </c>
+      <c r="K52" s="3">
         <v>849200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>660400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>826100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>825600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>183279000</v>
+        <v>179068000</v>
       </c>
       <c r="E54" s="3">
-        <v>187692000</v>
+        <v>179491000</v>
       </c>
       <c r="F54" s="3">
-        <v>194796000</v>
+        <v>183813000</v>
       </c>
       <c r="G54" s="3">
-        <v>187757000</v>
+        <v>190770000</v>
       </c>
       <c r="H54" s="3">
-        <v>52941800</v>
+        <v>183877000</v>
       </c>
       <c r="I54" s="3">
-        <v>41949600</v>
+        <v>51847700</v>
       </c>
       <c r="J54" s="3">
+        <v>41082600</v>
+      </c>
+      <c r="K54" s="3">
         <v>34830900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35789400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35328600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35710000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12902400</v>
+        <v>12484500</v>
       </c>
       <c r="E57" s="3">
-        <v>12947600</v>
+        <v>12635700</v>
       </c>
       <c r="F57" s="3">
-        <v>14150900</v>
+        <v>12680000</v>
       </c>
       <c r="G57" s="3">
-        <v>11857400</v>
+        <v>13858500</v>
       </c>
       <c r="H57" s="3">
-        <v>9763600</v>
+        <v>11612400</v>
       </c>
       <c r="I57" s="3">
-        <v>7902700</v>
+        <v>9561800</v>
       </c>
       <c r="J57" s="3">
+        <v>7739400</v>
+      </c>
+      <c r="K57" s="3">
         <v>7353000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7643600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7533200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6813100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4714800</v>
+        <v>4604300</v>
       </c>
       <c r="E58" s="3">
-        <v>9434800</v>
+        <v>4617300</v>
       </c>
       <c r="F58" s="3">
-        <v>4998300</v>
+        <v>9239800</v>
       </c>
       <c r="G58" s="3">
-        <v>13844800</v>
+        <v>4895000</v>
       </c>
       <c r="H58" s="3">
-        <v>4002600</v>
+        <v>13558600</v>
       </c>
       <c r="I58" s="3">
-        <v>2921800</v>
+        <v>3919900</v>
       </c>
       <c r="J58" s="3">
+        <v>2861400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3299800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2636200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2115000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2325500</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2985700</v>
+        <v>2652800</v>
       </c>
       <c r="E59" s="3">
-        <v>2672800</v>
+        <v>2924000</v>
       </c>
       <c r="F59" s="3">
-        <v>2586300</v>
+        <v>2617600</v>
       </c>
       <c r="G59" s="3">
-        <v>2819300</v>
+        <v>2532900</v>
       </c>
       <c r="H59" s="3">
-        <v>2015300</v>
+        <v>2761000</v>
       </c>
       <c r="I59" s="3">
-        <v>1163400</v>
+        <v>1973600</v>
       </c>
       <c r="J59" s="3">
+        <v>1139300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1019600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>952000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>877800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1194300</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20602800</v>
+        <v>19741600</v>
       </c>
       <c r="E60" s="3">
-        <v>25055300</v>
+        <v>20177000</v>
       </c>
       <c r="F60" s="3">
-        <v>21735500</v>
+        <v>24537500</v>
       </c>
       <c r="G60" s="3">
-        <v>20771800</v>
+        <v>21286300</v>
       </c>
       <c r="H60" s="3">
-        <v>15781500</v>
+        <v>20342500</v>
       </c>
       <c r="I60" s="3">
-        <v>11987900</v>
+        <v>15455400</v>
       </c>
       <c r="J60" s="3">
+        <v>11740100</v>
+      </c>
+      <c r="K60" s="3">
         <v>11672400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11231700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10526100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10332900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>53146800</v>
+        <v>46493800</v>
       </c>
       <c r="E61" s="3">
-        <v>50320900</v>
+        <v>52048400</v>
       </c>
       <c r="F61" s="3">
-        <v>57615300</v>
+        <v>49280900</v>
       </c>
       <c r="G61" s="3">
-        <v>58604300</v>
+        <v>56424600</v>
       </c>
       <c r="H61" s="3">
-        <v>21947200</v>
+        <v>57393200</v>
       </c>
       <c r="I61" s="3">
-        <v>19708300</v>
+        <v>21493600</v>
       </c>
       <c r="J61" s="3">
+        <v>19301000</v>
+      </c>
+      <c r="K61" s="3">
         <v>13016800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12935900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11742600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11205900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25730200</v>
+        <v>24969000</v>
       </c>
       <c r="E62" s="3">
-        <v>26912200</v>
+        <v>25198400</v>
       </c>
       <c r="F62" s="3">
-        <v>28007700</v>
+        <v>26356000</v>
       </c>
       <c r="G62" s="3">
-        <v>27680200</v>
+        <v>27428800</v>
       </c>
       <c r="H62" s="3">
-        <v>4023900</v>
+        <v>27108200</v>
       </c>
       <c r="I62" s="3">
-        <v>3555400</v>
+        <v>3940800</v>
       </c>
       <c r="J62" s="3">
+        <v>3481900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2402600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2388500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3003200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3012800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99855100</v>
+        <v>91595400</v>
       </c>
       <c r="E66" s="3">
-        <v>102632000</v>
+        <v>97791400</v>
       </c>
       <c r="F66" s="3">
-        <v>107683000</v>
+        <v>100511000</v>
       </c>
       <c r="G66" s="3">
-        <v>106881000</v>
+        <v>105458000</v>
       </c>
       <c r="H66" s="3">
-        <v>42050800</v>
+        <v>104672000</v>
       </c>
       <c r="I66" s="3">
-        <v>35435200</v>
+        <v>41181700</v>
       </c>
       <c r="J66" s="3">
+        <v>34702900</v>
+      </c>
+      <c r="K66" s="3">
         <v>27496500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26956900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25668700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24955800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>98872800</v>
+        <v>99623000</v>
       </c>
       <c r="E72" s="3">
-        <v>96615200</v>
+        <v>96829400</v>
       </c>
       <c r="F72" s="3">
-        <v>94357700</v>
+        <v>94618500</v>
       </c>
       <c r="G72" s="3">
-        <v>136785000</v>
+        <v>92407600</v>
       </c>
       <c r="H72" s="3">
-        <v>10107000</v>
+        <v>133958000</v>
       </c>
       <c r="I72" s="3">
-        <v>5735700</v>
+        <v>9898200</v>
       </c>
       <c r="J72" s="3">
+        <v>5617200</v>
+      </c>
+      <c r="K72" s="3">
         <v>6561000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8064300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12568700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12030200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>83424000</v>
+        <v>87472200</v>
       </c>
       <c r="E76" s="3">
-        <v>85060000</v>
+        <v>81699900</v>
       </c>
       <c r="F76" s="3">
-        <v>87112500</v>
+        <v>83302000</v>
       </c>
       <c r="G76" s="3">
-        <v>80876300</v>
+        <v>85312100</v>
       </c>
       <c r="H76" s="3">
-        <v>10891100</v>
+        <v>79204800</v>
       </c>
       <c r="I76" s="3">
-        <v>6514400</v>
+        <v>10666000</v>
       </c>
       <c r="J76" s="3">
+        <v>6379800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7334400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8832500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9659900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10754200</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8519000</v>
+        <v>8865700</v>
       </c>
       <c r="E81" s="3">
-        <v>7592600</v>
+        <v>8343000</v>
       </c>
       <c r="F81" s="3">
-        <v>8029200</v>
+        <v>7435700</v>
       </c>
       <c r="G81" s="3">
-        <v>49896300</v>
+        <v>7863300</v>
       </c>
       <c r="H81" s="3">
-        <v>6187000</v>
+        <v>48865100</v>
       </c>
       <c r="I81" s="3">
-        <v>5710400</v>
+        <v>6059100</v>
       </c>
       <c r="J81" s="3">
+        <v>5592400</v>
+      </c>
+      <c r="K81" s="3">
         <v>4146400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5197800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4908800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4075500</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1729100</v>
+        <v>1402700</v>
       </c>
       <c r="E83" s="3">
-        <v>1928800</v>
+        <v>1693400</v>
       </c>
       <c r="F83" s="3">
-        <v>1317800</v>
+        <v>1888900</v>
       </c>
       <c r="G83" s="3">
-        <v>1087500</v>
+        <v>1290600</v>
       </c>
       <c r="H83" s="3">
-        <v>808000</v>
+        <v>1065000</v>
       </c>
       <c r="I83" s="3">
-        <v>569700</v>
+        <v>791300</v>
       </c>
       <c r="J83" s="3">
+        <v>557900</v>
+      </c>
+      <c r="K83" s="3">
         <v>696200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>635100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>614100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1075800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13026100</v>
+        <v>12667000</v>
       </c>
       <c r="E89" s="3">
-        <v>11974600</v>
+        <v>12756900</v>
       </c>
       <c r="F89" s="3">
-        <v>13703700</v>
+        <v>11727100</v>
       </c>
       <c r="G89" s="3">
-        <v>7117400</v>
+        <v>13420500</v>
       </c>
       <c r="H89" s="3">
-        <v>6136400</v>
+        <v>6970300</v>
       </c>
       <c r="I89" s="3">
-        <v>6282800</v>
+        <v>6009500</v>
       </c>
       <c r="J89" s="3">
+        <v>6152900</v>
+      </c>
+      <c r="K89" s="3">
         <v>4946400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5906100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5723300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6012500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-680200</v>
+        <v>-687000</v>
       </c>
       <c r="E91" s="3">
-        <v>-883900</v>
+        <v>-666100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1009000</v>
+        <v>-865600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1052900</v>
+        <v>-988100</v>
       </c>
       <c r="H91" s="3">
-        <v>-780000</v>
+        <v>-1031100</v>
       </c>
       <c r="I91" s="3">
-        <v>-642900</v>
+        <v>-763900</v>
       </c>
       <c r="J91" s="3">
+        <v>-629600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-704200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-764200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-858400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-671600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1042300</v>
+        <v>-1486100</v>
       </c>
       <c r="E94" s="3">
-        <v>-850600</v>
+        <v>-1020700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1359100</v>
+        <v>-833000</v>
       </c>
       <c r="G94" s="3">
-        <v>-24683900</v>
+        <v>-1331000</v>
       </c>
       <c r="H94" s="3">
-        <v>-851900</v>
+        <v>-24173800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5312400</v>
+        <v>-834300</v>
       </c>
       <c r="J94" s="3">
+        <v>-5202600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-625600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-446000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-517100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-937600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6316100</v>
+        <v>-6392800</v>
       </c>
       <c r="E96" s="3">
-        <v>-6120400</v>
+        <v>-6185500</v>
       </c>
       <c r="F96" s="3">
-        <v>-5786300</v>
+        <v>-5993900</v>
       </c>
       <c r="G96" s="3">
-        <v>-4612300</v>
+        <v>-5666700</v>
       </c>
       <c r="H96" s="3">
-        <v>-3873500</v>
+        <v>-4516900</v>
       </c>
       <c r="I96" s="3">
-        <v>-3687100</v>
+        <v>-3793400</v>
       </c>
       <c r="J96" s="3">
+        <v>-3610900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3609900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3476300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3281200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3105000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10511700</v>
+        <v>-11405100</v>
       </c>
       <c r="E100" s="3">
-        <v>-11438100</v>
+        <v>-10294500</v>
       </c>
       <c r="F100" s="3">
-        <v>-12818500</v>
+        <v>-11201700</v>
       </c>
       <c r="G100" s="3">
-        <v>19645700</v>
+        <v>-12553600</v>
       </c>
       <c r="H100" s="3">
-        <v>-5629200</v>
+        <v>19239700</v>
       </c>
       <c r="I100" s="3">
-        <v>-291500</v>
+        <v>-5512900</v>
       </c>
       <c r="J100" s="3">
+        <v>-285500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4614900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5281700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5111800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5329000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-336800</v>
+        <v>-329800</v>
       </c>
       <c r="E101" s="3">
-        <v>-75900</v>
+        <v>-329800</v>
       </c>
       <c r="F101" s="3">
-        <v>-183700</v>
+        <v>-74300</v>
       </c>
       <c r="G101" s="3">
-        <v>-520500</v>
+        <v>-179900</v>
       </c>
       <c r="H101" s="3">
-        <v>239600</v>
+        <v>-509700</v>
       </c>
       <c r="I101" s="3">
-        <v>-362100</v>
+        <v>234600</v>
       </c>
       <c r="J101" s="3">
+        <v>-354600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-83900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-262300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-227500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-63200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1135400</v>
+        <v>-554000</v>
       </c>
       <c r="E102" s="3">
-        <v>-390000</v>
+        <v>1112000</v>
       </c>
       <c r="F102" s="3">
-        <v>-657600</v>
+        <v>-382000</v>
       </c>
       <c r="G102" s="3">
-        <v>1558700</v>
+        <v>-644000</v>
       </c>
       <c r="H102" s="3">
-        <v>-105200</v>
+        <v>1526500</v>
       </c>
       <c r="I102" s="3">
-        <v>316800</v>
+        <v>-103000</v>
       </c>
       <c r="J102" s="3">
+        <v>310300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-378000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-83900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-133200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-317300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33481400</v>
+        <v>31331900</v>
       </c>
       <c r="E8" s="3">
-        <v>33601300</v>
+        <v>31444100</v>
       </c>
       <c r="F8" s="3">
-        <v>33733000</v>
+        <v>31567400</v>
       </c>
       <c r="G8" s="3">
-        <v>31927500</v>
+        <v>29877800</v>
       </c>
       <c r="H8" s="3">
-        <v>25503400</v>
+        <v>23866100</v>
       </c>
       <c r="I8" s="3">
-        <v>18419700</v>
+        <v>17237200</v>
       </c>
       <c r="J8" s="3">
-        <v>17082200</v>
+        <v>15985600</v>
       </c>
       <c r="K8" s="3">
         <v>18596800</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5712300</v>
+        <v>5345600</v>
       </c>
       <c r="E9" s="3">
-        <v>5394300</v>
+        <v>5047900</v>
       </c>
       <c r="F9" s="3">
-        <v>5784000</v>
+        <v>5412700</v>
       </c>
       <c r="G9" s="3">
-        <v>5931300</v>
+        <v>5550500</v>
       </c>
       <c r="H9" s="3">
-        <v>6561000</v>
+        <v>6139800</v>
       </c>
       <c r="I9" s="3">
-        <v>4866300</v>
+        <v>4553900</v>
       </c>
       <c r="J9" s="3">
-        <v>3953800</v>
+        <v>3700000</v>
       </c>
       <c r="K9" s="3">
         <v>4033200</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27769100</v>
+        <v>25986300</v>
       </c>
       <c r="E10" s="3">
-        <v>28207100</v>
+        <v>26396200</v>
       </c>
       <c r="F10" s="3">
-        <v>27949000</v>
+        <v>26154700</v>
       </c>
       <c r="G10" s="3">
-        <v>25996200</v>
+        <v>24327200</v>
       </c>
       <c r="H10" s="3">
-        <v>18942500</v>
+        <v>17726400</v>
       </c>
       <c r="I10" s="3">
-        <v>13553400</v>
+        <v>12683300</v>
       </c>
       <c r="J10" s="3">
-        <v>13128500</v>
+        <v>12285600</v>
       </c>
       <c r="K10" s="3">
         <v>14563600</v>
@@ -858,25 +858,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>183800</v>
+        <v>172000</v>
       </c>
       <c r="E12" s="3">
-        <v>157700</v>
+        <v>147600</v>
       </c>
       <c r="F12" s="3">
-        <v>164300</v>
+        <v>153700</v>
       </c>
       <c r="G12" s="3">
-        <v>136900</v>
+        <v>128100</v>
       </c>
       <c r="H12" s="3">
-        <v>104300</v>
+        <v>97600</v>
       </c>
       <c r="I12" s="3">
-        <v>69100</v>
+        <v>64700</v>
       </c>
       <c r="J12" s="3">
-        <v>78200</v>
+        <v>73200</v>
       </c>
       <c r="K12" s="3">
         <v>98500</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1126300</v>
+        <v>1054000</v>
       </c>
       <c r="E14" s="3">
-        <v>993300</v>
+        <v>929600</v>
       </c>
       <c r="F14" s="3">
-        <v>993300</v>
+        <v>929600</v>
       </c>
       <c r="G14" s="3">
-        <v>418500</v>
+        <v>391600</v>
       </c>
       <c r="H14" s="3">
-        <v>-29376400</v>
+        <v>-27490400</v>
       </c>
       <c r="I14" s="3">
-        <v>917700</v>
+        <v>858800</v>
       </c>
       <c r="J14" s="3">
-        <v>611400</v>
+        <v>572100</v>
       </c>
       <c r="K14" s="3">
         <v>1099500</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1237100</v>
+        <v>1157700</v>
       </c>
       <c r="E15" s="3">
-        <v>1420900</v>
+        <v>1329700</v>
       </c>
       <c r="F15" s="3">
-        <v>1636000</v>
+        <v>1531000</v>
       </c>
       <c r="G15" s="3">
-        <v>1290600</v>
+        <v>1207700</v>
       </c>
       <c r="H15" s="3">
-        <v>1065000</v>
+        <v>996700</v>
       </c>
       <c r="I15" s="3">
-        <v>1414400</v>
+        <v>1323600</v>
       </c>
       <c r="J15" s="3">
-        <v>526700</v>
+        <v>492800</v>
       </c>
       <c r="K15" s="3">
         <v>640300</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20140500</v>
+        <v>18847500</v>
       </c>
       <c r="E17" s="3">
-        <v>20800100</v>
+        <v>19464700</v>
       </c>
       <c r="F17" s="3">
-        <v>21979800</v>
+        <v>20568700</v>
       </c>
       <c r="G17" s="3">
-        <v>19728500</v>
+        <v>18462000</v>
       </c>
       <c r="H17" s="3">
-        <v>-13013700</v>
+        <v>-12178300</v>
       </c>
       <c r="I17" s="3">
-        <v>12483200</v>
+        <v>11681800</v>
       </c>
       <c r="J17" s="3">
-        <v>11277400</v>
+        <v>10553400</v>
       </c>
       <c r="K17" s="3">
         <v>12540300</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13340900</v>
+        <v>12484500</v>
       </c>
       <c r="E18" s="3">
-        <v>12801300</v>
+        <v>11979400</v>
       </c>
       <c r="F18" s="3">
-        <v>11753200</v>
+        <v>10998600</v>
       </c>
       <c r="G18" s="3">
-        <v>12199000</v>
+        <v>11415800</v>
       </c>
       <c r="H18" s="3">
-        <v>38517200</v>
+        <v>36044400</v>
       </c>
       <c r="I18" s="3">
-        <v>5936500</v>
+        <v>5555400</v>
       </c>
       <c r="J18" s="3">
-        <v>5804900</v>
+        <v>5432200</v>
       </c>
       <c r="K18" s="3">
         <v>6056500</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>507100</v>
+        <v>474500</v>
       </c>
       <c r="E20" s="3">
-        <v>629600</v>
+        <v>589200</v>
       </c>
       <c r="F20" s="3">
-        <v>787400</v>
+        <v>736800</v>
       </c>
       <c r="G20" s="3">
-        <v>763900</v>
+        <v>714900</v>
       </c>
       <c r="H20" s="3">
-        <v>1383100</v>
+        <v>1294300</v>
       </c>
       <c r="I20" s="3">
-        <v>3045200</v>
+        <v>2849700</v>
       </c>
       <c r="J20" s="3">
-        <v>2585000</v>
+        <v>2419100</v>
       </c>
       <c r="K20" s="3">
         <v>1179400</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15266100</v>
+        <v>14277100</v>
       </c>
       <c r="E21" s="3">
-        <v>15142900</v>
+        <v>14159900</v>
       </c>
       <c r="F21" s="3">
-        <v>14450200</v>
+        <v>13510400</v>
       </c>
       <c r="G21" s="3">
-        <v>14267600</v>
+        <v>13343400</v>
       </c>
       <c r="H21" s="3">
-        <v>40977000</v>
+        <v>38339500</v>
       </c>
       <c r="I21" s="3">
-        <v>9781700</v>
+        <v>9148700</v>
       </c>
       <c r="J21" s="3">
-        <v>8954000</v>
+        <v>8375600</v>
       </c>
       <c r="K21" s="3">
         <v>7933500</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1903200</v>
+        <v>1781100</v>
       </c>
       <c r="E22" s="3">
-        <v>2126200</v>
+        <v>1989700</v>
       </c>
       <c r="F22" s="3">
-        <v>2226500</v>
+        <v>2083600</v>
       </c>
       <c r="G22" s="3">
-        <v>2076600</v>
+        <v>1943300</v>
       </c>
       <c r="H22" s="3">
-        <v>1409200</v>
+        <v>1318700</v>
       </c>
       <c r="I22" s="3">
-        <v>840800</v>
+        <v>786800</v>
       </c>
       <c r="J22" s="3">
-        <v>757400</v>
+        <v>708800</v>
       </c>
       <c r="K22" s="3">
         <v>782700</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11944800</v>
+        <v>11177900</v>
       </c>
       <c r="E23" s="3">
-        <v>11304700</v>
+        <v>10579000</v>
       </c>
       <c r="F23" s="3">
-        <v>10314000</v>
+        <v>9651800</v>
       </c>
       <c r="G23" s="3">
-        <v>10886300</v>
+        <v>10187400</v>
       </c>
       <c r="H23" s="3">
-        <v>38491100</v>
+        <v>36020000</v>
       </c>
       <c r="I23" s="3">
-        <v>8140900</v>
+        <v>7618300</v>
       </c>
       <c r="J23" s="3">
-        <v>7632500</v>
+        <v>7142500</v>
       </c>
       <c r="K23" s="3">
         <v>6453200</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3059500</v>
+        <v>2863100</v>
       </c>
       <c r="E24" s="3">
-        <v>2921300</v>
+        <v>2733800</v>
       </c>
       <c r="F24" s="3">
-        <v>2750600</v>
+        <v>2574000</v>
       </c>
       <c r="G24" s="3">
-        <v>2882200</v>
+        <v>2697200</v>
       </c>
       <c r="H24" s="3">
-        <v>1899300</v>
+        <v>1777400</v>
       </c>
       <c r="I24" s="3">
-        <v>1832800</v>
+        <v>1715200</v>
       </c>
       <c r="J24" s="3">
-        <v>1737700</v>
+        <v>1626100</v>
       </c>
       <c r="K24" s="3">
         <v>1936800</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8885300</v>
+        <v>8314800</v>
       </c>
       <c r="E26" s="3">
-        <v>8383400</v>
+        <v>7845200</v>
       </c>
       <c r="F26" s="3">
-        <v>7563400</v>
+        <v>7077900</v>
       </c>
       <c r="G26" s="3">
-        <v>8004000</v>
+        <v>7490200</v>
       </c>
       <c r="H26" s="3">
-        <v>36591800</v>
+        <v>34242600</v>
       </c>
       <c r="I26" s="3">
-        <v>6308100</v>
+        <v>5903100</v>
       </c>
       <c r="J26" s="3">
-        <v>5894800</v>
+        <v>5516400</v>
       </c>
       <c r="K26" s="3">
         <v>4516400</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8659700</v>
+        <v>8103800</v>
       </c>
       <c r="E27" s="3">
-        <v>8169600</v>
+        <v>7645100</v>
       </c>
       <c r="F27" s="3">
-        <v>7374400</v>
+        <v>6901000</v>
       </c>
       <c r="G27" s="3">
-        <v>7772000</v>
+        <v>7273000</v>
       </c>
       <c r="H27" s="3">
-        <v>36368900</v>
+        <v>34034000</v>
       </c>
       <c r="I27" s="3">
-        <v>6059100</v>
+        <v>5670100</v>
       </c>
       <c r="J27" s="3">
-        <v>5592400</v>
+        <v>5233400</v>
       </c>
       <c r="K27" s="3">
         <v>4146400</v>
@@ -1474,19 +1474,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>206000</v>
+        <v>192700</v>
       </c>
       <c r="E29" s="3">
-        <v>173400</v>
+        <v>162200</v>
       </c>
       <c r="F29" s="3">
-        <v>61300</v>
+        <v>57300</v>
       </c>
       <c r="G29" s="3">
-        <v>91300</v>
+        <v>85400</v>
       </c>
       <c r="H29" s="3">
-        <v>12496200</v>
+        <v>11694000</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-507100</v>
+        <v>-474500</v>
       </c>
       <c r="E32" s="3">
-        <v>-629600</v>
+        <v>-589200</v>
       </c>
       <c r="F32" s="3">
-        <v>-787400</v>
+        <v>-736800</v>
       </c>
       <c r="G32" s="3">
-        <v>-763900</v>
+        <v>-714900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1383100</v>
+        <v>-1294300</v>
       </c>
       <c r="I32" s="3">
-        <v>-3045200</v>
+        <v>-2849700</v>
       </c>
       <c r="J32" s="3">
-        <v>-2585000</v>
+        <v>-2419100</v>
       </c>
       <c r="K32" s="3">
         <v>-1179400</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8865700</v>
+        <v>8296500</v>
       </c>
       <c r="E33" s="3">
-        <v>8343000</v>
+        <v>7807400</v>
       </c>
       <c r="F33" s="3">
-        <v>7435700</v>
+        <v>6958300</v>
       </c>
       <c r="G33" s="3">
-        <v>7863300</v>
+        <v>7358400</v>
       </c>
       <c r="H33" s="3">
-        <v>48865100</v>
+        <v>45728000</v>
       </c>
       <c r="I33" s="3">
-        <v>6059100</v>
+        <v>5670100</v>
       </c>
       <c r="J33" s="3">
-        <v>5592400</v>
+        <v>5233400</v>
       </c>
       <c r="K33" s="3">
         <v>4146400</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8865700</v>
+        <v>8296500</v>
       </c>
       <c r="E35" s="3">
-        <v>8343000</v>
+        <v>7807400</v>
       </c>
       <c r="F35" s="3">
-        <v>7435700</v>
+        <v>6958300</v>
       </c>
       <c r="G35" s="3">
-        <v>7863300</v>
+        <v>7358400</v>
       </c>
       <c r="H35" s="3">
-        <v>48865100</v>
+        <v>45728000</v>
       </c>
       <c r="I35" s="3">
-        <v>6059100</v>
+        <v>5670100</v>
       </c>
       <c r="J35" s="3">
-        <v>5592400</v>
+        <v>5233400</v>
       </c>
       <c r="K35" s="3">
         <v>4146400</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3661800</v>
+        <v>3426700</v>
       </c>
       <c r="E41" s="3">
-        <v>4092000</v>
+        <v>3829300</v>
       </c>
       <c r="F41" s="3">
-        <v>3292900</v>
+        <v>3081500</v>
       </c>
       <c r="G41" s="3">
-        <v>3391900</v>
+        <v>3174200</v>
       </c>
       <c r="H41" s="3">
-        <v>8580200</v>
+        <v>8029400</v>
       </c>
       <c r="I41" s="3">
-        <v>2873100</v>
+        <v>2688700</v>
       </c>
       <c r="J41" s="3">
-        <v>2558900</v>
+        <v>2394700</v>
       </c>
       <c r="K41" s="3">
         <v>2419900</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>594400</v>
+        <v>556300</v>
       </c>
       <c r="E42" s="3">
-        <v>315500</v>
+        <v>295200</v>
       </c>
       <c r="F42" s="3">
-        <v>160300</v>
+        <v>150000</v>
       </c>
       <c r="G42" s="3">
-        <v>232000</v>
+        <v>217100</v>
       </c>
       <c r="H42" s="3">
-        <v>84700</v>
+        <v>79300</v>
       </c>
       <c r="I42" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="J42" s="3">
-        <v>45600</v>
+        <v>42700</v>
       </c>
       <c r="K42" s="3">
         <v>66600</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5303000</v>
+        <v>4962600</v>
       </c>
       <c r="E43" s="3">
-        <v>4953600</v>
+        <v>4635600</v>
       </c>
       <c r="F43" s="3">
-        <v>5494600</v>
+        <v>5141900</v>
       </c>
       <c r="G43" s="3">
-        <v>4773700</v>
+        <v>4467300</v>
       </c>
       <c r="H43" s="3">
-        <v>5883100</v>
+        <v>5505400</v>
       </c>
       <c r="I43" s="3">
-        <v>5153100</v>
+        <v>4822300</v>
       </c>
       <c r="J43" s="3">
-        <v>4354000</v>
+        <v>4074500</v>
       </c>
       <c r="K43" s="3">
         <v>3760400</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6881700</v>
+        <v>6439900</v>
       </c>
       <c r="E44" s="3">
-        <v>7818900</v>
+        <v>7317000</v>
       </c>
       <c r="F44" s="3">
-        <v>7944100</v>
+        <v>7434100</v>
       </c>
       <c r="G44" s="3">
-        <v>7859300</v>
+        <v>7354800</v>
       </c>
       <c r="H44" s="3">
-        <v>15288500</v>
+        <v>14307000</v>
       </c>
       <c r="I44" s="3">
-        <v>7551700</v>
+        <v>7066900</v>
       </c>
       <c r="J44" s="3">
-        <v>5536300</v>
+        <v>5180900</v>
       </c>
       <c r="K44" s="3">
         <v>5501400</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>254200</v>
+        <v>237900</v>
       </c>
       <c r="E45" s="3">
-        <v>564500</v>
+        <v>528200</v>
       </c>
       <c r="F45" s="3">
-        <v>411900</v>
+        <v>385500</v>
       </c>
       <c r="G45" s="3">
-        <v>239900</v>
+        <v>224500</v>
       </c>
       <c r="H45" s="3">
-        <v>303700</v>
+        <v>284200</v>
       </c>
       <c r="I45" s="3">
-        <v>513600</v>
+        <v>480600</v>
       </c>
       <c r="J45" s="3">
-        <v>298500</v>
+        <v>279400</v>
       </c>
       <c r="K45" s="3">
         <v>407300</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16695100</v>
+        <v>15623300</v>
       </c>
       <c r="E46" s="3">
-        <v>17744500</v>
+        <v>16605300</v>
       </c>
       <c r="F46" s="3">
-        <v>17303900</v>
+        <v>16193000</v>
       </c>
       <c r="G46" s="3">
-        <v>16496900</v>
+        <v>15437800</v>
       </c>
       <c r="H46" s="3">
-        <v>18205900</v>
+        <v>17037100</v>
       </c>
       <c r="I46" s="3">
-        <v>16111100</v>
+        <v>15076700</v>
       </c>
       <c r="J46" s="3">
-        <v>12793400</v>
+        <v>11972100</v>
       </c>
       <c r="K46" s="3">
         <v>12155600</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2878300</v>
+        <v>2693500</v>
       </c>
       <c r="E47" s="3">
-        <v>2685400</v>
+        <v>2513000</v>
       </c>
       <c r="F47" s="3">
-        <v>2763600</v>
+        <v>2586200</v>
       </c>
       <c r="G47" s="3">
-        <v>3208100</v>
+        <v>3002200</v>
       </c>
       <c r="H47" s="3">
-        <v>3096000</v>
+        <v>2897300</v>
       </c>
       <c r="I47" s="3">
-        <v>13230100</v>
+        <v>12380800</v>
       </c>
       <c r="J47" s="3">
-        <v>9415800</v>
+        <v>8811300</v>
       </c>
       <c r="K47" s="3">
         <v>3446200</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6456700</v>
+        <v>6042200</v>
       </c>
       <c r="E48" s="3">
-        <v>6596200</v>
+        <v>6172700</v>
       </c>
       <c r="F48" s="3">
-        <v>7193200</v>
+        <v>6731400</v>
       </c>
       <c r="G48" s="3">
-        <v>6734300</v>
+        <v>6302000</v>
       </c>
       <c r="H48" s="3">
-        <v>12728300</v>
+        <v>11911100</v>
       </c>
       <c r="I48" s="3">
-        <v>4772400</v>
+        <v>4466100</v>
       </c>
       <c r="J48" s="3">
-        <v>3938100</v>
+        <v>3685300</v>
       </c>
       <c r="K48" s="3">
         <v>3998600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>150728000</v>
+        <v>141051000</v>
       </c>
       <c r="E49" s="3">
-        <v>150360000</v>
+        <v>140707000</v>
       </c>
       <c r="F49" s="3">
-        <v>154850000</v>
+        <v>144908000</v>
       </c>
       <c r="G49" s="3">
-        <v>161662000</v>
+        <v>151284000</v>
       </c>
       <c r="H49" s="3">
-        <v>307087000</v>
+        <v>287372000</v>
       </c>
       <c r="I49" s="3">
-        <v>15795600</v>
+        <v>14781500</v>
       </c>
       <c r="J49" s="3">
-        <v>13604300</v>
+        <v>12730900</v>
       </c>
       <c r="K49" s="3">
         <v>14381200</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2310000</v>
+        <v>2161700</v>
       </c>
       <c r="E52" s="3">
-        <v>2105300</v>
+        <v>1970100</v>
       </c>
       <c r="F52" s="3">
-        <v>1702500</v>
+        <v>1593200</v>
       </c>
       <c r="G52" s="3">
-        <v>2668400</v>
+        <v>2497100</v>
       </c>
       <c r="H52" s="3">
-        <v>2667100</v>
+        <v>2495900</v>
       </c>
       <c r="I52" s="3">
-        <v>1938400</v>
+        <v>1814000</v>
       </c>
       <c r="J52" s="3">
-        <v>1331000</v>
+        <v>1245500</v>
       </c>
       <c r="K52" s="3">
         <v>849200</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>179068000</v>
+        <v>167572000</v>
       </c>
       <c r="E54" s="3">
-        <v>179491000</v>
+        <v>167968000</v>
       </c>
       <c r="F54" s="3">
-        <v>183813000</v>
+        <v>172012000</v>
       </c>
       <c r="G54" s="3">
-        <v>190770000</v>
+        <v>178523000</v>
       </c>
       <c r="H54" s="3">
-        <v>183877000</v>
+        <v>172072000</v>
       </c>
       <c r="I54" s="3">
-        <v>51847700</v>
+        <v>48519100</v>
       </c>
       <c r="J54" s="3">
-        <v>41082600</v>
+        <v>38445100</v>
       </c>
       <c r="K54" s="3">
         <v>34830900</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12484500</v>
+        <v>11683000</v>
       </c>
       <c r="E57" s="3">
-        <v>12635700</v>
+        <v>11824500</v>
       </c>
       <c r="F57" s="3">
-        <v>12680000</v>
+        <v>11866000</v>
       </c>
       <c r="G57" s="3">
-        <v>13858500</v>
+        <v>12968800</v>
       </c>
       <c r="H57" s="3">
-        <v>11612400</v>
+        <v>10866900</v>
       </c>
       <c r="I57" s="3">
-        <v>9561800</v>
+        <v>8948000</v>
       </c>
       <c r="J57" s="3">
-        <v>7739400</v>
+        <v>7242500</v>
       </c>
       <c r="K57" s="3">
         <v>7353000</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4604300</v>
+        <v>4308700</v>
       </c>
       <c r="E58" s="3">
-        <v>4617300</v>
+        <v>4320900</v>
       </c>
       <c r="F58" s="3">
-        <v>9239800</v>
+        <v>8646700</v>
       </c>
       <c r="G58" s="3">
-        <v>4895000</v>
+        <v>4580700</v>
       </c>
       <c r="H58" s="3">
-        <v>13558600</v>
+        <v>12688200</v>
       </c>
       <c r="I58" s="3">
-        <v>3919900</v>
+        <v>3668200</v>
       </c>
       <c r="J58" s="3">
-        <v>2861400</v>
+        <v>2677700</v>
       </c>
       <c r="K58" s="3">
         <v>3299800</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2652800</v>
+        <v>2482500</v>
       </c>
       <c r="E59" s="3">
-        <v>2924000</v>
+        <v>2736200</v>
       </c>
       <c r="F59" s="3">
-        <v>2617600</v>
+        <v>2449600</v>
       </c>
       <c r="G59" s="3">
-        <v>2532900</v>
+        <v>2370300</v>
       </c>
       <c r="H59" s="3">
-        <v>2761000</v>
+        <v>2583700</v>
       </c>
       <c r="I59" s="3">
-        <v>1973600</v>
+        <v>1846900</v>
       </c>
       <c r="J59" s="3">
-        <v>1139300</v>
+        <v>1066200</v>
       </c>
       <c r="K59" s="3">
         <v>1019600</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19741600</v>
+        <v>18474200</v>
       </c>
       <c r="E60" s="3">
-        <v>20177000</v>
+        <v>18881600</v>
       </c>
       <c r="F60" s="3">
-        <v>24537500</v>
+        <v>22962200</v>
       </c>
       <c r="G60" s="3">
-        <v>21286300</v>
+        <v>19919700</v>
       </c>
       <c r="H60" s="3">
-        <v>20342500</v>
+        <v>19036500</v>
       </c>
       <c r="I60" s="3">
-        <v>15455400</v>
+        <v>14463100</v>
       </c>
       <c r="J60" s="3">
-        <v>11740100</v>
+        <v>10986400</v>
       </c>
       <c r="K60" s="3">
         <v>11672400</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>46493800</v>
+        <v>43509000</v>
       </c>
       <c r="E61" s="3">
-        <v>52048400</v>
+        <v>48706900</v>
       </c>
       <c r="F61" s="3">
-        <v>49280900</v>
+        <v>46117100</v>
       </c>
       <c r="G61" s="3">
-        <v>56424600</v>
+        <v>52802200</v>
       </c>
       <c r="H61" s="3">
-        <v>57393200</v>
+        <v>53708500</v>
       </c>
       <c r="I61" s="3">
-        <v>21493600</v>
+        <v>20113700</v>
       </c>
       <c r="J61" s="3">
-        <v>19301000</v>
+        <v>18061800</v>
       </c>
       <c r="K61" s="3">
         <v>13016800</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24969000</v>
+        <v>23366000</v>
       </c>
       <c r="E62" s="3">
-        <v>25198400</v>
+        <v>23580700</v>
       </c>
       <c r="F62" s="3">
-        <v>26356000</v>
+        <v>24663900</v>
       </c>
       <c r="G62" s="3">
-        <v>27428800</v>
+        <v>25667900</v>
       </c>
       <c r="H62" s="3">
-        <v>27108200</v>
+        <v>25367800</v>
       </c>
       <c r="I62" s="3">
-        <v>3940800</v>
+        <v>3687800</v>
       </c>
       <c r="J62" s="3">
-        <v>3481900</v>
+        <v>3258400</v>
       </c>
       <c r="K62" s="3">
         <v>2402600</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>91595400</v>
+        <v>85715100</v>
       </c>
       <c r="E66" s="3">
-        <v>97791400</v>
+        <v>91513200</v>
       </c>
       <c r="F66" s="3">
-        <v>100511000</v>
+        <v>94057900</v>
       </c>
       <c r="G66" s="3">
-        <v>105458000</v>
+        <v>98687500</v>
       </c>
       <c r="H66" s="3">
-        <v>104672000</v>
+        <v>97951900</v>
       </c>
       <c r="I66" s="3">
-        <v>41181700</v>
+        <v>38537900</v>
       </c>
       <c r="J66" s="3">
-        <v>34702900</v>
+        <v>32475000</v>
       </c>
       <c r="K66" s="3">
         <v>27496500</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>99623000</v>
+        <v>93227200</v>
       </c>
       <c r="E72" s="3">
-        <v>96829400</v>
+        <v>90613000</v>
       </c>
       <c r="F72" s="3">
-        <v>94618500</v>
+        <v>88544000</v>
       </c>
       <c r="G72" s="3">
-        <v>92407600</v>
+        <v>86475100</v>
       </c>
       <c r="H72" s="3">
-        <v>133958000</v>
+        <v>125358000</v>
       </c>
       <c r="I72" s="3">
-        <v>9898200</v>
+        <v>9262700</v>
       </c>
       <c r="J72" s="3">
-        <v>5617200</v>
+        <v>5256500</v>
       </c>
       <c r="K72" s="3">
         <v>6561000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>87472200</v>
+        <v>81856500</v>
       </c>
       <c r="E76" s="3">
-        <v>81699900</v>
+        <v>76454800</v>
       </c>
       <c r="F76" s="3">
-        <v>83302000</v>
+        <v>77954000</v>
       </c>
       <c r="G76" s="3">
-        <v>85312100</v>
+        <v>79835100</v>
       </c>
       <c r="H76" s="3">
-        <v>79204800</v>
+        <v>74119900</v>
       </c>
       <c r="I76" s="3">
-        <v>10666000</v>
+        <v>9981200</v>
       </c>
       <c r="J76" s="3">
-        <v>6379800</v>
+        <v>5970200</v>
       </c>
       <c r="K76" s="3">
         <v>7334400</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8865700</v>
+        <v>8296500</v>
       </c>
       <c r="E81" s="3">
-        <v>8343000</v>
+        <v>7807400</v>
       </c>
       <c r="F81" s="3">
-        <v>7435700</v>
+        <v>6958300</v>
       </c>
       <c r="G81" s="3">
-        <v>7863300</v>
+        <v>7358400</v>
       </c>
       <c r="H81" s="3">
-        <v>48865100</v>
+        <v>45728000</v>
       </c>
       <c r="I81" s="3">
-        <v>6059100</v>
+        <v>5670100</v>
       </c>
       <c r="J81" s="3">
-        <v>5592400</v>
+        <v>5233400</v>
       </c>
       <c r="K81" s="3">
         <v>4146400</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1402700</v>
+        <v>1312600</v>
       </c>
       <c r="E83" s="3">
-        <v>1693400</v>
+        <v>1584700</v>
       </c>
       <c r="F83" s="3">
-        <v>1888900</v>
+        <v>1767600</v>
       </c>
       <c r="G83" s="3">
-        <v>1290600</v>
+        <v>1207700</v>
       </c>
       <c r="H83" s="3">
-        <v>1065000</v>
+        <v>996700</v>
       </c>
       <c r="I83" s="3">
-        <v>791300</v>
+        <v>740500</v>
       </c>
       <c r="J83" s="3">
-        <v>557900</v>
+        <v>522100</v>
       </c>
       <c r="K83" s="3">
         <v>696200</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12667000</v>
+        <v>11853800</v>
       </c>
       <c r="E89" s="3">
-        <v>12756900</v>
+        <v>11937900</v>
       </c>
       <c r="F89" s="3">
-        <v>11727100</v>
+        <v>10974200</v>
       </c>
       <c r="G89" s="3">
-        <v>13420500</v>
+        <v>12558900</v>
       </c>
       <c r="H89" s="3">
-        <v>6970300</v>
+        <v>6522800</v>
       </c>
       <c r="I89" s="3">
-        <v>6009500</v>
+        <v>5623700</v>
       </c>
       <c r="J89" s="3">
-        <v>6152900</v>
+        <v>5757900</v>
       </c>
       <c r="K89" s="3">
         <v>4946400</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-687000</v>
+        <v>-642900</v>
       </c>
       <c r="E91" s="3">
-        <v>-666100</v>
+        <v>-623400</v>
       </c>
       <c r="F91" s="3">
-        <v>-865600</v>
+        <v>-810000</v>
       </c>
       <c r="G91" s="3">
-        <v>-988100</v>
+        <v>-924700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1031100</v>
+        <v>-964900</v>
       </c>
       <c r="I91" s="3">
-        <v>-763900</v>
+        <v>-714900</v>
       </c>
       <c r="J91" s="3">
-        <v>-629600</v>
+        <v>-589200</v>
       </c>
       <c r="K91" s="3">
         <v>-704200</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1486100</v>
+        <v>-1390700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1020700</v>
+        <v>-955200</v>
       </c>
       <c r="F94" s="3">
-        <v>-833000</v>
+        <v>-779500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1331000</v>
+        <v>-1245500</v>
       </c>
       <c r="H94" s="3">
-        <v>-24173800</v>
+        <v>-22621800</v>
       </c>
       <c r="I94" s="3">
-        <v>-834300</v>
+        <v>-780700</v>
       </c>
       <c r="J94" s="3">
-        <v>-5202600</v>
+        <v>-4868600</v>
       </c>
       <c r="K94" s="3">
         <v>-625600</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6392800</v>
+        <v>-5982400</v>
       </c>
       <c r="E96" s="3">
-        <v>-6185500</v>
+        <v>-5788400</v>
       </c>
       <c r="F96" s="3">
-        <v>-5993900</v>
+        <v>-5609100</v>
       </c>
       <c r="G96" s="3">
-        <v>-5666700</v>
+        <v>-5302900</v>
       </c>
       <c r="H96" s="3">
-        <v>-4516900</v>
+        <v>-4227000</v>
       </c>
       <c r="I96" s="3">
-        <v>-3793400</v>
+        <v>-3549900</v>
       </c>
       <c r="J96" s="3">
-        <v>-3610900</v>
+        <v>-3379100</v>
       </c>
       <c r="K96" s="3">
         <v>-3609900</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11405100</v>
+        <v>-10672900</v>
       </c>
       <c r="E100" s="3">
-        <v>-10294500</v>
+        <v>-9633600</v>
       </c>
       <c r="F100" s="3">
-        <v>-11201700</v>
+        <v>-10482600</v>
       </c>
       <c r="G100" s="3">
-        <v>-12553600</v>
+        <v>-11747600</v>
       </c>
       <c r="H100" s="3">
-        <v>19239700</v>
+        <v>18004500</v>
       </c>
       <c r="I100" s="3">
-        <v>-5512900</v>
+        <v>-5159000</v>
       </c>
       <c r="J100" s="3">
-        <v>-285500</v>
+        <v>-267200</v>
       </c>
       <c r="K100" s="3">
         <v>-4614900</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-329800</v>
+        <v>-308600</v>
       </c>
       <c r="E101" s="3">
-        <v>-329800</v>
+        <v>-308600</v>
       </c>
       <c r="F101" s="3">
-        <v>-74300</v>
+        <v>-69500</v>
       </c>
       <c r="G101" s="3">
-        <v>-179900</v>
+        <v>-168300</v>
       </c>
       <c r="H101" s="3">
-        <v>-509700</v>
+        <v>-477000</v>
       </c>
       <c r="I101" s="3">
-        <v>234600</v>
+        <v>219600</v>
       </c>
       <c r="J101" s="3">
-        <v>-354600</v>
+        <v>-331800</v>
       </c>
       <c r="K101" s="3">
         <v>-83900</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-554000</v>
+        <v>-518500</v>
       </c>
       <c r="E102" s="3">
-        <v>1112000</v>
+        <v>1040600</v>
       </c>
       <c r="F102" s="3">
-        <v>-382000</v>
+        <v>-357400</v>
       </c>
       <c r="G102" s="3">
-        <v>-644000</v>
+        <v>-602600</v>
       </c>
       <c r="H102" s="3">
-        <v>1526500</v>
+        <v>1428500</v>
       </c>
       <c r="I102" s="3">
-        <v>-103000</v>
+        <v>-96400</v>
       </c>
       <c r="J102" s="3">
-        <v>310300</v>
+        <v>290300</v>
       </c>
       <c r="K102" s="3">
         <v>-378000</v>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31331900</v>
+        <v>30381600</v>
       </c>
       <c r="E8" s="3">
-        <v>31444100</v>
+        <v>30490400</v>
       </c>
       <c r="F8" s="3">
-        <v>31567400</v>
+        <v>30609900</v>
       </c>
       <c r="G8" s="3">
-        <v>29877800</v>
+        <v>28971600</v>
       </c>
       <c r="H8" s="3">
-        <v>23866100</v>
+        <v>23142300</v>
       </c>
       <c r="I8" s="3">
-        <v>17237200</v>
+        <v>16714400</v>
       </c>
       <c r="J8" s="3">
-        <v>15985600</v>
+        <v>15500700</v>
       </c>
       <c r="K8" s="3">
         <v>18596800</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5345600</v>
+        <v>5183500</v>
       </c>
       <c r="E9" s="3">
-        <v>5047900</v>
+        <v>4894800</v>
       </c>
       <c r="F9" s="3">
-        <v>5412700</v>
+        <v>5248500</v>
       </c>
       <c r="G9" s="3">
-        <v>5550500</v>
+        <v>5382200</v>
       </c>
       <c r="H9" s="3">
-        <v>6139800</v>
+        <v>5953500</v>
       </c>
       <c r="I9" s="3">
-        <v>4553900</v>
+        <v>4415800</v>
       </c>
       <c r="J9" s="3">
-        <v>3700000</v>
+        <v>3587700</v>
       </c>
       <c r="K9" s="3">
         <v>4033200</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25986300</v>
+        <v>25198100</v>
       </c>
       <c r="E10" s="3">
-        <v>26396200</v>
+        <v>25595600</v>
       </c>
       <c r="F10" s="3">
-        <v>26154700</v>
+        <v>25361400</v>
       </c>
       <c r="G10" s="3">
-        <v>24327200</v>
+        <v>23589400</v>
       </c>
       <c r="H10" s="3">
-        <v>17726400</v>
+        <v>17188700</v>
       </c>
       <c r="I10" s="3">
-        <v>12683300</v>
+        <v>12298600</v>
       </c>
       <c r="J10" s="3">
-        <v>12285600</v>
+        <v>11913000</v>
       </c>
       <c r="K10" s="3">
         <v>14563600</v>
@@ -858,25 +858,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>172000</v>
+        <v>166800</v>
       </c>
       <c r="E12" s="3">
-        <v>147600</v>
+        <v>143100</v>
       </c>
       <c r="F12" s="3">
-        <v>153700</v>
+        <v>149000</v>
       </c>
       <c r="G12" s="3">
-        <v>128100</v>
+        <v>124200</v>
       </c>
       <c r="H12" s="3">
-        <v>97600</v>
+        <v>94600</v>
       </c>
       <c r="I12" s="3">
-        <v>64700</v>
+        <v>62700</v>
       </c>
       <c r="J12" s="3">
-        <v>73200</v>
+        <v>71000</v>
       </c>
       <c r="K12" s="3">
         <v>98500</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1054000</v>
+        <v>1022000</v>
       </c>
       <c r="E14" s="3">
-        <v>929600</v>
+        <v>901400</v>
       </c>
       <c r="F14" s="3">
-        <v>929600</v>
+        <v>901400</v>
       </c>
       <c r="G14" s="3">
-        <v>391600</v>
+        <v>379700</v>
       </c>
       <c r="H14" s="3">
-        <v>-27490400</v>
+        <v>-26656700</v>
       </c>
       <c r="I14" s="3">
-        <v>858800</v>
+        <v>832800</v>
       </c>
       <c r="J14" s="3">
-        <v>572100</v>
+        <v>554800</v>
       </c>
       <c r="K14" s="3">
         <v>1099500</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1157700</v>
+        <v>1122600</v>
       </c>
       <c r="E15" s="3">
-        <v>1329700</v>
+        <v>1289400</v>
       </c>
       <c r="F15" s="3">
-        <v>1531000</v>
+        <v>1484500</v>
       </c>
       <c r="G15" s="3">
-        <v>1207700</v>
+        <v>1171100</v>
       </c>
       <c r="H15" s="3">
-        <v>996700</v>
+        <v>966400</v>
       </c>
       <c r="I15" s="3">
-        <v>1323600</v>
+        <v>1283400</v>
       </c>
       <c r="J15" s="3">
-        <v>492800</v>
+        <v>477900</v>
       </c>
       <c r="K15" s="3">
         <v>640300</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18847500</v>
+        <v>18275800</v>
       </c>
       <c r="E17" s="3">
-        <v>19464700</v>
+        <v>18874400</v>
       </c>
       <c r="F17" s="3">
-        <v>20568700</v>
+        <v>19944900</v>
       </c>
       <c r="G17" s="3">
-        <v>18462000</v>
+        <v>17902000</v>
       </c>
       <c r="H17" s="3">
-        <v>-12178300</v>
+        <v>-11808900</v>
       </c>
       <c r="I17" s="3">
-        <v>11681800</v>
+        <v>11327500</v>
       </c>
       <c r="J17" s="3">
-        <v>10553400</v>
+        <v>10233300</v>
       </c>
       <c r="K17" s="3">
         <v>12540300</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12484500</v>
+        <v>12105800</v>
       </c>
       <c r="E18" s="3">
-        <v>11979400</v>
+        <v>11616100</v>
       </c>
       <c r="F18" s="3">
-        <v>10998600</v>
+        <v>10665000</v>
       </c>
       <c r="G18" s="3">
-        <v>11415800</v>
+        <v>11069600</v>
       </c>
       <c r="H18" s="3">
-        <v>36044400</v>
+        <v>34951100</v>
       </c>
       <c r="I18" s="3">
-        <v>5555400</v>
+        <v>5386900</v>
       </c>
       <c r="J18" s="3">
-        <v>5432200</v>
+        <v>5267500</v>
       </c>
       <c r="K18" s="3">
         <v>6056500</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>474500</v>
+        <v>460100</v>
       </c>
       <c r="E20" s="3">
-        <v>589200</v>
+        <v>571300</v>
       </c>
       <c r="F20" s="3">
-        <v>736800</v>
+        <v>714500</v>
       </c>
       <c r="G20" s="3">
-        <v>714900</v>
+        <v>693200</v>
       </c>
       <c r="H20" s="3">
-        <v>1294300</v>
+        <v>1255100</v>
       </c>
       <c r="I20" s="3">
-        <v>2849700</v>
+        <v>2763300</v>
       </c>
       <c r="J20" s="3">
-        <v>2419100</v>
+        <v>2345700</v>
       </c>
       <c r="K20" s="3">
         <v>1179400</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14277100</v>
+        <v>13835300</v>
       </c>
       <c r="E21" s="3">
-        <v>14159900</v>
+        <v>13719800</v>
       </c>
       <c r="F21" s="3">
-        <v>13510400</v>
+        <v>13088900</v>
       </c>
       <c r="G21" s="3">
-        <v>13343400</v>
+        <v>12930700</v>
       </c>
       <c r="H21" s="3">
-        <v>38339500</v>
+        <v>37170000</v>
       </c>
       <c r="I21" s="3">
-        <v>9148700</v>
+        <v>8866300</v>
       </c>
       <c r="J21" s="3">
-        <v>8375600</v>
+        <v>8118100</v>
       </c>
       <c r="K21" s="3">
         <v>7933500</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1781100</v>
+        <v>1727000</v>
       </c>
       <c r="E22" s="3">
-        <v>1989700</v>
+        <v>1929300</v>
       </c>
       <c r="F22" s="3">
-        <v>2083600</v>
+        <v>2020400</v>
       </c>
       <c r="G22" s="3">
-        <v>1943300</v>
+        <v>1884400</v>
       </c>
       <c r="H22" s="3">
-        <v>1318700</v>
+        <v>1278700</v>
       </c>
       <c r="I22" s="3">
-        <v>786800</v>
+        <v>763000</v>
       </c>
       <c r="J22" s="3">
-        <v>708800</v>
+        <v>687300</v>
       </c>
       <c r="K22" s="3">
         <v>782700</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11177900</v>
+        <v>10838900</v>
       </c>
       <c r="E23" s="3">
-        <v>10579000</v>
+        <v>10258100</v>
       </c>
       <c r="F23" s="3">
-        <v>9651800</v>
+        <v>9359100</v>
       </c>
       <c r="G23" s="3">
-        <v>10187400</v>
+        <v>9878400</v>
       </c>
       <c r="H23" s="3">
-        <v>36020000</v>
+        <v>34927500</v>
       </c>
       <c r="I23" s="3">
-        <v>7618300</v>
+        <v>7387200</v>
       </c>
       <c r="J23" s="3">
-        <v>7142500</v>
+        <v>6925900</v>
       </c>
       <c r="K23" s="3">
         <v>6453200</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2863100</v>
+        <v>2776300</v>
       </c>
       <c r="E24" s="3">
-        <v>2733800</v>
+        <v>2650900</v>
       </c>
       <c r="F24" s="3">
-        <v>2574000</v>
+        <v>2495900</v>
       </c>
       <c r="G24" s="3">
-        <v>2697200</v>
+        <v>2615400</v>
       </c>
       <c r="H24" s="3">
-        <v>1777400</v>
+        <v>1723500</v>
       </c>
       <c r="I24" s="3">
-        <v>1715200</v>
+        <v>1663200</v>
       </c>
       <c r="J24" s="3">
-        <v>1626100</v>
+        <v>1576800</v>
       </c>
       <c r="K24" s="3">
         <v>1936800</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8314800</v>
+        <v>8062600</v>
       </c>
       <c r="E26" s="3">
-        <v>7845200</v>
+        <v>7607200</v>
       </c>
       <c r="F26" s="3">
-        <v>7077900</v>
+        <v>6863200</v>
       </c>
       <c r="G26" s="3">
-        <v>7490200</v>
+        <v>7263000</v>
       </c>
       <c r="H26" s="3">
-        <v>34242600</v>
+        <v>33204000</v>
       </c>
       <c r="I26" s="3">
-        <v>5903100</v>
+        <v>5724100</v>
       </c>
       <c r="J26" s="3">
-        <v>5516400</v>
+        <v>5349100</v>
       </c>
       <c r="K26" s="3">
         <v>4516400</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8103800</v>
+        <v>7858000</v>
       </c>
       <c r="E27" s="3">
-        <v>7645100</v>
+        <v>7413200</v>
       </c>
       <c r="F27" s="3">
-        <v>6901000</v>
+        <v>6691700</v>
       </c>
       <c r="G27" s="3">
-        <v>7273000</v>
+        <v>7052400</v>
       </c>
       <c r="H27" s="3">
-        <v>34034000</v>
+        <v>33001700</v>
       </c>
       <c r="I27" s="3">
-        <v>5670100</v>
+        <v>5498100</v>
       </c>
       <c r="J27" s="3">
-        <v>5233400</v>
+        <v>5074600</v>
       </c>
       <c r="K27" s="3">
         <v>4146400</v>
@@ -1474,19 +1474,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>192700</v>
+        <v>186900</v>
       </c>
       <c r="E29" s="3">
-        <v>162200</v>
+        <v>157300</v>
       </c>
       <c r="F29" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="G29" s="3">
-        <v>85400</v>
+        <v>82800</v>
       </c>
       <c r="H29" s="3">
-        <v>11694000</v>
+        <v>11339300</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-474500</v>
+        <v>-460100</v>
       </c>
       <c r="E32" s="3">
-        <v>-589200</v>
+        <v>-571300</v>
       </c>
       <c r="F32" s="3">
-        <v>-736800</v>
+        <v>-714500</v>
       </c>
       <c r="G32" s="3">
-        <v>-714900</v>
+        <v>-693200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1294300</v>
+        <v>-1255100</v>
       </c>
       <c r="I32" s="3">
-        <v>-2849700</v>
+        <v>-2763300</v>
       </c>
       <c r="J32" s="3">
-        <v>-2419100</v>
+        <v>-2345700</v>
       </c>
       <c r="K32" s="3">
         <v>-1179400</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8296500</v>
+        <v>8044900</v>
       </c>
       <c r="E33" s="3">
-        <v>7807400</v>
+        <v>7570600</v>
       </c>
       <c r="F33" s="3">
-        <v>6958300</v>
+        <v>6747300</v>
       </c>
       <c r="G33" s="3">
-        <v>7358400</v>
+        <v>7135300</v>
       </c>
       <c r="H33" s="3">
-        <v>45728000</v>
+        <v>44341000</v>
       </c>
       <c r="I33" s="3">
-        <v>5670100</v>
+        <v>5498100</v>
       </c>
       <c r="J33" s="3">
-        <v>5233400</v>
+        <v>5074600</v>
       </c>
       <c r="K33" s="3">
         <v>4146400</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8296500</v>
+        <v>8044900</v>
       </c>
       <c r="E35" s="3">
-        <v>7807400</v>
+        <v>7570600</v>
       </c>
       <c r="F35" s="3">
-        <v>6958300</v>
+        <v>6747300</v>
       </c>
       <c r="G35" s="3">
-        <v>7358400</v>
+        <v>7135300</v>
       </c>
       <c r="H35" s="3">
-        <v>45728000</v>
+        <v>44341000</v>
       </c>
       <c r="I35" s="3">
-        <v>5670100</v>
+        <v>5498100</v>
       </c>
       <c r="J35" s="3">
-        <v>5233400</v>
+        <v>5074600</v>
       </c>
       <c r="K35" s="3">
         <v>4146400</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3426700</v>
+        <v>3322800</v>
       </c>
       <c r="E41" s="3">
-        <v>3829300</v>
+        <v>3713100</v>
       </c>
       <c r="F41" s="3">
-        <v>3081500</v>
+        <v>2988000</v>
       </c>
       <c r="G41" s="3">
-        <v>3174200</v>
+        <v>3077900</v>
       </c>
       <c r="H41" s="3">
-        <v>8029400</v>
+        <v>7785800</v>
       </c>
       <c r="I41" s="3">
-        <v>2688700</v>
+        <v>2607100</v>
       </c>
       <c r="J41" s="3">
-        <v>2394700</v>
+        <v>2322000</v>
       </c>
       <c r="K41" s="3">
         <v>2419900</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>556300</v>
+        <v>539400</v>
       </c>
       <c r="E42" s="3">
-        <v>295200</v>
+        <v>286300</v>
       </c>
       <c r="F42" s="3">
-        <v>150000</v>
+        <v>145500</v>
       </c>
       <c r="G42" s="3">
-        <v>217100</v>
+        <v>210600</v>
       </c>
       <c r="H42" s="3">
-        <v>79300</v>
+        <v>76900</v>
       </c>
       <c r="I42" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="J42" s="3">
-        <v>42700</v>
+        <v>41400</v>
       </c>
       <c r="K42" s="3">
         <v>66600</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4962600</v>
+        <v>4812000</v>
       </c>
       <c r="E43" s="3">
-        <v>4635600</v>
+        <v>4495000</v>
       </c>
       <c r="F43" s="3">
-        <v>5141900</v>
+        <v>4985900</v>
       </c>
       <c r="G43" s="3">
-        <v>4467300</v>
+        <v>4331800</v>
       </c>
       <c r="H43" s="3">
-        <v>5505400</v>
+        <v>5338400</v>
       </c>
       <c r="I43" s="3">
-        <v>4822300</v>
+        <v>4676000</v>
       </c>
       <c r="J43" s="3">
-        <v>4074500</v>
+        <v>3950900</v>
       </c>
       <c r="K43" s="3">
         <v>3760400</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6439900</v>
+        <v>6244500</v>
       </c>
       <c r="E44" s="3">
-        <v>7317000</v>
+        <v>7095000</v>
       </c>
       <c r="F44" s="3">
-        <v>7434100</v>
+        <v>7208600</v>
       </c>
       <c r="G44" s="3">
-        <v>7354800</v>
+        <v>7131700</v>
       </c>
       <c r="H44" s="3">
-        <v>14307000</v>
+        <v>13873100</v>
       </c>
       <c r="I44" s="3">
-        <v>7066900</v>
+        <v>6852500</v>
       </c>
       <c r="J44" s="3">
-        <v>5180900</v>
+        <v>5023800</v>
       </c>
       <c r="K44" s="3">
         <v>5501400</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>237900</v>
+        <v>230700</v>
       </c>
       <c r="E45" s="3">
-        <v>528200</v>
+        <v>512200</v>
       </c>
       <c r="F45" s="3">
-        <v>385500</v>
+        <v>373800</v>
       </c>
       <c r="G45" s="3">
-        <v>224500</v>
+        <v>217700</v>
       </c>
       <c r="H45" s="3">
-        <v>284200</v>
+        <v>275600</v>
       </c>
       <c r="I45" s="3">
-        <v>480600</v>
+        <v>466100</v>
       </c>
       <c r="J45" s="3">
-        <v>279400</v>
+        <v>270900</v>
       </c>
       <c r="K45" s="3">
         <v>407300</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15623300</v>
+        <v>15149400</v>
       </c>
       <c r="E46" s="3">
-        <v>16605300</v>
+        <v>16101600</v>
       </c>
       <c r="F46" s="3">
-        <v>16193000</v>
+        <v>15701800</v>
       </c>
       <c r="G46" s="3">
-        <v>15437800</v>
+        <v>14969600</v>
       </c>
       <c r="H46" s="3">
-        <v>17037100</v>
+        <v>16520400</v>
       </c>
       <c r="I46" s="3">
-        <v>15076700</v>
+        <v>14619500</v>
       </c>
       <c r="J46" s="3">
-        <v>11972100</v>
+        <v>11609000</v>
       </c>
       <c r="K46" s="3">
         <v>12155600</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2693500</v>
+        <v>2611800</v>
       </c>
       <c r="E47" s="3">
-        <v>2513000</v>
+        <v>2436800</v>
       </c>
       <c r="F47" s="3">
-        <v>2586200</v>
+        <v>2507700</v>
       </c>
       <c r="G47" s="3">
-        <v>3002200</v>
+        <v>2911100</v>
       </c>
       <c r="H47" s="3">
-        <v>2897300</v>
+        <v>2809400</v>
       </c>
       <c r="I47" s="3">
-        <v>12380800</v>
+        <v>12005300</v>
       </c>
       <c r="J47" s="3">
-        <v>8811300</v>
+        <v>8544100</v>
       </c>
       <c r="K47" s="3">
         <v>3446200</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6042200</v>
+        <v>5858900</v>
       </c>
       <c r="E48" s="3">
-        <v>6172700</v>
+        <v>5985500</v>
       </c>
       <c r="F48" s="3">
-        <v>6731400</v>
+        <v>6527200</v>
       </c>
       <c r="G48" s="3">
-        <v>6302000</v>
+        <v>6110900</v>
       </c>
       <c r="H48" s="3">
-        <v>11911100</v>
+        <v>11549800</v>
       </c>
       <c r="I48" s="3">
-        <v>4466100</v>
+        <v>4330600</v>
       </c>
       <c r="J48" s="3">
-        <v>3685300</v>
+        <v>3573500</v>
       </c>
       <c r="K48" s="3">
         <v>3998600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>141051000</v>
+        <v>136773000</v>
       </c>
       <c r="E49" s="3">
-        <v>140707000</v>
+        <v>136439000</v>
       </c>
       <c r="F49" s="3">
-        <v>144908000</v>
+        <v>140513000</v>
       </c>
       <c r="G49" s="3">
-        <v>151284000</v>
+        <v>146695000</v>
       </c>
       <c r="H49" s="3">
-        <v>287372000</v>
+        <v>278656000</v>
       </c>
       <c r="I49" s="3">
-        <v>14781500</v>
+        <v>14333200</v>
       </c>
       <c r="J49" s="3">
-        <v>12730900</v>
+        <v>12344700</v>
       </c>
       <c r="K49" s="3">
         <v>14381200</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2161700</v>
+        <v>2096100</v>
       </c>
       <c r="E52" s="3">
-        <v>1970100</v>
+        <v>1910400</v>
       </c>
       <c r="F52" s="3">
-        <v>1593200</v>
+        <v>1544900</v>
       </c>
       <c r="G52" s="3">
-        <v>2497100</v>
+        <v>2421400</v>
       </c>
       <c r="H52" s="3">
-        <v>2495900</v>
+        <v>2420200</v>
       </c>
       <c r="I52" s="3">
-        <v>1814000</v>
+        <v>1759000</v>
       </c>
       <c r="J52" s="3">
-        <v>1245500</v>
+        <v>1207700</v>
       </c>
       <c r="K52" s="3">
         <v>849200</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>167572000</v>
+        <v>162489000</v>
       </c>
       <c r="E54" s="3">
-        <v>167968000</v>
+        <v>162874000</v>
       </c>
       <c r="F54" s="3">
-        <v>172012000</v>
+        <v>166795000</v>
       </c>
       <c r="G54" s="3">
-        <v>178523000</v>
+        <v>173108000</v>
       </c>
       <c r="H54" s="3">
-        <v>172072000</v>
+        <v>166853000</v>
       </c>
       <c r="I54" s="3">
-        <v>48519100</v>
+        <v>47047500</v>
       </c>
       <c r="J54" s="3">
-        <v>38445100</v>
+        <v>37279100</v>
       </c>
       <c r="K54" s="3">
         <v>34830900</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11683000</v>
+        <v>11328600</v>
       </c>
       <c r="E57" s="3">
-        <v>11824500</v>
+        <v>11465800</v>
       </c>
       <c r="F57" s="3">
-        <v>11866000</v>
+        <v>11506100</v>
       </c>
       <c r="G57" s="3">
-        <v>12968800</v>
+        <v>12575400</v>
       </c>
       <c r="H57" s="3">
-        <v>10866900</v>
+        <v>10537300</v>
       </c>
       <c r="I57" s="3">
-        <v>8948000</v>
+        <v>8676600</v>
       </c>
       <c r="J57" s="3">
-        <v>7242500</v>
+        <v>7022900</v>
       </c>
       <c r="K57" s="3">
         <v>7353000</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4308700</v>
+        <v>4178000</v>
       </c>
       <c r="E58" s="3">
-        <v>4320900</v>
+        <v>4189800</v>
       </c>
       <c r="F58" s="3">
-        <v>8646700</v>
+        <v>8384400</v>
       </c>
       <c r="G58" s="3">
-        <v>4580700</v>
+        <v>4441800</v>
       </c>
       <c r="H58" s="3">
-        <v>12688200</v>
+        <v>12303300</v>
       </c>
       <c r="I58" s="3">
-        <v>3668200</v>
+        <v>3557000</v>
       </c>
       <c r="J58" s="3">
-        <v>2677700</v>
+        <v>2596500</v>
       </c>
       <c r="K58" s="3">
         <v>3299800</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2482500</v>
+        <v>2407200</v>
       </c>
       <c r="E59" s="3">
-        <v>2736200</v>
+        <v>2653200</v>
       </c>
       <c r="F59" s="3">
-        <v>2449600</v>
+        <v>2375300</v>
       </c>
       <c r="G59" s="3">
-        <v>2370300</v>
+        <v>2298400</v>
       </c>
       <c r="H59" s="3">
-        <v>2583700</v>
+        <v>2505400</v>
       </c>
       <c r="I59" s="3">
-        <v>1846900</v>
+        <v>1790900</v>
       </c>
       <c r="J59" s="3">
-        <v>1066200</v>
+        <v>1033900</v>
       </c>
       <c r="K59" s="3">
         <v>1019600</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18474200</v>
+        <v>17913800</v>
       </c>
       <c r="E60" s="3">
-        <v>18881600</v>
+        <v>18308900</v>
       </c>
       <c r="F60" s="3">
-        <v>22962200</v>
+        <v>22265700</v>
       </c>
       <c r="G60" s="3">
-        <v>19919700</v>
+        <v>19315600</v>
       </c>
       <c r="H60" s="3">
-        <v>19036500</v>
+        <v>18459200</v>
       </c>
       <c r="I60" s="3">
-        <v>14463100</v>
+        <v>14024500</v>
       </c>
       <c r="J60" s="3">
-        <v>10986400</v>
+        <v>10653200</v>
       </c>
       <c r="K60" s="3">
         <v>11672400</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>43509000</v>
+        <v>42189300</v>
       </c>
       <c r="E61" s="3">
-        <v>48706900</v>
+        <v>47229600</v>
       </c>
       <c r="F61" s="3">
-        <v>46117100</v>
+        <v>44718400</v>
       </c>
       <c r="G61" s="3">
-        <v>52802200</v>
+        <v>51200600</v>
       </c>
       <c r="H61" s="3">
-        <v>53708500</v>
+        <v>52079500</v>
       </c>
       <c r="I61" s="3">
-        <v>20113700</v>
+        <v>19503700</v>
       </c>
       <c r="J61" s="3">
-        <v>18061800</v>
+        <v>17514000</v>
       </c>
       <c r="K61" s="3">
         <v>13016800</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23366000</v>
+        <v>22657300</v>
       </c>
       <c r="E62" s="3">
-        <v>23580700</v>
+        <v>22865500</v>
       </c>
       <c r="F62" s="3">
-        <v>24663900</v>
+        <v>23915900</v>
       </c>
       <c r="G62" s="3">
-        <v>25667900</v>
+        <v>24889400</v>
       </c>
       <c r="H62" s="3">
-        <v>25367800</v>
+        <v>24598400</v>
       </c>
       <c r="I62" s="3">
-        <v>3687800</v>
+        <v>3575900</v>
       </c>
       <c r="J62" s="3">
-        <v>3258400</v>
+        <v>3159500</v>
       </c>
       <c r="K62" s="3">
         <v>2402600</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>85715100</v>
+        <v>83115300</v>
       </c>
       <c r="E66" s="3">
-        <v>91513200</v>
+        <v>88737600</v>
       </c>
       <c r="F66" s="3">
-        <v>94057900</v>
+        <v>91205100</v>
       </c>
       <c r="G66" s="3">
-        <v>98687500</v>
+        <v>95694200</v>
       </c>
       <c r="H66" s="3">
-        <v>97951900</v>
+        <v>94981000</v>
       </c>
       <c r="I66" s="3">
-        <v>38537900</v>
+        <v>37369000</v>
       </c>
       <c r="J66" s="3">
-        <v>32475000</v>
+        <v>31490000</v>
       </c>
       <c r="K66" s="3">
         <v>27496500</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>93227200</v>
+        <v>90399600</v>
       </c>
       <c r="E72" s="3">
-        <v>90613000</v>
+        <v>87864600</v>
       </c>
       <c r="F72" s="3">
-        <v>88544000</v>
+        <v>85858400</v>
       </c>
       <c r="G72" s="3">
-        <v>86475100</v>
+        <v>83852200</v>
       </c>
       <c r="H72" s="3">
-        <v>125358000</v>
+        <v>121556000</v>
       </c>
       <c r="I72" s="3">
-        <v>9262700</v>
+        <v>8981800</v>
       </c>
       <c r="J72" s="3">
-        <v>5256500</v>
+        <v>5097100</v>
       </c>
       <c r="K72" s="3">
         <v>6561000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>81856500</v>
+        <v>79373800</v>
       </c>
       <c r="E76" s="3">
-        <v>76454800</v>
+        <v>74135900</v>
       </c>
       <c r="F76" s="3">
-        <v>77954000</v>
+        <v>75589700</v>
       </c>
       <c r="G76" s="3">
-        <v>79835100</v>
+        <v>77413700</v>
       </c>
       <c r="H76" s="3">
-        <v>74119900</v>
+        <v>71871800</v>
       </c>
       <c r="I76" s="3">
-        <v>9981200</v>
+        <v>9678500</v>
       </c>
       <c r="J76" s="3">
-        <v>5970200</v>
+        <v>5789100</v>
       </c>
       <c r="K76" s="3">
         <v>7334400</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8296500</v>
+        <v>8044900</v>
       </c>
       <c r="E81" s="3">
-        <v>7807400</v>
+        <v>7570600</v>
       </c>
       <c r="F81" s="3">
-        <v>6958300</v>
+        <v>6747300</v>
       </c>
       <c r="G81" s="3">
-        <v>7358400</v>
+        <v>7135300</v>
       </c>
       <c r="H81" s="3">
-        <v>45728000</v>
+        <v>44341000</v>
       </c>
       <c r="I81" s="3">
-        <v>5670100</v>
+        <v>5498100</v>
       </c>
       <c r="J81" s="3">
-        <v>5233400</v>
+        <v>5074600</v>
       </c>
       <c r="K81" s="3">
         <v>4146400</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1312600</v>
+        <v>1272800</v>
       </c>
       <c r="E83" s="3">
-        <v>1584700</v>
+        <v>1536600</v>
       </c>
       <c r="F83" s="3">
-        <v>1767600</v>
+        <v>1714000</v>
       </c>
       <c r="G83" s="3">
-        <v>1207700</v>
+        <v>1171100</v>
       </c>
       <c r="H83" s="3">
-        <v>996700</v>
+        <v>966400</v>
       </c>
       <c r="I83" s="3">
-        <v>740500</v>
+        <v>718000</v>
       </c>
       <c r="J83" s="3">
-        <v>522100</v>
+        <v>506300</v>
       </c>
       <c r="K83" s="3">
         <v>696200</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11853800</v>
+        <v>11494200</v>
       </c>
       <c r="E89" s="3">
-        <v>11937900</v>
+        <v>11575900</v>
       </c>
       <c r="F89" s="3">
-        <v>10974200</v>
+        <v>10641400</v>
       </c>
       <c r="G89" s="3">
-        <v>12558900</v>
+        <v>12178000</v>
       </c>
       <c r="H89" s="3">
-        <v>6522800</v>
+        <v>6325000</v>
       </c>
       <c r="I89" s="3">
-        <v>5623700</v>
+        <v>5453200</v>
       </c>
       <c r="J89" s="3">
-        <v>5757900</v>
+        <v>5583300</v>
       </c>
       <c r="K89" s="3">
         <v>4946400</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-642900</v>
+        <v>-623400</v>
       </c>
       <c r="E91" s="3">
-        <v>-623400</v>
+        <v>-604500</v>
       </c>
       <c r="F91" s="3">
-        <v>-810000</v>
+        <v>-785400</v>
       </c>
       <c r="G91" s="3">
-        <v>-924700</v>
+        <v>-896600</v>
       </c>
       <c r="H91" s="3">
-        <v>-964900</v>
+        <v>-935700</v>
       </c>
       <c r="I91" s="3">
-        <v>-714900</v>
+        <v>-693200</v>
       </c>
       <c r="J91" s="3">
-        <v>-589200</v>
+        <v>-571300</v>
       </c>
       <c r="K91" s="3">
         <v>-704200</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1390700</v>
+        <v>-1348500</v>
       </c>
       <c r="E94" s="3">
-        <v>-955200</v>
+        <v>-926200</v>
       </c>
       <c r="F94" s="3">
-        <v>-779500</v>
+        <v>-755900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1245500</v>
+        <v>-1207700</v>
       </c>
       <c r="H94" s="3">
-        <v>-22621800</v>
+        <v>-21935700</v>
       </c>
       <c r="I94" s="3">
-        <v>-780700</v>
+        <v>-757100</v>
       </c>
       <c r="J94" s="3">
-        <v>-4868600</v>
+        <v>-4721000</v>
       </c>
       <c r="K94" s="3">
         <v>-625600</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5982400</v>
+        <v>-5800900</v>
       </c>
       <c r="E96" s="3">
-        <v>-5788400</v>
+        <v>-5612900</v>
       </c>
       <c r="F96" s="3">
-        <v>-5609100</v>
+        <v>-5439000</v>
       </c>
       <c r="G96" s="3">
-        <v>-5302900</v>
+        <v>-5142100</v>
       </c>
       <c r="H96" s="3">
-        <v>-4227000</v>
+        <v>-4098700</v>
       </c>
       <c r="I96" s="3">
-        <v>-3549900</v>
+        <v>-3442200</v>
       </c>
       <c r="J96" s="3">
-        <v>-3379100</v>
+        <v>-3276600</v>
       </c>
       <c r="K96" s="3">
         <v>-3609900</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10672900</v>
+        <v>-10349200</v>
       </c>
       <c r="E100" s="3">
-        <v>-9633600</v>
+        <v>-9341400</v>
       </c>
       <c r="F100" s="3">
-        <v>-10482600</v>
+        <v>-10164700</v>
       </c>
       <c r="G100" s="3">
-        <v>-11747600</v>
+        <v>-11391300</v>
       </c>
       <c r="H100" s="3">
-        <v>18004500</v>
+        <v>17458400</v>
       </c>
       <c r="I100" s="3">
-        <v>-5159000</v>
+        <v>-5002500</v>
       </c>
       <c r="J100" s="3">
-        <v>-267200</v>
+        <v>-259100</v>
       </c>
       <c r="K100" s="3">
         <v>-4614900</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-308600</v>
+        <v>-299300</v>
       </c>
       <c r="E101" s="3">
-        <v>-308600</v>
+        <v>-299300</v>
       </c>
       <c r="F101" s="3">
-        <v>-69500</v>
+        <v>-67400</v>
       </c>
       <c r="G101" s="3">
-        <v>-168300</v>
+        <v>-163200</v>
       </c>
       <c r="H101" s="3">
-        <v>-477000</v>
+        <v>-462500</v>
       </c>
       <c r="I101" s="3">
-        <v>219600</v>
+        <v>212900</v>
       </c>
       <c r="J101" s="3">
-        <v>-331800</v>
+        <v>-321700</v>
       </c>
       <c r="K101" s="3">
         <v>-83900</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-518500</v>
+        <v>-502700</v>
       </c>
       <c r="E102" s="3">
-        <v>1040600</v>
+        <v>1009000</v>
       </c>
       <c r="F102" s="3">
-        <v>-357400</v>
+        <v>-346600</v>
       </c>
       <c r="G102" s="3">
-        <v>-602600</v>
+        <v>-584400</v>
       </c>
       <c r="H102" s="3">
-        <v>1428500</v>
+        <v>1385200</v>
       </c>
       <c r="I102" s="3">
-        <v>-96400</v>
+        <v>-93400</v>
       </c>
       <c r="J102" s="3">
-        <v>290300</v>
+        <v>281500</v>
       </c>
       <c r="K102" s="3">
         <v>-378000</v>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30381600</v>
+        <v>30083700</v>
       </c>
       <c r="E8" s="3">
-        <v>30490400</v>
+        <v>30191400</v>
       </c>
       <c r="F8" s="3">
-        <v>30609900</v>
+        <v>30309700</v>
       </c>
       <c r="G8" s="3">
-        <v>28971600</v>
+        <v>28687500</v>
       </c>
       <c r="H8" s="3">
-        <v>23142300</v>
+        <v>22915300</v>
       </c>
       <c r="I8" s="3">
-        <v>16714400</v>
+        <v>16550500</v>
       </c>
       <c r="J8" s="3">
-        <v>15500700</v>
+        <v>15348700</v>
       </c>
       <c r="K8" s="3">
         <v>18596800</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5183500</v>
+        <v>5132600</v>
       </c>
       <c r="E9" s="3">
-        <v>4894800</v>
+        <v>4846800</v>
       </c>
       <c r="F9" s="3">
-        <v>5248500</v>
+        <v>5197100</v>
       </c>
       <c r="G9" s="3">
-        <v>5382200</v>
+        <v>5329400</v>
       </c>
       <c r="H9" s="3">
-        <v>5953500</v>
+        <v>5895200</v>
       </c>
       <c r="I9" s="3">
-        <v>4415800</v>
+        <v>4372500</v>
       </c>
       <c r="J9" s="3">
-        <v>3587700</v>
+        <v>3552600</v>
       </c>
       <c r="K9" s="3">
         <v>4033200</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>25198100</v>
+        <v>24951000</v>
       </c>
       <c r="E10" s="3">
-        <v>25595600</v>
+        <v>25344600</v>
       </c>
       <c r="F10" s="3">
-        <v>25361400</v>
+        <v>25112700</v>
       </c>
       <c r="G10" s="3">
-        <v>23589400</v>
+        <v>23358100</v>
       </c>
       <c r="H10" s="3">
-        <v>17188700</v>
+        <v>17020200</v>
       </c>
       <c r="I10" s="3">
-        <v>12298600</v>
+        <v>12178000</v>
       </c>
       <c r="J10" s="3">
-        <v>11913000</v>
+        <v>11796200</v>
       </c>
       <c r="K10" s="3">
         <v>14563600</v>
@@ -858,25 +858,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>166800</v>
+        <v>165200</v>
       </c>
       <c r="E12" s="3">
-        <v>143100</v>
+        <v>141700</v>
       </c>
       <c r="F12" s="3">
-        <v>149000</v>
+        <v>147600</v>
       </c>
       <c r="G12" s="3">
-        <v>124200</v>
+        <v>123000</v>
       </c>
       <c r="H12" s="3">
-        <v>94600</v>
+        <v>93700</v>
       </c>
       <c r="I12" s="3">
-        <v>62700</v>
+        <v>62100</v>
       </c>
       <c r="J12" s="3">
-        <v>71000</v>
+        <v>70300</v>
       </c>
       <c r="K12" s="3">
         <v>98500</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1022000</v>
+        <v>1012000</v>
       </c>
       <c r="E14" s="3">
-        <v>901400</v>
+        <v>892500</v>
       </c>
       <c r="F14" s="3">
-        <v>901400</v>
+        <v>892500</v>
       </c>
       <c r="G14" s="3">
-        <v>379700</v>
+        <v>376000</v>
       </c>
       <c r="H14" s="3">
-        <v>-26656700</v>
+        <v>-26395200</v>
       </c>
       <c r="I14" s="3">
-        <v>832800</v>
+        <v>824600</v>
       </c>
       <c r="J14" s="3">
-        <v>554800</v>
+        <v>549300</v>
       </c>
       <c r="K14" s="3">
         <v>1099500</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1122600</v>
+        <v>1111600</v>
       </c>
       <c r="E15" s="3">
-        <v>1289400</v>
+        <v>1276700</v>
       </c>
       <c r="F15" s="3">
-        <v>1484500</v>
+        <v>1470000</v>
       </c>
       <c r="G15" s="3">
-        <v>1171100</v>
+        <v>1159600</v>
       </c>
       <c r="H15" s="3">
-        <v>966400</v>
+        <v>957000</v>
       </c>
       <c r="I15" s="3">
-        <v>1283400</v>
+        <v>1270900</v>
       </c>
       <c r="J15" s="3">
-        <v>477900</v>
+        <v>473200</v>
       </c>
       <c r="K15" s="3">
         <v>640300</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18275800</v>
+        <v>18096600</v>
       </c>
       <c r="E17" s="3">
-        <v>18874400</v>
+        <v>18689300</v>
       </c>
       <c r="F17" s="3">
-        <v>19944900</v>
+        <v>19749300</v>
       </c>
       <c r="G17" s="3">
-        <v>17902000</v>
+        <v>17726500</v>
       </c>
       <c r="H17" s="3">
-        <v>-11808900</v>
+        <v>-11693100</v>
       </c>
       <c r="I17" s="3">
-        <v>11327500</v>
+        <v>11216400</v>
       </c>
       <c r="J17" s="3">
-        <v>10233300</v>
+        <v>10132900</v>
       </c>
       <c r="K17" s="3">
         <v>12540300</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12105800</v>
+        <v>11987100</v>
       </c>
       <c r="E18" s="3">
-        <v>11616100</v>
+        <v>11502200</v>
       </c>
       <c r="F18" s="3">
-        <v>10665000</v>
+        <v>10560400</v>
       </c>
       <c r="G18" s="3">
-        <v>11069600</v>
+        <v>10961000</v>
       </c>
       <c r="H18" s="3">
-        <v>34951100</v>
+        <v>34608400</v>
       </c>
       <c r="I18" s="3">
-        <v>5386900</v>
+        <v>5334100</v>
       </c>
       <c r="J18" s="3">
-        <v>5267500</v>
+        <v>5215800</v>
       </c>
       <c r="K18" s="3">
         <v>6056500</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>460100</v>
+        <v>455600</v>
       </c>
       <c r="E20" s="3">
-        <v>571300</v>
+        <v>565700</v>
       </c>
       <c r="F20" s="3">
-        <v>714500</v>
+        <v>707500</v>
       </c>
       <c r="G20" s="3">
-        <v>693200</v>
+        <v>686400</v>
       </c>
       <c r="H20" s="3">
-        <v>1255100</v>
+        <v>1242700</v>
       </c>
       <c r="I20" s="3">
-        <v>2763300</v>
+        <v>2736200</v>
       </c>
       <c r="J20" s="3">
-        <v>2345700</v>
+        <v>2322700</v>
       </c>
       <c r="K20" s="3">
         <v>1179400</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13835300</v>
+        <v>13664600</v>
       </c>
       <c r="E21" s="3">
-        <v>13719800</v>
+        <v>13543000</v>
       </c>
       <c r="F21" s="3">
-        <v>13088900</v>
+        <v>12913400</v>
       </c>
       <c r="G21" s="3">
-        <v>12930700</v>
+        <v>12771700</v>
       </c>
       <c r="H21" s="3">
-        <v>37170000</v>
+        <v>36778900</v>
       </c>
       <c r="I21" s="3">
-        <v>8866300</v>
+        <v>8759600</v>
       </c>
       <c r="J21" s="3">
-        <v>8118100</v>
+        <v>8024500</v>
       </c>
       <c r="K21" s="3">
         <v>7933500</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1727000</v>
+        <v>1710100</v>
       </c>
       <c r="E22" s="3">
-        <v>1929300</v>
+        <v>1910400</v>
       </c>
       <c r="F22" s="3">
-        <v>2020400</v>
+        <v>2000600</v>
       </c>
       <c r="G22" s="3">
-        <v>1884400</v>
+        <v>1865900</v>
       </c>
       <c r="H22" s="3">
-        <v>1278700</v>
+        <v>1266200</v>
       </c>
       <c r="I22" s="3">
-        <v>763000</v>
+        <v>755500</v>
       </c>
       <c r="J22" s="3">
-        <v>687300</v>
+        <v>680500</v>
       </c>
       <c r="K22" s="3">
         <v>782700</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10838900</v>
+        <v>10732600</v>
       </c>
       <c r="E23" s="3">
-        <v>10258100</v>
+        <v>10157500</v>
       </c>
       <c r="F23" s="3">
-        <v>9359100</v>
+        <v>9267300</v>
       </c>
       <c r="G23" s="3">
-        <v>9878400</v>
+        <v>9781500</v>
       </c>
       <c r="H23" s="3">
-        <v>34927500</v>
+        <v>34585000</v>
       </c>
       <c r="I23" s="3">
-        <v>7387200</v>
+        <v>7314800</v>
       </c>
       <c r="J23" s="3">
-        <v>6925900</v>
+        <v>6858000</v>
       </c>
       <c r="K23" s="3">
         <v>6453200</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2776300</v>
+        <v>2749000</v>
       </c>
       <c r="E24" s="3">
-        <v>2650900</v>
+        <v>2624900</v>
       </c>
       <c r="F24" s="3">
-        <v>2495900</v>
+        <v>2471400</v>
       </c>
       <c r="G24" s="3">
-        <v>2615400</v>
+        <v>2589700</v>
       </c>
       <c r="H24" s="3">
-        <v>1723500</v>
+        <v>1706600</v>
       </c>
       <c r="I24" s="3">
-        <v>1663200</v>
+        <v>1646800</v>
       </c>
       <c r="J24" s="3">
-        <v>1576800</v>
+        <v>1561300</v>
       </c>
       <c r="K24" s="3">
         <v>1936800</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8062600</v>
+        <v>7983600</v>
       </c>
       <c r="E26" s="3">
-        <v>7607200</v>
+        <v>7532600</v>
       </c>
       <c r="F26" s="3">
-        <v>6863200</v>
+        <v>6795900</v>
       </c>
       <c r="G26" s="3">
-        <v>7263000</v>
+        <v>7191800</v>
       </c>
       <c r="H26" s="3">
-        <v>33204000</v>
+        <v>32878400</v>
       </c>
       <c r="I26" s="3">
-        <v>5724100</v>
+        <v>5667900</v>
       </c>
       <c r="J26" s="3">
-        <v>5349100</v>
+        <v>5296600</v>
       </c>
       <c r="K26" s="3">
         <v>4516400</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7858000</v>
+        <v>7780900</v>
       </c>
       <c r="E27" s="3">
-        <v>7413200</v>
+        <v>7340500</v>
       </c>
       <c r="F27" s="3">
-        <v>6691700</v>
+        <v>6626000</v>
       </c>
       <c r="G27" s="3">
-        <v>7052400</v>
+        <v>6983300</v>
       </c>
       <c r="H27" s="3">
-        <v>33001700</v>
+        <v>32678100</v>
       </c>
       <c r="I27" s="3">
-        <v>5498100</v>
+        <v>5444200</v>
       </c>
       <c r="J27" s="3">
-        <v>5074600</v>
+        <v>5024900</v>
       </c>
       <c r="K27" s="3">
         <v>4146400</v>
@@ -1474,19 +1474,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>186900</v>
+        <v>185100</v>
       </c>
       <c r="E29" s="3">
-        <v>157300</v>
+        <v>155800</v>
       </c>
       <c r="F29" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="G29" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="H29" s="3">
-        <v>11339300</v>
+        <v>11228100</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-460100</v>
+        <v>-455600</v>
       </c>
       <c r="E32" s="3">
-        <v>-571300</v>
+        <v>-565700</v>
       </c>
       <c r="F32" s="3">
-        <v>-714500</v>
+        <v>-707500</v>
       </c>
       <c r="G32" s="3">
-        <v>-693200</v>
+        <v>-686400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1255100</v>
+        <v>-1242700</v>
       </c>
       <c r="I32" s="3">
-        <v>-2763300</v>
+        <v>-2736200</v>
       </c>
       <c r="J32" s="3">
-        <v>-2345700</v>
+        <v>-2322700</v>
       </c>
       <c r="K32" s="3">
         <v>-1179400</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8044900</v>
+        <v>7966000</v>
       </c>
       <c r="E33" s="3">
-        <v>7570600</v>
+        <v>7496300</v>
       </c>
       <c r="F33" s="3">
-        <v>6747300</v>
+        <v>6681100</v>
       </c>
       <c r="G33" s="3">
-        <v>7135300</v>
+        <v>7065300</v>
       </c>
       <c r="H33" s="3">
-        <v>44341000</v>
+        <v>43906200</v>
       </c>
       <c r="I33" s="3">
-        <v>5498100</v>
+        <v>5444200</v>
       </c>
       <c r="J33" s="3">
-        <v>5074600</v>
+        <v>5024900</v>
       </c>
       <c r="K33" s="3">
         <v>4146400</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8044900</v>
+        <v>7966000</v>
       </c>
       <c r="E35" s="3">
-        <v>7570600</v>
+        <v>7496300</v>
       </c>
       <c r="F35" s="3">
-        <v>6747300</v>
+        <v>6681100</v>
       </c>
       <c r="G35" s="3">
-        <v>7135300</v>
+        <v>7065300</v>
       </c>
       <c r="H35" s="3">
-        <v>44341000</v>
+        <v>43906200</v>
       </c>
       <c r="I35" s="3">
-        <v>5498100</v>
+        <v>5444200</v>
       </c>
       <c r="J35" s="3">
-        <v>5074600</v>
+        <v>5024900</v>
       </c>
       <c r="K35" s="3">
         <v>4146400</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3322800</v>
+        <v>3290200</v>
       </c>
       <c r="E41" s="3">
-        <v>3713100</v>
+        <v>3676700</v>
       </c>
       <c r="F41" s="3">
-        <v>2988000</v>
+        <v>2958700</v>
       </c>
       <c r="G41" s="3">
-        <v>3077900</v>
+        <v>3047700</v>
       </c>
       <c r="H41" s="3">
-        <v>7785800</v>
+        <v>7709500</v>
       </c>
       <c r="I41" s="3">
-        <v>2607100</v>
+        <v>2581500</v>
       </c>
       <c r="J41" s="3">
-        <v>2322000</v>
+        <v>2299300</v>
       </c>
       <c r="K41" s="3">
         <v>2419900</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>539400</v>
+        <v>534100</v>
       </c>
       <c r="E42" s="3">
-        <v>286300</v>
+        <v>283500</v>
       </c>
       <c r="F42" s="3">
-        <v>145500</v>
+        <v>144100</v>
       </c>
       <c r="G42" s="3">
-        <v>210600</v>
+        <v>208500</v>
       </c>
       <c r="H42" s="3">
-        <v>76900</v>
+        <v>76100</v>
       </c>
       <c r="I42" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="J42" s="3">
-        <v>41400</v>
+        <v>41000</v>
       </c>
       <c r="K42" s="3">
         <v>66600</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4812000</v>
+        <v>4764800</v>
       </c>
       <c r="E43" s="3">
-        <v>4495000</v>
+        <v>4450900</v>
       </c>
       <c r="F43" s="3">
-        <v>4985900</v>
+        <v>4937000</v>
       </c>
       <c r="G43" s="3">
-        <v>4331800</v>
+        <v>4289300</v>
       </c>
       <c r="H43" s="3">
-        <v>5338400</v>
+        <v>5286100</v>
       </c>
       <c r="I43" s="3">
-        <v>4676000</v>
+        <v>4630100</v>
       </c>
       <c r="J43" s="3">
-        <v>3950900</v>
+        <v>3912100</v>
       </c>
       <c r="K43" s="3">
         <v>3760400</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6244500</v>
+        <v>6183300</v>
       </c>
       <c r="E44" s="3">
-        <v>7095000</v>
+        <v>7025500</v>
       </c>
       <c r="F44" s="3">
-        <v>7208600</v>
+        <v>7137900</v>
       </c>
       <c r="G44" s="3">
-        <v>7131700</v>
+        <v>7061800</v>
       </c>
       <c r="H44" s="3">
-        <v>13873100</v>
+        <v>13737000</v>
       </c>
       <c r="I44" s="3">
-        <v>6852500</v>
+        <v>6785300</v>
       </c>
       <c r="J44" s="3">
-        <v>5023800</v>
+        <v>4974500</v>
       </c>
       <c r="K44" s="3">
         <v>5501400</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>230700</v>
+        <v>228400</v>
       </c>
       <c r="E45" s="3">
-        <v>512200</v>
+        <v>507200</v>
       </c>
       <c r="F45" s="3">
-        <v>373800</v>
+        <v>370100</v>
       </c>
       <c r="G45" s="3">
-        <v>217700</v>
+        <v>215500</v>
       </c>
       <c r="H45" s="3">
-        <v>275600</v>
+        <v>272900</v>
       </c>
       <c r="I45" s="3">
-        <v>466100</v>
+        <v>461500</v>
       </c>
       <c r="J45" s="3">
-        <v>270900</v>
+        <v>268200</v>
       </c>
       <c r="K45" s="3">
         <v>407300</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15149400</v>
+        <v>15000800</v>
       </c>
       <c r="E46" s="3">
-        <v>16101600</v>
+        <v>15943700</v>
       </c>
       <c r="F46" s="3">
-        <v>15701800</v>
+        <v>15547800</v>
       </c>
       <c r="G46" s="3">
-        <v>14969600</v>
+        <v>14822800</v>
       </c>
       <c r="H46" s="3">
-        <v>16520400</v>
+        <v>16358400</v>
       </c>
       <c r="I46" s="3">
-        <v>14619500</v>
+        <v>14476100</v>
       </c>
       <c r="J46" s="3">
-        <v>11609000</v>
+        <v>11495100</v>
       </c>
       <c r="K46" s="3">
         <v>12155600</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2611800</v>
+        <v>2586200</v>
       </c>
       <c r="E47" s="3">
-        <v>2436800</v>
+        <v>2412900</v>
       </c>
       <c r="F47" s="3">
-        <v>2507700</v>
+        <v>2483200</v>
       </c>
       <c r="G47" s="3">
-        <v>2911100</v>
+        <v>2882600</v>
       </c>
       <c r="H47" s="3">
-        <v>2809400</v>
+        <v>2781800</v>
       </c>
       <c r="I47" s="3">
-        <v>12005300</v>
+        <v>11887500</v>
       </c>
       <c r="J47" s="3">
-        <v>8544100</v>
+        <v>8460300</v>
       </c>
       <c r="K47" s="3">
         <v>3446200</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5858900</v>
+        <v>5801400</v>
       </c>
       <c r="E48" s="3">
-        <v>5985500</v>
+        <v>5926800</v>
       </c>
       <c r="F48" s="3">
-        <v>6527200</v>
+        <v>6463200</v>
       </c>
       <c r="G48" s="3">
-        <v>6110900</v>
+        <v>6050900</v>
       </c>
       <c r="H48" s="3">
-        <v>11549800</v>
+        <v>11436600</v>
       </c>
       <c r="I48" s="3">
-        <v>4330600</v>
+        <v>4288100</v>
       </c>
       <c r="J48" s="3">
-        <v>3573500</v>
+        <v>3538500</v>
       </c>
       <c r="K48" s="3">
         <v>3998600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>136773000</v>
+        <v>135432000</v>
       </c>
       <c r="E49" s="3">
-        <v>136439000</v>
+        <v>135101000</v>
       </c>
       <c r="F49" s="3">
-        <v>140513000</v>
+        <v>139135000</v>
       </c>
       <c r="G49" s="3">
-        <v>146695000</v>
+        <v>145256000</v>
       </c>
       <c r="H49" s="3">
-        <v>278656000</v>
+        <v>275923000</v>
       </c>
       <c r="I49" s="3">
-        <v>14333200</v>
+        <v>14192600</v>
       </c>
       <c r="J49" s="3">
-        <v>12344700</v>
+        <v>12223700</v>
       </c>
       <c r="K49" s="3">
         <v>14381200</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2096100</v>
+        <v>2075500</v>
       </c>
       <c r="E52" s="3">
-        <v>1910400</v>
+        <v>1891600</v>
       </c>
       <c r="F52" s="3">
-        <v>1544900</v>
+        <v>1529700</v>
       </c>
       <c r="G52" s="3">
-        <v>2421400</v>
+        <v>2397700</v>
       </c>
       <c r="H52" s="3">
-        <v>2420200</v>
+        <v>2396500</v>
       </c>
       <c r="I52" s="3">
-        <v>1759000</v>
+        <v>1741700</v>
       </c>
       <c r="J52" s="3">
-        <v>1207700</v>
+        <v>1195900</v>
       </c>
       <c r="K52" s="3">
         <v>849200</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>162489000</v>
+        <v>160896000</v>
       </c>
       <c r="E54" s="3">
-        <v>162874000</v>
+        <v>161276000</v>
       </c>
       <c r="F54" s="3">
-        <v>166795000</v>
+        <v>165159000</v>
       </c>
       <c r="G54" s="3">
-        <v>173108000</v>
+        <v>171410000</v>
       </c>
       <c r="H54" s="3">
-        <v>166853000</v>
+        <v>165217000</v>
       </c>
       <c r="I54" s="3">
-        <v>47047500</v>
+        <v>46586100</v>
       </c>
       <c r="J54" s="3">
-        <v>37279100</v>
+        <v>36913500</v>
       </c>
       <c r="K54" s="3">
         <v>34830900</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11328600</v>
+        <v>11217500</v>
       </c>
       <c r="E57" s="3">
-        <v>11465800</v>
+        <v>11353400</v>
       </c>
       <c r="F57" s="3">
-        <v>11506100</v>
+        <v>11393200</v>
       </c>
       <c r="G57" s="3">
-        <v>12575400</v>
+        <v>12452100</v>
       </c>
       <c r="H57" s="3">
-        <v>10537300</v>
+        <v>10433900</v>
       </c>
       <c r="I57" s="3">
-        <v>8676600</v>
+        <v>8591500</v>
       </c>
       <c r="J57" s="3">
-        <v>7022900</v>
+        <v>6954000</v>
       </c>
       <c r="K57" s="3">
         <v>7353000</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4178000</v>
+        <v>4137000</v>
       </c>
       <c r="E58" s="3">
-        <v>4189800</v>
+        <v>4148700</v>
       </c>
       <c r="F58" s="3">
-        <v>8384400</v>
+        <v>8302200</v>
       </c>
       <c r="G58" s="3">
-        <v>4441800</v>
+        <v>4398200</v>
       </c>
       <c r="H58" s="3">
-        <v>12303300</v>
+        <v>12182700</v>
       </c>
       <c r="I58" s="3">
-        <v>3557000</v>
+        <v>3522100</v>
       </c>
       <c r="J58" s="3">
-        <v>2596500</v>
+        <v>2571000</v>
       </c>
       <c r="K58" s="3">
         <v>3299800</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2407200</v>
+        <v>2383600</v>
       </c>
       <c r="E59" s="3">
-        <v>2653200</v>
+        <v>2627200</v>
       </c>
       <c r="F59" s="3">
-        <v>2375300</v>
+        <v>2352000</v>
       </c>
       <c r="G59" s="3">
-        <v>2298400</v>
+        <v>2275800</v>
       </c>
       <c r="H59" s="3">
-        <v>2505400</v>
+        <v>2480800</v>
       </c>
       <c r="I59" s="3">
-        <v>1790900</v>
+        <v>1773300</v>
       </c>
       <c r="J59" s="3">
-        <v>1033900</v>
+        <v>1023700</v>
       </c>
       <c r="K59" s="3">
         <v>1019600</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17913800</v>
+        <v>17738200</v>
       </c>
       <c r="E60" s="3">
-        <v>18308900</v>
+        <v>18129400</v>
       </c>
       <c r="F60" s="3">
-        <v>22265700</v>
+        <v>22047400</v>
       </c>
       <c r="G60" s="3">
-        <v>19315600</v>
+        <v>19126200</v>
       </c>
       <c r="H60" s="3">
-        <v>18459200</v>
+        <v>18278100</v>
       </c>
       <c r="I60" s="3">
-        <v>14024500</v>
+        <v>13886900</v>
       </c>
       <c r="J60" s="3">
-        <v>10653200</v>
+        <v>10548700</v>
       </c>
       <c r="K60" s="3">
         <v>11672400</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>42189300</v>
+        <v>41775600</v>
       </c>
       <c r="E61" s="3">
-        <v>47229600</v>
+        <v>46766500</v>
       </c>
       <c r="F61" s="3">
-        <v>44718400</v>
+        <v>44279800</v>
       </c>
       <c r="G61" s="3">
-        <v>51200600</v>
+        <v>50698500</v>
       </c>
       <c r="H61" s="3">
-        <v>52079500</v>
+        <v>51568800</v>
       </c>
       <c r="I61" s="3">
-        <v>19503700</v>
+        <v>19312400</v>
       </c>
       <c r="J61" s="3">
-        <v>17514000</v>
+        <v>17342300</v>
       </c>
       <c r="K61" s="3">
         <v>13016800</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22657300</v>
+        <v>22435100</v>
       </c>
       <c r="E62" s="3">
-        <v>22865500</v>
+        <v>22641200</v>
       </c>
       <c r="F62" s="3">
-        <v>23915900</v>
+        <v>23681300</v>
       </c>
       <c r="G62" s="3">
-        <v>24889400</v>
+        <v>24645300</v>
       </c>
       <c r="H62" s="3">
-        <v>24598400</v>
+        <v>24357200</v>
       </c>
       <c r="I62" s="3">
-        <v>3575900</v>
+        <v>3540800</v>
       </c>
       <c r="J62" s="3">
-        <v>3159500</v>
+        <v>3128500</v>
       </c>
       <c r="K62" s="3">
         <v>2402600</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>83115300</v>
+        <v>82300200</v>
       </c>
       <c r="E66" s="3">
-        <v>88737600</v>
+        <v>87867400</v>
       </c>
       <c r="F66" s="3">
-        <v>91205100</v>
+        <v>90310700</v>
       </c>
       <c r="G66" s="3">
-        <v>95694200</v>
+        <v>94755800</v>
       </c>
       <c r="H66" s="3">
-        <v>94981000</v>
+        <v>94049500</v>
       </c>
       <c r="I66" s="3">
-        <v>37369000</v>
+        <v>37002500</v>
       </c>
       <c r="J66" s="3">
-        <v>31490000</v>
+        <v>31181200</v>
       </c>
       <c r="K66" s="3">
         <v>27496500</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>90399600</v>
+        <v>89513100</v>
       </c>
       <c r="E72" s="3">
-        <v>87864600</v>
+        <v>87003000</v>
       </c>
       <c r="F72" s="3">
-        <v>85858400</v>
+        <v>85016500</v>
       </c>
       <c r="G72" s="3">
-        <v>83852200</v>
+        <v>83029900</v>
       </c>
       <c r="H72" s="3">
-        <v>121556000</v>
+        <v>120364000</v>
       </c>
       <c r="I72" s="3">
-        <v>8981800</v>
+        <v>8893700</v>
       </c>
       <c r="J72" s="3">
-        <v>5097100</v>
+        <v>5047100</v>
       </c>
       <c r="K72" s="3">
         <v>6561000</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>79373800</v>
+        <v>78595400</v>
       </c>
       <c r="E76" s="3">
-        <v>74135900</v>
+        <v>73408900</v>
       </c>
       <c r="F76" s="3">
-        <v>75589700</v>
+        <v>74848400</v>
       </c>
       <c r="G76" s="3">
-        <v>77413700</v>
+        <v>76654600</v>
       </c>
       <c r="H76" s="3">
-        <v>71871800</v>
+        <v>71167000</v>
       </c>
       <c r="I76" s="3">
-        <v>9678500</v>
+        <v>9583600</v>
       </c>
       <c r="J76" s="3">
-        <v>5789100</v>
+        <v>5732300</v>
       </c>
       <c r="K76" s="3">
         <v>7334400</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8044900</v>
+        <v>7966000</v>
       </c>
       <c r="E81" s="3">
-        <v>7570600</v>
+        <v>7496300</v>
       </c>
       <c r="F81" s="3">
-        <v>6747300</v>
+        <v>6681100</v>
       </c>
       <c r="G81" s="3">
-        <v>7135300</v>
+        <v>7065300</v>
       </c>
       <c r="H81" s="3">
-        <v>44341000</v>
+        <v>43906200</v>
       </c>
       <c r="I81" s="3">
-        <v>5498100</v>
+        <v>5444200</v>
       </c>
       <c r="J81" s="3">
-        <v>5074600</v>
+        <v>5024900</v>
       </c>
       <c r="K81" s="3">
         <v>4146400</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1272800</v>
+        <v>1260300</v>
       </c>
       <c r="E83" s="3">
-        <v>1536600</v>
+        <v>1521500</v>
       </c>
       <c r="F83" s="3">
-        <v>1714000</v>
+        <v>1697200</v>
       </c>
       <c r="G83" s="3">
-        <v>1171100</v>
+        <v>1159600</v>
       </c>
       <c r="H83" s="3">
-        <v>966400</v>
+        <v>957000</v>
       </c>
       <c r="I83" s="3">
-        <v>718000</v>
+        <v>711000</v>
       </c>
       <c r="J83" s="3">
-        <v>506300</v>
+        <v>501300</v>
       </c>
       <c r="K83" s="3">
         <v>696200</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11494200</v>
+        <v>11381500</v>
       </c>
       <c r="E89" s="3">
-        <v>11575900</v>
+        <v>11462300</v>
       </c>
       <c r="F89" s="3">
-        <v>10641400</v>
+        <v>10537000</v>
       </c>
       <c r="G89" s="3">
-        <v>12178000</v>
+        <v>12058500</v>
       </c>
       <c r="H89" s="3">
-        <v>6325000</v>
+        <v>6262900</v>
       </c>
       <c r="I89" s="3">
-        <v>5453200</v>
+        <v>5399700</v>
       </c>
       <c r="J89" s="3">
-        <v>5583300</v>
+        <v>5528500</v>
       </c>
       <c r="K89" s="3">
         <v>4946400</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-623400</v>
+        <v>-617300</v>
       </c>
       <c r="E91" s="3">
-        <v>-604500</v>
+        <v>-598500</v>
       </c>
       <c r="F91" s="3">
-        <v>-785400</v>
+        <v>-777700</v>
       </c>
       <c r="G91" s="3">
-        <v>-896600</v>
+        <v>-887800</v>
       </c>
       <c r="H91" s="3">
-        <v>-935700</v>
+        <v>-926500</v>
       </c>
       <c r="I91" s="3">
-        <v>-693200</v>
+        <v>-686400</v>
       </c>
       <c r="J91" s="3">
-        <v>-571300</v>
+        <v>-565700</v>
       </c>
       <c r="K91" s="3">
         <v>-704200</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1348500</v>
+        <v>-1335300</v>
       </c>
       <c r="E94" s="3">
-        <v>-926200</v>
+        <v>-917100</v>
       </c>
       <c r="F94" s="3">
-        <v>-755900</v>
+        <v>-748500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1207700</v>
+        <v>-1195900</v>
       </c>
       <c r="H94" s="3">
-        <v>-21935700</v>
+        <v>-21720600</v>
       </c>
       <c r="I94" s="3">
-        <v>-757100</v>
+        <v>-749600</v>
       </c>
       <c r="J94" s="3">
-        <v>-4721000</v>
+        <v>-4674700</v>
       </c>
       <c r="K94" s="3">
         <v>-625600</v>
@@ -3765,25 +3765,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5800900</v>
+        <v>-5744100</v>
       </c>
       <c r="E96" s="3">
-        <v>-5612900</v>
+        <v>-5557800</v>
       </c>
       <c r="F96" s="3">
-        <v>-5439000</v>
+        <v>-5385600</v>
       </c>
       <c r="G96" s="3">
-        <v>-5142100</v>
+        <v>-5091600</v>
       </c>
       <c r="H96" s="3">
-        <v>-4098700</v>
+        <v>-4058600</v>
       </c>
       <c r="I96" s="3">
-        <v>-3442200</v>
+        <v>-3408500</v>
       </c>
       <c r="J96" s="3">
-        <v>-3276600</v>
+        <v>-3244500</v>
       </c>
       <c r="K96" s="3">
         <v>-3609900</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10349200</v>
+        <v>-10247700</v>
       </c>
       <c r="E100" s="3">
-        <v>-9341400</v>
+        <v>-9249800</v>
       </c>
       <c r="F100" s="3">
-        <v>-10164700</v>
+        <v>-10065000</v>
       </c>
       <c r="G100" s="3">
-        <v>-11391300</v>
+        <v>-11279600</v>
       </c>
       <c r="H100" s="3">
-        <v>17458400</v>
+        <v>17287200</v>
       </c>
       <c r="I100" s="3">
-        <v>-5002500</v>
+        <v>-4953400</v>
       </c>
       <c r="J100" s="3">
-        <v>-259100</v>
+        <v>-256500</v>
       </c>
       <c r="K100" s="3">
         <v>-4614900</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-299300</v>
+        <v>-296300</v>
       </c>
       <c r="E101" s="3">
-        <v>-299300</v>
+        <v>-296300</v>
       </c>
       <c r="F101" s="3">
-        <v>-67400</v>
+        <v>-66800</v>
       </c>
       <c r="G101" s="3">
-        <v>-163200</v>
+        <v>-161600</v>
       </c>
       <c r="H101" s="3">
-        <v>-462500</v>
+        <v>-458000</v>
       </c>
       <c r="I101" s="3">
-        <v>212900</v>
+        <v>210800</v>
       </c>
       <c r="J101" s="3">
-        <v>-321700</v>
+        <v>-318600</v>
       </c>
       <c r="K101" s="3">
         <v>-83900</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-502700</v>
+        <v>-497800</v>
       </c>
       <c r="E102" s="3">
-        <v>1009000</v>
+        <v>999100</v>
       </c>
       <c r="F102" s="3">
-        <v>-346600</v>
+        <v>-343200</v>
       </c>
       <c r="G102" s="3">
-        <v>-584400</v>
+        <v>-578600</v>
       </c>
       <c r="H102" s="3">
-        <v>1385200</v>
+        <v>1371600</v>
       </c>
       <c r="I102" s="3">
-        <v>-93400</v>
+        <v>-92500</v>
       </c>
       <c r="J102" s="3">
-        <v>281500</v>
+        <v>278800</v>
       </c>
       <c r="K102" s="3">
         <v>-378000</v>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>BTI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30083700</v>
+        <v>32978900</v>
       </c>
       <c r="E8" s="3">
-        <v>30191400</v>
+        <v>30628400</v>
       </c>
       <c r="F8" s="3">
-        <v>30309700</v>
+        <v>30738100</v>
       </c>
       <c r="G8" s="3">
-        <v>28687500</v>
+        <v>30858600</v>
       </c>
       <c r="H8" s="3">
-        <v>22915300</v>
+        <v>29207000</v>
       </c>
       <c r="I8" s="3">
-        <v>16550500</v>
+        <v>23330300</v>
       </c>
       <c r="J8" s="3">
+        <v>16850200</v>
+      </c>
+      <c r="K8" s="3">
         <v>15348700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18596800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20317200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19637800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>20277200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5132600</v>
+        <v>5430700</v>
       </c>
       <c r="E9" s="3">
-        <v>4846800</v>
+        <v>5225600</v>
       </c>
       <c r="F9" s="3">
-        <v>5197100</v>
+        <v>4934600</v>
       </c>
       <c r="G9" s="3">
-        <v>5329400</v>
+        <v>5291200</v>
       </c>
       <c r="H9" s="3">
-        <v>5895200</v>
+        <v>5425900</v>
       </c>
       <c r="I9" s="3">
-        <v>4372500</v>
+        <v>6001900</v>
       </c>
       <c r="J9" s="3">
+        <v>4451600</v>
+      </c>
+      <c r="K9" s="3">
         <v>3552600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4033200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4317700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4281800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4511300</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24951000</v>
+        <v>27548200</v>
       </c>
       <c r="E10" s="3">
-        <v>25344600</v>
+        <v>25402800</v>
       </c>
       <c r="F10" s="3">
-        <v>25112700</v>
+        <v>25803500</v>
       </c>
       <c r="G10" s="3">
-        <v>23358100</v>
+        <v>25567400</v>
       </c>
       <c r="H10" s="3">
-        <v>17020200</v>
+        <v>23781000</v>
       </c>
       <c r="I10" s="3">
-        <v>12178000</v>
+        <v>17328400</v>
       </c>
       <c r="J10" s="3">
+        <v>12398500</v>
+      </c>
+      <c r="K10" s="3">
         <v>11796200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14563600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15999400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>15356000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15765900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,47 +864,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>165200</v>
+        <v>164600</v>
       </c>
       <c r="E12" s="3">
-        <v>141700</v>
+        <v>168100</v>
       </c>
       <c r="F12" s="3">
-        <v>147600</v>
+        <v>144300</v>
       </c>
       <c r="G12" s="3">
-        <v>123000</v>
+        <v>150300</v>
       </c>
       <c r="H12" s="3">
-        <v>93700</v>
+        <v>125200</v>
       </c>
       <c r="I12" s="3">
-        <v>62100</v>
+        <v>95400</v>
       </c>
       <c r="J12" s="3">
+        <v>63200</v>
+      </c>
+      <c r="K12" s="3">
         <v>70300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>98500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>121200</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>106700</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,87 +945,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1012000</v>
+        <v>1268800</v>
       </c>
       <c r="E14" s="3">
-        <v>892500</v>
+        <v>1030300</v>
       </c>
       <c r="F14" s="3">
-        <v>892500</v>
+        <v>908700</v>
       </c>
       <c r="G14" s="3">
-        <v>376000</v>
+        <v>908700</v>
       </c>
       <c r="H14" s="3">
-        <v>-26395200</v>
+        <v>382800</v>
       </c>
       <c r="I14" s="3">
-        <v>824600</v>
+        <v>-26873200</v>
       </c>
       <c r="J14" s="3">
+        <v>839500</v>
+      </c>
+      <c r="K14" s="3">
         <v>549300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1099500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>358100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>46500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>686000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1111600</v>
+        <v>1163900</v>
       </c>
       <c r="E15" s="3">
-        <v>1276700</v>
+        <v>1131700</v>
       </c>
       <c r="F15" s="3">
-        <v>1470000</v>
+        <v>1299800</v>
       </c>
       <c r="G15" s="3">
-        <v>1159600</v>
+        <v>1496600</v>
       </c>
       <c r="H15" s="3">
-        <v>957000</v>
+        <v>1180600</v>
       </c>
       <c r="I15" s="3">
-        <v>1270900</v>
+        <v>974300</v>
       </c>
       <c r="J15" s="3">
+        <v>1293900</v>
+      </c>
+      <c r="K15" s="3">
         <v>473200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>640300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>589800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>764100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>679500</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18096600</v>
+        <v>20430100</v>
       </c>
       <c r="E17" s="3">
-        <v>18689300</v>
+        <v>18424300</v>
       </c>
       <c r="F17" s="3">
-        <v>19749300</v>
+        <v>19027700</v>
       </c>
       <c r="G17" s="3">
-        <v>17726500</v>
+        <v>20106900</v>
       </c>
       <c r="H17" s="3">
-        <v>-11693100</v>
+        <v>18047400</v>
       </c>
       <c r="I17" s="3">
-        <v>11216400</v>
+        <v>-11904800</v>
       </c>
       <c r="J17" s="3">
+        <v>11419500</v>
+      </c>
+      <c r="K17" s="3">
         <v>10132900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12540300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12959800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12692800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14060700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11987100</v>
+        <v>12548800</v>
       </c>
       <c r="E18" s="3">
-        <v>11502200</v>
+        <v>12204100</v>
       </c>
       <c r="F18" s="3">
-        <v>10560400</v>
+        <v>11710400</v>
       </c>
       <c r="G18" s="3">
-        <v>10961000</v>
+        <v>10751700</v>
       </c>
       <c r="H18" s="3">
-        <v>34608400</v>
+        <v>11159500</v>
       </c>
       <c r="I18" s="3">
-        <v>5334100</v>
+        <v>35235100</v>
       </c>
       <c r="J18" s="3">
+        <v>5430700</v>
+      </c>
+      <c r="K18" s="3">
         <v>5215800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6056500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7357300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6945000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6216600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,203 +1149,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>455600</v>
+        <v>510400</v>
       </c>
       <c r="E20" s="3">
-        <v>565700</v>
+        <v>463900</v>
       </c>
       <c r="F20" s="3">
-        <v>707500</v>
+        <v>576000</v>
       </c>
       <c r="G20" s="3">
-        <v>686400</v>
+        <v>720300</v>
       </c>
       <c r="H20" s="3">
-        <v>1242700</v>
+        <v>698800</v>
       </c>
       <c r="I20" s="3">
-        <v>2736200</v>
+        <v>1265300</v>
       </c>
       <c r="J20" s="3">
+        <v>2785700</v>
+      </c>
+      <c r="K20" s="3">
         <v>2322700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1179400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1181000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1782800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1023100</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13664600</v>
+        <v>14604600</v>
       </c>
       <c r="E21" s="3">
-        <v>13543000</v>
+        <v>13942200</v>
       </c>
       <c r="F21" s="3">
-        <v>12913400</v>
+        <v>13824700</v>
       </c>
       <c r="G21" s="3">
-        <v>12771700</v>
+        <v>13187900</v>
       </c>
       <c r="H21" s="3">
-        <v>36778900</v>
+        <v>13030700</v>
       </c>
       <c r="I21" s="3">
-        <v>8759600</v>
+        <v>37467800</v>
       </c>
       <c r="J21" s="3">
+        <v>8935200</v>
+      </c>
+      <c r="K21" s="3">
         <v>8024500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7933500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9175300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9345300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8311500</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1710100</v>
+        <v>1940200</v>
       </c>
       <c r="E22" s="3">
-        <v>1910400</v>
+        <v>1741100</v>
       </c>
       <c r="F22" s="3">
-        <v>2000600</v>
+        <v>1945000</v>
       </c>
       <c r="G22" s="3">
-        <v>1865900</v>
+        <v>2036800</v>
       </c>
       <c r="H22" s="3">
-        <v>1266200</v>
+        <v>1899700</v>
       </c>
       <c r="I22" s="3">
-        <v>755500</v>
+        <v>1289100</v>
       </c>
       <c r="J22" s="3">
+        <v>769200</v>
+      </c>
+      <c r="K22" s="3">
         <v>680500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>782700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>817500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1498400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>746600</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10732600</v>
+        <v>11119000</v>
       </c>
       <c r="E23" s="3">
-        <v>10157500</v>
+        <v>10927000</v>
       </c>
       <c r="F23" s="3">
-        <v>9267300</v>
+        <v>10341400</v>
       </c>
       <c r="G23" s="3">
-        <v>9781500</v>
+        <v>9435100</v>
       </c>
       <c r="H23" s="3">
-        <v>34585000</v>
+        <v>9958700</v>
       </c>
       <c r="I23" s="3">
-        <v>7314800</v>
+        <v>35211200</v>
       </c>
       <c r="J23" s="3">
+        <v>7447200</v>
+      </c>
+      <c r="K23" s="3">
         <v>6858000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6453200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7720800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7229400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6493100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2749000</v>
+        <v>2955000</v>
       </c>
       <c r="E24" s="3">
-        <v>2624900</v>
+        <v>2798800</v>
       </c>
       <c r="F24" s="3">
-        <v>2471400</v>
+        <v>2672400</v>
       </c>
       <c r="G24" s="3">
-        <v>2589700</v>
+        <v>2516200</v>
       </c>
       <c r="H24" s="3">
-        <v>1706600</v>
+        <v>2636600</v>
       </c>
       <c r="I24" s="3">
-        <v>1646800</v>
+        <v>1737500</v>
       </c>
       <c r="J24" s="3">
+        <v>1676700</v>
+      </c>
+      <c r="K24" s="3">
         <v>1561300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1936800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2130200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1959900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2048900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7983600</v>
+        <v>8163900</v>
       </c>
       <c r="E26" s="3">
-        <v>7532600</v>
+        <v>8128100</v>
       </c>
       <c r="F26" s="3">
-        <v>6795900</v>
+        <v>7669000</v>
       </c>
       <c r="G26" s="3">
-        <v>7191800</v>
+        <v>6918900</v>
       </c>
       <c r="H26" s="3">
-        <v>32878400</v>
+        <v>7322000</v>
       </c>
       <c r="I26" s="3">
-        <v>5667900</v>
+        <v>33473800</v>
       </c>
       <c r="J26" s="3">
+        <v>5770600</v>
+      </c>
+      <c r="K26" s="3">
         <v>5296600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4516400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5590500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5269500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4444200</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7780900</v>
+        <v>7949300</v>
       </c>
       <c r="E27" s="3">
-        <v>7340500</v>
+        <v>7921800</v>
       </c>
       <c r="F27" s="3">
-        <v>6626000</v>
+        <v>7473500</v>
       </c>
       <c r="G27" s="3">
-        <v>6983300</v>
+        <v>6746000</v>
       </c>
       <c r="H27" s="3">
-        <v>32678100</v>
+        <v>7109700</v>
       </c>
       <c r="I27" s="3">
-        <v>5444200</v>
+        <v>33269800</v>
       </c>
       <c r="J27" s="3">
+        <v>5542800</v>
+      </c>
+      <c r="K27" s="3">
         <v>5024900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4146400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5197800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>4908800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4075500</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,32 +1524,35 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>185100</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>155800</v>
+        <v>188400</v>
       </c>
       <c r="F29" s="3">
-        <v>55100</v>
+        <v>158600</v>
       </c>
       <c r="G29" s="3">
-        <v>82000</v>
+        <v>56000</v>
       </c>
       <c r="H29" s="3">
-        <v>11228100</v>
+        <v>83500</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>11431400</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-455600</v>
+        <v>-510400</v>
       </c>
       <c r="E32" s="3">
-        <v>-565700</v>
+        <v>-463900</v>
       </c>
       <c r="F32" s="3">
-        <v>-707500</v>
+        <v>-576000</v>
       </c>
       <c r="G32" s="3">
-        <v>-686400</v>
+        <v>-720300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1242700</v>
+        <v>-698800</v>
       </c>
       <c r="I32" s="3">
-        <v>-2736200</v>
+        <v>-1265300</v>
       </c>
       <c r="J32" s="3">
+        <v>-2785700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2322700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1179400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1181000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1782800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1023100</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7966000</v>
+        <v>7949300</v>
       </c>
       <c r="E33" s="3">
-        <v>7496300</v>
+        <v>8110300</v>
       </c>
       <c r="F33" s="3">
-        <v>6681100</v>
+        <v>7632100</v>
       </c>
       <c r="G33" s="3">
-        <v>7065300</v>
+        <v>6802100</v>
       </c>
       <c r="H33" s="3">
-        <v>43906200</v>
+        <v>7193200</v>
       </c>
       <c r="I33" s="3">
-        <v>5444200</v>
+        <v>44701200</v>
       </c>
       <c r="J33" s="3">
+        <v>5542800</v>
+      </c>
+      <c r="K33" s="3">
         <v>5024900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4146400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5197800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4908800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4075500</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7966000</v>
+        <v>7949300</v>
       </c>
       <c r="E35" s="3">
-        <v>7496300</v>
+        <v>8110300</v>
       </c>
       <c r="F35" s="3">
-        <v>6681100</v>
+        <v>7632100</v>
       </c>
       <c r="G35" s="3">
-        <v>7065300</v>
+        <v>6802100</v>
       </c>
       <c r="H35" s="3">
-        <v>43906200</v>
+        <v>7193200</v>
       </c>
       <c r="I35" s="3">
-        <v>5444200</v>
+        <v>44701200</v>
       </c>
       <c r="J35" s="3">
+        <v>5542800</v>
+      </c>
+      <c r="K35" s="3">
         <v>5024900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4146400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5197800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4908800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4075500</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,359 +1904,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3290200</v>
+        <v>4109400</v>
       </c>
       <c r="E41" s="3">
-        <v>3676700</v>
+        <v>3349800</v>
       </c>
       <c r="F41" s="3">
-        <v>2958700</v>
+        <v>3743300</v>
       </c>
       <c r="G41" s="3">
-        <v>3047700</v>
+        <v>3012300</v>
       </c>
       <c r="H41" s="3">
-        <v>7709500</v>
+        <v>3102900</v>
       </c>
       <c r="I41" s="3">
-        <v>2581500</v>
+        <v>7849100</v>
       </c>
       <c r="J41" s="3">
+        <v>2628300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2299300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2419900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2803900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1263100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1277300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>534100</v>
+        <v>690500</v>
       </c>
       <c r="E42" s="3">
-        <v>283500</v>
+        <v>543800</v>
       </c>
       <c r="F42" s="3">
-        <v>144100</v>
+        <v>288600</v>
       </c>
       <c r="G42" s="3">
-        <v>208500</v>
+        <v>146700</v>
       </c>
       <c r="H42" s="3">
-        <v>76100</v>
+        <v>212300</v>
       </c>
       <c r="I42" s="3">
-        <v>17600</v>
+        <v>77500</v>
       </c>
       <c r="J42" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K42" s="3">
         <v>41000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>66600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>71900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1460900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1686800</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4764800</v>
+        <v>5385400</v>
       </c>
       <c r="E43" s="3">
-        <v>4450900</v>
+        <v>4851100</v>
       </c>
       <c r="F43" s="3">
-        <v>4937000</v>
+        <v>4531500</v>
       </c>
       <c r="G43" s="3">
-        <v>4289300</v>
+        <v>5026400</v>
       </c>
       <c r="H43" s="3">
-        <v>5286100</v>
+        <v>4367000</v>
       </c>
       <c r="I43" s="3">
-        <v>4630100</v>
+        <v>5381800</v>
       </c>
       <c r="J43" s="3">
+        <v>4714000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3912100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3760400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3955600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3650900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3357800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6183300</v>
+        <v>6762700</v>
       </c>
       <c r="E44" s="3">
-        <v>7025500</v>
+        <v>6295300</v>
       </c>
       <c r="F44" s="3">
-        <v>7137900</v>
+        <v>7152700</v>
       </c>
       <c r="G44" s="3">
-        <v>7061800</v>
+        <v>7267200</v>
       </c>
       <c r="H44" s="3">
-        <v>13737000</v>
+        <v>7189600</v>
       </c>
       <c r="I44" s="3">
-        <v>6785300</v>
+        <v>13985800</v>
       </c>
       <c r="J44" s="3">
+        <v>6908200</v>
+      </c>
+      <c r="K44" s="3">
         <v>4974500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5501400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5381500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5204900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4606100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>228400</v>
+        <v>1427400</v>
       </c>
       <c r="E45" s="3">
-        <v>507200</v>
+        <v>232500</v>
       </c>
       <c r="F45" s="3">
-        <v>370100</v>
+        <v>516400</v>
       </c>
       <c r="G45" s="3">
-        <v>215500</v>
+        <v>376800</v>
       </c>
       <c r="H45" s="3">
-        <v>272900</v>
+        <v>219400</v>
       </c>
       <c r="I45" s="3">
-        <v>461500</v>
+        <v>277900</v>
       </c>
       <c r="J45" s="3">
+        <v>469800</v>
+      </c>
+      <c r="K45" s="3">
         <v>268200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>407300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>459300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>296100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>258100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15000800</v>
+        <v>18375400</v>
       </c>
       <c r="E46" s="3">
-        <v>15943700</v>
+        <v>15272500</v>
       </c>
       <c r="F46" s="3">
-        <v>15547800</v>
+        <v>16232400</v>
       </c>
       <c r="G46" s="3">
-        <v>14822800</v>
+        <v>15829400</v>
       </c>
       <c r="H46" s="3">
-        <v>16358400</v>
+        <v>15091200</v>
       </c>
       <c r="I46" s="3">
-        <v>14476100</v>
+        <v>16654600</v>
       </c>
       <c r="J46" s="3">
+        <v>14738200</v>
+      </c>
+      <c r="K46" s="3">
         <v>11495100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12155600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12672300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11875800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11186100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2586200</v>
+        <v>2840600</v>
       </c>
       <c r="E47" s="3">
-        <v>2412900</v>
+        <v>2633100</v>
       </c>
       <c r="F47" s="3">
-        <v>2483200</v>
+        <v>2456600</v>
       </c>
       <c r="G47" s="3">
-        <v>2882600</v>
+        <v>2528100</v>
       </c>
       <c r="H47" s="3">
-        <v>2781800</v>
+        <v>2934800</v>
       </c>
       <c r="I47" s="3">
-        <v>11887500</v>
+        <v>2832200</v>
       </c>
       <c r="J47" s="3">
+        <v>12102800</v>
+      </c>
+      <c r="K47" s="3">
         <v>8460300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3446200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3336500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3349700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3895100</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5801400</v>
+        <v>5803900</v>
       </c>
       <c r="E48" s="3">
-        <v>5926800</v>
+        <v>5906500</v>
       </c>
       <c r="F48" s="3">
-        <v>6463200</v>
+        <v>6034100</v>
       </c>
       <c r="G48" s="3">
-        <v>6050900</v>
+        <v>6580300</v>
       </c>
       <c r="H48" s="3">
-        <v>11436600</v>
+        <v>6160500</v>
       </c>
       <c r="I48" s="3">
-        <v>4288100</v>
+        <v>11643700</v>
       </c>
       <c r="J48" s="3">
+        <v>4365800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3538500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3998600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4201900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4138300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4012300</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>135432000</v>
+        <v>153923000</v>
       </c>
       <c r="E49" s="3">
-        <v>135101000</v>
+        <v>137884000</v>
       </c>
       <c r="F49" s="3">
-        <v>139135000</v>
+        <v>137548000</v>
       </c>
       <c r="G49" s="3">
-        <v>145256000</v>
+        <v>141655000</v>
       </c>
       <c r="H49" s="3">
-        <v>275923000</v>
+        <v>147887000</v>
       </c>
       <c r="I49" s="3">
-        <v>14192600</v>
+        <v>280920000</v>
       </c>
       <c r="J49" s="3">
+        <v>14449600</v>
+      </c>
+      <c r="K49" s="3">
         <v>12223700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14381200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14918300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15138800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15790900</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2075500</v>
+        <v>2162000</v>
       </c>
       <c r="E52" s="3">
-        <v>1891600</v>
+        <v>2113100</v>
       </c>
       <c r="F52" s="3">
-        <v>1529700</v>
+        <v>1925900</v>
       </c>
       <c r="G52" s="3">
-        <v>2397700</v>
+        <v>1557400</v>
       </c>
       <c r="H52" s="3">
-        <v>2396500</v>
+        <v>2441100</v>
       </c>
       <c r="I52" s="3">
-        <v>1741700</v>
+        <v>2439900</v>
       </c>
       <c r="J52" s="3">
+        <v>1773300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1195900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>849200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>660400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>826100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>825600</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>160896000</v>
+        <v>183105000</v>
       </c>
       <c r="E54" s="3">
-        <v>161276000</v>
+        <v>163809000</v>
       </c>
       <c r="F54" s="3">
-        <v>165159000</v>
+        <v>164197000</v>
       </c>
       <c r="G54" s="3">
-        <v>171410000</v>
+        <v>168150000</v>
       </c>
       <c r="H54" s="3">
-        <v>165217000</v>
+        <v>174514000</v>
       </c>
       <c r="I54" s="3">
-        <v>46586100</v>
+        <v>168208000</v>
       </c>
       <c r="J54" s="3">
+        <v>47429700</v>
+      </c>
+      <c r="K54" s="3">
         <v>36913500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34830900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35789400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35328600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35710000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,242 +2528,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11217500</v>
+        <v>12460500</v>
       </c>
       <c r="E57" s="3">
-        <v>11353400</v>
+        <v>11420700</v>
       </c>
       <c r="F57" s="3">
-        <v>11393200</v>
+        <v>11559000</v>
       </c>
       <c r="G57" s="3">
-        <v>12452100</v>
+        <v>11599500</v>
       </c>
       <c r="H57" s="3">
-        <v>10433900</v>
+        <v>12677600</v>
       </c>
       <c r="I57" s="3">
-        <v>8591500</v>
+        <v>10622900</v>
       </c>
       <c r="J57" s="3">
+        <v>8747100</v>
+      </c>
+      <c r="K57" s="3">
         <v>6954000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7353000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7643600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7533200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6813100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4137000</v>
+        <v>4637700</v>
       </c>
       <c r="E58" s="3">
-        <v>4148700</v>
+        <v>4211900</v>
       </c>
       <c r="F58" s="3">
-        <v>8302200</v>
+        <v>4223900</v>
       </c>
       <c r="G58" s="3">
-        <v>4398200</v>
+        <v>8452500</v>
       </c>
       <c r="H58" s="3">
-        <v>12182700</v>
+        <v>4477900</v>
       </c>
       <c r="I58" s="3">
-        <v>3522100</v>
+        <v>12403300</v>
       </c>
       <c r="J58" s="3">
+        <v>3585900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2571000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3299800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2636200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2115000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2325500</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2383600</v>
+        <v>4191700</v>
       </c>
       <c r="E59" s="3">
-        <v>2627200</v>
+        <v>2426800</v>
       </c>
       <c r="F59" s="3">
-        <v>2352000</v>
+        <v>2674800</v>
       </c>
       <c r="G59" s="3">
-        <v>2275800</v>
+        <v>2394600</v>
       </c>
       <c r="H59" s="3">
-        <v>2480800</v>
+        <v>2317000</v>
       </c>
       <c r="I59" s="3">
-        <v>1773300</v>
+        <v>2525700</v>
       </c>
       <c r="J59" s="3">
+        <v>1805500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1023700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1019600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>952000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>877800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1194300</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17738200</v>
+        <v>21289900</v>
       </c>
       <c r="E60" s="3">
-        <v>18129400</v>
+        <v>18059400</v>
       </c>
       <c r="F60" s="3">
-        <v>22047400</v>
+        <v>18457700</v>
       </c>
       <c r="G60" s="3">
-        <v>19126200</v>
+        <v>22446600</v>
       </c>
       <c r="H60" s="3">
-        <v>18278100</v>
+        <v>19472500</v>
       </c>
       <c r="I60" s="3">
-        <v>13886900</v>
+        <v>18609100</v>
       </c>
       <c r="J60" s="3">
+        <v>14138400</v>
+      </c>
+      <c r="K60" s="3">
         <v>10548700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11672400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11231700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10526100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10332900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41775600</v>
+        <v>46181100</v>
       </c>
       <c r="E61" s="3">
-        <v>46766500</v>
+        <v>42532100</v>
       </c>
       <c r="F61" s="3">
-        <v>44279800</v>
+        <v>47613300</v>
       </c>
       <c r="G61" s="3">
-        <v>50698500</v>
+        <v>45081600</v>
       </c>
       <c r="H61" s="3">
-        <v>51568800</v>
+        <v>51616600</v>
       </c>
       <c r="I61" s="3">
-        <v>19312400</v>
+        <v>52502600</v>
       </c>
       <c r="J61" s="3">
+        <v>19662100</v>
+      </c>
+      <c r="K61" s="3">
         <v>17342300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13016800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12935900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11742600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11205900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22435100</v>
+        <v>25349200</v>
       </c>
       <c r="E62" s="3">
-        <v>22641200</v>
+        <v>22841300</v>
       </c>
       <c r="F62" s="3">
-        <v>23681300</v>
+        <v>23051200</v>
       </c>
       <c r="G62" s="3">
-        <v>24645300</v>
+        <v>24110200</v>
       </c>
       <c r="H62" s="3">
-        <v>24357200</v>
+        <v>25091600</v>
       </c>
       <c r="I62" s="3">
-        <v>3540800</v>
+        <v>24798200</v>
       </c>
       <c r="J62" s="3">
+        <v>3605000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3128500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2402600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2388500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3003200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3012800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>82300200</v>
+        <v>93228000</v>
       </c>
       <c r="E66" s="3">
-        <v>87867400</v>
+        <v>83790500</v>
       </c>
       <c r="F66" s="3">
-        <v>90310700</v>
+        <v>89458500</v>
       </c>
       <c r="G66" s="3">
-        <v>94755800</v>
+        <v>91946100</v>
       </c>
       <c r="H66" s="3">
-        <v>94049500</v>
+        <v>96471700</v>
       </c>
       <c r="I66" s="3">
-        <v>37002500</v>
+        <v>95752600</v>
       </c>
       <c r="J66" s="3">
+        <v>37672600</v>
+      </c>
+      <c r="K66" s="3">
         <v>31181200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27496500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26956900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25668700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24955800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>89513100</v>
+        <v>93355600</v>
       </c>
       <c r="E72" s="3">
-        <v>87003000</v>
+        <v>91134000</v>
       </c>
       <c r="F72" s="3">
-        <v>85016500</v>
+        <v>88578500</v>
       </c>
       <c r="G72" s="3">
-        <v>83029900</v>
+        <v>86556000</v>
       </c>
       <c r="H72" s="3">
-        <v>120364000</v>
+        <v>84533500</v>
       </c>
       <c r="I72" s="3">
-        <v>8893700</v>
+        <v>122544000</v>
       </c>
       <c r="J72" s="3">
+        <v>9054700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5047100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6561000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8064300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12568700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12030200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78595400</v>
+        <v>89877100</v>
       </c>
       <c r="E76" s="3">
-        <v>73408900</v>
+        <v>80018600</v>
       </c>
       <c r="F76" s="3">
-        <v>74848400</v>
+        <v>74738200</v>
       </c>
       <c r="G76" s="3">
-        <v>76654600</v>
+        <v>76203800</v>
       </c>
       <c r="H76" s="3">
-        <v>71167000</v>
+        <v>78042600</v>
       </c>
       <c r="I76" s="3">
-        <v>9583600</v>
+        <v>72455700</v>
       </c>
       <c r="J76" s="3">
+        <v>9757100</v>
+      </c>
+      <c r="K76" s="3">
         <v>5732300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7334400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8832500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9659900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10754200</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7966000</v>
+        <v>7949300</v>
       </c>
       <c r="E81" s="3">
-        <v>7496300</v>
+        <v>8110300</v>
       </c>
       <c r="F81" s="3">
-        <v>6681100</v>
+        <v>7632100</v>
       </c>
       <c r="G81" s="3">
-        <v>7065300</v>
+        <v>6802100</v>
       </c>
       <c r="H81" s="3">
-        <v>43906200</v>
+        <v>7193200</v>
       </c>
       <c r="I81" s="3">
-        <v>5444200</v>
+        <v>44701200</v>
       </c>
       <c r="J81" s="3">
+        <v>5542800</v>
+      </c>
+      <c r="K81" s="3">
         <v>5024900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4146400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5197800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4908800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4075500</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1260300</v>
+        <v>1556200</v>
       </c>
       <c r="E83" s="3">
-        <v>1521500</v>
+        <v>1283100</v>
       </c>
       <c r="F83" s="3">
-        <v>1697200</v>
+        <v>1549100</v>
       </c>
       <c r="G83" s="3">
-        <v>1159600</v>
+        <v>1727900</v>
       </c>
       <c r="H83" s="3">
-        <v>957000</v>
+        <v>1180600</v>
       </c>
       <c r="I83" s="3">
-        <v>711000</v>
+        <v>974300</v>
       </c>
       <c r="J83" s="3">
+        <v>723900</v>
+      </c>
+      <c r="K83" s="3">
         <v>501300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>696200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>635100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>614100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1075800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11381500</v>
+        <v>11956100</v>
       </c>
       <c r="E89" s="3">
-        <v>11462300</v>
+        <v>11587600</v>
       </c>
       <c r="F89" s="3">
-        <v>10537000</v>
+        <v>11669900</v>
       </c>
       <c r="G89" s="3">
-        <v>12058500</v>
+        <v>10727800</v>
       </c>
       <c r="H89" s="3">
-        <v>6262900</v>
+        <v>12276900</v>
       </c>
       <c r="I89" s="3">
-        <v>5399700</v>
+        <v>6376400</v>
       </c>
       <c r="J89" s="3">
+        <v>5497500</v>
+      </c>
+      <c r="K89" s="3">
         <v>5528500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4946400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5906100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5723300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6012500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-617300</v>
+        <v>-623700</v>
       </c>
       <c r="E91" s="3">
-        <v>-598500</v>
+        <v>-628500</v>
       </c>
       <c r="F91" s="3">
-        <v>-777700</v>
+        <v>-609400</v>
       </c>
       <c r="G91" s="3">
-        <v>-887800</v>
+        <v>-791800</v>
       </c>
       <c r="H91" s="3">
-        <v>-926500</v>
+        <v>-903900</v>
       </c>
       <c r="I91" s="3">
-        <v>-686400</v>
+        <v>-943300</v>
       </c>
       <c r="J91" s="3">
+        <v>-698800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-565700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-704200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-764200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-858400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-671600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1335300</v>
+        <v>-840700</v>
       </c>
       <c r="E94" s="3">
-        <v>-917100</v>
+        <v>-1359500</v>
       </c>
       <c r="F94" s="3">
-        <v>-748500</v>
+        <v>-933700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1195900</v>
+        <v>-762000</v>
       </c>
       <c r="H94" s="3">
-        <v>-21720600</v>
+        <v>-1217600</v>
       </c>
       <c r="I94" s="3">
-        <v>-749600</v>
+        <v>-22113900</v>
       </c>
       <c r="J94" s="3">
+        <v>-763200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4674700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-625600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-446000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-517100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-937600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,47 +3991,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5744100</v>
+        <v>-5861200</v>
       </c>
       <c r="E96" s="3">
-        <v>-5557800</v>
+        <v>-5848100</v>
       </c>
       <c r="F96" s="3">
-        <v>-5385600</v>
+        <v>-5658500</v>
       </c>
       <c r="G96" s="3">
-        <v>-5091600</v>
+        <v>-5483200</v>
       </c>
       <c r="H96" s="3">
-        <v>-4058600</v>
+        <v>-5183800</v>
       </c>
       <c r="I96" s="3">
-        <v>-3408500</v>
+        <v>-4132000</v>
       </c>
       <c r="J96" s="3">
+        <v>-3470200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3244500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3609900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3476300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3281200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3105000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10247700</v>
+        <v>-10587100</v>
       </c>
       <c r="E100" s="3">
-        <v>-9249800</v>
+        <v>-10433300</v>
       </c>
       <c r="F100" s="3">
-        <v>-10065000</v>
+        <v>-9417300</v>
       </c>
       <c r="G100" s="3">
-        <v>-11279600</v>
+        <v>-10247200</v>
       </c>
       <c r="H100" s="3">
-        <v>17287200</v>
+        <v>-11483900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4953400</v>
+        <v>17600300</v>
       </c>
       <c r="J100" s="3">
+        <v>-5043100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-256500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4614900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5281700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5111800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5329000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-296300</v>
+        <v>514000</v>
       </c>
       <c r="E101" s="3">
-        <v>-296300</v>
+        <v>-301700</v>
       </c>
       <c r="F101" s="3">
-        <v>-66800</v>
+        <v>-301700</v>
       </c>
       <c r="G101" s="3">
-        <v>-161600</v>
+        <v>-68000</v>
       </c>
       <c r="H101" s="3">
-        <v>-458000</v>
+        <v>-164600</v>
       </c>
       <c r="I101" s="3">
-        <v>210800</v>
+        <v>-466300</v>
       </c>
       <c r="J101" s="3">
+        <v>214700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-318600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-83900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-262300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-227500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-63200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-497800</v>
+        <v>1042300</v>
       </c>
       <c r="E102" s="3">
-        <v>999100</v>
+        <v>-506800</v>
       </c>
       <c r="F102" s="3">
-        <v>-343200</v>
+        <v>1017200</v>
       </c>
       <c r="G102" s="3">
-        <v>-578600</v>
+        <v>-349400</v>
       </c>
       <c r="H102" s="3">
-        <v>1371600</v>
+        <v>-589100</v>
       </c>
       <c r="I102" s="3">
-        <v>-92500</v>
+        <v>1396400</v>
       </c>
       <c r="J102" s="3">
+        <v>-94200</v>
+      </c>
+      <c r="K102" s="3">
         <v>278800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-378000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-83900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-133200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-317300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32978900</v>
+        <v>34314300</v>
       </c>
       <c r="E8" s="3">
-        <v>30628400</v>
+        <v>31868700</v>
       </c>
       <c r="F8" s="3">
-        <v>30738100</v>
+        <v>31982900</v>
       </c>
       <c r="G8" s="3">
-        <v>30858600</v>
+        <v>32108200</v>
       </c>
       <c r="H8" s="3">
-        <v>29207000</v>
+        <v>30389700</v>
       </c>
       <c r="I8" s="3">
-        <v>23330300</v>
+        <v>24275000</v>
       </c>
       <c r="J8" s="3">
-        <v>16850200</v>
+        <v>17532500</v>
       </c>
       <c r="K8" s="3">
         <v>15348700</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5430700</v>
+        <v>5960800</v>
       </c>
       <c r="E9" s="3">
-        <v>5225600</v>
+        <v>5704000</v>
       </c>
       <c r="F9" s="3">
-        <v>4934600</v>
+        <v>5134400</v>
       </c>
       <c r="G9" s="3">
-        <v>5291200</v>
+        <v>5505400</v>
       </c>
       <c r="H9" s="3">
-        <v>5425900</v>
+        <v>5645600</v>
       </c>
       <c r="I9" s="3">
-        <v>6001900</v>
+        <v>6244900</v>
       </c>
       <c r="J9" s="3">
-        <v>4451600</v>
+        <v>4631900</v>
       </c>
       <c r="K9" s="3">
         <v>3552600</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>27548200</v>
+        <v>28353500</v>
       </c>
       <c r="E10" s="3">
-        <v>25402800</v>
+        <v>26164700</v>
       </c>
       <c r="F10" s="3">
-        <v>25803500</v>
+        <v>26848400</v>
       </c>
       <c r="G10" s="3">
-        <v>25567400</v>
+        <v>26602800</v>
       </c>
       <c r="H10" s="3">
-        <v>23781000</v>
+        <v>24744000</v>
       </c>
       <c r="I10" s="3">
-        <v>17328400</v>
+        <v>18030100</v>
       </c>
       <c r="J10" s="3">
-        <v>12398500</v>
+        <v>12900600</v>
       </c>
       <c r="K10" s="3">
         <v>11796200</v>
@@ -871,25 +871,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>164600</v>
+        <v>171200</v>
       </c>
       <c r="E12" s="3">
-        <v>168100</v>
+        <v>175000</v>
       </c>
       <c r="F12" s="3">
-        <v>144300</v>
+        <v>150100</v>
       </c>
       <c r="G12" s="3">
-        <v>150300</v>
+        <v>156300</v>
       </c>
       <c r="H12" s="3">
-        <v>125200</v>
+        <v>130300</v>
       </c>
       <c r="I12" s="3">
-        <v>95400</v>
+        <v>99300</v>
       </c>
       <c r="J12" s="3">
-        <v>63200</v>
+        <v>65800</v>
       </c>
       <c r="K12" s="3">
         <v>70300</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1268800</v>
+        <v>1010000</v>
       </c>
       <c r="E14" s="3">
-        <v>1030300</v>
+        <v>805300</v>
       </c>
       <c r="F14" s="3">
-        <v>908700</v>
+        <v>945500</v>
       </c>
       <c r="G14" s="3">
-        <v>908700</v>
+        <v>945500</v>
       </c>
       <c r="H14" s="3">
-        <v>382800</v>
+        <v>398300</v>
       </c>
       <c r="I14" s="3">
-        <v>-26873200</v>
+        <v>-27961400</v>
       </c>
       <c r="J14" s="3">
-        <v>839500</v>
+        <v>873500</v>
       </c>
       <c r="K14" s="3">
         <v>549300</v>
@@ -997,25 +997,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1163900</v>
+        <v>1211000</v>
       </c>
       <c r="E15" s="3">
-        <v>1131700</v>
+        <v>1177500</v>
       </c>
       <c r="F15" s="3">
-        <v>1299800</v>
+        <v>1352500</v>
       </c>
       <c r="G15" s="3">
-        <v>1496600</v>
+        <v>1557200</v>
       </c>
       <c r="H15" s="3">
-        <v>1180600</v>
+        <v>1228400</v>
       </c>
       <c r="I15" s="3">
-        <v>974300</v>
+        <v>1013700</v>
       </c>
       <c r="J15" s="3">
-        <v>1293900</v>
+        <v>1346300</v>
       </c>
       <c r="K15" s="3">
         <v>473200</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20430100</v>
+        <v>21257400</v>
       </c>
       <c r="E17" s="3">
-        <v>18424300</v>
+        <v>19170400</v>
       </c>
       <c r="F17" s="3">
-        <v>19027700</v>
+        <v>19798200</v>
       </c>
       <c r="G17" s="3">
-        <v>20106900</v>
+        <v>20921100</v>
       </c>
       <c r="H17" s="3">
-        <v>18047400</v>
+        <v>18778300</v>
       </c>
       <c r="I17" s="3">
-        <v>-11904800</v>
+        <v>-12386900</v>
       </c>
       <c r="J17" s="3">
-        <v>11419500</v>
+        <v>11881900</v>
       </c>
       <c r="K17" s="3">
         <v>10132900</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12548800</v>
+        <v>13056900</v>
       </c>
       <c r="E18" s="3">
-        <v>12204100</v>
+        <v>12698300</v>
       </c>
       <c r="F18" s="3">
-        <v>11710400</v>
+        <v>12184700</v>
       </c>
       <c r="G18" s="3">
-        <v>10751700</v>
+        <v>11187100</v>
       </c>
       <c r="H18" s="3">
-        <v>11159500</v>
+        <v>11611400</v>
       </c>
       <c r="I18" s="3">
-        <v>35235100</v>
+        <v>36661900</v>
       </c>
       <c r="J18" s="3">
-        <v>5430700</v>
+        <v>5650600</v>
       </c>
       <c r="K18" s="3">
         <v>5215800</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>510400</v>
+        <v>531100</v>
       </c>
       <c r="E20" s="3">
-        <v>463900</v>
+        <v>482700</v>
       </c>
       <c r="F20" s="3">
-        <v>576000</v>
+        <v>599300</v>
       </c>
       <c r="G20" s="3">
-        <v>720300</v>
+        <v>749400</v>
       </c>
       <c r="H20" s="3">
-        <v>698800</v>
+        <v>727100</v>
       </c>
       <c r="I20" s="3">
-        <v>1265300</v>
+        <v>1316500</v>
       </c>
       <c r="J20" s="3">
-        <v>2785700</v>
+        <v>2898500</v>
       </c>
       <c r="K20" s="3">
         <v>2322700</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14604600</v>
+        <v>15217400</v>
       </c>
       <c r="E21" s="3">
-        <v>13942200</v>
+        <v>14524500</v>
       </c>
       <c r="F21" s="3">
-        <v>13824700</v>
+        <v>14405900</v>
       </c>
       <c r="G21" s="3">
-        <v>13187900</v>
+        <v>13745700</v>
       </c>
       <c r="H21" s="3">
-        <v>13030700</v>
+        <v>13574600</v>
       </c>
       <c r="I21" s="3">
-        <v>37467800</v>
+        <v>38998500</v>
       </c>
       <c r="J21" s="3">
-        <v>8935200</v>
+        <v>9307000</v>
       </c>
       <c r="K21" s="3">
         <v>8024500</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1940200</v>
+        <v>2018800</v>
       </c>
       <c r="E22" s="3">
-        <v>1741100</v>
+        <v>1811600</v>
       </c>
       <c r="F22" s="3">
-        <v>1945000</v>
+        <v>2023700</v>
       </c>
       <c r="G22" s="3">
-        <v>2036800</v>
+        <v>2119300</v>
       </c>
       <c r="H22" s="3">
-        <v>1899700</v>
+        <v>1976600</v>
       </c>
       <c r="I22" s="3">
-        <v>1289100</v>
+        <v>1341300</v>
       </c>
       <c r="J22" s="3">
-        <v>769200</v>
+        <v>800300</v>
       </c>
       <c r="K22" s="3">
         <v>680500</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11119000</v>
+        <v>11569200</v>
       </c>
       <c r="E23" s="3">
-        <v>10927000</v>
+        <v>11369500</v>
       </c>
       <c r="F23" s="3">
-        <v>10341400</v>
+        <v>10760200</v>
       </c>
       <c r="G23" s="3">
-        <v>9435100</v>
+        <v>9817200</v>
       </c>
       <c r="H23" s="3">
-        <v>9958700</v>
+        <v>10361900</v>
       </c>
       <c r="I23" s="3">
-        <v>35211200</v>
+        <v>36637100</v>
       </c>
       <c r="J23" s="3">
-        <v>7447200</v>
+        <v>7748800</v>
       </c>
       <c r="K23" s="3">
         <v>6858000</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2955000</v>
+        <v>3074700</v>
       </c>
       <c r="E24" s="3">
-        <v>2798800</v>
+        <v>2912200</v>
       </c>
       <c r="F24" s="3">
-        <v>2672400</v>
+        <v>2780600</v>
       </c>
       <c r="G24" s="3">
-        <v>2516200</v>
+        <v>2618100</v>
       </c>
       <c r="H24" s="3">
-        <v>2636600</v>
+        <v>2743400</v>
       </c>
       <c r="I24" s="3">
-        <v>1737500</v>
+        <v>1807800</v>
       </c>
       <c r="J24" s="3">
-        <v>1676700</v>
+        <v>1744600</v>
       </c>
       <c r="K24" s="3">
         <v>1561300</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8163900</v>
+        <v>8494500</v>
       </c>
       <c r="E26" s="3">
-        <v>8128100</v>
+        <v>8457300</v>
       </c>
       <c r="F26" s="3">
-        <v>7669000</v>
+        <v>7979600</v>
       </c>
       <c r="G26" s="3">
-        <v>6918900</v>
+        <v>7199100</v>
       </c>
       <c r="H26" s="3">
-        <v>7322000</v>
+        <v>7618500</v>
       </c>
       <c r="I26" s="3">
-        <v>33473800</v>
+        <v>34829300</v>
       </c>
       <c r="J26" s="3">
-        <v>5770600</v>
+        <v>6004200</v>
       </c>
       <c r="K26" s="3">
         <v>5296600</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7949300</v>
+        <v>8271200</v>
       </c>
       <c r="E27" s="3">
-        <v>7921800</v>
+        <v>8242600</v>
       </c>
       <c r="F27" s="3">
-        <v>7473500</v>
+        <v>7776100</v>
       </c>
       <c r="G27" s="3">
-        <v>6746000</v>
+        <v>7019200</v>
       </c>
       <c r="H27" s="3">
-        <v>7109700</v>
+        <v>7397600</v>
       </c>
       <c r="I27" s="3">
-        <v>33269800</v>
+        <v>34617100</v>
       </c>
       <c r="J27" s="3">
-        <v>5542800</v>
+        <v>5767200</v>
       </c>
       <c r="K27" s="3">
         <v>5024900</v>
@@ -1537,19 +1537,19 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>188400</v>
+        <v>196000</v>
       </c>
       <c r="F29" s="3">
-        <v>158600</v>
+        <v>165000</v>
       </c>
       <c r="G29" s="3">
-        <v>56000</v>
+        <v>58300</v>
       </c>
       <c r="H29" s="3">
-        <v>83500</v>
+        <v>86900</v>
       </c>
       <c r="I29" s="3">
-        <v>11431400</v>
+        <v>11894300</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-510400</v>
+        <v>-531100</v>
       </c>
       <c r="E32" s="3">
-        <v>-463900</v>
+        <v>-482700</v>
       </c>
       <c r="F32" s="3">
-        <v>-576000</v>
+        <v>-599300</v>
       </c>
       <c r="G32" s="3">
-        <v>-720300</v>
+        <v>-749400</v>
       </c>
       <c r="H32" s="3">
-        <v>-698800</v>
+        <v>-727100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1265300</v>
+        <v>-1316500</v>
       </c>
       <c r="J32" s="3">
-        <v>-2785700</v>
+        <v>-2898500</v>
       </c>
       <c r="K32" s="3">
         <v>-2322700</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7949300</v>
+        <v>8271200</v>
       </c>
       <c r="E33" s="3">
-        <v>8110300</v>
+        <v>8438700</v>
       </c>
       <c r="F33" s="3">
-        <v>7632100</v>
+        <v>7941100</v>
       </c>
       <c r="G33" s="3">
-        <v>6802100</v>
+        <v>7077500</v>
       </c>
       <c r="H33" s="3">
-        <v>7193200</v>
+        <v>7484500</v>
       </c>
       <c r="I33" s="3">
-        <v>44701200</v>
+        <v>46511400</v>
       </c>
       <c r="J33" s="3">
-        <v>5542800</v>
+        <v>5767200</v>
       </c>
       <c r="K33" s="3">
         <v>5024900</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7949300</v>
+        <v>8271200</v>
       </c>
       <c r="E35" s="3">
-        <v>8110300</v>
+        <v>8438700</v>
       </c>
       <c r="F35" s="3">
-        <v>7632100</v>
+        <v>7941100</v>
       </c>
       <c r="G35" s="3">
-        <v>6802100</v>
+        <v>7077500</v>
       </c>
       <c r="H35" s="3">
-        <v>7193200</v>
+        <v>7484500</v>
       </c>
       <c r="I35" s="3">
-        <v>44701200</v>
+        <v>46511400</v>
       </c>
       <c r="J35" s="3">
-        <v>5542800</v>
+        <v>5767200</v>
       </c>
       <c r="K35" s="3">
         <v>5024900</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4109400</v>
+        <v>4275800</v>
       </c>
       <c r="E41" s="3">
-        <v>3349800</v>
+        <v>3485400</v>
       </c>
       <c r="F41" s="3">
-        <v>3743300</v>
+        <v>3894900</v>
       </c>
       <c r="G41" s="3">
-        <v>3012300</v>
+        <v>3134300</v>
       </c>
       <c r="H41" s="3">
-        <v>3102900</v>
+        <v>3228600</v>
       </c>
       <c r="I41" s="3">
-        <v>7849100</v>
+        <v>8166900</v>
       </c>
       <c r="J41" s="3">
-        <v>2628300</v>
+        <v>2734700</v>
       </c>
       <c r="K41" s="3">
         <v>2299300</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>690500</v>
+        <v>718400</v>
       </c>
       <c r="E42" s="3">
-        <v>543800</v>
+        <v>565800</v>
       </c>
       <c r="F42" s="3">
-        <v>288600</v>
+        <v>300300</v>
       </c>
       <c r="G42" s="3">
-        <v>146700</v>
+        <v>152600</v>
       </c>
       <c r="H42" s="3">
-        <v>212300</v>
+        <v>220900</v>
       </c>
       <c r="I42" s="3">
-        <v>77500</v>
+        <v>80700</v>
       </c>
       <c r="J42" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="K42" s="3">
         <v>41000</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5385400</v>
+        <v>5603500</v>
       </c>
       <c r="E43" s="3">
-        <v>4851100</v>
+        <v>5047600</v>
       </c>
       <c r="F43" s="3">
-        <v>4531500</v>
+        <v>4715000</v>
       </c>
       <c r="G43" s="3">
-        <v>5026400</v>
+        <v>5230000</v>
       </c>
       <c r="H43" s="3">
-        <v>4367000</v>
+        <v>4543800</v>
       </c>
       <c r="I43" s="3">
-        <v>5381800</v>
+        <v>5599700</v>
       </c>
       <c r="J43" s="3">
-        <v>4714000</v>
+        <v>4904900</v>
       </c>
       <c r="K43" s="3">
         <v>3912100</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6762700</v>
+        <v>7036600</v>
       </c>
       <c r="E44" s="3">
-        <v>6295300</v>
+        <v>6550200</v>
       </c>
       <c r="F44" s="3">
-        <v>7152700</v>
+        <v>7442300</v>
       </c>
       <c r="G44" s="3">
-        <v>7267200</v>
+        <v>7561400</v>
       </c>
       <c r="H44" s="3">
-        <v>7189600</v>
+        <v>7480800</v>
       </c>
       <c r="I44" s="3">
-        <v>13985800</v>
+        <v>14552100</v>
       </c>
       <c r="J44" s="3">
-        <v>6908200</v>
+        <v>7188000</v>
       </c>
       <c r="K44" s="3">
         <v>4974500</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1427400</v>
+        <v>1485200</v>
       </c>
       <c r="E45" s="3">
-        <v>232500</v>
+        <v>242000</v>
       </c>
       <c r="F45" s="3">
-        <v>516400</v>
+        <v>537300</v>
       </c>
       <c r="G45" s="3">
-        <v>376800</v>
+        <v>392100</v>
       </c>
       <c r="H45" s="3">
-        <v>219400</v>
+        <v>228300</v>
       </c>
       <c r="I45" s="3">
-        <v>277900</v>
+        <v>289100</v>
       </c>
       <c r="J45" s="3">
-        <v>469800</v>
+        <v>488900</v>
       </c>
       <c r="K45" s="3">
         <v>268200</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18375400</v>
+        <v>19119500</v>
       </c>
       <c r="E46" s="3">
-        <v>15272500</v>
+        <v>15890900</v>
       </c>
       <c r="F46" s="3">
-        <v>16232400</v>
+        <v>16889800</v>
       </c>
       <c r="G46" s="3">
-        <v>15829400</v>
+        <v>16470400</v>
       </c>
       <c r="H46" s="3">
-        <v>15091200</v>
+        <v>15702300</v>
       </c>
       <c r="I46" s="3">
-        <v>16654600</v>
+        <v>17329000</v>
       </c>
       <c r="J46" s="3">
-        <v>14738200</v>
+        <v>15335000</v>
       </c>
       <c r="K46" s="3">
         <v>11495100</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2840600</v>
+        <v>2955600</v>
       </c>
       <c r="E47" s="3">
-        <v>2633100</v>
+        <v>2739700</v>
       </c>
       <c r="F47" s="3">
-        <v>2456600</v>
+        <v>2556000</v>
       </c>
       <c r="G47" s="3">
-        <v>2528100</v>
+        <v>2630500</v>
       </c>
       <c r="H47" s="3">
-        <v>2934800</v>
+        <v>3053600</v>
       </c>
       <c r="I47" s="3">
-        <v>2832200</v>
+        <v>2946900</v>
       </c>
       <c r="J47" s="3">
-        <v>12102800</v>
+        <v>12592900</v>
       </c>
       <c r="K47" s="3">
         <v>8460300</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5803900</v>
+        <v>6039000</v>
       </c>
       <c r="E48" s="3">
-        <v>5906500</v>
+        <v>6145700</v>
       </c>
       <c r="F48" s="3">
-        <v>6034100</v>
+        <v>6278400</v>
       </c>
       <c r="G48" s="3">
-        <v>6580300</v>
+        <v>6846700</v>
       </c>
       <c r="H48" s="3">
-        <v>6160500</v>
+        <v>6410000</v>
       </c>
       <c r="I48" s="3">
-        <v>11643700</v>
+        <v>12115200</v>
       </c>
       <c r="J48" s="3">
-        <v>4365800</v>
+        <v>4542600</v>
       </c>
       <c r="K48" s="3">
         <v>3538500</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>153923000</v>
+        <v>160156000</v>
       </c>
       <c r="E49" s="3">
-        <v>137884000</v>
+        <v>143468000</v>
       </c>
       <c r="F49" s="3">
-        <v>137548000</v>
+        <v>143118000</v>
       </c>
       <c r="G49" s="3">
-        <v>141655000</v>
+        <v>147391000</v>
       </c>
       <c r="H49" s="3">
-        <v>147887000</v>
+        <v>153875000</v>
       </c>
       <c r="I49" s="3">
-        <v>280920000</v>
+        <v>292295000</v>
       </c>
       <c r="J49" s="3">
-        <v>14449600</v>
+        <v>15034800</v>
       </c>
       <c r="K49" s="3">
         <v>12223700</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2162000</v>
+        <v>2249600</v>
       </c>
       <c r="E52" s="3">
-        <v>2113100</v>
+        <v>2198700</v>
       </c>
       <c r="F52" s="3">
-        <v>1925900</v>
+        <v>2003900</v>
       </c>
       <c r="G52" s="3">
-        <v>1557400</v>
+        <v>1620500</v>
       </c>
       <c r="H52" s="3">
-        <v>2441100</v>
+        <v>2539900</v>
       </c>
       <c r="I52" s="3">
-        <v>2439900</v>
+        <v>2538700</v>
       </c>
       <c r="J52" s="3">
-        <v>1773300</v>
+        <v>1845100</v>
       </c>
       <c r="K52" s="3">
         <v>1195900</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>183105000</v>
+        <v>190520000</v>
       </c>
       <c r="E54" s="3">
-        <v>163809000</v>
+        <v>170443000</v>
       </c>
       <c r="F54" s="3">
-        <v>164197000</v>
+        <v>170846000</v>
       </c>
       <c r="G54" s="3">
-        <v>168150000</v>
+        <v>174959000</v>
       </c>
       <c r="H54" s="3">
-        <v>174514000</v>
+        <v>181581000</v>
       </c>
       <c r="I54" s="3">
-        <v>168208000</v>
+        <v>175020000</v>
       </c>
       <c r="J54" s="3">
-        <v>47429700</v>
+        <v>49350300</v>
       </c>
       <c r="K54" s="3">
         <v>36913500</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12460500</v>
+        <v>12965100</v>
       </c>
       <c r="E57" s="3">
-        <v>11420700</v>
+        <v>11883100</v>
       </c>
       <c r="F57" s="3">
-        <v>11559000</v>
+        <v>12027100</v>
       </c>
       <c r="G57" s="3">
-        <v>11599500</v>
+        <v>12069300</v>
       </c>
       <c r="H57" s="3">
-        <v>12677600</v>
+        <v>13190900</v>
       </c>
       <c r="I57" s="3">
-        <v>10622900</v>
+        <v>11053000</v>
       </c>
       <c r="J57" s="3">
-        <v>8747100</v>
+        <v>9101300</v>
       </c>
       <c r="K57" s="3">
         <v>6954000</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4637700</v>
+        <v>4825500</v>
       </c>
       <c r="E58" s="3">
-        <v>4211900</v>
+        <v>4382500</v>
       </c>
       <c r="F58" s="3">
-        <v>4223900</v>
+        <v>4394900</v>
       </c>
       <c r="G58" s="3">
-        <v>8452500</v>
+        <v>8794800</v>
       </c>
       <c r="H58" s="3">
-        <v>4477900</v>
+        <v>4659200</v>
       </c>
       <c r="I58" s="3">
-        <v>12403300</v>
+        <v>12905600</v>
       </c>
       <c r="J58" s="3">
-        <v>3585900</v>
+        <v>3731100</v>
       </c>
       <c r="K58" s="3">
         <v>2571000</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4191700</v>
+        <v>4361400</v>
       </c>
       <c r="E59" s="3">
-        <v>2426800</v>
+        <v>2525000</v>
       </c>
       <c r="F59" s="3">
-        <v>2674800</v>
+        <v>2783100</v>
       </c>
       <c r="G59" s="3">
-        <v>2394600</v>
+        <v>2491500</v>
       </c>
       <c r="H59" s="3">
-        <v>2317000</v>
+        <v>2410900</v>
       </c>
       <c r="I59" s="3">
-        <v>2525700</v>
+        <v>2628000</v>
       </c>
       <c r="J59" s="3">
-        <v>1805500</v>
+        <v>1878600</v>
       </c>
       <c r="K59" s="3">
         <v>1023700</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21289900</v>
+        <v>22152000</v>
       </c>
       <c r="E60" s="3">
-        <v>18059400</v>
+        <v>18790700</v>
       </c>
       <c r="F60" s="3">
-        <v>18457700</v>
+        <v>19205100</v>
       </c>
       <c r="G60" s="3">
-        <v>22446600</v>
+        <v>23355600</v>
       </c>
       <c r="H60" s="3">
-        <v>19472500</v>
+        <v>20261000</v>
       </c>
       <c r="I60" s="3">
-        <v>18609100</v>
+        <v>19362700</v>
       </c>
       <c r="J60" s="3">
-        <v>14138400</v>
+        <v>14710900</v>
       </c>
       <c r="K60" s="3">
         <v>10548700</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>46181100</v>
+        <v>48051200</v>
       </c>
       <c r="E61" s="3">
-        <v>42532100</v>
+        <v>44254400</v>
       </c>
       <c r="F61" s="3">
-        <v>47613300</v>
+        <v>49541400</v>
       </c>
       <c r="G61" s="3">
-        <v>45081600</v>
+        <v>46907200</v>
       </c>
       <c r="H61" s="3">
-        <v>51616600</v>
+        <v>53706800</v>
       </c>
       <c r="I61" s="3">
-        <v>52502600</v>
+        <v>54628700</v>
       </c>
       <c r="J61" s="3">
-        <v>19662100</v>
+        <v>20458300</v>
       </c>
       <c r="K61" s="3">
         <v>17342300</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25349200</v>
+        <v>26375700</v>
       </c>
       <c r="E62" s="3">
-        <v>22841300</v>
+        <v>23766300</v>
       </c>
       <c r="F62" s="3">
-        <v>23051200</v>
+        <v>23984700</v>
       </c>
       <c r="G62" s="3">
-        <v>24110200</v>
+        <v>25086500</v>
       </c>
       <c r="H62" s="3">
-        <v>25091600</v>
+        <v>26107700</v>
       </c>
       <c r="I62" s="3">
-        <v>24798200</v>
+        <v>25802400</v>
       </c>
       <c r="J62" s="3">
-        <v>3605000</v>
+        <v>3750900</v>
       </c>
       <c r="K62" s="3">
         <v>3128500</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93228000</v>
+        <v>97003300</v>
       </c>
       <c r="E66" s="3">
-        <v>83790500</v>
+        <v>87183600</v>
       </c>
       <c r="F66" s="3">
-        <v>89458500</v>
+        <v>93081100</v>
       </c>
       <c r="G66" s="3">
-        <v>91946100</v>
+        <v>95669400</v>
       </c>
       <c r="H66" s="3">
-        <v>96471700</v>
+        <v>100378000</v>
       </c>
       <c r="I66" s="3">
-        <v>95752600</v>
+        <v>99630000</v>
       </c>
       <c r="J66" s="3">
-        <v>37672600</v>
+        <v>39198100</v>
       </c>
       <c r="K66" s="3">
         <v>31181200</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>93355600</v>
+        <v>97136000</v>
       </c>
       <c r="E72" s="3">
-        <v>91134000</v>
+        <v>94824400</v>
       </c>
       <c r="F72" s="3">
-        <v>88578500</v>
+        <v>92165400</v>
       </c>
       <c r="G72" s="3">
-        <v>86556000</v>
+        <v>90061000</v>
       </c>
       <c r="H72" s="3">
-        <v>84533500</v>
+        <v>87956600</v>
       </c>
       <c r="I72" s="3">
-        <v>122544000</v>
+        <v>127506000</v>
       </c>
       <c r="J72" s="3">
-        <v>9054700</v>
+        <v>9421400</v>
       </c>
       <c r="K72" s="3">
         <v>5047100</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>89877100</v>
+        <v>93516600</v>
       </c>
       <c r="E76" s="3">
-        <v>80018600</v>
+        <v>83258900</v>
       </c>
       <c r="F76" s="3">
-        <v>74738200</v>
+        <v>77764700</v>
       </c>
       <c r="G76" s="3">
-        <v>76203800</v>
+        <v>79289600</v>
       </c>
       <c r="H76" s="3">
-        <v>78042600</v>
+        <v>81202900</v>
       </c>
       <c r="I76" s="3">
-        <v>72455700</v>
+        <v>75389800</v>
       </c>
       <c r="J76" s="3">
-        <v>9757100</v>
+        <v>10152200</v>
       </c>
       <c r="K76" s="3">
         <v>5732300</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7949300</v>
+        <v>8271200</v>
       </c>
       <c r="E81" s="3">
-        <v>8110300</v>
+        <v>8438700</v>
       </c>
       <c r="F81" s="3">
-        <v>7632100</v>
+        <v>7941100</v>
       </c>
       <c r="G81" s="3">
-        <v>6802100</v>
+        <v>7077500</v>
       </c>
       <c r="H81" s="3">
-        <v>7193200</v>
+        <v>7484500</v>
       </c>
       <c r="I81" s="3">
-        <v>44701200</v>
+        <v>46511400</v>
       </c>
       <c r="J81" s="3">
-        <v>5542800</v>
+        <v>5767200</v>
       </c>
       <c r="K81" s="3">
         <v>5024900</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1556200</v>
+        <v>1619200</v>
       </c>
       <c r="E83" s="3">
-        <v>1283100</v>
+        <v>1335100</v>
       </c>
       <c r="F83" s="3">
-        <v>1549100</v>
+        <v>1611800</v>
       </c>
       <c r="G83" s="3">
-        <v>1727900</v>
+        <v>1797900</v>
       </c>
       <c r="H83" s="3">
-        <v>1180600</v>
+        <v>1228400</v>
       </c>
       <c r="I83" s="3">
-        <v>974300</v>
+        <v>1013700</v>
       </c>
       <c r="J83" s="3">
-        <v>723900</v>
+        <v>753200</v>
       </c>
       <c r="K83" s="3">
         <v>501300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11956100</v>
+        <v>12440300</v>
       </c>
       <c r="E89" s="3">
-        <v>11587600</v>
+        <v>12056900</v>
       </c>
       <c r="F89" s="3">
-        <v>11669900</v>
+        <v>12142500</v>
       </c>
       <c r="G89" s="3">
-        <v>10727800</v>
+        <v>11162200</v>
       </c>
       <c r="H89" s="3">
-        <v>12276900</v>
+        <v>12774000</v>
       </c>
       <c r="I89" s="3">
-        <v>6376400</v>
+        <v>6634600</v>
       </c>
       <c r="J89" s="3">
-        <v>5497500</v>
+        <v>5720100</v>
       </c>
       <c r="K89" s="3">
         <v>5528500</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-623700</v>
+        <v>-648900</v>
       </c>
       <c r="E91" s="3">
-        <v>-628500</v>
+        <v>-653900</v>
       </c>
       <c r="F91" s="3">
-        <v>-609400</v>
+        <v>-634000</v>
       </c>
       <c r="G91" s="3">
-        <v>-791800</v>
+        <v>-823900</v>
       </c>
       <c r="H91" s="3">
-        <v>-903900</v>
+        <v>-940500</v>
       </c>
       <c r="I91" s="3">
-        <v>-943300</v>
+        <v>-981500</v>
       </c>
       <c r="J91" s="3">
-        <v>-698800</v>
+        <v>-727100</v>
       </c>
       <c r="K91" s="3">
         <v>-565700</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-840700</v>
+        <v>-874800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1359500</v>
+        <v>-1414500</v>
       </c>
       <c r="F94" s="3">
-        <v>-933700</v>
+        <v>-971500</v>
       </c>
       <c r="G94" s="3">
-        <v>-762000</v>
+        <v>-792900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1217600</v>
+        <v>-1266900</v>
       </c>
       <c r="I94" s="3">
-        <v>-22113900</v>
+        <v>-23009400</v>
       </c>
       <c r="J94" s="3">
-        <v>-763200</v>
+        <v>-794100</v>
       </c>
       <c r="K94" s="3">
         <v>-4674700</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5861200</v>
+        <v>-6098500</v>
       </c>
       <c r="E96" s="3">
-        <v>-5848100</v>
+        <v>-6084900</v>
       </c>
       <c r="F96" s="3">
-        <v>-5658500</v>
+        <v>-5887600</v>
       </c>
       <c r="G96" s="3">
-        <v>-5483200</v>
+        <v>-5705200</v>
       </c>
       <c r="H96" s="3">
-        <v>-5183800</v>
+        <v>-5393800</v>
       </c>
       <c r="I96" s="3">
-        <v>-4132000</v>
+        <v>-4299400</v>
       </c>
       <c r="J96" s="3">
-        <v>-3470200</v>
+        <v>-3610700</v>
       </c>
       <c r="K96" s="3">
         <v>-3244500</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10587100</v>
+        <v>-11015800</v>
       </c>
       <c r="E100" s="3">
-        <v>-10433300</v>
+        <v>-10855800</v>
       </c>
       <c r="F100" s="3">
-        <v>-9417300</v>
+        <v>-9798600</v>
       </c>
       <c r="G100" s="3">
-        <v>-10247200</v>
+        <v>-10662200</v>
       </c>
       <c r="H100" s="3">
-        <v>-11483900</v>
+        <v>-11948900</v>
       </c>
       <c r="I100" s="3">
-        <v>17600300</v>
+        <v>18313000</v>
       </c>
       <c r="J100" s="3">
-        <v>-5043100</v>
+        <v>-5247300</v>
       </c>
       <c r="K100" s="3">
         <v>-256500</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>514000</v>
+        <v>534800</v>
       </c>
       <c r="E101" s="3">
-        <v>-301700</v>
+        <v>-313900</v>
       </c>
       <c r="F101" s="3">
-        <v>-301700</v>
+        <v>-313900</v>
       </c>
       <c r="G101" s="3">
-        <v>-68000</v>
+        <v>-70700</v>
       </c>
       <c r="H101" s="3">
-        <v>-164600</v>
+        <v>-171200</v>
       </c>
       <c r="I101" s="3">
-        <v>-466300</v>
+        <v>-485200</v>
       </c>
       <c r="J101" s="3">
-        <v>214700</v>
+        <v>223300</v>
       </c>
       <c r="K101" s="3">
         <v>-318600</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1042300</v>
+        <v>1084500</v>
       </c>
       <c r="E102" s="3">
-        <v>-506800</v>
+        <v>-527300</v>
       </c>
       <c r="F102" s="3">
-        <v>1017200</v>
+        <v>1058400</v>
       </c>
       <c r="G102" s="3">
-        <v>-349400</v>
+        <v>-363600</v>
       </c>
       <c r="H102" s="3">
-        <v>-589100</v>
+        <v>-613000</v>
       </c>
       <c r="I102" s="3">
-        <v>1396400</v>
+        <v>1453000</v>
       </c>
       <c r="J102" s="3">
-        <v>-94200</v>
+        <v>-98000</v>
       </c>
       <c r="K102" s="3">
         <v>278800</v>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34314300</v>
+        <v>35047200</v>
       </c>
       <c r="E8" s="3">
-        <v>31868700</v>
+        <v>32549300</v>
       </c>
       <c r="F8" s="3">
-        <v>31982900</v>
+        <v>32665900</v>
       </c>
       <c r="G8" s="3">
-        <v>32108200</v>
+        <v>32793900</v>
       </c>
       <c r="H8" s="3">
-        <v>30389700</v>
+        <v>31038700</v>
       </c>
       <c r="I8" s="3">
-        <v>24275000</v>
+        <v>24793500</v>
       </c>
       <c r="J8" s="3">
-        <v>17532500</v>
+        <v>17906900</v>
       </c>
       <c r="K8" s="3">
         <v>15348700</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5960800</v>
+        <v>6088100</v>
       </c>
       <c r="E9" s="3">
-        <v>5704000</v>
+        <v>5825800</v>
       </c>
       <c r="F9" s="3">
-        <v>5134400</v>
+        <v>5244100</v>
       </c>
       <c r="G9" s="3">
-        <v>5505400</v>
+        <v>5623000</v>
       </c>
       <c r="H9" s="3">
-        <v>5645600</v>
+        <v>5766200</v>
       </c>
       <c r="I9" s="3">
-        <v>6244900</v>
+        <v>6378300</v>
       </c>
       <c r="J9" s="3">
-        <v>4631900</v>
+        <v>4730800</v>
       </c>
       <c r="K9" s="3">
         <v>3552600</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28353500</v>
+        <v>28959100</v>
       </c>
       <c r="E10" s="3">
-        <v>26164700</v>
+        <v>26723600</v>
       </c>
       <c r="F10" s="3">
-        <v>26848400</v>
+        <v>27421800</v>
       </c>
       <c r="G10" s="3">
-        <v>26602800</v>
+        <v>27170900</v>
       </c>
       <c r="H10" s="3">
-        <v>24744000</v>
+        <v>25272500</v>
       </c>
       <c r="I10" s="3">
-        <v>18030100</v>
+        <v>18415100</v>
       </c>
       <c r="J10" s="3">
-        <v>12900600</v>
+        <v>13176100</v>
       </c>
       <c r="K10" s="3">
         <v>11796200</v>
@@ -871,25 +871,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>171200</v>
+        <v>174900</v>
       </c>
       <c r="E12" s="3">
-        <v>175000</v>
+        <v>178700</v>
       </c>
       <c r="F12" s="3">
-        <v>150100</v>
+        <v>153300</v>
       </c>
       <c r="G12" s="3">
-        <v>156300</v>
+        <v>159700</v>
       </c>
       <c r="H12" s="3">
-        <v>130300</v>
+        <v>133100</v>
       </c>
       <c r="I12" s="3">
-        <v>99300</v>
+        <v>101400</v>
       </c>
       <c r="J12" s="3">
-        <v>65800</v>
+        <v>67200</v>
       </c>
       <c r="K12" s="3">
         <v>70300</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1010000</v>
+        <v>1031600</v>
       </c>
       <c r="E14" s="3">
-        <v>805300</v>
+        <v>822500</v>
       </c>
       <c r="F14" s="3">
-        <v>945500</v>
+        <v>965700</v>
       </c>
       <c r="G14" s="3">
-        <v>945500</v>
+        <v>965700</v>
       </c>
       <c r="H14" s="3">
-        <v>398300</v>
+        <v>406800</v>
       </c>
       <c r="I14" s="3">
-        <v>-27961400</v>
+        <v>-28558600</v>
       </c>
       <c r="J14" s="3">
-        <v>873500</v>
+        <v>892200</v>
       </c>
       <c r="K14" s="3">
         <v>549300</v>
@@ -997,25 +997,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1211000</v>
+        <v>1236900</v>
       </c>
       <c r="E15" s="3">
-        <v>1177500</v>
+        <v>1202700</v>
       </c>
       <c r="F15" s="3">
-        <v>1352500</v>
+        <v>1381400</v>
       </c>
       <c r="G15" s="3">
-        <v>1557200</v>
+        <v>1590500</v>
       </c>
       <c r="H15" s="3">
-        <v>1228400</v>
+        <v>1254600</v>
       </c>
       <c r="I15" s="3">
-        <v>1013700</v>
+        <v>1035400</v>
       </c>
       <c r="J15" s="3">
-        <v>1346300</v>
+        <v>1375000</v>
       </c>
       <c r="K15" s="3">
         <v>473200</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21257400</v>
+        <v>21711400</v>
       </c>
       <c r="E17" s="3">
-        <v>19170400</v>
+        <v>19579800</v>
       </c>
       <c r="F17" s="3">
-        <v>19798200</v>
+        <v>20221000</v>
       </c>
       <c r="G17" s="3">
-        <v>20921100</v>
+        <v>21367900</v>
       </c>
       <c r="H17" s="3">
-        <v>18778300</v>
+        <v>19179300</v>
       </c>
       <c r="I17" s="3">
-        <v>-12386900</v>
+        <v>-12651500</v>
       </c>
       <c r="J17" s="3">
-        <v>11881900</v>
+        <v>12135700</v>
       </c>
       <c r="K17" s="3">
         <v>10132900</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13056900</v>
+        <v>13335800</v>
       </c>
       <c r="E18" s="3">
-        <v>12698300</v>
+        <v>12969500</v>
       </c>
       <c r="F18" s="3">
-        <v>12184700</v>
+        <v>12444900</v>
       </c>
       <c r="G18" s="3">
-        <v>11187100</v>
+        <v>11426000</v>
       </c>
       <c r="H18" s="3">
-        <v>11611400</v>
+        <v>11859400</v>
       </c>
       <c r="I18" s="3">
-        <v>36661900</v>
+        <v>37444900</v>
       </c>
       <c r="J18" s="3">
-        <v>5650600</v>
+        <v>5771300</v>
       </c>
       <c r="K18" s="3">
         <v>5215800</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>531100</v>
+        <v>542400</v>
       </c>
       <c r="E20" s="3">
-        <v>482700</v>
+        <v>493000</v>
       </c>
       <c r="F20" s="3">
-        <v>599300</v>
+        <v>612100</v>
       </c>
       <c r="G20" s="3">
-        <v>749400</v>
+        <v>765400</v>
       </c>
       <c r="H20" s="3">
-        <v>727100</v>
+        <v>742600</v>
       </c>
       <c r="I20" s="3">
-        <v>1316500</v>
+        <v>1344600</v>
       </c>
       <c r="J20" s="3">
-        <v>2898500</v>
+        <v>2960400</v>
       </c>
       <c r="K20" s="3">
         <v>2322700</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15217400</v>
+        <v>15532000</v>
       </c>
       <c r="E21" s="3">
-        <v>14524500</v>
+        <v>14826100</v>
       </c>
       <c r="F21" s="3">
-        <v>14405900</v>
+        <v>14703200</v>
       </c>
       <c r="G21" s="3">
-        <v>13745700</v>
+        <v>14027700</v>
       </c>
       <c r="H21" s="3">
-        <v>13574600</v>
+        <v>13856700</v>
       </c>
       <c r="I21" s="3">
-        <v>38998500</v>
+        <v>39824900</v>
       </c>
       <c r="J21" s="3">
-        <v>9307000</v>
+        <v>9500900</v>
       </c>
       <c r="K21" s="3">
         <v>8024500</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2061900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1850300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2067000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2164500</v>
+      </c>
+      <c r="H22" s="3">
         <v>2018800</v>
       </c>
-      <c r="E22" s="3">
-        <v>1811600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2023700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2119300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1976600</v>
-      </c>
       <c r="I22" s="3">
-        <v>1341300</v>
+        <v>1370000</v>
       </c>
       <c r="J22" s="3">
-        <v>800300</v>
+        <v>817400</v>
       </c>
       <c r="K22" s="3">
         <v>680500</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11569200</v>
+        <v>11816300</v>
       </c>
       <c r="E23" s="3">
-        <v>11369500</v>
+        <v>11612300</v>
       </c>
       <c r="F23" s="3">
-        <v>10760200</v>
+        <v>10990000</v>
       </c>
       <c r="G23" s="3">
-        <v>9817200</v>
+        <v>10026900</v>
       </c>
       <c r="H23" s="3">
-        <v>10361900</v>
+        <v>10583200</v>
       </c>
       <c r="I23" s="3">
-        <v>36637100</v>
+        <v>37419600</v>
       </c>
       <c r="J23" s="3">
-        <v>7748800</v>
+        <v>7914300</v>
       </c>
       <c r="K23" s="3">
         <v>6858000</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3074700</v>
+        <v>3140400</v>
       </c>
       <c r="E24" s="3">
-        <v>2912200</v>
+        <v>2974400</v>
       </c>
       <c r="F24" s="3">
-        <v>2780600</v>
+        <v>2840000</v>
       </c>
       <c r="G24" s="3">
-        <v>2618100</v>
+        <v>2674000</v>
       </c>
       <c r="H24" s="3">
-        <v>2743400</v>
+        <v>2802000</v>
       </c>
       <c r="I24" s="3">
-        <v>1807800</v>
+        <v>1846500</v>
       </c>
       <c r="J24" s="3">
-        <v>1744600</v>
+        <v>1781800</v>
       </c>
       <c r="K24" s="3">
         <v>1561300</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8494500</v>
+        <v>8675900</v>
       </c>
       <c r="E26" s="3">
-        <v>8457300</v>
+        <v>8637900</v>
       </c>
       <c r="F26" s="3">
-        <v>7979600</v>
+        <v>8150000</v>
       </c>
       <c r="G26" s="3">
-        <v>7199100</v>
+        <v>7352900</v>
       </c>
       <c r="H26" s="3">
-        <v>7618500</v>
+        <v>7781200</v>
       </c>
       <c r="I26" s="3">
-        <v>34829300</v>
+        <v>35573100</v>
       </c>
       <c r="J26" s="3">
-        <v>6004200</v>
+        <v>6132500</v>
       </c>
       <c r="K26" s="3">
         <v>5296600</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8271200</v>
+        <v>8447800</v>
       </c>
       <c r="E27" s="3">
-        <v>8242600</v>
+        <v>8418700</v>
       </c>
       <c r="F27" s="3">
-        <v>7776100</v>
+        <v>7942200</v>
       </c>
       <c r="G27" s="3">
-        <v>7019200</v>
+        <v>7169100</v>
       </c>
       <c r="H27" s="3">
-        <v>7397600</v>
+        <v>7555600</v>
       </c>
       <c r="I27" s="3">
-        <v>34617100</v>
+        <v>35356400</v>
       </c>
       <c r="J27" s="3">
-        <v>5767200</v>
+        <v>5890400</v>
       </c>
       <c r="K27" s="3">
         <v>5024900</v>
@@ -1537,19 +1537,19 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>196000</v>
+        <v>200200</v>
       </c>
       <c r="F29" s="3">
-        <v>165000</v>
+        <v>168600</v>
       </c>
       <c r="G29" s="3">
-        <v>58300</v>
+        <v>59600</v>
       </c>
       <c r="H29" s="3">
-        <v>86900</v>
+        <v>88700</v>
       </c>
       <c r="I29" s="3">
-        <v>11894300</v>
+        <v>12148300</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-531100</v>
+        <v>-542400</v>
       </c>
       <c r="E32" s="3">
-        <v>-482700</v>
+        <v>-493000</v>
       </c>
       <c r="F32" s="3">
-        <v>-599300</v>
+        <v>-612100</v>
       </c>
       <c r="G32" s="3">
-        <v>-749400</v>
+        <v>-765400</v>
       </c>
       <c r="H32" s="3">
-        <v>-727100</v>
+        <v>-742600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1316500</v>
+        <v>-1344600</v>
       </c>
       <c r="J32" s="3">
-        <v>-2898500</v>
+        <v>-2960400</v>
       </c>
       <c r="K32" s="3">
         <v>-2322700</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8271200</v>
+        <v>8447800</v>
       </c>
       <c r="E33" s="3">
-        <v>8438700</v>
+        <v>8618900</v>
       </c>
       <c r="F33" s="3">
-        <v>7941100</v>
+        <v>8110700</v>
       </c>
       <c r="G33" s="3">
-        <v>7077500</v>
+        <v>7228700</v>
       </c>
       <c r="H33" s="3">
-        <v>7484500</v>
+        <v>7644400</v>
       </c>
       <c r="I33" s="3">
-        <v>46511400</v>
+        <v>47504700</v>
       </c>
       <c r="J33" s="3">
-        <v>5767200</v>
+        <v>5890400</v>
       </c>
       <c r="K33" s="3">
         <v>5024900</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8271200</v>
+        <v>8447800</v>
       </c>
       <c r="E35" s="3">
-        <v>8438700</v>
+        <v>8618900</v>
       </c>
       <c r="F35" s="3">
-        <v>7941100</v>
+        <v>8110700</v>
       </c>
       <c r="G35" s="3">
-        <v>7077500</v>
+        <v>7228700</v>
       </c>
       <c r="H35" s="3">
-        <v>7484500</v>
+        <v>7644400</v>
       </c>
       <c r="I35" s="3">
-        <v>46511400</v>
+        <v>47504700</v>
       </c>
       <c r="J35" s="3">
-        <v>5767200</v>
+        <v>5890400</v>
       </c>
       <c r="K35" s="3">
         <v>5024900</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4275800</v>
+        <v>4367100</v>
       </c>
       <c r="E41" s="3">
-        <v>3485400</v>
+        <v>3559800</v>
       </c>
       <c r="F41" s="3">
-        <v>3894900</v>
+        <v>3978100</v>
       </c>
       <c r="G41" s="3">
-        <v>3134300</v>
+        <v>3201200</v>
       </c>
       <c r="H41" s="3">
-        <v>3228600</v>
+        <v>3297500</v>
       </c>
       <c r="I41" s="3">
-        <v>8166900</v>
+        <v>8341400</v>
       </c>
       <c r="J41" s="3">
-        <v>2734700</v>
+        <v>2793100</v>
       </c>
       <c r="K41" s="3">
         <v>2299300</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>718400</v>
+        <v>733800</v>
       </c>
       <c r="E42" s="3">
-        <v>565800</v>
+        <v>577900</v>
       </c>
       <c r="F42" s="3">
-        <v>300300</v>
+        <v>306700</v>
       </c>
       <c r="G42" s="3">
-        <v>152600</v>
+        <v>155900</v>
       </c>
       <c r="H42" s="3">
-        <v>220900</v>
+        <v>225600</v>
       </c>
       <c r="I42" s="3">
-        <v>80700</v>
+        <v>82400</v>
       </c>
       <c r="J42" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="K42" s="3">
         <v>41000</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5603500</v>
+        <v>5723100</v>
       </c>
       <c r="E43" s="3">
-        <v>5047600</v>
+        <v>5155400</v>
       </c>
       <c r="F43" s="3">
-        <v>4715000</v>
+        <v>4815700</v>
       </c>
       <c r="G43" s="3">
-        <v>5230000</v>
+        <v>5341700</v>
       </c>
       <c r="H43" s="3">
-        <v>4543800</v>
+        <v>4640900</v>
       </c>
       <c r="I43" s="3">
-        <v>5599700</v>
+        <v>5719300</v>
       </c>
       <c r="J43" s="3">
-        <v>4904900</v>
+        <v>5009600</v>
       </c>
       <c r="K43" s="3">
         <v>3912100</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7036600</v>
+        <v>7186900</v>
       </c>
       <c r="E44" s="3">
-        <v>6550200</v>
+        <v>6690100</v>
       </c>
       <c r="F44" s="3">
-        <v>7442300</v>
+        <v>7601300</v>
       </c>
       <c r="G44" s="3">
-        <v>7561400</v>
+        <v>7722900</v>
       </c>
       <c r="H44" s="3">
-        <v>7480800</v>
+        <v>7640600</v>
       </c>
       <c r="I44" s="3">
-        <v>14552100</v>
+        <v>14862900</v>
       </c>
       <c r="J44" s="3">
-        <v>7188000</v>
+        <v>7341500</v>
       </c>
       <c r="K44" s="3">
         <v>4974500</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1485200</v>
+        <v>1517000</v>
       </c>
       <c r="E45" s="3">
-        <v>242000</v>
+        <v>247100</v>
       </c>
       <c r="F45" s="3">
-        <v>537300</v>
+        <v>548700</v>
       </c>
       <c r="G45" s="3">
-        <v>392100</v>
+        <v>400500</v>
       </c>
       <c r="H45" s="3">
-        <v>228300</v>
+        <v>233200</v>
       </c>
       <c r="I45" s="3">
-        <v>289100</v>
+        <v>295300</v>
       </c>
       <c r="J45" s="3">
-        <v>488900</v>
+        <v>499300</v>
       </c>
       <c r="K45" s="3">
         <v>268200</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19119500</v>
+        <v>19527800</v>
       </c>
       <c r="E46" s="3">
-        <v>15890900</v>
+        <v>16230300</v>
       </c>
       <c r="F46" s="3">
-        <v>16889800</v>
+        <v>17250500</v>
       </c>
       <c r="G46" s="3">
-        <v>16470400</v>
+        <v>16822100</v>
       </c>
       <c r="H46" s="3">
-        <v>15702300</v>
+        <v>16037700</v>
       </c>
       <c r="I46" s="3">
-        <v>17329000</v>
+        <v>17699100</v>
       </c>
       <c r="J46" s="3">
-        <v>15335000</v>
+        <v>15662600</v>
       </c>
       <c r="K46" s="3">
         <v>11495100</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2955600</v>
+        <v>3018700</v>
       </c>
       <c r="E47" s="3">
-        <v>2739700</v>
+        <v>2798200</v>
       </c>
       <c r="F47" s="3">
-        <v>2556000</v>
+        <v>2610600</v>
       </c>
       <c r="G47" s="3">
-        <v>2630500</v>
+        <v>2686700</v>
       </c>
       <c r="H47" s="3">
-        <v>3053600</v>
+        <v>3118800</v>
       </c>
       <c r="I47" s="3">
-        <v>2946900</v>
+        <v>3009800</v>
       </c>
       <c r="J47" s="3">
-        <v>12592900</v>
+        <v>12861800</v>
       </c>
       <c r="K47" s="3">
         <v>8460300</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6039000</v>
+        <v>6167900</v>
       </c>
       <c r="E48" s="3">
-        <v>6145700</v>
+        <v>6276900</v>
       </c>
       <c r="F48" s="3">
-        <v>6278400</v>
+        <v>6412500</v>
       </c>
       <c r="G48" s="3">
-        <v>6846700</v>
+        <v>6993000</v>
       </c>
       <c r="H48" s="3">
-        <v>6410000</v>
+        <v>6546900</v>
       </c>
       <c r="I48" s="3">
-        <v>12115200</v>
+        <v>12373900</v>
       </c>
       <c r="J48" s="3">
-        <v>4542600</v>
+        <v>4639600</v>
       </c>
       <c r="K48" s="3">
         <v>3538500</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>160156000</v>
+        <v>163577000</v>
       </c>
       <c r="E49" s="3">
-        <v>143468000</v>
+        <v>146532000</v>
       </c>
       <c r="F49" s="3">
-        <v>143118000</v>
+        <v>146174000</v>
       </c>
       <c r="G49" s="3">
-        <v>147391000</v>
+        <v>150539000</v>
       </c>
       <c r="H49" s="3">
-        <v>153875000</v>
+        <v>157162000</v>
       </c>
       <c r="I49" s="3">
-        <v>292295000</v>
+        <v>298538000</v>
       </c>
       <c r="J49" s="3">
-        <v>15034800</v>
+        <v>15355900</v>
       </c>
       <c r="K49" s="3">
         <v>12223700</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2249600</v>
+        <v>2297600</v>
       </c>
       <c r="E52" s="3">
-        <v>2198700</v>
+        <v>2245700</v>
       </c>
       <c r="F52" s="3">
-        <v>2003900</v>
+        <v>2046700</v>
       </c>
       <c r="G52" s="3">
-        <v>1620500</v>
+        <v>1655100</v>
       </c>
       <c r="H52" s="3">
-        <v>2539900</v>
+        <v>2594200</v>
       </c>
       <c r="I52" s="3">
-        <v>2538700</v>
+        <v>2592900</v>
       </c>
       <c r="J52" s="3">
-        <v>1845100</v>
+        <v>1884500</v>
       </c>
       <c r="K52" s="3">
         <v>1195900</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>190520000</v>
+        <v>194589000</v>
       </c>
       <c r="E54" s="3">
-        <v>170443000</v>
+        <v>174083000</v>
       </c>
       <c r="F54" s="3">
-        <v>170846000</v>
+        <v>174495000</v>
       </c>
       <c r="G54" s="3">
-        <v>174959000</v>
+        <v>178696000</v>
       </c>
       <c r="H54" s="3">
-        <v>181581000</v>
+        <v>185459000</v>
       </c>
       <c r="I54" s="3">
-        <v>175020000</v>
+        <v>178758000</v>
       </c>
       <c r="J54" s="3">
-        <v>49350300</v>
+        <v>50404300</v>
       </c>
       <c r="K54" s="3">
         <v>36913500</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12965100</v>
+        <v>13242000</v>
       </c>
       <c r="E57" s="3">
-        <v>11883100</v>
+        <v>12136900</v>
       </c>
       <c r="F57" s="3">
-        <v>12027100</v>
+        <v>12283900</v>
       </c>
       <c r="G57" s="3">
-        <v>12069300</v>
+        <v>12327000</v>
       </c>
       <c r="H57" s="3">
-        <v>13190900</v>
+        <v>13472700</v>
       </c>
       <c r="I57" s="3">
-        <v>11053000</v>
+        <v>11289100</v>
       </c>
       <c r="J57" s="3">
-        <v>9101300</v>
+        <v>9295600</v>
       </c>
       <c r="K57" s="3">
         <v>6954000</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4825500</v>
+        <v>4928500</v>
       </c>
       <c r="E58" s="3">
-        <v>4382500</v>
+        <v>4476100</v>
       </c>
       <c r="F58" s="3">
-        <v>4394900</v>
+        <v>4488800</v>
       </c>
       <c r="G58" s="3">
-        <v>8794800</v>
+        <v>8982600</v>
       </c>
       <c r="H58" s="3">
-        <v>4659200</v>
+        <v>4758700</v>
       </c>
       <c r="I58" s="3">
-        <v>12905600</v>
+        <v>13181200</v>
       </c>
       <c r="J58" s="3">
-        <v>3731100</v>
+        <v>3810800</v>
       </c>
       <c r="K58" s="3">
         <v>2571000</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4361400</v>
+        <v>4454600</v>
       </c>
       <c r="E59" s="3">
-        <v>2525000</v>
+        <v>2579000</v>
       </c>
       <c r="F59" s="3">
-        <v>2783100</v>
+        <v>2842600</v>
       </c>
       <c r="G59" s="3">
-        <v>2491500</v>
+        <v>2544700</v>
       </c>
       <c r="H59" s="3">
-        <v>2410900</v>
+        <v>2462400</v>
       </c>
       <c r="I59" s="3">
-        <v>2628000</v>
+        <v>2684100</v>
       </c>
       <c r="J59" s="3">
-        <v>1878600</v>
+        <v>1918700</v>
       </c>
       <c r="K59" s="3">
         <v>1023700</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22152000</v>
+        <v>22625100</v>
       </c>
       <c r="E60" s="3">
-        <v>18790700</v>
+        <v>19192000</v>
       </c>
       <c r="F60" s="3">
-        <v>19205100</v>
+        <v>19615300</v>
       </c>
       <c r="G60" s="3">
-        <v>23355600</v>
+        <v>23854400</v>
       </c>
       <c r="H60" s="3">
-        <v>20261000</v>
+        <v>20693700</v>
       </c>
       <c r="I60" s="3">
-        <v>19362700</v>
+        <v>19776200</v>
       </c>
       <c r="J60" s="3">
-        <v>14710900</v>
+        <v>15025100</v>
       </c>
       <c r="K60" s="3">
         <v>10548700</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>48051200</v>
+        <v>49077500</v>
       </c>
       <c r="E61" s="3">
-        <v>44254400</v>
+        <v>45199500</v>
       </c>
       <c r="F61" s="3">
-        <v>49541400</v>
+        <v>50599500</v>
       </c>
       <c r="G61" s="3">
-        <v>46907200</v>
+        <v>47909000</v>
       </c>
       <c r="H61" s="3">
-        <v>53706800</v>
+        <v>54853800</v>
       </c>
       <c r="I61" s="3">
-        <v>54628700</v>
+        <v>55795400</v>
       </c>
       <c r="J61" s="3">
-        <v>20458300</v>
+        <v>20895200</v>
       </c>
       <c r="K61" s="3">
         <v>17342300</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26375700</v>
+        <v>26939000</v>
       </c>
       <c r="E62" s="3">
-        <v>23766300</v>
+        <v>24273900</v>
       </c>
       <c r="F62" s="3">
-        <v>23984700</v>
+        <v>24496900</v>
       </c>
       <c r="G62" s="3">
-        <v>25086500</v>
+        <v>25622300</v>
       </c>
       <c r="H62" s="3">
-        <v>26107700</v>
+        <v>26665300</v>
       </c>
       <c r="I62" s="3">
-        <v>25802400</v>
+        <v>26353500</v>
       </c>
       <c r="J62" s="3">
-        <v>3750900</v>
+        <v>3831000</v>
       </c>
       <c r="K62" s="3">
         <v>3128500</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97003300</v>
+        <v>99075000</v>
       </c>
       <c r="E66" s="3">
-        <v>87183600</v>
+        <v>89045600</v>
       </c>
       <c r="F66" s="3">
-        <v>93081100</v>
+        <v>95069000</v>
       </c>
       <c r="G66" s="3">
-        <v>95669400</v>
+        <v>97712600</v>
       </c>
       <c r="H66" s="3">
-        <v>100378000</v>
+        <v>102522000</v>
       </c>
       <c r="I66" s="3">
-        <v>99630000</v>
+        <v>101758000</v>
       </c>
       <c r="J66" s="3">
-        <v>39198100</v>
+        <v>40035300</v>
       </c>
       <c r="K66" s="3">
         <v>31181200</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>97136000</v>
+        <v>99210600</v>
       </c>
       <c r="E72" s="3">
-        <v>94824400</v>
+        <v>96849600</v>
       </c>
       <c r="F72" s="3">
-        <v>92165400</v>
+        <v>94133800</v>
       </c>
       <c r="G72" s="3">
-        <v>90061000</v>
+        <v>91984400</v>
       </c>
       <c r="H72" s="3">
-        <v>87956600</v>
+        <v>89835100</v>
       </c>
       <c r="I72" s="3">
-        <v>127506000</v>
+        <v>130229000</v>
       </c>
       <c r="J72" s="3">
-        <v>9421400</v>
+        <v>9622600</v>
       </c>
       <c r="K72" s="3">
         <v>5047100</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>93516600</v>
+        <v>95513900</v>
       </c>
       <c r="E76" s="3">
-        <v>83258900</v>
+        <v>85037100</v>
       </c>
       <c r="F76" s="3">
-        <v>77764700</v>
+        <v>79425500</v>
       </c>
       <c r="G76" s="3">
-        <v>79289600</v>
+        <v>80983000</v>
       </c>
       <c r="H76" s="3">
-        <v>81202900</v>
+        <v>82937200</v>
       </c>
       <c r="I76" s="3">
-        <v>75389800</v>
+        <v>76999900</v>
       </c>
       <c r="J76" s="3">
-        <v>10152200</v>
+        <v>10369000</v>
       </c>
       <c r="K76" s="3">
         <v>5732300</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8271200</v>
+        <v>8447800</v>
       </c>
       <c r="E81" s="3">
-        <v>8438700</v>
+        <v>8618900</v>
       </c>
       <c r="F81" s="3">
-        <v>7941100</v>
+        <v>8110700</v>
       </c>
       <c r="G81" s="3">
-        <v>7077500</v>
+        <v>7228700</v>
       </c>
       <c r="H81" s="3">
-        <v>7484500</v>
+        <v>7644400</v>
       </c>
       <c r="I81" s="3">
-        <v>46511400</v>
+        <v>47504700</v>
       </c>
       <c r="J81" s="3">
-        <v>5767200</v>
+        <v>5890400</v>
       </c>
       <c r="K81" s="3">
         <v>5024900</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1619200</v>
+        <v>1653800</v>
       </c>
       <c r="E83" s="3">
-        <v>1335100</v>
+        <v>1363600</v>
       </c>
       <c r="F83" s="3">
-        <v>1611800</v>
+        <v>1646200</v>
       </c>
       <c r="G83" s="3">
-        <v>1797900</v>
+        <v>1836300</v>
       </c>
       <c r="H83" s="3">
-        <v>1228400</v>
+        <v>1254600</v>
       </c>
       <c r="I83" s="3">
-        <v>1013700</v>
+        <v>1035400</v>
       </c>
       <c r="J83" s="3">
-        <v>753200</v>
+        <v>769300</v>
       </c>
       <c r="K83" s="3">
         <v>501300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12440300</v>
+        <v>12705900</v>
       </c>
       <c r="E89" s="3">
-        <v>12056900</v>
+        <v>12314400</v>
       </c>
       <c r="F89" s="3">
-        <v>12142500</v>
+        <v>12401800</v>
       </c>
       <c r="G89" s="3">
-        <v>11162200</v>
+        <v>11400600</v>
       </c>
       <c r="H89" s="3">
-        <v>12774000</v>
+        <v>13046900</v>
       </c>
       <c r="I89" s="3">
-        <v>6634600</v>
+        <v>6776300</v>
       </c>
       <c r="J89" s="3">
-        <v>5720100</v>
+        <v>5842300</v>
       </c>
       <c r="K89" s="3">
         <v>5528500</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-648900</v>
+        <v>-662800</v>
       </c>
       <c r="E91" s="3">
-        <v>-653900</v>
+        <v>-667900</v>
       </c>
       <c r="F91" s="3">
-        <v>-634000</v>
+        <v>-647600</v>
       </c>
       <c r="G91" s="3">
-        <v>-823900</v>
+        <v>-841500</v>
       </c>
       <c r="H91" s="3">
-        <v>-940500</v>
+        <v>-960600</v>
       </c>
       <c r="I91" s="3">
-        <v>-981500</v>
+        <v>-1002400</v>
       </c>
       <c r="J91" s="3">
-        <v>-727100</v>
+        <v>-742600</v>
       </c>
       <c r="K91" s="3">
         <v>-565700</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-874800</v>
+        <v>-893400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1414500</v>
+        <v>-1444700</v>
       </c>
       <c r="F94" s="3">
-        <v>-971500</v>
+        <v>-992300</v>
       </c>
       <c r="G94" s="3">
-        <v>-792900</v>
+        <v>-809800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1266900</v>
+        <v>-1293900</v>
       </c>
       <c r="I94" s="3">
-        <v>-23009400</v>
+        <v>-23500800</v>
       </c>
       <c r="J94" s="3">
-        <v>-794100</v>
+        <v>-811100</v>
       </c>
       <c r="K94" s="3">
         <v>-4674700</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6098500</v>
+        <v>-6228800</v>
       </c>
       <c r="E96" s="3">
-        <v>-6084900</v>
+        <v>-6214800</v>
       </c>
       <c r="F96" s="3">
-        <v>-5887600</v>
+        <v>-6013300</v>
       </c>
       <c r="G96" s="3">
-        <v>-5705200</v>
+        <v>-5827000</v>
       </c>
       <c r="H96" s="3">
-        <v>-5393800</v>
+        <v>-5509000</v>
       </c>
       <c r="I96" s="3">
-        <v>-4299400</v>
+        <v>-4391200</v>
       </c>
       <c r="J96" s="3">
-        <v>-3610700</v>
+        <v>-3687800</v>
       </c>
       <c r="K96" s="3">
         <v>-3244500</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11015800</v>
+        <v>-11251100</v>
       </c>
       <c r="E100" s="3">
-        <v>-10855800</v>
+        <v>-11087600</v>
       </c>
       <c r="F100" s="3">
-        <v>-9798600</v>
+        <v>-10007900</v>
       </c>
       <c r="G100" s="3">
-        <v>-10662200</v>
+        <v>-10889900</v>
       </c>
       <c r="H100" s="3">
-        <v>-11948900</v>
+        <v>-12204100</v>
       </c>
       <c r="I100" s="3">
-        <v>18313000</v>
+        <v>18704100</v>
       </c>
       <c r="J100" s="3">
-        <v>-5247300</v>
+        <v>-5359400</v>
       </c>
       <c r="K100" s="3">
         <v>-256500</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>534800</v>
+        <v>546200</v>
       </c>
       <c r="E101" s="3">
-        <v>-313900</v>
+        <v>-320600</v>
       </c>
       <c r="F101" s="3">
-        <v>-313900</v>
+        <v>-320600</v>
       </c>
       <c r="G101" s="3">
-        <v>-70700</v>
+        <v>-72200</v>
       </c>
       <c r="H101" s="3">
-        <v>-171200</v>
+        <v>-174900</v>
       </c>
       <c r="I101" s="3">
-        <v>-485200</v>
+        <v>-495500</v>
       </c>
       <c r="J101" s="3">
-        <v>223300</v>
+        <v>228100</v>
       </c>
       <c r="K101" s="3">
         <v>-318600</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1084500</v>
+        <v>1107600</v>
       </c>
       <c r="E102" s="3">
-        <v>-527300</v>
+        <v>-538600</v>
       </c>
       <c r="F102" s="3">
-        <v>1058400</v>
+        <v>1081000</v>
       </c>
       <c r="G102" s="3">
-        <v>-363600</v>
+        <v>-371300</v>
       </c>
       <c r="H102" s="3">
-        <v>-613000</v>
+        <v>-626000</v>
       </c>
       <c r="I102" s="3">
-        <v>1453000</v>
+        <v>1484000</v>
       </c>
       <c r="J102" s="3">
-        <v>-98000</v>
+        <v>-100100</v>
       </c>
       <c r="K102" s="3">
         <v>278800</v>

--- a/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BTI_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35047200</v>
+        <v>34308800</v>
       </c>
       <c r="E8" s="3">
-        <v>32549300</v>
+        <v>31863600</v>
       </c>
       <c r="F8" s="3">
-        <v>32665900</v>
+        <v>31977700</v>
       </c>
       <c r="G8" s="3">
-        <v>32793900</v>
+        <v>32103000</v>
       </c>
       <c r="H8" s="3">
-        <v>31038700</v>
+        <v>30384800</v>
       </c>
       <c r="I8" s="3">
-        <v>24793500</v>
+        <v>24271100</v>
       </c>
       <c r="J8" s="3">
-        <v>17906900</v>
+        <v>17529700</v>
       </c>
       <c r="K8" s="3">
         <v>15348700</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6088100</v>
+        <v>5959800</v>
       </c>
       <c r="E9" s="3">
-        <v>5825800</v>
+        <v>5703000</v>
       </c>
       <c r="F9" s="3">
-        <v>5244100</v>
+        <v>5133600</v>
       </c>
       <c r="G9" s="3">
-        <v>5623000</v>
+        <v>5504500</v>
       </c>
       <c r="H9" s="3">
-        <v>5766200</v>
+        <v>5644700</v>
       </c>
       <c r="I9" s="3">
-        <v>6378300</v>
+        <v>6243900</v>
       </c>
       <c r="J9" s="3">
-        <v>4730800</v>
+        <v>4631200</v>
       </c>
       <c r="K9" s="3">
         <v>3552600</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>28959100</v>
+        <v>28349000</v>
       </c>
       <c r="E10" s="3">
-        <v>26723600</v>
+        <v>26160500</v>
       </c>
       <c r="F10" s="3">
-        <v>27421800</v>
+        <v>26844100</v>
       </c>
       <c r="G10" s="3">
-        <v>27170900</v>
+        <v>26598500</v>
       </c>
       <c r="H10" s="3">
-        <v>25272500</v>
+        <v>24740000</v>
       </c>
       <c r="I10" s="3">
-        <v>18415100</v>
+        <v>18027200</v>
       </c>
       <c r="J10" s="3">
-        <v>13176100</v>
+        <v>12898500</v>
       </c>
       <c r="K10" s="3">
         <v>11796200</v>
@@ -871,25 +871,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>171200</v>
+      </c>
+      <c r="E12" s="3">
         <v>174900</v>
       </c>
-      <c r="E12" s="3">
-        <v>178700</v>
-      </c>
       <c r="F12" s="3">
-        <v>153300</v>
+        <v>150100</v>
       </c>
       <c r="G12" s="3">
-        <v>159700</v>
+        <v>156300</v>
       </c>
       <c r="H12" s="3">
-        <v>133100</v>
+        <v>130300</v>
       </c>
       <c r="I12" s="3">
-        <v>101400</v>
+        <v>99200</v>
       </c>
       <c r="J12" s="3">
-        <v>67200</v>
+        <v>65800</v>
       </c>
       <c r="K12" s="3">
         <v>70300</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1031600</v>
+        <v>1009800</v>
       </c>
       <c r="E14" s="3">
-        <v>822500</v>
+        <v>805100</v>
       </c>
       <c r="F14" s="3">
-        <v>965700</v>
+        <v>945300</v>
       </c>
       <c r="G14" s="3">
-        <v>965700</v>
+        <v>945300</v>
       </c>
       <c r="H14" s="3">
-        <v>406800</v>
+        <v>398200</v>
       </c>
       <c r="I14" s="3">
-        <v>-28558600</v>
+        <v>-27956900</v>
       </c>
       <c r="J14" s="3">
-        <v>892200</v>
+        <v>873400</v>
       </c>
       <c r="K14" s="3">
         <v>549300</v>
@@ -997,25 +997,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1236900</v>
+        <v>1210800</v>
       </c>
       <c r="E15" s="3">
-        <v>1202700</v>
+        <v>1177300</v>
       </c>
       <c r="F15" s="3">
-        <v>1381400</v>
+        <v>1352300</v>
       </c>
       <c r="G15" s="3">
-        <v>1590500</v>
+        <v>1557000</v>
       </c>
       <c r="H15" s="3">
-        <v>1254600</v>
+        <v>1228200</v>
       </c>
       <c r="I15" s="3">
-        <v>1035400</v>
+        <v>1013600</v>
       </c>
       <c r="J15" s="3">
-        <v>1375000</v>
+        <v>1346100</v>
       </c>
       <c r="K15" s="3">
         <v>473200</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21711400</v>
+        <v>21254000</v>
       </c>
       <c r="E17" s="3">
-        <v>19579800</v>
+        <v>19167300</v>
       </c>
       <c r="F17" s="3">
-        <v>20221000</v>
+        <v>19795000</v>
       </c>
       <c r="G17" s="3">
-        <v>21367900</v>
+        <v>20917800</v>
       </c>
       <c r="H17" s="3">
-        <v>19179300</v>
+        <v>18775200</v>
       </c>
       <c r="I17" s="3">
-        <v>-12651500</v>
+        <v>-12384900</v>
       </c>
       <c r="J17" s="3">
-        <v>12135700</v>
+        <v>11880000</v>
       </c>
       <c r="K17" s="3">
         <v>10132900</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13335800</v>
+        <v>13054800</v>
       </c>
       <c r="E18" s="3">
-        <v>12969500</v>
+        <v>12696300</v>
       </c>
       <c r="F18" s="3">
-        <v>12444900</v>
+        <v>12182700</v>
       </c>
       <c r="G18" s="3">
-        <v>11426000</v>
+        <v>11185200</v>
       </c>
       <c r="H18" s="3">
-        <v>11859400</v>
+        <v>11609500</v>
       </c>
       <c r="I18" s="3">
-        <v>37444900</v>
+        <v>36656000</v>
       </c>
       <c r="J18" s="3">
-        <v>5771300</v>
+        <v>5649700</v>
       </c>
       <c r="K18" s="3">
         <v>5215800</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>542400</v>
+        <v>531000</v>
       </c>
       <c r="E20" s="3">
-        <v>493000</v>
+        <v>482600</v>
       </c>
       <c r="F20" s="3">
-        <v>612100</v>
+        <v>599200</v>
       </c>
       <c r="G20" s="3">
-        <v>765400</v>
+        <v>749300</v>
       </c>
       <c r="H20" s="3">
-        <v>742600</v>
+        <v>727000</v>
       </c>
       <c r="I20" s="3">
-        <v>1344600</v>
+        <v>1316300</v>
       </c>
       <c r="J20" s="3">
-        <v>2960400</v>
+        <v>2898000</v>
       </c>
       <c r="K20" s="3">
         <v>2322700</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>15532000</v>
+        <v>15206400</v>
       </c>
       <c r="E21" s="3">
-        <v>14826100</v>
+        <v>14515100</v>
       </c>
       <c r="F21" s="3">
-        <v>14703200</v>
+        <v>14395000</v>
       </c>
       <c r="G21" s="3">
-        <v>14027700</v>
+        <v>13733900</v>
       </c>
       <c r="H21" s="3">
-        <v>13856700</v>
+        <v>13565900</v>
       </c>
       <c r="I21" s="3">
-        <v>39824900</v>
+        <v>38986800</v>
       </c>
       <c r="J21" s="3">
-        <v>9500900</v>
+        <v>9301500</v>
       </c>
       <c r="K21" s="3">
         <v>8024500</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2061900</v>
+        <v>2018500</v>
       </c>
       <c r="E22" s="3">
-        <v>1850300</v>
+        <v>1811300</v>
       </c>
       <c r="F22" s="3">
-        <v>2067000</v>
+        <v>2023400</v>
       </c>
       <c r="G22" s="3">
-        <v>2164500</v>
+        <v>2118900</v>
       </c>
       <c r="H22" s="3">
-        <v>2018800</v>
+        <v>1976300</v>
       </c>
       <c r="I22" s="3">
-        <v>1370000</v>
+        <v>1341100</v>
       </c>
       <c r="J22" s="3">
-        <v>817400</v>
+        <v>800200</v>
       </c>
       <c r="K22" s="3">
         <v>680500</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11816300</v>
+        <v>11567400</v>
       </c>
       <c r="E23" s="3">
-        <v>11612300</v>
+        <v>11367600</v>
       </c>
       <c r="F23" s="3">
-        <v>10990000</v>
+        <v>10758500</v>
       </c>
       <c r="G23" s="3">
-        <v>10026900</v>
+        <v>9815600</v>
       </c>
       <c r="H23" s="3">
-        <v>10583200</v>
+        <v>10360300</v>
       </c>
       <c r="I23" s="3">
-        <v>37419600</v>
+        <v>36631200</v>
       </c>
       <c r="J23" s="3">
-        <v>7914300</v>
+        <v>7747500</v>
       </c>
       <c r="K23" s="3">
         <v>6858000</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3140400</v>
+        <v>3074200</v>
       </c>
       <c r="E24" s="3">
-        <v>2974400</v>
+        <v>2911700</v>
       </c>
       <c r="F24" s="3">
-        <v>2840000</v>
+        <v>2780200</v>
       </c>
       <c r="G24" s="3">
-        <v>2674000</v>
+        <v>2617700</v>
       </c>
       <c r="H24" s="3">
-        <v>2802000</v>
+        <v>2743000</v>
       </c>
       <c r="I24" s="3">
-        <v>1846500</v>
+        <v>1807600</v>
       </c>
       <c r="J24" s="3">
-        <v>1781800</v>
+        <v>1744300</v>
       </c>
       <c r="K24" s="3">
         <v>1561300</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8675900</v>
+        <v>8493100</v>
       </c>
       <c r="E26" s="3">
-        <v>8637900</v>
+        <v>8455900</v>
       </c>
       <c r="F26" s="3">
-        <v>8150000</v>
+        <v>7978300</v>
       </c>
       <c r="G26" s="3">
-        <v>7352900</v>
+        <v>7198000</v>
       </c>
       <c r="H26" s="3">
-        <v>7781200</v>
+        <v>7617300</v>
       </c>
       <c r="I26" s="3">
-        <v>35573100</v>
+        <v>34823600</v>
       </c>
       <c r="J26" s="3">
-        <v>6132500</v>
+        <v>6003300</v>
       </c>
       <c r="K26" s="3">
         <v>5296600</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8447800</v>
+        <v>8269800</v>
       </c>
       <c r="E27" s="3">
-        <v>8418700</v>
+        <v>8241300</v>
       </c>
       <c r="F27" s="3">
-        <v>7942200</v>
+        <v>7774800</v>
       </c>
       <c r="G27" s="3">
-        <v>7169100</v>
+        <v>7018100</v>
       </c>
       <c r="H27" s="3">
-        <v>7555600</v>
+        <v>7396500</v>
       </c>
       <c r="I27" s="3">
-        <v>35356400</v>
+        <v>34611500</v>
       </c>
       <c r="J27" s="3">
-        <v>5890400</v>
+        <v>5766300</v>
       </c>
       <c r="K27" s="3">
         <v>5024900</v>
@@ -1537,19 +1537,19 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>200200</v>
+        <v>196000</v>
       </c>
       <c r="F29" s="3">
-        <v>168600</v>
+        <v>165000</v>
       </c>
       <c r="G29" s="3">
-        <v>59600</v>
+        <v>58300</v>
       </c>
       <c r="H29" s="3">
-        <v>88700</v>
+        <v>86800</v>
       </c>
       <c r="I29" s="3">
-        <v>12148300</v>
+        <v>11892400</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-542400</v>
+        <v>-531000</v>
       </c>
       <c r="E32" s="3">
-        <v>-493000</v>
+        <v>-482600</v>
       </c>
       <c r="F32" s="3">
-        <v>-612100</v>
+        <v>-599200</v>
       </c>
       <c r="G32" s="3">
-        <v>-765400</v>
+        <v>-749300</v>
       </c>
       <c r="H32" s="3">
-        <v>-742600</v>
+        <v>-727000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1344600</v>
+        <v>-1316300</v>
       </c>
       <c r="J32" s="3">
-        <v>-2960400</v>
+        <v>-2898000</v>
       </c>
       <c r="K32" s="3">
         <v>-2322700</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8447800</v>
+        <v>8269800</v>
       </c>
       <c r="E33" s="3">
-        <v>8618900</v>
+        <v>8437300</v>
       </c>
       <c r="F33" s="3">
-        <v>8110700</v>
+        <v>7939800</v>
       </c>
       <c r="G33" s="3">
-        <v>7228700</v>
+        <v>7076400</v>
       </c>
       <c r="H33" s="3">
-        <v>7644400</v>
+        <v>7483300</v>
       </c>
       <c r="I33" s="3">
-        <v>47504700</v>
+        <v>46503900</v>
       </c>
       <c r="J33" s="3">
-        <v>5890400</v>
+        <v>5766300</v>
       </c>
       <c r="K33" s="3">
         <v>5024900</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8447800</v>
+        <v>8269800</v>
       </c>
       <c r="E35" s="3">
-        <v>8618900</v>
+        <v>8437300</v>
       </c>
       <c r="F35" s="3">
-        <v>8110700</v>
+        <v>7939800</v>
       </c>
       <c r="G35" s="3">
-        <v>7228700</v>
+        <v>7076400</v>
       </c>
       <c r="H35" s="3">
-        <v>7644400</v>
+        <v>7483300</v>
       </c>
       <c r="I35" s="3">
-        <v>47504700</v>
+        <v>46503900</v>
       </c>
       <c r="J35" s="3">
-        <v>5890400</v>
+        <v>5766300</v>
       </c>
       <c r="K35" s="3">
         <v>5024900</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4367100</v>
+        <v>4275100</v>
       </c>
       <c r="E41" s="3">
-        <v>3559800</v>
+        <v>3484800</v>
       </c>
       <c r="F41" s="3">
-        <v>3978100</v>
+        <v>3894200</v>
       </c>
       <c r="G41" s="3">
-        <v>3201200</v>
+        <v>3133800</v>
       </c>
       <c r="H41" s="3">
-        <v>3297500</v>
+        <v>3228000</v>
       </c>
       <c r="I41" s="3">
-        <v>8341400</v>
+        <v>8165600</v>
       </c>
       <c r="J41" s="3">
-        <v>2793100</v>
+        <v>2734300</v>
       </c>
       <c r="K41" s="3">
         <v>2299300</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>733800</v>
+        <v>718300</v>
       </c>
       <c r="E42" s="3">
-        <v>577900</v>
+        <v>565700</v>
       </c>
       <c r="F42" s="3">
-        <v>306700</v>
+        <v>300200</v>
       </c>
       <c r="G42" s="3">
-        <v>155900</v>
+        <v>152600</v>
       </c>
       <c r="H42" s="3">
-        <v>225600</v>
+        <v>220800</v>
       </c>
       <c r="I42" s="3">
-        <v>82400</v>
+        <v>80600</v>
       </c>
       <c r="J42" s="3">
-        <v>19000</v>
+        <v>18600</v>
       </c>
       <c r="K42" s="3">
         <v>41000</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5723100</v>
+        <v>5602500</v>
       </c>
       <c r="E43" s="3">
-        <v>5155400</v>
+        <v>5046800</v>
       </c>
       <c r="F43" s="3">
-        <v>4815700</v>
+        <v>4714300</v>
       </c>
       <c r="G43" s="3">
-        <v>5341700</v>
+        <v>5229100</v>
       </c>
       <c r="H43" s="3">
-        <v>4640900</v>
+        <v>4543100</v>
       </c>
       <c r="I43" s="3">
-        <v>5719300</v>
+        <v>5598800</v>
       </c>
       <c r="J43" s="3">
-        <v>5009600</v>
+        <v>4904100</v>
       </c>
       <c r="K43" s="3">
         <v>3912100</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7186900</v>
+        <v>7035400</v>
       </c>
       <c r="E44" s="3">
-        <v>6690100</v>
+        <v>6549100</v>
       </c>
       <c r="F44" s="3">
-        <v>7601300</v>
+        <v>7441100</v>
       </c>
       <c r="G44" s="3">
-        <v>7722900</v>
+        <v>7560200</v>
       </c>
       <c r="H44" s="3">
-        <v>7640600</v>
+        <v>7479600</v>
       </c>
       <c r="I44" s="3">
-        <v>14862900</v>
+        <v>14549800</v>
       </c>
       <c r="J44" s="3">
-        <v>7341500</v>
+        <v>7186800</v>
       </c>
       <c r="K44" s="3">
         <v>4974500</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1517000</v>
+        <v>1485000</v>
       </c>
       <c r="E45" s="3">
-        <v>247100</v>
+        <v>241900</v>
       </c>
       <c r="F45" s="3">
-        <v>548700</v>
+        <v>537200</v>
       </c>
       <c r="G45" s="3">
-        <v>400500</v>
+        <v>392000</v>
       </c>
       <c r="H45" s="3">
-        <v>233200</v>
+        <v>228300</v>
       </c>
       <c r="I45" s="3">
-        <v>295300</v>
+        <v>289100</v>
       </c>
       <c r="J45" s="3">
-        <v>499300</v>
+        <v>488800</v>
       </c>
       <c r="K45" s="3">
         <v>268200</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19527800</v>
+        <v>19116400</v>
       </c>
       <c r="E46" s="3">
-        <v>16230300</v>
+        <v>15888400</v>
       </c>
       <c r="F46" s="3">
-        <v>17250500</v>
+        <v>16887000</v>
       </c>
       <c r="G46" s="3">
-        <v>16822100</v>
+        <v>16467700</v>
       </c>
       <c r="H46" s="3">
-        <v>16037700</v>
+        <v>15699800</v>
       </c>
       <c r="I46" s="3">
-        <v>17699100</v>
+        <v>17326200</v>
       </c>
       <c r="J46" s="3">
-        <v>15662600</v>
+        <v>15332600</v>
       </c>
       <c r="K46" s="3">
         <v>11495100</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3018700</v>
+        <v>2955100</v>
       </c>
       <c r="E47" s="3">
-        <v>2798200</v>
+        <v>2739200</v>
       </c>
       <c r="F47" s="3">
-        <v>2610600</v>
+        <v>2555600</v>
       </c>
       <c r="G47" s="3">
-        <v>2686700</v>
+        <v>2630100</v>
       </c>
       <c r="H47" s="3">
-        <v>3118800</v>
+        <v>3053100</v>
       </c>
       <c r="I47" s="3">
-        <v>3009800</v>
+        <v>2946400</v>
       </c>
       <c r="J47" s="3">
-        <v>12861800</v>
+        <v>12590800</v>
       </c>
       <c r="K47" s="3">
         <v>8460300</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6167900</v>
+        <v>6038000</v>
       </c>
       <c r="E48" s="3">
-        <v>6276900</v>
+        <v>6144700</v>
       </c>
       <c r="F48" s="3">
-        <v>6412500</v>
+        <v>6277400</v>
       </c>
       <c r="G48" s="3">
-        <v>6993000</v>
+        <v>6845600</v>
       </c>
       <c r="H48" s="3">
-        <v>6546900</v>
+        <v>6408900</v>
       </c>
       <c r="I48" s="3">
-        <v>12373900</v>
+        <v>12113200</v>
       </c>
       <c r="J48" s="3">
-        <v>4639600</v>
+        <v>4541800</v>
       </c>
       <c r="K48" s="3">
         <v>3538500</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>163577000</v>
+        <v>160130000</v>
       </c>
       <c r="E49" s="3">
-        <v>146532000</v>
+        <v>143444000</v>
       </c>
       <c r="F49" s="3">
-        <v>146174000</v>
+        <v>143095000</v>
       </c>
       <c r="G49" s="3">
-        <v>150539000</v>
+        <v>147367000</v>
       </c>
       <c r="H49" s="3">
-        <v>157162000</v>
+        <v>153851000</v>
       </c>
       <c r="I49" s="3">
-        <v>298538000</v>
+        <v>292248000</v>
       </c>
       <c r="J49" s="3">
-        <v>15355900</v>
+        <v>15032400</v>
       </c>
       <c r="K49" s="3">
         <v>12223700</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2297600</v>
+        <v>2249200</v>
       </c>
       <c r="E52" s="3">
-        <v>2245700</v>
+        <v>2198300</v>
       </c>
       <c r="F52" s="3">
-        <v>2046700</v>
+        <v>2003600</v>
       </c>
       <c r="G52" s="3">
-        <v>1655100</v>
+        <v>1620200</v>
       </c>
       <c r="H52" s="3">
-        <v>2594200</v>
+        <v>2539500</v>
       </c>
       <c r="I52" s="3">
-        <v>2592900</v>
+        <v>2538300</v>
       </c>
       <c r="J52" s="3">
-        <v>1884500</v>
+        <v>1844800</v>
       </c>
       <c r="K52" s="3">
         <v>1195900</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>194589000</v>
+        <v>190489000</v>
       </c>
       <c r="E54" s="3">
-        <v>174083000</v>
+        <v>170415000</v>
       </c>
       <c r="F54" s="3">
-        <v>174495000</v>
+        <v>170818000</v>
       </c>
       <c r="G54" s="3">
-        <v>178696000</v>
+        <v>174931000</v>
       </c>
       <c r="H54" s="3">
-        <v>185459000</v>
+        <v>181552000</v>
       </c>
       <c r="I54" s="3">
-        <v>178758000</v>
+        <v>174992000</v>
       </c>
       <c r="J54" s="3">
-        <v>50404300</v>
+        <v>49342400</v>
       </c>
       <c r="K54" s="3">
         <v>36913500</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13242000</v>
+        <v>12963000</v>
       </c>
       <c r="E57" s="3">
-        <v>12136900</v>
+        <v>11881200</v>
       </c>
       <c r="F57" s="3">
-        <v>12283900</v>
+        <v>12025100</v>
       </c>
       <c r="G57" s="3">
-        <v>12327000</v>
+        <v>12067300</v>
       </c>
       <c r="H57" s="3">
-        <v>13472700</v>
+        <v>13188800</v>
       </c>
       <c r="I57" s="3">
-        <v>11289100</v>
+        <v>11051300</v>
       </c>
       <c r="J57" s="3">
-        <v>9295600</v>
+        <v>9099800</v>
       </c>
       <c r="K57" s="3">
         <v>6954000</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4928500</v>
+        <v>4824700</v>
       </c>
       <c r="E58" s="3">
-        <v>4476100</v>
+        <v>4381800</v>
       </c>
       <c r="F58" s="3">
-        <v>4488800</v>
+        <v>4394200</v>
       </c>
       <c r="G58" s="3">
-        <v>8982600</v>
+        <v>8793400</v>
       </c>
       <c r="H58" s="3">
-        <v>4758700</v>
+        <v>4658500</v>
       </c>
       <c r="I58" s="3">
-        <v>13181200</v>
+        <v>12903500</v>
       </c>
       <c r="J58" s="3">
-        <v>3810800</v>
+        <v>3730500</v>
       </c>
       <c r="K58" s="3">
         <v>2571000</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4454600</v>
+        <v>4360700</v>
       </c>
       <c r="E59" s="3">
-        <v>2579000</v>
+        <v>2524600</v>
       </c>
       <c r="F59" s="3">
-        <v>2842600</v>
+        <v>2782700</v>
       </c>
       <c r="G59" s="3">
-        <v>2544700</v>
+        <v>2491100</v>
       </c>
       <c r="H59" s="3">
-        <v>2462400</v>
+        <v>2410500</v>
       </c>
       <c r="I59" s="3">
-        <v>2684100</v>
+        <v>2627600</v>
       </c>
       <c r="J59" s="3">
-        <v>1918700</v>
+        <v>1878300</v>
       </c>
       <c r="K59" s="3">
         <v>1023700</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22625100</v>
+        <v>22148400</v>
       </c>
       <c r="E60" s="3">
-        <v>19192000</v>
+        <v>18787600</v>
       </c>
       <c r="F60" s="3">
-        <v>19615300</v>
+        <v>19202000</v>
       </c>
       <c r="G60" s="3">
-        <v>23854400</v>
+        <v>23351800</v>
       </c>
       <c r="H60" s="3">
-        <v>20693700</v>
+        <v>20257800</v>
       </c>
       <c r="I60" s="3">
-        <v>19776200</v>
+        <v>19359600</v>
       </c>
       <c r="J60" s="3">
-        <v>15025100</v>
+        <v>14708600</v>
       </c>
       <c r="K60" s="3">
         <v>10548700</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>49077500</v>
+        <v>48043500</v>
       </c>
       <c r="E61" s="3">
-        <v>45199500</v>
+        <v>44247200</v>
       </c>
       <c r="F61" s="3">
-        <v>50599500</v>
+        <v>49533400</v>
       </c>
       <c r="G61" s="3">
-        <v>47909000</v>
+        <v>46899600</v>
       </c>
       <c r="H61" s="3">
-        <v>54853800</v>
+        <v>53698100</v>
       </c>
       <c r="I61" s="3">
-        <v>55795400</v>
+        <v>54619900</v>
       </c>
       <c r="J61" s="3">
-        <v>20895200</v>
+        <v>20455000</v>
       </c>
       <c r="K61" s="3">
         <v>17342300</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26939000</v>
+        <v>26371400</v>
       </c>
       <c r="E62" s="3">
-        <v>24273900</v>
+        <v>23762500</v>
       </c>
       <c r="F62" s="3">
-        <v>24496900</v>
+        <v>23980800</v>
       </c>
       <c r="G62" s="3">
-        <v>25622300</v>
+        <v>25082500</v>
       </c>
       <c r="H62" s="3">
-        <v>26665300</v>
+        <v>26103500</v>
       </c>
       <c r="I62" s="3">
-        <v>26353500</v>
+        <v>25798300</v>
       </c>
       <c r="J62" s="3">
-        <v>3831000</v>
+        <v>3750300</v>
       </c>
       <c r="K62" s="3">
         <v>3128500</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99075000</v>
+        <v>96987600</v>
       </c>
       <c r="E66" s="3">
-        <v>89045600</v>
+        <v>87169500</v>
       </c>
       <c r="F66" s="3">
-        <v>95069000</v>
+        <v>93066100</v>
       </c>
       <c r="G66" s="3">
-        <v>97712600</v>
+        <v>95654000</v>
       </c>
       <c r="H66" s="3">
-        <v>102522000</v>
+        <v>100362000</v>
       </c>
       <c r="I66" s="3">
-        <v>101758000</v>
+        <v>99614000</v>
       </c>
       <c r="J66" s="3">
-        <v>40035300</v>
+        <v>39191800</v>
       </c>
       <c r="K66" s="3">
         <v>31181200</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>99210600</v>
+        <v>97120400</v>
       </c>
       <c r="E72" s="3">
-        <v>96849600</v>
+        <v>94809100</v>
       </c>
       <c r="F72" s="3">
-        <v>94133800</v>
+        <v>92150500</v>
       </c>
       <c r="G72" s="3">
-        <v>91984400</v>
+        <v>90046500</v>
       </c>
       <c r="H72" s="3">
-        <v>89835100</v>
+        <v>87942400</v>
       </c>
       <c r="I72" s="3">
-        <v>130229000</v>
+        <v>127485000</v>
       </c>
       <c r="J72" s="3">
-        <v>9622600</v>
+        <v>9419900</v>
       </c>
       <c r="K72" s="3">
         <v>5047100</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>95513900</v>
+        <v>93501500</v>
       </c>
       <c r="E76" s="3">
-        <v>85037100</v>
+        <v>83245500</v>
       </c>
       <c r="F76" s="3">
-        <v>79425500</v>
+        <v>77752100</v>
       </c>
       <c r="G76" s="3">
-        <v>80983000</v>
+        <v>79276800</v>
       </c>
       <c r="H76" s="3">
-        <v>82937200</v>
+        <v>81189800</v>
       </c>
       <c r="I76" s="3">
-        <v>76999900</v>
+        <v>75377600</v>
       </c>
       <c r="J76" s="3">
-        <v>10369000</v>
+        <v>10150600</v>
       </c>
       <c r="K76" s="3">
         <v>5732300</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8447800</v>
+        <v>8269800</v>
       </c>
       <c r="E81" s="3">
-        <v>8618900</v>
+        <v>8437300</v>
       </c>
       <c r="F81" s="3">
-        <v>8110700</v>
+        <v>7939800</v>
       </c>
       <c r="G81" s="3">
-        <v>7228700</v>
+        <v>7076400</v>
       </c>
       <c r="H81" s="3">
-        <v>7644400</v>
+        <v>7483300</v>
       </c>
       <c r="I81" s="3">
-        <v>47504700</v>
+        <v>46503900</v>
       </c>
       <c r="J81" s="3">
-        <v>5890400</v>
+        <v>5766300</v>
       </c>
       <c r="K81" s="3">
         <v>5024900</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1653800</v>
+        <v>1619000</v>
       </c>
       <c r="E83" s="3">
-        <v>1363600</v>
+        <v>1334900</v>
       </c>
       <c r="F83" s="3">
-        <v>1646200</v>
+        <v>1611500</v>
       </c>
       <c r="G83" s="3">
-        <v>1836300</v>
+        <v>1797600</v>
       </c>
       <c r="H83" s="3">
-        <v>1254600</v>
+        <v>1228200</v>
       </c>
       <c r="I83" s="3">
-        <v>1035400</v>
+        <v>1013600</v>
       </c>
       <c r="J83" s="3">
-        <v>769300</v>
+        <v>753000</v>
       </c>
       <c r="K83" s="3">
         <v>501300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>12705900</v>
+        <v>12438300</v>
       </c>
       <c r="E89" s="3">
-        <v>12314400</v>
+        <v>12054900</v>
       </c>
       <c r="F89" s="3">
-        <v>12401800</v>
+        <v>12140500</v>
       </c>
       <c r="G89" s="3">
-        <v>11400600</v>
+        <v>11160400</v>
       </c>
       <c r="H89" s="3">
-        <v>13046900</v>
+        <v>12772000</v>
       </c>
       <c r="I89" s="3">
-        <v>6776300</v>
+        <v>6633500</v>
       </c>
       <c r="J89" s="3">
-        <v>5842300</v>
+        <v>5719200</v>
       </c>
       <c r="K89" s="3">
         <v>5528500</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-662800</v>
+        <v>-648800</v>
       </c>
       <c r="E91" s="3">
-        <v>-667900</v>
+        <v>-653800</v>
       </c>
       <c r="F91" s="3">
-        <v>-647600</v>
+        <v>-633900</v>
       </c>
       <c r="G91" s="3">
-        <v>-841500</v>
+        <v>-823800</v>
       </c>
       <c r="H91" s="3">
-        <v>-960600</v>
+        <v>-940400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1002400</v>
+        <v>-981300</v>
       </c>
       <c r="J91" s="3">
-        <v>-742600</v>
+        <v>-727000</v>
       </c>
       <c r="K91" s="3">
         <v>-565700</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-893400</v>
+        <v>-874600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1444700</v>
+        <v>-1414300</v>
       </c>
       <c r="F94" s="3">
-        <v>-992300</v>
+        <v>-971400</v>
       </c>
       <c r="G94" s="3">
-        <v>-809800</v>
+        <v>-792700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1293900</v>
+        <v>-1266700</v>
       </c>
       <c r="I94" s="3">
-        <v>-23500800</v>
+        <v>-23005700</v>
       </c>
       <c r="J94" s="3">
-        <v>-811100</v>
+        <v>-794000</v>
       </c>
       <c r="K94" s="3">
         <v>-4674700</v>
@@ -3998,25 +3998,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6228800</v>
+        <v>-6097500</v>
       </c>
       <c r="E96" s="3">
-        <v>-6214800</v>
+        <v>-6083900</v>
       </c>
       <c r="F96" s="3">
-        <v>-6013300</v>
+        <v>-5886600</v>
       </c>
       <c r="G96" s="3">
-        <v>-5827000</v>
+        <v>-5704300</v>
       </c>
       <c r="H96" s="3">
-        <v>-5509000</v>
+        <v>-5392900</v>
       </c>
       <c r="I96" s="3">
-        <v>-4391200</v>
+        <v>-4298700</v>
       </c>
       <c r="J96" s="3">
-        <v>-3687800</v>
+        <v>-3610100</v>
       </c>
       <c r="K96" s="3">
         <v>-3244500</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-11251100</v>
+        <v>-11014000</v>
       </c>
       <c r="E100" s="3">
-        <v>-11087600</v>
+        <v>-10854000</v>
       </c>
       <c r="F100" s="3">
-        <v>-10007900</v>
+        <v>-9797000</v>
       </c>
       <c r="G100" s="3">
-        <v>-10889900</v>
+        <v>-10660500</v>
       </c>
       <c r="H100" s="3">
-        <v>-12204100</v>
+        <v>-11947000</v>
       </c>
       <c r="I100" s="3">
-        <v>18704100</v>
+        <v>18310000</v>
       </c>
       <c r="J100" s="3">
-        <v>-5359400</v>
+        <v>-5246500</v>
       </c>
       <c r="K100" s="3">
         <v>-256500</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>546200</v>
+        <v>534700</v>
       </c>
       <c r="E101" s="3">
-        <v>-320600</v>
+        <v>-313900</v>
       </c>
       <c r="F101" s="3">
-        <v>-320600</v>
+        <v>-313900</v>
       </c>
       <c r="G101" s="3">
-        <v>-72200</v>
+        <v>-70700</v>
       </c>
       <c r="H101" s="3">
-        <v>-174900</v>
+        <v>-171200</v>
       </c>
       <c r="I101" s="3">
-        <v>-495500</v>
+        <v>-485100</v>
       </c>
       <c r="J101" s="3">
-        <v>228100</v>
+        <v>223300</v>
       </c>
       <c r="K101" s="3">
         <v>-318600</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1107600</v>
+        <v>1084300</v>
       </c>
       <c r="E102" s="3">
-        <v>-538600</v>
+        <v>-527300</v>
       </c>
       <c r="F102" s="3">
-        <v>1081000</v>
+        <v>1058200</v>
       </c>
       <c r="G102" s="3">
-        <v>-371300</v>
+        <v>-363500</v>
       </c>
       <c r="H102" s="3">
-        <v>-626000</v>
+        <v>-612900</v>
       </c>
       <c r="I102" s="3">
-        <v>1484000</v>
+        <v>1452700</v>
       </c>
       <c r="J102" s="3">
-        <v>-100100</v>
+        <v>-98000</v>
       </c>
       <c r="K102" s="3">
         <v>278800</v>
